--- a/기사데이터/토스/엑셀파일/news(토스, 2022.07.01~2022.07.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.07.01~2022.07.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>이복현 "여전사 자금조달 여건 악화…무리한 영업 확장 자제하라"</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004767088?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[(상보)여전사 모든 PF 대출 사업성평가 등 기업대출 실태 점검](서울=뉴스1) 이광호 기자 = 이복현 금융감독원장(사진 오른쪽에서 두번째)이 5일 오전 서울 중구 여신금융협회에서 열린 여신전문금융회사 최고경영자(CEO)들과의 간담회에서 모두발언을 하고 있다. 2022.7.5/뉴스1   이복현 금융감독원장이 여신전문금융회사 CEO(최고경영자)들에 강도높은 유동성 리스크 관리를 주문했다. 최근 기준금리 인상과 스태그플레이션(물가 상승 속 경기침체) 우려 등에 따른 금융시장 변동성 확대로 여전사 자금조달 상황이 악화하고 있어서다. 또 여전업권의 모든 PF(프로젝트 파이낸싱) 대출에 대한 사업성평가 등 기업대출 실태를 점검하겠다고 예고했다.이 원장은 5일 서울 중구 여신금융협회에서 취임 후 처음으로 카드사와 캐피탈사 등 여전사 CEO들과 간담회를 가졌다.이 원장은 이 자리에서 "지난 6월 이후 여전채 스프레드가 2020년 유동성 위기 당시 최고점 92bp(0.92%p)을 상회하면서 자금조달 여건이 더욱 악화하고 있다"며 "(여전사들이) 자체적으로 보수적인 상황을 가정해 유동성 스트레스테스트를 실시하고, 비상자금 조달계획도 다시 한번 점검해 주기 바란다"고 말했다.실제 지난 1일 기준 여전채 스프레드(신용등급 AA-, 3년 만기 기준)는 116bp로 집계됐다. 여전채 순발행 규모는 4월 2조4000억원에서 5월 1조5000억원으로 줄더니, 지난달에는 3000억원 마이너스를 기록했다.여전업권에선 최근 자금조달 환경이 악화하자 코로나19(COVID-19) 사태 초기 때와 같은 유동성 위기가 현실화하는 것 아니냔 우려가 제기된다. 앞서 증권사들은 코로나19 발생 초기인 2020년 3월 세계증시가 폭락하자 ELS(주가연계증권) 마진콜(추가 증거금 납부 요구) 사태로 여전채를 대량 처분했고, 여전사들은 유동성 위기를 겪었다. 이후 금융당국이 채권시장안정펀드와 P-CBO(프라이머리 채권담보부증권)를 통해 여전채를 매입해 시장을 안정시킨 바 있다.이 원장은 여전사에 충분한 유동성 확보와 함께 무리한 영업 자제령을 내렸다. 그는 "추가적인 대출처 확충이나 대주주 지원방안 확보 등을 통해 만기도래 부채를 자체적으로 상환할 수 있도록 충분한 규모의 유동성 확보가 필요하다"며 "단기 수익성 확보를 위한 무리한 영업 확장이나 고위험 자산 확대는 자제해 달라"고 했다.이 원장은 또 여전사 기업대출이 부동산 등 특정 업종에 편중돼있다는 점을 지적하며 실태점검에 나서겠다고 밝혔다. 지난해 말 기준 여전사의 부동산·건설업 대출금액은 35조원으로, 2018년 말(14조6000억원) 대비 3년새 20조4000억원 급증했다. 최근 부동산 가격하락 전망이 나오는 까닭에 관련 대출을 주기적으로 점검할 필요가 있다는 게 이 원장의 생각이다.이 원장은 "여전사 스스로 기업여신 심사와 사후관리를 강화하고, 시장상황 악화에 대비해 대손충당금 추가 적립에도 힘써달라"며 "금감원은 모든 PF대출에 대한 사업성평가를 실시하는 등 기업대출 실태를 점검하고, 그 결과를 바탕으로 업계와 '기업여신 심사 및 사후관리 모범규준'을 마련할 계획"이라고 설명했다.가계대출과 관련해선 상환능력 중심의 관리와 함께 취약차주 지원 병행을 당부했다. 그는 "취약차주에 대한 고금리 대출 취급시 차주의 상환능력에 맞는 대출취급 관행이 정착될 수 있도록 관심을 가져주기 바란다"며 "손실흡수능력 확충을 위해 미래전망을 보수적으로 설정해 대손충당금을 충분히 적립할 필요가 있다"고 했다.아울러 이 원장은 최근 이용금액이 증가한 결제성 리볼빙 관련 대책으로 △리볼빙 설명서 신설 △취약차주 가입시 해피콜 실시 △금리산정내역 안내 △금리 공시주기 단축 등의 개선방안을 마련 중이라고 밝혔다.한편 여전사 CEO들은 이날 간담회에서 빅테크와의 규제차이, 토스뱅크의 카드론 대환대출 출시에 따른 영업환경 악화 우려 목소리를 이 원장에 전달했다.이에 대해 이 원장은 간담회 후 기자들과 만나 "빅테크의 (금융업) 진출로 시장여건이 변하는 것과 관련해 여전업권의 요구도 있고, 저 개인적으로도 공정한 경쟁과 투명성을 확보하기 위한 제도개선이 필요하단 입장이어서 (김주현) 금융위원장 내정자께 건의를 드릴 예정"이라며 "공정한 경쟁환경 조성을 위해 여전업 제도개선 TF(태스크포스)에서 다같이 살펴보겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.07.09.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>앱테크 '쏠쏠하네'… "티끌 모아 치킨 사먹자"</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000830748?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>[머니S리포트-고물가 시대 똑소리 나는 짠테크②] "한 푼이라도 더" 걷고 안전운전 하면 '쨍그랑' 쌓인다[편집자주]고유가·고물가·고금리 등 이른바 3고 시대 속 '현대판 자린고비'가 뜨고 있다. 몇 년 전까지만 해도 '플렉스'(재력이나 귀중품 등을 과시하는 행위), '욜로'(인생은 한 번뿐)가 소비 트렌드를 이끌었지만 물가가 천정부지로 치솟자 돈을 쓰는 것보다 아끼는 것에 주목하는 이들이 늘고 있다. 피 같은 한 푼을 아끼기 위해선 금융상품이나 서비스를 똑똑하게 골라 적재적소에 활용하는 것만으로도 도움이 될 수 있다. 고물가 시대 생존을 위한  '짠테크'(짠돌이·짠순이+재태크) 방법을 소개한다.치솟는 물가에 장바구니 부담이 커지면서 '앱테크'(애플리케이션+재테크)가 뜨고 있다. 걷거나 생활 속 습관을 개선하는 것만으로도 잔돈을 모을 수 있어 의외의 부수입을 벌고자 하는 이들에게 인기를 끌고 있다./사진=이미지투데이 ◆기사 게재 순서① "유류세 내려도 주유소 가기 겁나네" 기름값 아끼는 알짜카드는?② 앱테크 '쏠쏠하네'… "티끌 모아 치킨 사먹자"③ 취업·승진하면 금리를 낮출 수 있다고?#. 직장인 김수진(29)씨는 최근 점심시간에 회사 근처 공원을 걷고 있다. 신종 코로나바이러스 감염증(코로나19) 장기화 속 배달음식에 빠져있던 사이 체중이 3kg이나 늘었기 때문이다. 김씨가 다이어트와의 전쟁을 선포하면서 가장 먼저 한 일은 배달음식 앱을 삭제하고 만보기 앱을 설치한 것. 매일매일 걸음 수를 기록할 수 있는 데다 걸음수에 따라 잔돈이 쌓여 '일석이조'라는 생각이 들었다. 김 씨는 "걸으면서 건강도 챙기고 큰 금액은 아니지만 돈을 벌 수 있어 매일 걸음수를 채우는 재미가 쏠쏠하다"고 말했다.치솟는 물가에 장바구니 부담이 커지면서 '앱테크'(애플리케이션+재테크)가 뜨고 있다. 걷거나 생활 속 습관을 개선하는 것만으로도 잔돈을 모을 수 있어 의외의 부수입을 벌고자 하는 이들에게 인기를 끌고 있다.━'현대판 자린고비' 뜬다… "걷기만 해도 돈이 쌓이네"━지갑 열기가 무서운 고물가 시대 속 생존법 중 하나로 '앱테크'가 인기를 끌고 있다. 앱 이용자는 일상생활 속에서 용돈을 벌 수 있고 금융사들은 앱테크 콘텐츠를 통해 고객과의 접점을 확대할 수 있다는 평가다.가장 대표적인 건 걸음수에 따라 보상을 제공하는 '만보기' 기능이다. 가장 잘 알려진 건 토스의 만보기 기능이다. 토스 만보기는 사용자 휴대폰에서 측정된 걸음 수와 위치 정보로 보상을 주는 시스템으로 1000걸음, 5000걸음을 완료하면 각각 10원씩 얻을 수 있으며 1만 걸음을 완료하면 20원을 받을 수 있다.토스에서 지정해주는 장소에 가면 하루 최대 140원까지 모을 수 있다. 재미 요소도 더했다. 걸음수에 따라 소모한 열량, 또래 평균 걸음수도 확인이 가능하며 토스는 앱에 '만보기 오픈채팅방'을 만들어 이용자 사이 커뮤니티 기능도 추가했다.하지만 뭐니 뭐니해도 쌓인 금액을 바로 사용할 수 있는 게 최대 강점이다. 토스 앱을 이용해 출금하거나 기프티콘을 구매해 사용할 수도 있다. 아울러 토스페이의 7000여 개 가맹점에서 활용할 수 있다는 점 역시 매력적이다.웰컴저축은행도 지난달 헬스케어 서비스 '웰뱅워킹'을 선보였다. 누적 걸음수가 5만보 이상일 경우 리워드를 수수료 없이 고객의 계좌로 바로 현금 지급하는 방식이다. 리워드는 5만보씩 총 20만보까지 4개의 구간에 나뉘어 지급된다. 각 구간을 달성할 때마다 500원이 지급되며 10만보가 초과되면 구간마다 500원이 추가로 지급된다. 한 달 동안 20만보 이상을 걸으면 최대 3000원이 쌓인다.삼성 금융사들 역시 삼성금융네트웍스의 통합 앱 '모니모'에 이 같은 기능을 추가했다. 모니모 이용자는 걸음수에 따라 리워드 '젤리'를 받아 '모니머니'로 교환해 사용할 수 있다. '모니머니'는 보험가입, 송금, 펀드투자 등에 현금처럼 사용할 수 있다.삼성금융 관계자는 "삼성금융네트웍스의 첫번째 서비스인 모니모를 통해 일상적인 송금이나 걷기 활동만으로도 이용자들에게 혜택을 드리고자 했다"고 설명했다. 시간을 내 걷는 것과 함께 일상 속 작은 습관을 바꾸는 것으로도 '앱테크족'을 위한 첫 걸음을 뗄 수 있다. 먼저 무심코 버리는 영수증을 챙기는 것만으로도 잔돈을 모을 수 있다./사진=이미지투데이 ━"버린 영수증도 다시보자"… 일상 습관만 바꿔도 쏠쏠 ━시간을 내 걷는 것과 함께 일상 속 작은 습관을 바꾸는 것으로도 '앱테크족'을 위한 첫 걸음을 뗄 수 있다. 먼저 무심코 버리는 영수증을 챙기는 것만으로도 잔돈을 모을 수 있다.네이버는 '마이플레이스 영수증 리뷰' 서비스를 선보이고 있다. 이용자가 오프라인 상점을 방문한 뒤 영수증 사진과 함께 방문 후기를 올리면 네이버가 포인트를 제공하는 식이다. 첫 방문한 가게는 50원, 재방문이라면 10원을 지급한다. 앱테크 족의 호응에 해당 서비스는 2019년 개시 이후 약 1년 만에 이용 건수가 1억건을 넘어서기도 했다.평소보다 조금 더 신경 써 운전할 경우 포인트를 챙길 수 있는 점도 눈여겨볼 만 하다. 삼성화재는 앱에서 '착!한드라이브' 서비스를 선보이고 있다. 차량 주행 정보를 바탕으로 산출된 안전운전 점수를 확인하고 점수에 따라 포인트를 지급하는 식이다.안전운전에 따른 포인트는 1회 최대 100포인트, 월 최대 5000포인트까지 적립된다. 급가속, 급감속, 급회전 등의 횟수 측정도 가능해 주행 문제점도 확인할 수 있다. 포인트는 보험료를 납입하거나 모바일 쿠폰 구입 혹은 기부에 사용할 수 있다.삼성화재 관계자는 "1인1스마트폰 시대에 앱은 소비자와 밀접한 관계를 형성할 수 있는 중요한 채널"이라며 "앱을 통해 고객이 필요로 하는 콘텐츠를 제공해 소비자 접점을 확대할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>휴가철 관광객 몰리는 유럽… 2주간 코로나 확진 30% 급증</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003712833?sid=104</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>사진=AP연합뉴스    여름 휴가철을 계기로 사람이 몰리는 유럽이 코로나19 재유행의 중심으로 떠올랐다.   블룸버그통신에 따르면 마이클 라이언 WHO 비상대책본부장은 6일(현지시간) 언론 브리핑에서 “코로나19가 유럽을 다시 강하게 강타하고 있다”며 “유럽에서 일어나는 일을 곧 동남아시아를 포함한 다른 지역에서도 보게 될 것”이라고 했다.   WHO는 지난 2주간 전 세계적으로 코로나19 확진자 수가 30% 증가했다고 밝혔다. 유럽과 미국에서 오미크론 하위 변이 BA.4와 BA.5가 확산하며 증가세를 견인한 결과다.   라이언 본부장은 “야외에서 전파력이 떨어지는 데도 확진자가 늘어난 것은 대형 콘서트나 여행 등이 늘어났기 때문”이라며 “다만 백신 효과로 아직 중증 환자가 급증하거나 사망률이 심각하게 늘고 있진 않다”고 설명했다.   관광객들이 몰리는 그리스, 스페인, 프랑스, 독일 등에서 코로나19 증가세가 뚜렷한 모습이다. 전날 그리스의 일일 신규 확진자는 1만9303명을 기록했는데 이는 전주 대비 3배 이상 늘어난 규모다. 동시에 일일 확진자 중 4061명은 재감염된 것으로 추정된다. 그리스 보건당국은 18~24세에서 감염이 집중되고 있고, 지난 몇 주간 코르푸, 케팔로니아, 자킨토스 섬 등 휴양지로 유명한 섬에서 신규 감염자가 늘고 있다고 밝혔다.   스페인도 영국, 독일 등 서유럽인들이 관광지로 선호하는 마요르카, 이비자, 메노르카 섬 등에서 코로나19 바이러스가 확산하고 있다. 지난 5일 기준 스페인에서 7일 평균 신규 확진자는 2만2281명으로 지난달 초 대비 두 배가량 늘었다. 마요르카 섬 내 가장 큰 병원인 손에스파스의 안토니오 올리버 감염병 전문의는 현재 확진자의 80%가 오미크론 세부계통 하위 변이인 BA.5라고 설명했다.   5일 기준 프랑스와 독일의 7일간 평균 확진자 수는 각각 11만7627명, 8만9289명을 기록했다. 프랑스는 2주 만에 확진자 규모가 80% 늘었고, 독일은 중환자실 환자 수가 12% 증가했다. 칼 라우터바흐 독일 보건부 장관은 “매우 심각한 변이 바이러스가 휴가객과 함께 오는 가을에 돌아올 수 있어 대비가 필요하다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>채권 쓸어 담고, 초단기예금 오픈런… 외국인·개미 ‘안전자산 대이동’</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003286418?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>금리인상기 ‘역머니무브’ 가속화케이뱅크 100일 예금 10분 새 완판저축은행, 연 6% 정기적금도 출시1분기 예금, 전년 대비 0.8%P 늘어6월 3년물 국고채 금리 0.01%P↑외국인 국내 채권 보유 사상 최고“삐삐삐삐.”11일 오전 9시 57분 알람 소리에 맞춰 휴대폰을 켠 김성훈(31·가명)씨는 케이뱅크 앱에서 ‘코드K 정기예금’ 상품을 찾아 이벤트 코드를 받은 뒤 가입 버튼을 눌렀다. 이미 토스뱅크 통장(연 2.0%)에 넣어 뒀던 돈을 케이뱅크로 이체해 둔 터라 지체 없이 가입이 가능했다. 김씨는 “100일만 가입하면 연 3.0%의 이자를 주는 초단기 예금이라 향후 금리가 더 오르더라도 다른 상품으로 갈아타는 데 부담이 없어 가입을 서둘렀다”고 말했다.미국의 금리 인상과 긴축 정책으로 주가가 빠지고 가상자산(암호화폐) 시장마저 흔들리자 은행 예적금 등 안전자산으로 자본이 몰리는 ‘역머니무브’가 가속화되고 있다. 시장금리가 오르면서 시중은행들이 앞다퉈 고금리 예적금 상품을 내놓자 소비자들의 ‘오픈런’도 심심찮게 일어나는 중이다. 케이뱅크가 이날 오전 10시 1000억원 한도로 내놓은 100일 예금 상품은 10분 만에 완판됐다. 단기 예금 상품에 대한 수요는 향후 더 높은 금리의 예적금 상품이 나올 가능성을 대비한 것으로 분석된다. 한국투자저축은행은 이날 연 6.0%(월 최대 20만원·6개월 만기) 금리를 제공하는 ‘FLEX 정기적금’을 13일 출시한다고 밝히는 등 경쟁이 가열되고 있다.시중은행에 쌓인 예적금 잔액은 자연히 증가세를 보이고 있다. 지난달 말 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 예적금 잔액은 722조 5602억원으로 지난해 말에 비해 32조 5236억원이나 늘었다. 지난 6일 한국은행이 발표한 1분기 자금순환(잠정)에 따르면 가계의 금융자산에서 1분기 예금의 비중은 41.8%로 지난해 말 41.1%에서 0.8% 포인트 증가했다. 반면 국내·해외 주식의 비중은 같은 기간 20.8%에서 20.1%로 줄어든 모습을 보였다.채권 시장도 심상치 않다. 미 긴축과 한국은행의 빅스텝(한 번에 기준금리 0.5% 포인트 인상) 가능성으로 지난달 국내 채권 금리가 큰 폭으로 올라 외국인의 국내 채권 보유 잔고가 사상 최고치를 경신했다. 금융투자협회가 이날 발표한 ‘6월 장외채권시장 동향’에 따르면 지난달 말 국고채 금리는 3년물 기준 연 3.550%로 전월 대비 52.3bp(bp=0.01% 포인트) 올랐다. 외국인 순매수 규모는 총 11조 4000억원이었다. 국내 채권 보유 잔고는 전월(225조 8301억원) 대비 3조 5000억원 증가한 229조 3505억원을 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.07.09.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>취업·승진하면 금리를 낮출 수 있다고?</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000830751?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>[머니S리포트-고물가 시대 똑소리 나는 짠테크③] '금리 인하 요구권'으로 대출이자 깎으세요[편집자주]고유가·고물가·고금리 등 이른바 3고 시대 속 '현대판 자린고비'가 뜨고 있다. 몇 년 전까지만 해도 '플렉스'(재력이나 귀중품 등을 과시하는 행위), '욜로'(인생은 한 번뿐)가 소비 트렌드를 이끌었지만 물가가 천정부지로 치솟자 돈을 쓰는 것보다 아끼는 것에 주목하는 이들이 늘고 있다. 피 같은 한 푼을 아끼기 위해선 금융상품이나 서비스를 똑똑하게 골라 적재적소에 활용하는 것만으로도 도움이 될 수 있다. 고물가 시대 생존을 위한  '짠테크'(짠돌이·짠순이+재태크) 방법을 소개한다.금리는 금융 소비자가 대출을 결정할 때 고려하는 기준 중 하나다. 하지만 기준금리 인상으로 이자 부담이 날로 늘고 있어 서민의 상환 부담이 가중되고 있다. 만약 취업, 승진으로 재산이 늘거나 신용등급이 오른 대출자라면 금리 인하 요구권을 행사해 이자 부담을 줄일 수 있다./사진=이미지투데이 ◆기사 게재 순서① "유류세 내려도 주유소 가기 겁나네" 기름값 아끼는 알짜카드는?② 앱테크 '쏠쏠하네'… "티끌 모아 치킨 사먹자"③ 취업·승진하면 금리를 낮출 수 있다고?#. 직장인 이민혁(36)씨는 올해 상반기 인사평가를 통해 승진에 성공했다. 이름 뒤 '과장'이라는 직급을 달게 된 것도 기뻤지만 '금리 인하 요구권'을 통해 대출 이자를 깎을 수 있다는 소식에 반가웠다. 기준금리 인상기를 맞아 예·적금 금리가 오른 건 좋았지만 대출 이자가 덩달아 뛰어 상환 부담이 커지던 차였기 때문이다.금리는 금융 소비자가 대출을 결정할 때 고려하는 기준 중 하나다. 하지만 기준금리 인상으로 이자 부담이 날로 늘고 있어 서민의 상환 부담이 가중되고 있다. 만약 취업, 승진으로 재산이 늘거나 신용등급이 오른 대출자라면 금리 인하 요구권을 행사해 이자 부담을 줄일 수 있다.금리 인하 요구권은 대출을 이용하는 소비자의 신용상태가 개선된 경우 금융사에 금리 인하를 요구할 수 있는 권리를 뜻한다. 2019년 6월 국회와 정부는 소비자의 신용상태가 개선된 경우 금융회사에 금리 인하를 요구할 수 있는 권리를 법제화했다.신청 건수는 2017년 19만7927건, 2018년 35만9611건, 2019년 66만8591건, 2020년 91만519건 등으로 해마다 늘고 있다. 현재 은행, 보험사, 저축은행은 물론 카드사, 상호금융에서도 금리 인하 요구권을 보장하고 있다.금리 인하는 ▲취업·이직 ▲승진 ▲소득 증가 ▲신용등급 상승 ▲자산증가 ▲부채 감소 등으로 대출 이후 신용상태가 개선됐다면 누구나 신청할 수 있다. 신용·담보대출, 개인·기업대출 모두 해당되며 정책자금대출이나 예·적금 담보대출 등 미리 정해진 금리 기준에 따라 취급된 상품은 제외된다.이용 방법은 간단하다. 대출을 받은 금융사 영업점이나 비대면 플랫폼에서 금리 인하를 신청하면 된다. 대출자가 신용상태가 개선된 것을 입증할 수 있는 자료를 제출하면 금융사가 내부기준에 따라 심사하고 10영업일 내에 결과를 안내하는 식이다.고금리 시대 속 차주의 상환 부담을 줄일 수 있다는 점에서 관심을 받고 있지만 여전히 '그림의 떡'이라는 지적도 나온다. 금리 인하 요구권 수용률이 매년 줄어들고 있기 때문이다. 금융위원회에 따르면 은행 등 금융사의 수용률은 2017년 61.8%, 2018년 47.0%, 2019년 42.6%, 2020년 37.1% 등으로 꾸준히 내림세다. 비대면 신청 시 증빙서류 미비 등의 영향이 컸다는 설명이다.소비자 안내와 홍보 강화에 대한 중요성이 커지면서 금융당국은 지난해 말 운영 개선방안을 발표했다. 금리 인하 요구권 적용대상 차주에게 대출 기간 중 연 2회 정기적으로 주요사항을 안내하고 금융업계와 금융위가 협업해 연 1회 정기적으로 '집중 홍보주간'을 운영하도록 했다.각 금융사 역시 금리 인하 요구권 홍보에 나선 상태다. 신한은행은 올해 5월부터 금리 인하 요구권 안내를 기존 연 2회에서 월 1회로 확대했으며 토스뱅크는 신용도가 오른 고객을 평가해 정기적으로 금리 인하 요구권을 안내하고 있다.회사별 통계·운영실적이 공시되지 않아 소비자 불편을 초래한다는 지적이 일자 앞으로 금리 인하 요구 운영 실적도 확인할 수 있다. 오는 8월부터는 회사별 금리 인하 요구권 운영실적 공시가 시행돼 금리 인하 요구권 행사를 고려하고 있는 금융 소비자라면 도움이 될 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, PG업계 최초 ISO 14001 인증 획득</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011279293?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 남정현 기자 = 토스 계열사 토스페이먼츠가 PG업계 최초로 환경경영시스템 국제 표준 ISO 14001 인증을 획득했다고 1일 밝혔다.회사에 따르면 ISO 14001은 국제표준화기구(ISO)가 제정한 환경경영 관련 국제 표준 인증이다. 기업의 환경경영 전반에 걸친 종합 평가를 통해 부여된다. 토스페이먼츠는 높은 수준의 친환경 업무 환경을 구현하기 위해 이번 인증 취득에 도전했다. 회사는 인증심사 당시 ▲친환경 경영 방침과 실천 방안 수립 ▲자원 재활용, 친환경 제품 사용 등 활동 전개 ▲사무용품 사용 현황 측정을 위한 모니터링 시스템 구축 등에서 높은 평가를 받았다고 설명했다.특히 일상에서 탄소 배출을 줄이기 위한 다양한 아이디어가 긍정적인 평가를 받았다고 부연했다. 일례로 토스페이먼츠는 배달 음식을 비롯해 업무 공간에서 발생하는 음식물 쓰레기를 비료로 재생산하거나, 센서조명과 냉난방 중앙 제어 시스템 등을 구축해 에너지를 절감했다.또 페이퍼리스(Paperless) 업무 시스템 구축을 통해 매달 10만 장 규모의 A4 용지가 사용되는 가맹점 계약 절차 대부분을 전자계약으로 전환, 기존 A4 용지 사용량의 98%를 절약했다. 이는 매달 9.8그루의 나무를 심는 것과 같은 효과다.이외에 자율 재택근무 제도, 클라우드 서비스 사용 등 구성원 누구나 효율적인 업무를 진행하면서 동시에 탄소 배출을 줄일 수 있는 환경을 만들었다.김민표 토스페이먼츠 대표는 "현재 기후변화를 비롯한 환경 이슈가 대두되고 있는 만큼, 기업의 지속 가능한 환경 경영 시스템 구축은 중요한 아젠다 중 하나로 자리잡았다"며 "토스페이먼츠는 이번 인증 취득을 계기로 기업의 사회적 책임을 다하기 위한 다양한 노력을 이어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>은행 가계대출 9조 급감할 때 인터넷뱅크 대출은 6조 늘어</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004722043?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>시중은행의 가계대출 잔액이 6개월 연속 줄어든 반면 같은 기간 인터넷전문은행의 대출은 증가세를 보인 것으로 나타났다.8일 은행권에 따르면 지난달 말 기준 카카오뱅크 케이뱅크 토스뱅크 등 인터넷은행의 대출 잔액은 39조7463억원으로 집계됐다. 전달보다 9118억원 늘어난 규모다. 지난해 말(33조4829억원) 이후 6개월간 6조2634억원 급증했다. 은행별로 카카오뱅크 대출이 26조8163억원으로 가장 많았고 케이뱅크(8조7300억원), 토스뱅크(4조2000억원)가 뒤를 이었다.인터넷은행의 대출 잔액은 일부 개인사업자 대출을 제외하면 대부분 가계대출이다. 국민 신한 하나 우리 농협 등 5대 시중은행의 가계대출이 6개월 연속 감소세를 보인 것과 대비된다. 6월 말 기준 5대 시중은행의 가계대출 잔액은 전달보다 1조4094억원 감소한 699조6521억원으로 집계됐다. 6개월 전인 작년 말과 비교하면 반년 새 9조4009억원 급감했다.금리 인상기에 부동산과 주식, 암호화폐 등 자산시장이 하락세를 보이면서 시중은행을 찾는 고신용자들의 대출 수요가 감소한 것이라는 해석이 나온다. 반면 인터넷은행이 집중하고 있는 중·저신용자 대출은 생활비 목적이 많아 자산시장과 상관없이 수요가 유지되는 편이다.인터넷은행들은 지난해에 이어 올해에도 중·저신용자 대출 비중을 늘리기 위해 노력하고 있다. 토스뱅크는 현재 36% 수준인 중금리 대출 비중을 올해 말까지 42% 수준으로 끌어올리겠다는 방침이다. 카카오뱅크와 케이뱅크도 중금리 대출 비중을 25%까지 높일 계획이다.토스뱅크는 지난달 초 고금리 카드론을 저금리 대출로 바꿔주는 서비스를 출시하기도 했다. 카드론 고객 상당수가 중신용자여서 대출 갈아타기 수요가 많을 것으로 예상해서다. 고객 이탈을 우려한 카드업계가 거세게 반발해 잠정 중단됐지만, 이런 서비스를 내놓은 것은 토스뱅크가 처음이어서 업계의 주목을 받았다.지난 2월 토스뱅크가 출시한 개인사업자 대출도 증가세를 보이고 있다. 지난달 말 기준 토스뱅크의 ‘사장님 대출’ 잔액은 5300억원으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>법원 “타다 운전기사, 근로자 아니다”…중노위 판정 뒤집어, 쏘카 1심 승소</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002619405?sid=102</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>중노위, 쏘카를 사용자로 인정하고 계약 해지 부당 해고로 판정법원 “쏘카, 사용자 지위 있다고 보기 어려워”서울행정·가정법원 모습. ⓒ데일리안 DB[데일리안 = 이수일 기자] 차량 호출 서비스 타다 운전기사(타다 드라이버)를 근로자로 볼 수 없다는 법원 판단이 나왔다.서울행정법원 행정3부(유환우 부장판사)는 8일 타다 운영사 VCNC의 모회사였던 쏘카가 “부당해고 구제 재심 판정을 취소하라”며 중앙노동위원회(중노위)를 상대로 낸 소송을 원고 승소로 판결했다.재판부는 “제반 사정 검토한 결과 원고(쏘카)가 사용자의 지위에 있다고 보기 어려워 원고의 청구를 인용한다”고 말했다.중노위가 2020년 7월 타다 운전기사였던 A씨의 신청을 받아들여 쏘카를 사용자로 인정하고 계약 해지를 부당해고로 판정하자, 쏘카는 이에 불복해 소송을 냈다.VCNC는 2019년 7월 차량을 줄이는 것이 불가피하다며 A씨 등 기사 약 70명에게 계약 해지를 통보했는데, A씨는 VCNC의 지휘·감독을 받고 근무하다 일방적으로 해고당했다며 노동위원회에 부당해고 구제를 신청했다.이후 서울지방노동위원회는 A씨의 신청을 ‘각하’ 판정했지만 상급 기관인 중노위는 A씨의 신청을 받아들여 쏘카의 통보가 부당해고에 해당한다고 판정했다.타다 드라이버 비상대책위원회(비대위)는 법원 앞에서 기자회견을 열어 "타다 드라이버가 근로자라는 주장의 근거가 굉장히 많은데도 법원이 쏘카의 주장을 받아들였다"며 아쉬움을 드러냈다.일각에선 이번 판결이 타다 운전기사들을 노동자로 볼 것인지를 두고 법원이 내린 첫 판결인 만큼, 앞으로 타다 운전기사들의 계약 해지를 두고 법정 공방이 가열될 것으로 내다봤다.현재 비대위는 타다 운전기사들의 근로자 지위를 확인해달라며 쏘카와 VCNC를 상대로 민사 소송을 제기해 현재 서울동부지법에서 1심이 진행 중이다.쏘카는 자체 보유했던 VCNC의 지분 100% 가운데 60%를 지난해 모바일 금융 플랫폼 토스의 운영사 비바리퍼블리카에 매각했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>무신사 토스 쿠팡도…클라우드 기반 인재관리 도입</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004988418?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>직원수 급증에 해외진출 늘며삼성처럼 인력관리 정밀해져워크데이 등 외국계SW 도입 국내 스타트업들이 클라우드 기반 인적자원(HR) 관리 시스템을 경쟁적으로 도입하고 있다. 빅데이터를 바탕으로 인재 채용과 인사 관리를 하기 위해 클라우드 컴퓨팅 환경에서 운영되는 '서비스형 소프트웨어(사스·SaaS)'를 채택하고 있는 것이다. 몇 년 전만 해도 국내에선 삼성전자와 SK하이닉스와 같은 대기업의 전유물로 여겨진 클라우드 기반 HR시스템을 스타트업이 이용하기 시작한 것이다. 회사가 급성장하며 젊은 인재들이 몰리면서다. 이런 사스는 워크데이, SAP, 오라클 등 글로벌 소프트웨어(SW) 기업이 주도하고 있다.7일 정보기술(IT)업계에 따르면, 온라인 패션 플랫폼 무신사는 올해 초 워크데이의 HR시스템 채택을 결정하고 오는 4분기 가동한다. 무신사는 작년 여성 패션플랫폼인 스타일쉐어와 29CM를 인수하면서 사업을 확장했는데, 직원 수가 1000여명으로 2년 전보다 2배 이상 늘었다. 지난 5월부터는 원하는 시간에 출근해 8시간 근무 후 퇴근하는 자율출근제와 매월 마지막 주 금요일은 4시간만 일하는 '얼리프라이데이'도 시행하고 있다. 이처럼 회사 규모가 커지고 일하는 방식을 유연하게 바꾸면서 HR부서뿐 아니라 모든 직원이 매일 이용하는 HR 시스템 필요성이 커졌다. 이를 위해 워크데이를 통해 근무시간·성과 관리, 복리후생, 커리어 개발 등 다양한 인사관리 데이터를 통합해 하나의 플랫폼에서 제공한다는 계획이다.  쿠팡과 토스(비바리퍼블리카)도 같은 이유로 워크데이를 도입했다. 토스 관계자는 "토스에선 팀원에 대한 동료들의 평가를 계속 수렴한다"며 "직원들은 스마트폰으로 인사 관련 데이터를 찾아 볼 수 있는데, 회사의 핵심 가치인 투명성과 맞닿아 있다"고 말했다. AI 교육 솔루션을 개발하는 스타트업 뤼이드도 워크데이 도입을 추진하고 있는 것으로 전해졌다.국내 스타트업이 해외 진출에 적극적인 것도 클라우드 기반의 사스 선호에 한몫하고 있다. 해외에서 창업하거나 한국에 있는 본사를 미국 등 해외로 이전하는(플립) 국내 스타트업도 늘고 있다. 이렇다 보니 해외에서 인재를 유치하고 관리하려면 외국인에게도 친숙한 글로벌 HR 소프트웨어가 유리하다고 판단하는 것이다. 실제로 쿠팡은 싱가포르에 법인을 세우고 동남아 공략을 준비하고 있다. 무신사는 작년 일본에 법인을 설립했고, 올해부터 무신사 스토어의 글로벌 진출을 추진하고 있다. 토스는 인도네시아, 베트남, 태국을 비롯한 동남아에 진출했다.  IT업계에 따르면 포춘 선정 500대 기업 중 약 70%가 워크데이, SAP, 오라클 등의 클라우드 기반 HR 사스를 이용하고 있다. 이 중 절반은 워크데이를 쓰고 있다. 사업이 번창한 해외 스타트업도 마찬가지다. 동남아 최대 모빌리티 플랫폼 그랩은 워크데이를 이용하면서 동남아 8개국에 흩어져 있는 8000명이 넘는 직원들의 채용부터 퇴사까지 일련의 인사 데이터를 축적하고, 이를 활용해 조직 개편, 비용 산정 등 경영 전략을 짠다. 매일 수천개의 이메일 더미에 파묻혀 20단계 이상을 거쳐야했던 인사관리 업무를 단일 플랫폼에서 서너번의 마우스 클릭으로 해결하고, 직원들의 근무시간 트래킹과 급여 지급을 자동화했다는 게 그랩 측 설명이다. 유럽의 원조 유니콘 딜리버리히어로를 비롯해, 미국 대표 유니콘인 에어비앤비와 슬랙 등도 워크데이를 도입했다. 국내 스타트업이 클라우드 환경에서 회사를 세우고 키워온 '클라우드 네이티브'인 것도 영향을 미쳤다. 쿠팡과 토스, 무신사 등 상당수의 국내 스타트업이 아마존웹서비스(AWS) 등 글로벌 클라우드 업체의 고객사다. 무신사 관계자는 "올해 최고기술책임자(CTO)를 선임하면서 서비스뿐 아니라 회사가 활용하는 기술도 글로벌 스탠더드에 준해야 한다는 방침이 생겼다"고 말했다.다만 국내 SW기업의 역량을 높여야 한다는 지적도 나오고 있다. IT업계 관계자는 "해외에서 인정 받는 토종 기업용 소프트웨어가 부족한 게 현실"며 "자칫 클라우드처럼 해외 테크 기업에 국내 사스 시장도 내주는 상황이 벌어질 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>[I2F 2022] "MZ세대를 위한 대체투자 방법"…제 2회 아이뉴스24 금융포럼 개최</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000683784?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>이날(7일) 오후 2시10분, 을지로 은행연합회관글로벌 경기침체 우려로 국내외 증시가 큰 폭의 변동성을 보이는 가운데, 아이뉴스24가 MZ세대를 위한 다양한 대체투자 방법을 제시한다.올해로 창간 22주년을 맞은 아이뉴스24는 이날(7일) 오후 2시10분 전국은행연합회 은행회관 국제회의실에서 'MZ세대 대체투자'를 주제로 금융포럼을 개최한다.이번 금융포럼에선 새로운 시대의 주역으로 떠오르고 있는 MZ세대를 위해 전문가들의 다양한 투자방법과 자산관리 노하우 등을 공유한다.최근 지속되고 있는 변동성 장세를 이겨내기 위한 다양한 해외주식 투자 방법과 인공지능(AI)을 활용한 간접투자, 가상자산 투자, 미술품 등에 투자하는 아트테크(아트+재테크) 등에 대한 전문가들의 투자 노하우를 공개한다. 또한 MZ세대의 안정적인 노후보장을 위한 보험 전략, 생애전반에 걸친 자산관리와 투자방법 등에 대해서도 살펴본다.아이뉴스24가 이날(7일) 'MZ세대의 대체투자'라는 주제로 제 2회 금융포럼을 개최한다. [사진=조은수 기자]박동석 아이뉴스24 사장은 개회사를 통해 "최근 지속하고 있는 변동성 장세를 이겨 내기 위한 다양한 해외주식 투자를 시작으로 4차 산업 시대의 대표적인 기술인 인공지능(AI)을 활용한 간접투자에 대해 관련 전문가들을 초청해 자세한 이야기를 들어보려 한다"며 "미래 자산 시장의 핵심으로 꼽히고 있는 가상자산과 미술품 등에 투자하는 아트테크에 대해서도 다양한 정보를 전달해 MZ세대가 현명한 투자를 할 수 있도록 돕는 시간을 준비했다"고 말했다.이어 "아이뉴스24에서 준비한 제2회 금융포럼이 투자 시장의 어제와 오늘 그리고 미래를 살펴, 현명한 투자를 고민하고 준비하는 MZ세대가 보다 나은 미래를 준비하는 데 도움이 될 수 있길 소망한다"고 했다.이번 포럼에선 이상근 콴텍 대표이사, 김철민 삼성증권 글로벌주식팀 수석, 김상성 삼성화재 강남SF지점장, 주송현 아트투게더 AT문화예술아카데미 원장, 최화인 블록체인 에반젤리스트 겸 야놀자 사외이사, 서상원 우리은행 자산관리컨설팅센터 팀장 등이 참석해 MZ세대를 위한 재테크 노하우를 공유할 예정이다.'제2회 아이뉴스24 금융포럼'은 아이뉴스24와 한국FPSB가 공동주관하며, 은행연합회와 금융투자협회, 손해보험협회가 후원한다. 이날 오후 2시 10분, 서울시 중구에 위치한 은행연합회 국제회의장에서 열린다.이번 포럼에선 홍성국 국회의원, 김용환 한국FPSB회장, 홍민택 토스뱅크 대표가 축사에 나선다. 포럼 관련 자세한 사항은 아이뉴스24 제 2회 금융포럼 홈페이지에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, ISO 14001 인증 획득</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000682381?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>ISO 제정 환경경영 관련 국제 표준 인증토스페이먼츠는 전자지급결제대행사(PG) 최초로 환경 경영 시스템 국제 표준 'ISO 14001' 인증을 획득했다고 1일 밝혔다.토스페이먼츠 로고. [사진=토스]ISO 14001은 국제표준화기구(ISO)가 제정한 환경경영 관련 국제 표준 인증이다. 기업의 환경경영 전반에 걸친 종합 평가를 통해 부여된다.영국표준협회(BSI)의 인증 심사 과정에서 토스페이먼츠는 ▲친환경 경영 방침과 실천 방안 수립 ▲자원 재활용, 친환경 제품 사용 등 활동 전개 ▲사무용품 사용 현황 측정을 위한 모니터링 시스템 구축 등에서 높은 평가를 받은 것으로 나타났다.특히 일상에서 탄소 배출을 줄이기 위한 다양한 아이디어가 긍정적인 평가를 받았다. 예로 토스페이먼츠는 배달 음식을 비롯해 업무 공간에서 발생하는 음식물 쓰레기를 비료로 재생산하거나, 센서조명·냉난방 중앙 제어 시스템 등을 구축해 에너지를 절감했다.또 페이퍼리스 업무 시스템 구축을 통해 매달 10만장 규모의 A4 용지가 사용되는 가맹점 계약 절차 대부분을 전자계약으로 전환해 기존 A4 용지 사용량의 98%를 절약했다. 이는 매달 9.8그루의 나무를 심는 것과 같은 효과다.김민표 토스페이먼츠 대표는 "현재 기후변화를 비롯한 환경 이슈가 대두되고 있는 만큼, 기업의 지속 가능한 환경 경영 시스템 구축은 중요한 아젠다 중 하나로 자리잡았다"며 "토스페이먼츠는 이번 인증 취득을 계기로 기업의 사회적 책임을 다하기 위한 다양한 노력을 이어가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>[업앤다운] '플랫폼 차별화' 치고 나가는 토뱅 vs 정체기 카뱅</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003220297?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   토스뱅크는 원앱 전략으로 서비스를 운영하고 있다. 사진은 토스 앱을 이용 중인 모습    출범한 지 1년이 채 안 된 인터넷전문은행 토스뱅크의 행보 하나하나에 관심이 쏠리고 있다. 깔끔하고 보기 편한 독보적인 플랫폼으로 소비자들의 선택을 받으면서 차근차근 토스뱅크만의 페이스로 성장궤도에 오르고 있는 모습이다.     반면 카카오뱅크는 침체기라는 얘기가 나온다. 시중은행도 들여다보는 혁신 플랫폼에서 시작했지만, 최근 주가 부진으로 힘든 시간을 겪으면서 카카오뱅크만의 '혁신성' '차별성'은 등지고 주가 부양에만 힘쓰고 있다는 비판도 있다.      -    월간 이용자 1위로…공격적인 토뱅   12일 빅데이터 분석 플랫폼 모바일인덱스에 따르면 지난달 기준 토스의 월간활성이용자(MAU)는 1427만3960명이었다. 카카오뱅크의 경우 1315만4186명으로, 토스와 112만명 가까이 차이가 났다. 지난 5월 기준으로는 토스의 MAU는 1371만4908명, 카카오뱅크는 1274만6810명이었다.     토스의 경우 지난 4월부터 꾸준히 MAU가 가파르게 증가하면서 카카오뱅크를 추월하기 시작했다. 이후 지난달에는 뱅킹 서비스 부문 1위에 올랐다.     더 중요한 것은 두 앱을 모두 사용하는 사용자들이 카카오뱅크보다 토스에 더 많이 접속한다는 것이다.       모바일인덱스에 따르면 두 앱의 교차 사용자는 567만명이었다. 이들의 1인당 월평균 사용 시간은 토스가 2시간, 카카오뱅크가 24분 수준이었다. 월평균 사용일수는 토스가 14일, 카카오뱅크가 11일이었다.     두 앱은 엎치락뒤치락 주도권 싸움을 벌이고 있지만, 올해 들어 토스가 우세한 흐름을 보인다.     여기에는 토스뱅크의 공격적인 서비스 확장이 주효했다는 분석이다.       토스뱅크는 지난해 10월 출범하면서 인터넷전문은행의 막내로서 공격적인 상품 출시를 이어가며 이용자를 모으고 있다.       출시 당시 내놓은 연 2% 금리의 수시입출금통장부터 원할 때 이자를 받을 수 있는 '지금 이자 받기 서비스'에 새로운 모임 통장을 예고하며 수신 고객을 모으고 있고, 최근에는 씨티은행 대환대출로 여신 고객까지 아우르는 중이다.       또 토스가 앱 안에서 은행부터 주식, 자산관리 서비스까지 모두 가능한 '원앱' 전략을 택하면서 이용 편의성이 높다는 점도 주원인이다. 카카오뱅크가 카카오페이와 앱이 나누어져 자산관리와 은행을 따로 이용하는 것과 차이가 있다.     토스뱅크 관계자는 "토스의 앱은 고객이 보기 편하게, 한 번에 모든 자산을 알아볼 수 있도록 앱을 구현하고 신경을 많이 쓴다"고 말했다.       게다가 토스뱅크는 인터넷전문은행의 뿌리라고 볼 수 있는 '중·저신용자 포용' 면에서도 이미 성공적인 성과를 냈다.       토스뱅크는 지난해 10월 출범 이후 대출 총량 규제로 인해 9일 만에 대출 한도를 소진하고 여신영업을 중단한 바 있다. 이후 올해 1월부터 본격적인 여신영업을 재개해 6월 기준 대출 잔액 4조원을 돌파했다. 이 중 중·저신용자 대출 비중은 36%로 출범 당시 약속했던 34.9%를 넘어선 것이다.    토스뱅크가입 고객은 6월 말 기준 360만명을 돌파했다. 이는 지난해 말 110만명 대비 250만명이 증가한 숫자로 6개월 만에 고객 수가 세 배를 넘긴 수치다.    토스뱅크는 나아가 '시장에 있는 좋은 상품'을 플랫폼에 싣는다는 계획이다. 구체적으로 증권사의 채권상품부터 위험성 있는 ELS(주가연계증권)와 같은 상품까지 아우른다.      홍민택 토스뱅크 대표는 지난달 기자간담회에서 "시장에 있는 상품들을 발굴해 고객이 더 현명하게 투자하거나 더 좋은 상품에 예치할 수 있도록 준비하고 있다"며 "금융플랫폼으로서 실질적으로 고객에게 가장 좋은 혜택을 주는 상품들을 한눈에 볼 수 있도록 모아둘 예정"이라고 말했다.      카카오뱅크     플랫폼 아닌 은행으로…위협받는 카뱅   인터넷전문은행 1위 카카오뱅크는 혁신성과 참신함으로 시중은행의 관심을 한 몸에 받으며 고속성장해왔지만, 지금은 성장이 멈췄다는 목소리가 여기저기에서 나온다. 최근 주가 부진으로 온 신경이 '주가 부양'에 쏠려 있고, 토스뱅크와 더불어 맹추격하고 있는 시중은행에 카카오의 시너지로 플랫폼 서비스에 특화돼 있던 카카오뱅크의 자리가 위협받고 있는 모양새다.     12일 한국거래소에 따르면 카카오뱅크 주가는 최고 9만4400원에서 최저 2만8600원으로 69.7%(6만6800원) 감소했다. 12일 기준 카카오뱅크의 종가는 3만원이다.     '폭락' 이야기가 가시지 않고 있는 카카오뱅크는 주가 부양에 온 힘을 쏟고 있다. 지난 5일 카카오뱅크 임원진은 주가 내림세를 붙잡기 위해 자사주를 매입하기도 했다.       자사주 매입 직후 카카오뱅크 주가는 4일 2만9450원에서 6일 3만1300원으로 소폭 상승했다.     한 금융투자업계 관계자는 "자사주 매입은 주주·기업가치 제고 목적이 큰데, 주가에 영향을 미치는 부분은 한정적"이라고 말했다.     카카오뱅크는 지난해 상장부터 '은행주'가 아닌 '플랫폼주'로 주목받으며, 금융지주 시가총액 1위인 KB금융지주보다 높은 시총 33조원까지 오르며 주목받아 왔다.     당시 정준섭 NH투자증권 연구원은 리포트에 “은행업 관점에서 카카오뱅크의 적정 기업가치를 평가하면 9조9000억원에 불과하다”고 분석했지만, 시장의 기대감은 플랫폼으로서 카카오뱅크를 바라보며 계속해서 몸값을 올려줬다.     하지만 현재 카카오뱅크의 시총은 14조원대로 쪼그라든 상황이다. 플랫폼업이 아닌 은행업으로서 카카오뱅크를 바라보는 시각이 우세해지면서, 시장에서는 카카오뱅크의 성장 정체기가 왔다고 보고 있다.    이병건 DB금융투자 연구원은 최근 보고서에서 “카카오뱅크가 스스로 플랫폼주임을 내세우지만, 본질은 금융당국의 규제를 받는 은행주”라며 “카카오뱅크가 1861만명의 많은 고객 베이스를 통해 플랫폼 수익을 확대해 나갈 가능성은 여전히 열려있지만, 은행으로 인가받았다는 점을 생각하면 기존 은행들과 다른 새로운 수익원의 발굴은 쉽지 않아 보인다”고 말했다.     이에 대해 카카오뱅크 관계자는 "하반기 증권사 계좌 발급을 확대하고 신용카드 발급 서비스도 늘려나갈 예정"이라며 "연계대출도 올해 3~4곳 추가할 계획이다. 플랫폼 차원에서 넓혀가는 내용"이라고 강조했다. 그러면서 그는 "2023년부터는 펀드 신규 상품을 출시하는 방향도 검토 중"이라며 "다양한 서비스를 지속해서 선보여 금융 플랫폼 역량을 강화해 나갈 계획"이라고 말했다.  권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.07.15.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>'씬파일러'들이 사용한다는 BNPL…규제 사각지대</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011306088?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>기사내용 요약금융당국, 혁신서비스엔 최소의 안전장치만"쿠팡 모델, 권한 밖…현대카드는 문제 없어" *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 일명 BNPL(Buy Now Pay Later)이라 불리는 '선결제-후지불' 서비스가 혁신금융서비스(네이버파이낸셜)·외상거래(쿠팡)·신용판매(현대카드) 등 여러 방식으로 이뤄지고 있다. 주 이용자인 씬파일러(금융이력 부족자·Thin Filer)들의 부채 심화 문제가 우려되는 상황이자만, 금융당국은 구체적인 감독 계획이 없는 상태다. 국내보다 앞서 해당 서비스를 도입한 선진국들에선 이미 이들의 부채 심화 문제가 불거지기 시작했다. 전문가들은 급격한 금리 인상기인 만큼 중저신용자들의 BNPL 서비스 유입이 가속화될 수 있을 만큼 대책이 필요하다는 입장이다. 15일 금융업계에 따르면 현재 BNPL 서비스를 운영하고 있는 빅테크·금융사는 네이버파이낸셜, 쿠팡, 카카오페이, 토스, 현대카드 등 5개사로 파악된다. BNPL은 '선결제-후지불' 서비스다. 가맹점은 네이버파이낸셜, 현대카드 등 BNPL 사업을 운영하는 여신사·전금업자 등에게 판매대금을 선지급받고, 고객은 해당 금액을 한 달 후 혹은 할부로 몇 달간 지불할 수 있다.신용카드 서비스와 유사하지만 고객은 자신의 신용등급과 관계없이 해당서비스를 이용할 수 있다. 즉  신용카드 결제처럼 밴사(부가통신사업자), 신용정보회사 등의 과정을 거치지 않는 것이 가장 큰 차이점이다. 그만큼 국내의 모든 후불결제 서비스는 주로 씬파일러들을 대상으로 한다. 신용정보가 부족해 신용카드를 발급받을 수 없었던 2030, MZ세대와 주부들을 중심으로 빠르게 이용자가 확대하고 있다. 이들 BNPL사가 제공하는 서비스의 형태는 제각각이다. 국내에선 본래 선불전자지급수단 발행 및 관리업자는 후불결제 업무를 할 수 없어, 혁신금융서비스(금융규제 샌드박스)를 통해 서비스 도입이 가능했다. 이를 통해 서비스를 하고 있는 네이버·토스는 월 최대 30만원 한도로 할부 없이 이 서비스를 운영할 수 있다. 쿠팡의 BNPL 서비스인 '나중결제'는 쿠팡이 '직매입'한 상품만 대상으로 한다. 상품대금을 받아야 하는 주체가 모두 쿠팡으로, 고객에게 돈을 받아야 하는 기간을 늦춰주는 '외상' 개념이다. 혁신금융서비스가 아니기 때문에 정부가 리스크 관리를 위해 제한을 걸어 둔 '월 최대 30만원, 무할부' 원칙을 지킬 필요가 없다. 해당 서비스 이용자는 130~150만원(추정) 한도 내에서 최대 11개월(추정) 할부까지 가능하며, 쿠팡은 이용자들에게 4개월 차부터 11개월차까진 할부 이자를 부과하기도 하고 있다. 신용카드(여신업) 서비스와 매우 흡사하다. 현대카드는 최근 온라인 패션플랫폼 무신사가 운영 중인 하위 플랫폼(앱) '솔드아웃'을 통해 BNPL 서비스를 오픈했다. 서비스 이용자는 분할결제한 금액을 구매 시점에 3분의 1을 결제하고, 나머지 금액을 이후 2개월간 나눠 결제하게 된다. 이 서비스는 10만원 이상 50만원 이하의 단일 상품 결제 건에 적용된다. 이미 BNPL이 활성화된 해외에선 이 서비스가 과소비와 연체를 부추긴다는 지적이 나왔다. 야후파이낸스는 지난해 금융회사 크레디트 카르마의 조사를 인용해 "미국 BNPL 이용 고객의 34%는 최소 1건 이상의 결제를 연체했고, 72%는 신용등급이 하락했다"고 보도한 바 있다.실제로 출시 1년째를 맞는 네이버페이의 BNPL 서비스의 연체율은 신용카드 연체율의 두 배가 넘는 것으로 나타났다. 윤창현 국민의힘 의원실이 금융감독원에서 받은 자료에 따르면, 네이버페이 후불결제 고객의 지난 3월 연체율(1개월 이상)은 1.26%로 집계됐다. 지난해 말 신용카드 연체율 0.54%의 두 배가 넘는다.이미 영국, 호주, 미국 등 각국의 감독당국은 BNPL 산업과 관련한 법 개정 및 감독권 행사를 위한 절차를 진행하고 있다. 특히 소비자의 채무부담능력 평가, 취약계층의 보호 중심의 규제 방안을 고려하고 있다.하지만 금융당국은 해당 서비스들이 모두 문제가 없다는 입장이다. 네이버·토스 모델은 '월 30만원에 할부 불가'라는 조건이 있는 조건부 혁신서비스'라 안전장치가 있다는 입장이다. 쿠팡 모델의 경우 개인사업자가 외상 판매를 하는 것과 같이 금융당국의 감독 영역 밖이라고 답했다. 현대카드에 대해선 여신업자로서 할 수 있는 대출 서비스기 때문에 문제가 되지 않는다고 했다. 전문가들은 섣부른 규제로 시장의 자율성을 해치는 것은 문제가 있지만, 금융당국이 현안에 대한 파악이 제대로 돼 있지 않은 점은 충분히 문제라고 지적했다.    양준모 연세대 경제학과 교수는 "시장에 자율적으로 맡긴 후 사회적으로 문제가 됐을 때 들어가는 것(개입하는 것)이 일반적인 수순"이라면서도 "금융당국이 현황 파악을 못하고 있다는 것은 문제라고 할 수 있다. 부채 관리 등이 잘 되고 있는지 모니터링이 돼야 하고, 구조적으로 문제가 있다면 그것에 대해 조치가 필요할 것"이라고 말했다. 한성대 김상봉 경제학과 교수는 "빅테크사의 경우 금융사가 아니기 때문에 리스크 관리의 개념이 아예 없는 상태다. 쿠팡의 경우 금융 부문 서비스에 한해 금융당국이 감독 권한을 가져야 한다"며 "금리가 올라가면 중저신용자가 BNPL 서비스로 몰려 부채 위험이 더 커질 것이다. 30만원씩이어도 서비스가 10개면 300만원이 된다"고 강조했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>일반 소비자에 사모펀드·파생상품 등 고위험 상품 권유 금지</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003158378?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>금융위, 금소법 시행령 개정페이업체, 서비스 변경 6개월 전 고지해야일반금융소비자를 대상으로 방문 또는 전화 등의 방법으로 사모펀드와 같은 고위험 금융상품을 권유·판매하지 못하도록 규정이 명문화된다. 각종 페이 업체들은 연계서비스를 축소·변경할 때 앞으로는 신용카드사처럼 6개월 전에 변경 내용을 고지해야 한다.금융위원회는 7일 이 같은 내용의 금융소비자 보호에 관한 법률(금융소비자법) 시행령 및 감독규정 개정안을 입법예고한다고 밝혔다. 개정안이 시행되면 사모펀드, 장내·외 파생상품 등은 방문·전화 등을 활용한 구입 권유가 금지된다. 금융소비자법은 현재도 소비자의 요청이 없을 때 방문·전화 등을 활용한 투자성 상품의 권유를 금지(불초청권유 금지)하고 있으나 시행령은 예외 범위를 넓게 인정하고 있었다.여기에 지난해 12월 시행된 개정 방문판매 등에 관한 법률(방문판매법)은 적용 대상에서 금융상품을 제외했다.금융당국은 투자성 상품에 대한 과도한 불초청판매가 증가하는 것을 방지하기 위해 소비자의 구체적·적극적인 요청이 없는 불초청권유 시 금융상품은 방문 전 소비자의 동의가 있을 때만 예외적으로 허용하기로 했다. 이때도 일반금융소비자에게는 고위험 상품을 권유해서는 안 된다. 전문금융소비자에게는 현행대로 장외 파생상품 권유만 하지 못하게 했다.개정안은 선불·직불 지급수단에 대한 연계·제휴서비스 관련 규제도 적용하기로 했다. 네이버파이낸셜, 카카오페이, 토스 등도 신용카드 사업자처럼 연계서비스를 축소·변경할 때 6개월 전 고지해야 하고 설명의무를 져야 한다. 그동안 카드사 등 여신전문금융사들은 빅테크 업체와 같은 기준, 즉 ‘동일 기능·동일 규제’ 원칙을 적용해달라고 요청해왔다.금융위는 외화보험에도 변액보험 상품 등에도 적용하고 있는 ‘동일 상품·동일 규제’ 원칙을 부과하기로 했다. 지금까지 외화보험은 환율 변동에 따른 손실 가능성이 있는데도 적합성 원칙과 적정성 원칙이 지켜지지 않았다.적합성 원칙은 금융상품 판매업자 등이 상품 계약 체결을 권유할 경우 상대방이 일반금융소비자인지 전문금융소비자인지를 확인해야 한다는 원칙이다. 적정성 원칙은 권유 없이 상품을 판매할 때 상품이 소비자에게 적정하지 않으면 이를 알리고 확인을 받아야 한다는 규정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>멈췄던 대환대출 플랫폼 논의…다시 시작한다</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011287775?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 정옥주 기자 = 정치권에서 고금리 대책 중 하나로 '대환대출 플랫폼'을 거론하고 나서면서, 지난해 하반기 이후 멈춰섰던 대환대출 플랫폼에 대한 논의가 재개될 전망이다. 6일 금융권 등에 따르면 국민의 힘은 전날 금융당국에 대환대출 플랫폼 사업을 신속하게 추진할 것을 요구했다.성일종 당 정책위의장은 이날 국회에서 열린 원내대책회의에서 "대환대출 플랫폼이 지난해 추진됐으나, 금융권 상황으로 중단됐다"며 "하지만 당시보다 상황이 더 악화된 지금과 같은 금리 상승기에 무엇보다 필요한 사업"이라고 강조했다. 이어 "고금리상품에서 저금리상품으로 소비자들이 더 쉽게 대출을 옮겨갈 수 있는 비대면 플랫폼 구축을 위해 금융업권의 의견을 신속하게 수렴하고 신속하게 시스템 구축에 나서달라"고 당부했다.여당은 국회가 정상화되고 금융위원장이 임명되는 즉시 대환대출 인프라 구축 등 서민금융 지원을 위해 당정간담회를 개최한다는 방침이다.이처럼 정치권에서 대환대출 플랫폼의 필요성을 강조하고 나선 만큼, 금융업권간 갈등으로 중단됐던 대환대출 플랫폼 사업 추진이 탄력을 받을 것으로 보인다.대환대출 플랫폼이란 하나의 플랫폼에서 은행, 저축은행, 캐피탈 등 여러 금융기관 대출상품을 비교하고 낮은 금리로 갈아탈 수 있게 하는 비대면 원스톱(One-stop) 플랫폼을 말한다. 금융결제원이 구축하는 플랫폼에 토스나 카카오페이 등 핀테크 업체가 운영 중인 대출금리 비교 서비스를 연계하는 방식이다. 이 서비스가 도입되면 금융소비자들은 은행을 직접 방문하지 않고도 플랫폼에서 가장 저렴한 대출상품으로 이동할 수 있게 된다.당초 금융위원회는 지난해 10월 대환대출 플랫폼을 출범하고 연말까지 제2금융권으로 확대하는 방안을 추진했다. 하지만 논의 과정에서 시중은행들이 빅테크 종속·수수료 지급 등을 이유로 불참을 선언하면서 결국 도입이 무산됐다.시중은행들은 저렴한 금리를 앞세우는 인터넷전문은행, 지방은행 등과의 금리인하 경쟁이 심화될 수 있고, 핀테크에 금융의 주도권을 빼앗길 수 있다는 점을 가장 우려하고 있다. 시중은행들 뿐 아니라 저축은행, 카드사 등도 가격 경쟁 심화, 중개수수료 부담, 핀테크 종속 심화 등을 이유로 참여를 주저하고 있는 실정이다.다만 정치권에서 이번에 직접적으로 도입의 필요성을 강조하고 나선 만큼, 대환대출 플랫폼 사업이 비로소 속도를 낼 수 있을 것으로 보인다. 더군다나 금리인상기에 접어들면서 과도한 예대금리차 격차 문제를 해소하기 위한 논의가 본격화되고 있는 만큼, 대환대출 플랫폼 도입의 필요성이 다시 대두되고 있는 상황이다.이에 따라 금융당국도 신임 금융위원장이 취임한 후 중단됐던 대환대출 플랫폼 도입과 관련한 논의를 다시 본격적으로 재개할 것으로 보인다.금융위 관계자는 "정치권에서 얘기가 나온 만큼 당국도 대환대출 플랫폼 문제를 다시 들여다봐야 할 것"이라며 "은행권 뿐만 아니라 2금융권, 핀테크 등 업권별 이해관계가 다 다르기 때문에 우선 의견을 들어볼 예정"이라고 말했다.다만 실제 도입까지 갈 길은 쉽지 않을 전망이다. 빅테크의 금융업 진출로 불거진 '기울어진 운동장' 논란을 비롯해 은행권과 빅테크 간 갈등의 근본적인 원인이 여전히 해소되지 않고 있기 때문이다.한 금융권 관계자는 "금리가 급격하게 오르고 예대금리차 문제가 제기되면서 대환대출 플랫폼에 대한 논의가 다시 부각되고 있는 분위기"라며 "지난해 제기됐던 문제점들을 조율하는 것이 쉽진 않아 보여 실제 도입이 이뤄지려면 최대한 업권간 규제 형평성을 갖추고 참여 금융사들에 인센티브를 부여하는 등의 방식을 고민해볼 필요가 있어 보인다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 환경경영 국제표준 인증 ISO 14001 획득</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002617324?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[데일리안 = 김효숙 기자] 토스 페이먼츠 로고 ⓒ토스페이먼츠토스 계열사 토스페이먼츠는 환경 경영 시스템 국제 표준 'ISO 14001' 인증을 획득했다고 1일 밝혔다.ISO 14001은 국제표준화기구가 제정한 환경경영 관련 국제 표준 인증으로, 기업의 환경경영 전반에 걸친 종합 평가를 통해 부여된다. 토스페이먼츠는 PG 업계 최초로 높은 수준의 친환경 업무 환경을 구현하기 위해 이번 인증 취득에 도전했다는 설명이다.영국표준협회의 인증 심사 과정에서 토스페이먼츠는 ▲ 친환경 경영 방침과 실천 방안 수립 ▲ 자원 재활용, 친환경 제품 사용 등 활동 전개 ▲ 사무용품 사용 현황 측정을 위한 모니터링 시스템 구축 등에서 높은 평가를 받은 것으로 나타났다.특히, 일상에서 탄소 배출을 줄이기 위한 다양한 아이디어가 긍정적인 평가를 받았다. 예를 들어, 토스페이먼츠는 배달 음식을 비롯해 업무 공간에서 발생하는 음식물 쓰레기를 비료로 재생산하거나, 센서조명 및 냉난방 중앙 제어 시스템 등을 구축해 에너지를 절감했다.또한, 페이퍼리스 업무 시스템 구축을 통해 매달 10만장 규모의 A4 용지가 사용되는 가맹점 계약 절차 대부분을 전자계약으로 전환하여, 기존 A4 용지 사용량의 98%를 절약했다. 이는 매달 9.8그루의 나무를 심는 것과 같은 효과다.그 외에 자율 재택 근무 제도, 클라우드 서비스 사용 등 구성원 누구나 효율적인 업무를 진행하면서 동시에 탄소 배출을 줄일 수 있는 환경을 만든 것도 특징이다.김민표 토스페이먼츠 대표는 "현재 기후변화를 비롯한 환경 이슈가 대두되고 있는만큼, 기업의 지속 가능한 환경 경영 시스템 구축은 중요한 아젠다 중 하나로 자리잡았다"며 "토스페이먼츠는 이번 인증 취득을 계기로 기업의 사회적 책임을 다하기 위한 다양한 노력을 이어가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[World Now_영상] "대나무만 좋아요" 독특한 판다 식성 600만년 전부터 존재?</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001206352?sid=004</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>[판다의 생일잔치 인기 선물은 '대나무']중국 충칭시 남서부에 위치한 충칭 동물원에서 6마리의 자이언트 판다를 위한 생일 잔치가 열렸습니다.지난해 6월 10일 태어난 쌍둥이 판다 싱싱과 천첸을 비롯해 2019년 6월 23일 태어난 슝샹, 종충, 시쉬, 칭칭 등 4마리의 대왕 판다를 위한 집단 생일 파티를 연 건데요.6월에 태어난 판다들을 위해 사육사들은 죽순과 푸짐한 과일과 채소로 장식된 섬세한 생일 케이크를 큰 선물로 만들었습니다.단연 인기를 끈 것은 대나무 케이크.판다는 먹이의 99%를 대나무가 차지할 정도로 까다로운 입맛을 갖고 있습니다.[대나무 밝히는 식성 600만년 전부터 이어졌다?]그런데 이 독특한 식성이 적어도 600만년 전으로 거슬러 올라간다는 새로운 증거가 나왔습니다.대나무를 잡는 데 이용하는 독특한 여섯 번째 손가락, 가짜 엄지가 고대 화석에서도 발견됐기 때문입니다. 미국 '로스앤젤레스 카운티 자연사박물관'에 따르면 이 박물관 척추고생물학 큐레이터 왕샤오밍 박사가 이끄는 연구팀은 대왕판다의 조상 화석에서 가짜 엄지를 확인해 분석한 결과를 과학 저널 '사이언티픽 리포츠'에 발표했습니다.  중국 남부 윈난성 자오퉁시의 슈이탕바 지역에서 발굴된 이 화석은 약 700만∼600만 년 전 중신세 후기에 서식했던 고대 판다의 한 속(屬)인 '아이루라르크토스'에게서 나온 것으로 분석됐는데요.  손목에서 엄지처럼 돌출된 뼈는 대왕판다가 가진 여섯 번째 손가락의 가장 오래된 증거가 됐습니다.   판다의 가짜 엄지 존재는 100여년 전에 처음 알려졌으나 화석이 많지 않아 10만∼15만년 전까지만 기록이 확보된 상태였습니다. 왕 박사는 "대왕판다는 대나무숲 깊은 곳에서 고기와 산딸기 대신 영양은 낮지만 아열대숲에 많았던 대나무를 먹는 쪽으로 옮겨갔다"면서 "대나무를 씹어먹을 수 있는 크기로 잘게 쪼개기 위해 줄기를 단단히 붙잡는 것은 많은 양의 대나무를 먹는 데 가장 중요한 적응이었을 것"이라고 했습니다.  [짧은 갈고리형 가짜 엄지는 대나무 먹고, 걷는데도 도움]연구팀은 이 화석을 통해 현대 대왕판다의 가짜 엄지가 외형적으로 덜 발달된 형태를 보이는 이유도 규명했습니다.  아이루라르크토스는 가짜 엄지가 대왕판다보다 길고 직선형인데 비해 대왕판다는 짧은 갈고리형이어서 차이를 보였습니다.  연구팀은 가짜 엄지를 대나무를 잡고 뜯어먹을 때는 물론 다음 먹이를 찾아 걸어갈 때 몸무게를 지탱하는데도 이용하는 과정에서 긴 뼈가 짧은 갈고리형으로 진화하게 된 것으로 분석했습니다.  논문 공동 저자인 애리조나주립대학 인류기원연구소의 데니스 수 부교수는 "500만∼600만 년이면 판다가 더 긴 가짜 엄지를 갖는데 충분한 시간이지만, 이동할 때 몸무게를 받쳐줘야 하는 진화적 압력이 가짜 엄지를 걷는데 방해되지 않으면서 대나무를 잡을 때 유용할 수 있게 짧고 강하게 만든 것으로 보인다"고 설명했습니다. 왕 박사는 "육식성 조상에서 진화해 대나무만 먹는 종으로 바뀐 판다는 많은 장애를 넘어야만 했을 것"이라면서 "손목뼈에서 나온 마주 볼 수 있는 `엄지`는 판다가 넘은 장애 중 가장 놀라운 진화일 수 있다"고 했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>만나플러스, 토스페이와 제휴로 가맹점 혜택 다양화</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003027798?sid=105</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>토스페이로 결제 시, 1% 무제한 적립 혜택토털 모빌리티 플랫폼 기업 만나코퍼레이션이 비바리퍼블리카와 제휴를 통해 가맹점 대상 만나플러스 서비스 결제 시 활용할 수 있는 혜택을 제공한다고 4일 밝혔다.만나코퍼레이션의 배달대행 브랜드인 만나플러스 서비스를 이용하고 있는 가맹점은 서비스 이용료 결제 시 토스페이를 활용하면 무제한으로 결제 금액의 1%를 토스 포인트로 적립 받을 수 있다.또한 가맹점주가 토스의 구독 서비스인 ‘토스프라임’을 사용 중일 경우, 토스페이로 결제 시 월 20만 원 한도 내에서 결제 금액의 6%를 토스 포인트로 추가 적립 받을 수 있다.여기에 제휴 카드인 ‘만나_애니 플러스(Any PLUS) 하나카드’를 토스페이에 등록해 결제하면 최대 9%까지 적립 혜택이 가능하다. 만나플러스 가맹점주가 아닌 토스 회원도 토스페이에 ‘만나_Any PLUS 하나카드’를 등록 후 결제 시 오는 12월까지 결제 금액의 최대 3%의 적립 혜택을 받을 수 있다.만나플러스 관계자는 “최근 하나카드 출시에 이어 토스페이 제휴 등을 통해 가맹점의 자사 서비스 이용료 결제 편의성을 높이고 혜택을 제공하고자 다양한 방법을 모색하고 있다”고 전했다.한편 만나플러스는 현재 약 5만 3천여개의 가맹점 보유 및 월 약 1500만 건의 운행 건수를 기록하고 있는 업계 선두 기업으로써 가맹점과 배달대행사의 세무기장 대행 서비스를 제공하는 등 배달 플랫폼 시장의 환경 개선에 힘쓰고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>[비즈브리핑] 카뱅 이어 토뱅도 관심갖는 '모임통장'이 뭐지?</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003890169?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>◇카카오뱅크 모임통장 이용 모습. 사진캡처=카카오뱅크 홈페이지토스뱅크가 카카오뱅크에 이어 모임통장 출시를 예고함에 따라 관련 상품에 대한 관심이 뜨거워지고 있다. 모임통장은 가족이나 친구, 지인들과 만든 모임에서 사용하는 회비를 편리하게 관리할 수 있도록 도와주는 상품이다. 데이트 비용 마련을 위해 일정 금액을 모아둘 수 있는 커플통장으로도 활용이 가능하다. 또 일정 금액을 따로 빼둘 수 있어 생활비 통장으로도 쓸 수 있다는 점에서 모임통장을 찾는 소비자들이 많다.모임통장 대표주자는 카카오뱅크다. 지난 2018년 선보인 모임통장의 가입자는 1000만명을 돌파하는 등 큰 호응을 얻고 있다.  이 서비스는 모임주(총무)가 카카오뱅크 앱에서 모임통장을 개설한 후 카카오톡 단체 대화방에 초대장만 보내면 이용가능하다. 모임주 외 참여자들은 카카오뱅크 계좌 없이도 이용할 수 있는 것이 장점으로 꼽힌다. 카카오뱅크는 지난 5월 모임통장 이용자 수가 1000만명을 돌파하자 '모임 시작 축하금 지원', '모임 이름 자랑' 등 총 2억2000만원 캐시백 혜택을 제공하는 이벤트를 진행하기도 했다. 카카오뱅크 관계자는 "5월 기준 모임통장 이용자 중 카카오뱅크 계좌 보유 고객 비중은 85%로 출시 초기 74%에서 증가하고 있다"면서 "앞으로도 고객이 모임을 편하게 운영할 수 있도록 다양한 기능을 추가하고, 관련 이벤트도 꾸준히 선보이겠다"고 전했다. 최근 카카오뱅크와 같은 인터넷은행인 토스뱅크도 모임통장 출시를 예고했다. 구체적인 출시 일정은 확정되지 않았지만, 토스뱅크가 '이자 바로받기', '키워봐요 적금' 등 재미있는 상품을 잇따라 선보이고 있는 만큼 추후 나오게 될 모임통장에 대해서도 기대감이 높아지고 있다.한편 시중은행에서도 이와 비슷한 상품을 찾아볼 수 있다. 따라서 소비자들은 용도나 목적에 맞게 상품을 골라 이용하면 된다.KB국민은행은 'KB짝꿍통장'을 판매중이다. 통장 이용 시 주는 '짝꿍온도'를 통해 다양한 혜택을 받을 수 있다. 짝꿍온도는 해당 통장에서 출금된 KB국민카드 결제금액이 1만원일 때마다 1도씩 적립된다. 또 전월 기준 통장의 월 평균 잔액 10만원당 10도씩 쌓인다. 짝꿍온도가 1004도가 되면 데이트박스 서비스를 신청할 수 있다. 데이트박스는 스타벅스 아메리카노 쿠폰, 해피콘 쿠폰 등으로 구성됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>돈줄 막힌 스타트업 '감원 칼바람'</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004722330?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>경기둔화 '직격탄'…벤처업계 구조조정 본격화토스·두나무 등 유니콘 기업가치 '반토막'유망 스타트업 투자 유치 실패도 잇따라경기 악화로 투자 시장과 자금 회수 시장이 침체하자 스타트업의 자금 확보에 비상이 걸렸다. 유니콘기업(기업 가치 1조원 이상 스타트업)의 몸값이 급락하고 유망 스타트업의 투자 유치 실패 사례가 잇따르고 있다. 일부 스타트업은 대규모 감원을 하는 등 구조조정에 나서고 있다. 10일 비상장 주식 거래 플랫폼인 서울거래비상장에 따르면 금융 서비스 토스를 운영하는 비바리퍼블리카의 기업 가치는 올 1월 7일 21조1072억원에서 지난 4일 10조7647억원으로 49.0% 줄었다. 반년 사이 반토막 난 것이다. 두나무(-43.8%) 야놀자(-28.2%) 컬리(-54.5%) 등 다른 유니콘기업의 가치도 크게 떨어졌다. 같은 기간 야놀자를 제외한 다른 기업의 몸값 하락 폭은 코스닥지수 하락률(-29.9%)보다 컸다. 벤처캐피털(VC)업계 관계자는 “대부분 유니콘기업이 여전히 적자를 면치 못하고 있다는 점이 기업 가치를 더 떨어뜨린 요인이 됐다”며 “당근마켓은 지난해 중반 대규모 투자를 받으며 3조원의 몸값을 인정받았고 작년 말에는 4조~5조원대 기업 가치에 구주가 거래됐지만 최근에는 1조원대로 내려갔다는 얘기도 나온다”고 말했다.유니콘기업들의 몸값이 떨어지고 기업공개(IPO) 시장이 위축되자 후발 스타트업들은 감원과 복지 혜택 축소 등으로 허리띠를 졸라매고 있다. 집토스 등은 올 들어 인력을 30% 이상 줄였다.지난해만 해도 스타트업들은 ‘개발자 모시기’에 나서면서 고액 연봉과 복지를 내걸었다. 직원 유인책의 일환으로 고액 임차료를 내고 서울 강남에 사무실을 마련한 곳도 적지 않았다. 그러다 자금 유치가 여의치 않자 가장 먼저 인건비부터 줄이는 것이다.스타트업 HR(인적자원) 전문가인 황성현 퀀텀인사이트 대표는 “투자 경색이 6개월 이상 지속되면 한계기업이 나올 것”이라며 “수익성을 갖춘 스타트업엔 여전히 자금이 몰리는 등 ‘옥석 가리기’가 본격화될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>[단독]1700조 대출 쉽게 갈아탄다…토스도 추진</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005260659?sid=105</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>지난해 좌절됐던 비대면 대환대출 플랫폼 사업여야 정치권 공감에 재추진 시동금결원 망 활용해 앱으로 대출 갈아타기與 “1순위 추진”, 민주당도 오늘 간담회대출 시장 지각변동, 은행권 반발 변수[이데일리 최훈길 기자] 핀테크 선두 주자 토스가 스마트폰 앱으로 대출을 갈아타는 서비스를 추진한다. 일일이 은행을 찾아다니지 않고도 금리가 낮은 상품으로 손쉽게 갈아탈 수 있게 되는 것이다. 지난해에도 검토했지만 당시에는 쉽지 않았다. 은행 간 대환대출 플랫폼이 완성되지 않았기 때문이다. 그러나 여야 할 것 없이 모두 고금리 시대에 대출 금리 부담을 줄이겠다는 입장이어서, 토스 앱을 통한 대환대출 서비스가 속도를 낼 전망이다. 이는 곧 가계대출 시장의 지각변동을 의미한다.  토스를 운영하고 있는 비바리퍼블리카 이승건 대표. (사진=비바리퍼블리카)6일 토스 관계자는 이데일리와의 통화에서 “여당이 적극 추진하기로 한 비대면 대환대출 플랫폼 사업은 고객에게 혜택을, 사업자에는 기회를 주는 큰 시장”이라며 “제도가 허용되면 대환대출 플랫폼에 당연히 참여할 것”이라고 말했다. 또 다른 토스 관계자는 “은행권 대환대출 플랫폼 구축이 먼저고, 이후 핀테크 참여 요청이 있으면 검토하겠다는 입장”이라고 밝혔다. 둘 사이의 온도 차는 있지만, 토스뱅크가 은행권 최초로 카드론 대출을 자사 신용대출로 바꿔주는 서비스를 출시한 데 이어, 토스는 ‘대환대출 플랫폼’ 사업 진출을 예고한 것이다. 이미 핀다나 핀크 등이 일부 서비스를 내놓았지만, 누적가입자 2100만명을 넘어선 토스가 움직일 경우 대출 시장에 파란이 예상된다.여야, 대출이동플랫폼 허용 속도감비대면 대환대출 플랫폼은 모바일 앱에 접속해 은행 등 여러 대출 상품을 비교하고 낮은 금리로 갈아타는 ‘대출이동’ 플랫폼이다. 금융결제원 망에 핀테크가 운영 중인 대출금리 비교 서비스를 연동하면 대출 갈아타기가 가능하다. 모든 가계대출을 모바일로 쉽게 갈아타는 것이다. 이는 정부가 지난해 도입하려다 무산된 대환대출 플랫폼을 재추진하는 것이다. 기술적 어려움은 없는데 핀테크로 고객을 뺏긴다는 기존 은행권 반발로 당시 좌초됐다. 하지만 지금처럼 대출금리 부담이 큰 상황에서는 도입이 필요하다는 게 여당 입장이다. 성일종 국민의힘 정책위의장은 지난 5일 원내대책회의에서 “기존 대출기관 방문 없이 신규 대출기관에서 원스톱으로 대환대출을 실행하는 대환대출 플랫폼 사업을 신속하게 추진해달라”고 말했다. 국민의힘은 김주현 후보자가 금융위원장으로 임명되는 즉시 당정 간담회를 열고 대환대출 플랫폼 등 서민 금융지원 방안을 1순위로 논의할 예정이다. 국회 정무위원회 위원으로 예정된 윤창현 국민의힘 의원은 통화에서 “플랫폼 참여 기업, 운영 방식 등은 확정되지 않았는데 참여하고 싶은 곳(핀테크)을 들어오게 할 것”이라며 “이르면 내주에 방안이 나올 것”이라고 말했다. 더불어민주당도 6일 오전 박홍근 원내대표 주재로 이근주 한국핀테크산업협회장 등이 참석한 가운데 간담회를 열고 ‘상환부담 완화를 위한 원스톱 대출이동제 도입 방안’을 검토한다. 핀크, 핀다도 발빠른 준비 핀테크 업계는 대출 갈아타기 수요가 많을 것으로 보고 발 빠르게 준비에 나선 상황이다. 비대면 대출 갈아타기로 가계대출(올해 1분기 기준 총 1752조7000억원) 금리를 1%포인트 낮춘다면, 개인들은 연간 17조원에 달하는 이자 부담을 줄일 수 있기 때문이다. SK텔레콤(017670)과 하나금융그룹이 투자한 핀크, 60개 금융사 대출 비교가 가능한 핀다도 대환대출 플랫폼에 참여할 예정이다. 현재 양사 모두 대출 비교는 가능하나 앱으로 실시간 대출 갈아타기는 불가능하다. 다만 카카오페이(377300)·네이버파이낸셜 관계자는 “현재 참여를 검토한 바 없다”고 말했다. 기존 은행권은 고객 유출을 우려하며 빅테크의 대환대출 플랫폼 진출에 반대하는 입장으로 전해진다.토스는 52개 금융사의 대출 비교 서비스를 제공 중이다. 하지만 비교만 가능할뿐 토스 앱을 통해 대출 갈아타기는 불가능하다. 토스가 비대면 대환대출 플랫폼 사업에 참여해 최종 사업자가 되면, 토스 앱을 통해 대출 비교를 한 뒤 은행에 가지 않고도 앱으로 24시간 내내 곧바로 대출 갈아타기가 가능해진다. (사진=토스 앱)금융결제원 망에 핀테크가 운영 중인 대출금리 비교 서비스를 연동하면 대출 갈아타기가 가능하다. 모든 가계대출을 모바일로 법무사 비용 없이 쉽게 갈아타는 것이다. 사진은 지난해 금융위원회가 추진하려다 무산된 비대면 대환대출 플랫폼 설명 내용이다.(사진=금융위원회)</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.07.14.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[데이바이데이] 3고 시대 속 '현대판 자린고비'</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/656/0000018961?sid=102</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>플렉스·욜로 시대 저물고 '짠테크' 온다웰뱅워킹·모니모 앱, 걸음 수 따라 보상네이버 영수증 리뷰, 포인트 쌓는 재미사진=게티이미지뱅크고유가·고물가·고금리 등 '3고' 현상이 이어지고 있는 가운데 '현대판 자린고비'가 눈에 띈다. 몇 년 전까지만 해도 '플렉스(재력이나 귀중품 등을 과시하는 행위', '욜로(인생은 한 번뿐)'가 소비 트랜드를 이끌었지만 물가가 치솟자 돈을 쓰는 것보다 아끼는 것에 주목하는 이들이 늘고 있다. 한푼한푼 아끼기 위해선 금융상품이나 서비스를 똑똑하게 골라 적재적소에 활용하는 것이 도움이 된다. 고물가 시대 생존을 위한 '짠테크(짠돌이·짠순이+재테크)' 방법을 소개한다. ◇"걷기만 해도 돈이 쌓이네" = 지갑 열기가 무서운 고물가 시대 속 생존법 중 하나로 '앱테크'가 인기를 끌고 있다. 앱 이용자는 일상을 보내며 용돈을 벌 수 있고 금융사들은 앱테크 콘텐츠를 통해 고객과의 접점을 확대할 수 있다는 평가다. 가장 대표적인 건 걸음 수에 따라 보상을 제공받는 '만보기' 기능이다. 흔히 알고 있는 토스 만보기는 사용자 휴대폰에서 측정된 걸음 수와 위치 정보로 보상을 주는 시스템을 갖추고 있다. 1000걸음, 5000걸음을 완료하면 10원씩 얻을 수 있으며 1만 걸음 완료 시 20원을 받을 수 있다. 토스에서 지정해주는 장소에 가면 하루 최대 140원까지 모으는 것도 가능하다. 재미 요소도 있다. 걸음 수에 따라 소모한 열량, 또래 평균 걸음 수도 확인이 가능하며 토스는 앱에 '만보기 오픈채팅방'을 만들어 이용자 간 커뮤니티 기능도 추가했다. 하지만 뭐니뭐니해도 쌓인 금액을 바로 사용할 수 있는 게 최대 강점. 토스 앱을 이용해 출금하거나 기프티콘을 구매해 사용할 수도 있다. 아울러 토스페이의 7000여 개 가맹점에서 활용할 수 있다는 점 역시 매력적이다. 웰컴저축은행도 지난달 헬스케어 서비스 '웰뱅워킹'을 선보였다. 누적 걸음수가 5만 보 이상일 경우 보상을 수수료 없이 고객의 계좌로 바로 현금 지급하는 방식이다. 보상은 5만 보씩 총 20만 보까지 4개의 구간에 나뉘어 지급된다. 각 구간을 달성할 때마다 500원이 지급되며 10만 보가 초과되면 구간마다 500원이 추가 지급된다. 한 달 동안 20만 보 이상을 걸으면 최대 3000원이 쌓이게 된다. 삼성 금융사들 역시 삼성금융네트웍스의 통합 앱 '모니모'에 이 같은 기능을 추가했다. 모니모 이용자는 걸음 수에 따라 보상 '젤리'를 받아 '모니머니'로 교환·사용할 수 있다. '모니머니'는 보험가입, 송금, 펀드투자 등에 현금처럼 사용할 수 있다. 삼성금융 관계자는 "삼성금융네트웍스의 첫 번째 서비스인 모니모를 통해 일상적인 송금이나 걷기 활동만으로도 이용자들에게 혜택을 드리고자 했다"고 설명했다. ◇"버린 영수증도 다시 보자" = 일상 속 작은 습관을 바꾸는 것으로도 '앱테크족'을 위한 첫 걸음이 될 수 있다. 무심코 버려지는 영수증에 주목해야 하는 이유다. 네이버는 '마이플레이스 영수증 리뷰' 서비스를 선보이고 있다. 이용자가 오프라인 상점을 방문한 뒤 영수증 사진과 함께 방문 후기를 올리면 네이버가 포인트를 제공하는 식이다. 첫 방문한 가게는 50원, 재방문이라면 10원을 지급한다. 앱테크족의 호응에 해당 서비스는 2019년 개시 이후 약 1년 만에 이용 건수가 1억 건을 넘어서기도 했다. 평소보다 조금 더 신경 써 운전할 경우 포인트를 챙길 수 있는 점도 눈여겨볼 만 하다. 삼성화재는 앱에서 '착!한드라이브' 서비스를 진행하고 있다. 차량 주행 정보를 바탕으로 산출된 안전운전 점수를 확인한 뒤 점수에 따라 포인트를 지급하는 식이다. 안전운전에 따른 포인트는 1회 최대 100포인트, 월 최대 5000포인트까지 적립된다. 급가속, 급감속, 급회전 등 횟수 측정도 가능해 주행 문제점도 확인할 수 있다. 포인트는 보험료를 납입하거나 모바일 쿠폰 구입 혹은 기부에 사용할 수 있다. 삼성화재 관계자는 "1인 1스마트폰 시대에 앱은 소비자와 밀접한 관계를 형성할 수 있는 중요한 채널"이라며 "앱을 통해 고객이 필요로 하는 콘텐츠를 제공해 소비자 접점을 확대할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>"유럽이 코로나 확산 온상"... 유명 관광지에 BA.5까지</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000685025?sid=104</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>그리스·스페인 등 휴양지서 확산 두드러져 면역 회피 변이 바이러스 BA.5 주도지난 1일 스페인 동부 해안도시 알리칸테 해변이 휴가를 보내는 인파로 가득 차 있다. 알리칸테=EPA 연합뉴스유럽 내 코로나 확진자 수가 다시 급증하고 있다. 감염 중심지는 유명 관광지다. 감염이나 기존 백신으로 생긴 면역도 회피하는 오미크론 하위 변이인 BA.5가 각지에서 몰려든 관광객을 매개로 유럽 대륙으로 빠르게 퍼질 수 있다는 우려가 나온다. 세계보건기구(WHO)도 "유럽이 코로나19 재확산의 온상"이라고 경고했다.유명 관광지 중심으로 코로나19 확산6일(현지시간) 블룸버그통신에 따르면 마이클 라이언 WHO 긴급대응팀장은 이날 언론 브리핑에서 "우리는 훨씬 더 강력한 유행이 유럽을 다시 통과하고 있는 것을 보고 있다"며 "이는 곧 다른 지역에서도 일어날 것"이라고 말했다. 프랑스에서는 석 달 만에 가장 많은 코로나19 신규 확진자(20만6,554명)가 나왔다. 독일에서는 코로나19로 인한 사망자 수가 최근 일주일간 500명에 달했다. 독일 보건당국은 "수용할 수 없을 정도로 높은 수준"이라고 우려했다. WHO가 유럽을 코로나19 재확산의 중심으로 지목한 것은 유럽 내 유명 관광지에 여름 휴가객이 한꺼번에 몰리고 있어서다. 전면 봉쇄 조치를 했을 때와 달리 이동이 비교적 자유로워지면서 유명 관광지가 코로나19 확산의 통로 역할을 하고 있다.여름 휴가철이 본격 시작되자 유명 관광지가 많은 남부 유럽을 중심으로 확진자가 늘고 있다. 그리스 보건당국은 지난 주말 신규 확진자가 1만1,700명으로 전주 대비 3배 늘었다고 밝혔다. 확진자가 많이 나온 지역도 △코르푸 △케팔로니아 △자킨토스 등 인기 관광지였다.스페인에서도 최근 코로나19 확진자가 지난달보다 60% 이상 증가했다. 역시 △마요르카 △이비사 △메노르카 등 북유럽 국가에서 선호하는 휴양지가 감염 확산의 중심지 역할을 했다. 현지 의료진은 확진 사실을 신고할 법적 의무가 사라진 만큼 실제 감염자는 이보다 많을 것으로 추정하고 있다.지난달 23일 피서객들이 그리스 아테네의 알리모스 해변에서 휴양하고 있다. 아테네=AP면역 회피하는 BA.5가 확산 주도BA.5가 확산을 이끄는 것도 걱정거리다. 마요르카의 한 대형병원 바이러스학자인 안토니오 올리버는 "현재 모든 감염의 80%가 BA.5"라고 가디언에 말했다. BA.5의 전파속도는 현재 코로나19 우세종인 BA.2(스텔스오미크론)보다 35% 빠른 것으로 알려져 있다. 보건 전문가들은 전파력이 강하고, 자연 감염이나 백신으로 생긴 면역을 회피하는 특성을 가진 BA.5가 조만간 우세종이 될 것으로 전망한다. 미국에선 이미 BA.5가 주도권을 잡았다. 미 질병통제예방센터(CDC)는 5월 초만 하더라도 1%에 그쳤던 BA.5가 미국에서 우세종이 됐다고 지난 5일 밝혔다. WHO는 유럽과 미국을 중심으로 BA.5가  확산하며 최근 2주간 코로나19 감염자가 전 세계적으로 30% 이상 증가했다고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>“직원들 열받았다?” 낙하산 채용 ‘이 여자’ 정체 알고보니</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002014237?sid=105</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>세콰이어차이나의 가상인간 ‘홍’. [세콰이어차이나 홈페이지 캡처][헤럴드경제=박혜림 기자] “취업난 심각한데… 가상인간이 일자리까지 뺏나?”중국계 유명 투자회사가 가상인간(Virtual Human)을 직원으로 채용해 화제다. 가상인간을 직원으로 채용하는 사례가 잇따르면서 사람의 일자리까지 뺏는 것 아니냐는 우려의 목소리까지 나온다. 관련업체 직원들도 당혹스럽다는 반응이다. 회사에서 정체를 밝히기 전까지 가상인간이라는 사실을 알지 못한 직원도 많았다.중국계 투자회사 세콰이어차이나는 11일 처음으로 가상인간 직원을 채용했다고 밝혔다.‘홍’이라는 이름의 가상인간 직원은 20~30대 여성의 외모에 사람과 같이 대화와 상호작용이 가능하다. 세콰이어차이나는 국내에서도 토스, 마켓컬리 등에 투자한 ‘큰손’이다.세콰이어차이나에 따르면 가상인간 직원 홍은 콘텐츠 제작과 투자 관련 대부분의 일에 투입될 예정이다. 또 모든 부서의 업무를 지원할 계획이다.완커그룹 사원으로 입사한 가상인간 ‘추이 샤오판’. [온라인커뮤니티 캡처]최근 중국에서는 가상인간을 직원으로 채용하는 사례가 늘고 있다. 중국 최대 포털 바이두는 인건비 절감을 위해 고객들에게 1대1 서비스를 제공하는 가상인간을 선보였다. 중국 대표 기업 화웨이도 첫 가상인간 직원인 ‘윤셍’을 채용했다.가상인간 직원에게 ‘우수직원상’을 주는 업체도 있다. 최대 부동산개발업체 ‘완커그룹’의 이사회 의장이 가상인간 직원 ‘추이 샤오판’에게 올해의 최우수신인사원상을 수여했다. 직원들은 황당하다는 반응을 보였다. 한 사원은 “우수사원상을 한 명 덜 줘도 되겠다”고 조롱했고, 다른 사원은 “진정한 동료를 소중히 여겨야 한다”며 비판했다.업계에서는 가상인간이 인건비 절감 효과까지 있어 앞으로 더욱 다양한 형태의 가상인간 직원이 등장할 것으로 보고 있다.위안 포위 바이두 부사장은 “AI(인공지능)기술의 발전으로 가상인간 제작비용과 제작기간이 크게 단축될 것”이라면서 다양한 산업에서 가상인간이 대규모로 적용될 날이 머지않았다고 내다봤다.한편 LG경제연구원이 발표한 ‘일자리 위험진단 보고서’에 따르면 우리나라도 일자리의 43%가 AI(인공지능) 등 가상인간으로 대체될 고위험군으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>[I2F 2022] "아이뉴스24 금융포럼, 투자 문화·교육·참여의 장 될 것"</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000683817?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>홍성국 국회의원·김용환 한국FPSB회장·홍민택 토스뱅크 대표 등 축하와 격려 전해아이뉴스24가 최적의 투자처를 찾기 어려운 상황에서 다양한 분야의 전문가로부터 현명한 재테크 노하우를 듣는 장을 마련했다.아이뉴스24는 7일 오후 2시10분 전국은행연합회 은행회관 국제회의실에서 'MZ세대 대체투자'를 주제로 금융포럼을 진행했다고 밝혔다.정보통신기술(ICT)에 강한 종합경제 미디어 아이뉴스24가 주최한 '제 2회 금융포럼'이 'MZ세대 대체투자'를 주제로 7일 오후 서울 중구 명동 은행연합회 국제회의장에서 열린 가운데 박동석 아이뉴스24 사장 겸 편집인이 개회사를 하고 있다. [사진=김성진 기자]이번 포럼에서는 변동성 장세를 이겨내기 위한 다양한 해외주식 투자와 AI(인공지능)를 활용한 간접투자와 가상자산, 미술품 등에 투자하는 아트테크(아트+재테크)는 물론 안정적인 노후보장을 위한 보험과 생애전반에 걸친 자산관리와 투자방법이 제시됐다.본격적인 포럼 행사에 앞서 열린 개회식에서 박동석 아이뉴스24 사장 겸 편집인은 "현재를 냉엄하고 냉철하게 보면서 합당한 미래를 맞을 준비를 해야 한다"고 강조했다.박 사장은 디지털 기술 발전과 함께 성장한 MZ세대를 주제로 금융포럼을 개최한 것에 대해 정보통신기술(ICT)에 강한 종합경제 미디어를 추구하는 아이뉴스24에 부합하다며, 최근 세계 경제의 흐름에 빗대어 재테크 접근 방식의 중요성을 전했다.또 그는 "아이뉴스24가 이번 금융포럼에서 좀 더 넓고 깊은 투자 방안을 제시하고 성공적인 투자를 돕는 역할을 하도록 준비했다"라며 "우리나라의 경기 상황에 대해서 제대로 알고 접근해야 한다. 엘리베이터 안에 있으면 밖에는 안 보이는 것처럼 현재를 냉엄하고 냉철하게 보며 합당한 미래를 맞을 준비를 해야 한다"고 강조했다.정보통신기술(ICT)에 강한 종합경제 미디어 아이뉴스24가 주최한 '제 2회 금융포럼'이 'MZ세대 대체투자'를 주제로 7일 오후 서울 중구 명동 은행연합회 국제회의장에서 열린 가운데 홍성국 더불어민주당 의원이 축사를 하고 있다. [사진=김성진 기자]홍성국 더불어민주당 국회의원은 축사를 통해 "지난 23년간 젊은 MZ세대가 투자 시장에 많이 들어왔지만 현재 시점에서 보게 되면 거의 다 손실이 났을 것"이라며 "그 이유는 제대로 금융 교육을 받지 않은 상태에서 투자에 너무 빠르게 성급하게 뛰어들었다는 측면도 우리가 부인할 수 없다"고 강조했다.홍 의원은 "우리나라가 금융의 세계적인 강국이 되기 위해서는 금융 교육을 활성화해 많은 투자자들이 제대로 된 투자의 기법을 어려서부터 배워나가고 그것을 현실에 응용하고, 타협과 투자를 구분할 수 있는 이런 투자 문화가 형성이 돼야 한다"면서 "이런 금융 포럼을 통해서 투자하는 문화와 교육 또는 사회적 참여가 이뤄지길 바란다"고 전했다.정보통신기술(ICT)에 강한 종합경제 미디어 아이뉴스24가 주최한 '제 2회 금융포럼'이 'MZ세대 대체투자'를 주제로 7일 오후 서울 중구 명동 은행연합회 국제회의장에서 열린 가운데 김용환 한국FPSB 회장이 축사를 하고 있다. [사진=김성진 기자]이어 축사를 전한 김용환 한국FPSB 회장은 "우리 사회의 미래 주역인 MZ세대와 코로나 펜데믹 이후 투자대상으로 급부상하고 있는 대체투자를 함께 다룬다는 점에서 매우 큰 시의성이 있다"면서 "MZ세대는 정치와 경제는 물론 우리나라 사회 문화 전반에 새로운 주역으로 자리잡고 있고, 많은 것들을 새롭게 개척하고 있다"고 역설했다.김 회장은 "MZ세대 투자의 중심에는 금이나 원자재 같은 전통적인 자산뿐만 아니라 암호화폐나 미술품 등 그 범위가 다양해지고, 리셀과 같은 취미생활이 대체투자로 변한다"면서 "오늘 포럼이 조각투자와 대체투자로 대변되는 MZ세대의 투자 행동에 대한 기준을 정립할 수 있는 아주 적절한 주제들로 채워져 있다"고 했다.홍민택 토스뱅크 대표가 7일 오후 열린 제2회 아이뉴스24 금융포럼 'MZ세대 대체투자'에서 영상으로 축하 인사를 전하고 있다. [사진=아이뉴스24DB]끝으로 홍민택 토스뱅크 대표는 영상 축사를 통해 "무엇보다 금융시장에서 MZ세대의 중요성이 점점 높아지고 있는 시점에 이런 공론의 장이 생긴 것을 뜻깊게 생각한다"며 "오늘의 논의가 MZ세대가 금융의 '주변인'이 아닌 당당하고 성숙한 미래 금융산업의 '주인'으로서 성장할 수 있는 토대가 될 것으로 기대된다"고 했다.홍 대표는 "금융을 이용하는 고객들의 삶은 매우 복잡하고 다양해지고 있고, 그에 부응하기 위한 금융 산업도 빠르게 변화하고 있다"며 "토스뱅크도 신생은행으로서 초심을 잃지 않고 고객 지향적이고, 혁신적인 그리고 포용의 금융을 위한 도전과 변화를 만들어 갈 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>“바닥은 언제?”…국내·외 유니콘 기업들 몸값 폭락 중</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003702511?sid=102</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>추락하는 유니콘…티몬 기업가치 작년의 10분의 1유망 해외 기업들, 경기 악화에 주가도 폭락“매각은 아니지만 여러 투자자들과 전략적 제휴와 투자를 논의 중인 건 사실이다." 티몬 측이 일주일 전에 보도가 나온 매각설에 대해 묻자 한 말입니다. 지난 6월 27일 티몬 인수를 두고 경합해오던 토스페이먼츠가 인수 의사를 철회하면서 큐텐이 단독으로 협상 중이라는 기사가 났습니다.매각 소식보다 더 놀라운 건 떨어진 티몬의 기업 가치입니다. 논의 중이라고 알려진 티몬의 매각 가격대는 2000억원대입니다. 지난해까지만 해도 몸값 2조원이 거론됐습니다. 그때와 비교하면 10분의 1 수준으로 떨어진 셈입니다. 창업 1년 만인 2011년 처음 티몬이 리빙소셜에 매각된 가격은 3000억원입니다. 2015년 외국계 사모펀드 운용사 콜버그크래비스로버츠(KKR)와 앵커가 티몬 경영권을 인수했을 때 기업 가치는 8600억 원이었습니다. 한때 나날이 몸값이 치솟던 회사가 티몬입니다. 티몬 측은 2000억원대 기업 가치에 대해 “어디서 매긴 기업 가치인지 모르겠지만 우리 회사는 그 금액에 대해 드릴 말씀이 없다"고 선을 그었습니다.6개월만에 서비스를 중단한 티몬 슈퍼마트. /티몬 유니콘(비상장이면서 기업가치 1조원 이상 스타트업)으로 조 단위의 몸값을 자랑하던 티몬이 이렇게까지 추락하게 된 이유는 뭘까요? 여러 이유가 있겠지만 업계는 중장기적인 관점 대신 단기적으로 마이너스 수익 개선에만 열을 올린 것이 문제라고 평가합니다. 대표적으로 티몬이 6개월 만에 철수한 생필품 최저가 판매 서비스 ‘슈퍼마트’ 서비스가 있습니다. 티몬 홈페이지나 앱에서 '슈퍼마트' 상품을 주문하면 가까운 배송지까지 3시간 이내에 상품을 받을 수 있는 서비스입니다. 하지만 티몬은 이 사업에서 결국 발을 뺐습니다. 빠른 배송은 오랜 기간 큰 돈을 쏟아부어야 하는 사업입니다. 조 단위의 투자를 계속 해야 하는 전자상거래 시장에서 티몬이 할 수 있는 것은 많지 않았습니다.몸값을 내려도 투자자를 찾기 힘든 부릉. /부릉 홈페이지 캡처 유니콘 도약을 눈 앞에 뒀던 배달 대행 서비스 ‘부릉’의 운영사인 메쉬코리아도 ‘셀프 세일’을 하고 있습니다. 하지만 국내·외 투자유치에서 잇따라 실패의 쓴 맛을 보고 있습니다. 최근에는 기업 가치를 6000억~7000억원으로 매겨도 투자를 하겠다는 곳이 좀처럼 나타나지 않고 있습니다. 투자 유치로 기업가치 1조원 이상을 받을 것으로 기대했지만, 지금은 한발 물러선 모양입니다.유니콘 기업들이 외형적으로는 커졌지만 손실도 함께 늘어나며 투자자들의 기대를 충족시키지 못했기 때문이라는 분석이 있습니다. 메쉬코리아 매출은 2019년 1614억원에서 지난해 3038억원으로 늘었습니다. 하지만 같은 기간 판매비와 관리비 역시 1737억원에서 3406억원으로 늘었습니다. 이 때문에 영업손실은 122억원에서 315억원, 당기순손실은 156억원에서 355억원으로 증가했습니다. ◇미국 유니콘 기업들도 몸값 하락 중우리나라 유니콘만 상태가 좋지 못한 것이 아닙니다. 전 세계 경기가 나빠지고 기업들의 주가가 폭락하는 가운데 해외 유니콘 기업들의 몸값도 1년 전에 비해 큰 폭으로 하락하고 있습니다.기업가치가 1년전과 비교해 7분의 1로 폭락한 클라르나. /클라르나 홈페이지 캡처 블룸버그와 같은 외국 언론은 최근 BNPL(후불결제서비스) 업체 클라르나의 기업가치가 1년 전과 비교해 7분의 1 수준으로 폭락했다고 보도했습니다. 스웨덴 핀테크 기업인 클라르나는 2005년 2월 스웨덴 스톡홀름 경제대학 석사과정이던 1981년생 세바스티안 시에미아트코프스키(Sebastian Siemiatkowsk)가 동기 2명과 만든 후불결제 서비스입니다. 클라르나는 신용카드가 없어도 무이자 후불로 상품을 구매할 수 있도록 해줍니다. 정해진 결제일에 연체 없이 돈을 내기만 하면 무이자입니다. 4회 할부도 가능합니다. 클라르나는 코로나19로 비대면 주문이 늘면서 큰 인기를 끌었습니다. 하지만 최근에는 투자를 받기 위해 몸값을 몇 차례 낮췄습니다. 1년 전 기업가치는 456억달러(59조2000억원)였지만 지금은 그에 한참 못 미치는 60억달러(7조8000억원)로 신규 투자 유치를 하고 있습니다. 처음에는 기업가치를 500억달러로 산정해 신규 투자를 유치했지만 투자자를 모으기 쉽지 않자 몸값을 300억달러로 내렸습니다. 그래도 투자자가 나서지 않자 지난 6월에는 이를 150억달러로 더 낮췄습니다. 하지만 결국 몸값을 60억달러까지 내리는 신세가 됐습니다.지난 5월 클라르나는 경영난을 겪고 있다는 것을 공식적으로 드러냈습니다. 전세계 인력의 10%를 줄이겠다고 발표한 것인데요. 세바스티안 시에미아트코프스키 클라르나 최고경영자(CEO) 겸 창업자는 5월 23일(현지시각) 영상을 통해 인력 감축을 시사하면서 “직원을 줄인다는 것은 힘든 결정이지만, 회사가 성공하려면 (감원이) 꼭 필요하다"고 말했습니다.◇세상에서 가장 비싼 스타트업, 스트라이프…지금은?이런 사례는 클라르나뿐 아닙니다. 세계에서 가장 비싼 스타트업이라는 평가를 받았던 ‘스트라이프(Stripe)’도 사정이 다르지 않습니다. 최근 투자사 피델리티(Fidelity Investments)는 스트라이프의 비상장 주식을 주당 27.15달러로 평가했습니다. 올해 4월까지만 해도 피델리티는 스트라이프의 보유 가치를 32.05달러로 평가했습니다. 그때보다 15% 떨어진 셈입니다.스트라이프를 창업한 패트릭 콜리슨, 존 콜리슨 형제. /스트라이프 홈페이지 캡처 스트라이프는 2010년 아일랜드 출신 패트릭 콜리슨, 존 콜리슨 형제가 설립한 전자지급 결제대행(PG) 기업입니다. 블룸버그는 스트라이프를 ‘일곱 줄의 코드’(Seven lines of code)로 소개한 바 있는데요. 실제로 이 서비스는 코드 몇 줄만으로 자사 홈페이지에 결제 시스템을 설치할 수 있어 기업들의 각광을 받았습니다. 스트라이프는 지난해 944억달러(112조원)의 기업가치를 평가 받으면서 미국에서 가장 비싼 유니콘 스타트업에 등극했습니다. 상장 전 페이스북이나 우버보다 더 높은 가치평가를 받은 것입니다. 특히 지난 코로나19 팬데믹 2년간 빠르게 성장했습니다. 하지만 꾸준한 성장세를 이어오던 스트라이프 조차 투자 유치에 어려움을 겪고 있습니다. 투자를 받기 위해 그동안 크게 치솟았던 몸값을 낮추는 ‘다운그레이드’ 현상은 전세계적으로 확대될 가능성이 높아 보입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>앞으로 10년, 세계를 지배할 디지털 키워드</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004765596?sid=110</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[리더를 위한 북(book)소리]▲최보기 북칼럼니스트TGIF는 Thank God It’s Friday(신이여, 감사합니다. 드디어 금요일입니다) 줄임말로 주말을 맞이하는 기쁨이 담겨 있다. 미국의 유명 패밀리 레스토랑이 이를 상호에 이용했는데 21세기 정보화 시대가 성숙하면서 정보통신혁명을 선도하는 4대 뉴미디어 기업을 대변하는 뜻으로도 활용됐다. 트위터(T), 구글(G), 아이폰(I), 페이스북(F)인데 모두 실리콘 밸리가 있는 미국이 본거지다.그러나 어느덧 세계는 제4차 산업혁명시대로 변해 TGIF는 벌써 옛말이 됐고, 팡(FAANG)이 기술세계를 주도하고 있다. 애석하게도 인천 월미도 공원의 그 유명한 ‘디스코 팡팡’이 아니다. 페이스북(F-meta), 애플(A), 아마존(A), 넷플릭스(N), 구글(G)인데 여전히 미국이다. 국내에서는 네이버, 배민(배달의 민족), 카카오, 쿠팡, 마켓컬리 같은 기업들이 팡과 맥락을 같이한다.지난 세기 말 인터넷이란 괴물이 인류를 덮쳤을 때 전문가들은 ‘인터넷 다음에 분명히 뭔가가 있다. 그게 무엇일지는 모르지만’이라 호들갑을 떨었는데 그것은 스마트폰이었다. 팡의 플랫폼 역시 사실상 스마트폰이다. 지금 전문가들은 다시 ‘스마트폰 다음에 분명히 뭔가가 있다. 그게 무엇일지는 모르지만’이라 호들갑이다.저 머나먼 386 컴퓨터 시대에 컴퓨팅 전문기자로 출발해 IT시장조사 및 컨설팅 기관인 KRG에서 잔뼈가 굵은 김창훈의 역작 &lt;넥스트 팡&gt;은 스마트폰 이후 10년을 주도할 디지털 핵심기술세계의 흐름과 팡을 밀어낼 미래 기업의 10가지 조건, 그러한 잠재력을 가진 후보 기업 50개를 엄선한 향후 10년 예언서다. 이 50개 기업 명단에 한국의 금융 핀테크 기업 비바리퍼블리카가 끼어 있다.설립된 지 겨우 10년 차인 비바리퍼블리카는 간편송금 플랫폼 토스(TOSS) 서비스를 제공하는 인터넷전문은행이다. 20년 차인 스페이스X는 테슬라 창업자 앨런 머스크가 설립했다. 지난 6월 21일 순수 국내기술로 완성한 누리호의 발사 성공으로 온 나라가 흥분했는데 스페이스X는 2021년에 100번째 로켓 발사에 성공하며 우주개척에 이정표를 세웠다. 오로라이노베이션은 놀랍게도 설립 4년 차 기업이다. 자율주행차 시장의 게임 체인저로 평가받는데 현대차가 이 신생기업에 전략적 투자를 결정, 레벨4 자율주행차 개발에 나서고 있다. 나머지 47개 기업 역시 앞의 예처럼 혁신적 기술과 서비스로 무장한 신예들이다.저자 김창훈은 ‘넥스트 팡’ 기업이 될 수 있는 조건 10개를 들었는데 첫째가 ‘선한 의도를 가진 착한 기업’이다. 성공한 글로벌 기업들은 대부분 ‘도덕적 기준을 충족시키기 위해 노력했고, 지금 세상을 이전보다 더 나은 세상으로 만들겠다는 선한 의지가 사업에 반영됐다’는 것을 알아냈다.1960년대 미국 차세대 전투기 F-4의 원가에서 소프트웨어가 차지하는 비율은 8%였다. 2020년대 F-35의 원가 중 소프트웨어 비중은 90%가 넘는다. 이 충격적인 변화를 읽어야 미래를 읽을 수 있다. 역사적으로 봤을 때 100년을 내다보면 화형을 당했고, 50년을 내다보면 미친 사람으로 취급당했다. 10년만 내다보는 것이 딱 적당하다. 정보통신 기술세계에서 10년은 강산이 열 번 변하는, 긴 시간이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>[인사이드 스토리]"씨티은행 대출, 어디로 갈아탈까요"</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000009001?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>우대금리 제각각…은행별 대출금리 살펴야씨티은행 대출 잔액 범위 내 대환 가능이달 1일부터 금융권에 총성 없는 전쟁이 시작됐습니다. 한국씨티은행이 소비자금융 부문 폐쇄를 시작하면서 씨티은행이 보유한 신용대출을 유치하려는 은행들의 경쟁이 본격화됐기 때문인데요.각 은행들은 자신들의 신용대출 상품으로 갈아타면 적극적으로 우대 금리 혜택을 제공해 고객을 모시겠다는 전략입니다. 가뜩이나 신규 대출 수요가 없는 상황이라 8조원에 달하는 씨티은행 신용대출은 은행들이 충분히 탐낼만한 먹잇감이죠. ▷관련기사: 8조 씨티은행 신용대출 두고…시중은행 '엎치락뒤치락'(7월2일)씨티은행에서 대출을 받는 금융 소비자들은 어떤 은행으로 갈아탈지 고민이 많을 텐데요. 각 은행들이 내세운 조건이 어떤지 한 번 살펴보겠습니다./그래픽=유상연 기자 prtsy201@우대금리 제각각…이유는?씨티은행 대환대출 상품을 출시한 곳은 KB국민‧신한‧하나‧우리은행‧토스뱅크 등 5곳입니다. 각 은행들은 하나같이 "자기들 은행으로 오면 우대금리 팍팍 주겠다"고 적극 홍보하고 있는데요.눈에 보이는 편차는 큰 편입니다. KB국민은행은 최대 0.4%포인트, 토스뱅크는 0.3%포인트 수준인데요. 이에 반해 신한은행과 우리은행은 각각 1.6%포인트와 1.5%포인트, 하나은행은 최대 3%포인트에 달합니다.지금처럼 금리 인상이 가파른 시기에는 0.1%포인트도 소중합니다. 표면적인 격차는 최대 2.7%포인트 차이가 나니 '쉬운 선택이 아닐까' 라는 생각이 들 수도 있는데요.편차가 커 보이는 것은 씨티은행과 대환대출 협약을 맺은 은행들이 있어서입니다. 씨티은행은 KB국민은행, 토스뱅크와 대출 이용자들이 승계를 편리하게 할 수 있도록 협약을 체결했습니다. 두 은행은 갈아타려는 차주가 씨티은행에서 취급한 대출 상품의 금리를 기준으로 우대금리를 제공합니다. 가령 지난해 말 신용등급 3등급인 A씨가 씨티은행에서 금리 6.47%(은행연합회), 변동 주기 12개월로 신용대출을 받았다고 하죠. A씨가 KB국민은행으로 대환대출 하면 최대 우대금리를 적용받을 경우 금리는 6.07%가 됩니다.협약을 맺지 않은 신한‧하나‧우리은행은 기존 씨티은행에서 받은 대출을 갚고 해당 은행에서 새로 대출을 받는 구조인데요. 그런 만큼 현재 각 은행들이 취급하는 신용등급별 신용대출 금리에서 각 조건에 맞는 우대금리를 적용하면 됩니다.하나은행을 예로 들어 볼까요. 차주의 신용등급이 3등급이면 하나원큐신용대출(중금리) 금리는 6.2~6.8% 수준입니다. 여기에 우대금리 최대 3%를 적용받으면 3.2~3.8% 수준이 될 텐데요. 우리은행과 신한은행도 우대금리를 최대로 적용하면 3%대의 금리가 될 것이라고 설명합니다. 실질적으로 큰 차이는 없는 셈이죠.그런 만큼 갈아타기 할 경우엔 씨티은행에서 적용받는 금리가 어느 수준인지, 내 신용등급과 우대금리를 충족할 수 있는지 등을 꼼꼼히 따져보는 게 중요합니다. 작년 하반기 이전에는 저금리 상황이었던 것 기억하시죠. 대출 시점과 금리 변동 주기에 따라 협약을 맺은 은행으로 대환대출 할 때 금리가 크게 달라질 수 있습니다.대출규제 바뀌었는데…한도는?대환 대출 신청자들은 한도에 대한 걱정도 클 겁니다. 1일부터 신용대출 한도가 소득 100% 이내에서 차주단위 DSR로 변경돼 여유가 생기는 것 같지만 DSR 3단계(대출 1억원 이상 적용)가 적용되기 시작했기 때문이죠. ▷관련기사: 신용대출 한도 는다지만 더 세지는 DSR 규제는?(6월29일)이에 한도를 강조하는 은행들도 있습니다. 우리은행은 최대 3억원, 하나은행은 2억2000만원, 신한은행은 5억원까지 가능하다고 강조했는데요. 큰 의미는 없는 숫자입니다. 대출 한도는 기존 씨티은행에서 받았던 금액 내에서만 가능해서죠.그 동안 씨티은행은 다른 시중은행보다 상대적으로 대출 문턱이 낮았던 곳이었습니다. 외국계 은행이라 자금조달 금리와 한도 산정 기준들이 달랐던 까닭인데요. 타 은행에서 추가 대출이 되지 않을 경우 씨티은행에서 대출을 받는 차주들이 많을 것이라는 게 은행권 설명입니다.한 시중은행 관계자는 "씨티은행 고객 대부분 다른 은행에서 대출을 받은 중복 고객이 많을 것"이라며 "은행들이 내세운 한도는 고소득 전문직들의 최대 한도를 강조한 것이라 실제 대환대출 고객 중에는 해당사례가 거의 없을 가능성이 크다"고 말합니다.대출규제 역시 금융위원회가 씨티은행 대환대출에 대해선 대출금 증액이 없다면 가계대출 규제 예외를 인정하기로 해 고민할 필요는 없어 보입니다. 예를 들어 하나은행에 기존 대출이 있고 씨티은행에서 받은 대출을 하나은행으로 대환하려고 한다면 대환대출에 대해선 DSR 규제가 적용되지 않아 대환이 가능하다는 의미죠.대출 편의성에서도 차이가 있습니다. 씨티은행과 협약을 맺은 KB국민은행과 토스뱅크는 대출 정보를 전산을 통해 공유해 비대면으로 대환대출이 가능한데요. 반면 다른 은행들은 영업점 방문이 필요할 것으로 보입니다.금리와 한도, 대출 편의성 등을 종합적으로 고려해 씨티은행 고객들이 갈아타기 할 새로운 은행을 선택할 텐데요. 대출 받아본 경험이 있다면 알겠지만 우대금리를 조금이라도 더 받으려면 급여이체 통장을 만들거나 해당 금융그룹의 카드 실적 등 추가 거래가 중요합니다. 새로운 주거래 은행이 되는 셈이죠.이는 은행들이 적극적으로 씨티은행 대환대출 고객 유치에 나서는 이유이기도 한데요. 동시에 소비자 입장에선 단순 대환대출이 아니라 주거래 은행을 만든다는 생각으로 접근할 필요가 있습니다. 그 만큼 신중해야 한다는 의미인데요. 과연 8조원에 달하는 씨티은행 대환대출 상품 경쟁에서 소비자 선택을 받는 은행은 어디일까요.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>마이크로바이오틱스 "내년 슈퍼박테리아 치료제 임상 1상 목표"</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004722585?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[KBIC 2022] 용동은 대표 발표“슈퍼박테리아는 문제가 날로 심각해지고 있지만 마땅한 치료제가 없습니다. 부작용이 없는 박테리오파지로 항균제 개발에 해법을 내놓겠습니다.”용동은 마이크로바이오틱스 대표는 11일 한국경제신문 주최로 열린 ‘2022 대한민국 바이오투자 콘퍼런스(KBIC 2022)’에서 이같이 말했다. 마이크로바이오틱스는 박테리오파지 라이브러리(집합체)와 장내 미생물(마이크로바이옴)을 활용한 슈퍼박테리아 치료제 개발에 집중하고 있다.슈퍼박테리아는 다제내성균의 다른 이름이다. 다제내성균은 인류가 직면한 질병 위기 중 하나다. 2014년 한 연구에 따르면 다제내성균 감염 사망자는 2050년 세계적으로 1000만명에 이를 것으로 예상된다. 여러 항균제에 내성을 갖고 있는 다제내성균이 속출하고 있어서다. 그람양성균에 유효한 항균제로 여겨지는 카바페넴에 대한 내성 보고 사례가 최근 급격히 늘고 있다는 점도 불안 요소다.마이크로바이오틱스는 용동은 연세대 의대 교수가 연세의료원 교원벤처로 2016년 설립했다. 연대 의대의 각 분야 전문가가 슈퍼박테리아 치료제 개발을 위해 이곳에서 머리를 맞대고 있다. 용 대표는 “진단검사의학과 출신인 저를 비롯해 소화기내과 호흡기내과 감염내과 등 연세대 의대의 다양한 연구 인력이 합류했다”고 말했다.  마이크로바이오틱스는 박테리오파지를 이용한 다제내성 녹농균 표적 치료 후보물질인 ‘MP001’을 주력 파이프라인(후보물질)으로 개발하고 있다. 현재 전임상 단계다. 용 대표는 약 15년 동안 300여종의 세균 용해성 박테리오파지를 발굴해 자체 라이브러리를 확보했다. 그는 “박테리오파지는 부작용 우려가 없다”며 “미국 식품의약국(FDA)도 건강한 성인을 대상으로 하는 1a상이 불필요하다는 데에 동의하고 있다”고 했다. 마이크로바이오틱스는 MP001을 정맥주사(IV) 형태로 개발할 예정이다. 용 대표는 “이미 인실리코 실험에서 분무 형태로 만든 제형과 IV 투여가 비슷한 효과가 난다는 걸 확인했다”고 말했다. 박테리오파지는 섭씨 4도 냉장 보관이나 상온 보관 형태로도 유통이 가능하다고 했다. 마이크로바이오틱스는 후속 박테리오파지 후보 발굴이 가능한 플랫폼인 ‘커스토스(CUSTOS)’도 구축했다. 이 플랫폼을 이용하면 1000여종의 병원균을 표적으로 하는 박테리오파지 라이브러리와 미생물총은행(마이크로바이오타)의 확장이 가능해 파이프라인 확대가 용이하다는 설명이다. 이 업체는 향후 박테리아로 인해 유발되는 암의 치료제도 개발할 계획이다.우수의약품제조및품질관리기준(GMP)을 충족하는 생산시설도 서울 금천구 가산동에 구축 중이다. 내달 가동이 목표다. 최대 24만회 투약분을 생산할 수 있는 시설이다.용 대표는 “올해 150억원 유치를 목표로 시리즈B 투자에 나선 뒤, 내년에 임상 1상에 착수하겠다”고 말했다. 2024년 기업공개(IPO)가 목표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>금융사, 일반 고객에 사모펀드 등 고위험 상품 권유 못한다</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004073724?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>금융위, 금소법 시행령 입법예고위험성 낮은 상품은 권유 가능해[서울경제] 금융당국이 소비자 요청이 없는데도 방문이나 전화 등을 활용해 투자를 권유하는 ‘불초청권유’ 금지대상을 늘린다. 금융소비자보호법 시행령을 고쳐 일반소비자에 대한 권유금지 대상에 고난도 상품, 사모펀드, 장내파생상품을 포함시킨 것이다. 현재는 장외파생만 금지하고 있다.금융위원회는 이 같은 내용이 담긴 금융소비자 보호에 관한 법률 시행령 및 감독규정을 7일 입법예고했다.현행 금소법은 소비자 요청이 없는 경우 방문·전화 등을 활용한 투자성 상품의 권유를 금지(불초청권유 금지)하고 있다. 그러나 시행령에서 넓은 예외를 인정해 장외파생을 제외한 대부분 투자성 상품에 대한 불초청권유가 가능하다. 올해 12월 방판법 개정안 시행 등으로 투자성 상품에 대한 과도한 불초청 방문 판매 등이 증가하는 것을 방지할 필요성도 커졌다. 방판법은 14일의 청약철회권을 적용해 투자성 상품의 방문 판매를 제한하고 있다. 그런데 금융상품을 방판법에서 제외하는 내용의 방판법 개정안이 12월 시행된다.금융위는 소비자의 구체적·적극적인 요청이 없는 불초청권유는 방문 전 소비자 동의를 확보한 경우에만 예외적으로 허용토록 한다. 이 경우에도 일반금융소비자에 대해서는 고위험 상품 권유를 금지하고 대상도 확대한다. 현행 장외파생에서 고난도상품, 사모펀드, 장내·장외파생 등으로 금지 대상이 늘어난다. 현행과 동일하게 전문금융소비자는 장외파생상품에 대해서만 금지한다.이번 시행령에는 선불·직불카드 등의 연계서비스를 규제하는 내용도 담겼다. 현재 선불·직불카드는 신용카드와 달리 금소법상의 금융상품에 들어가지 않아 연계서비스를 규제받지 않았다. 이 때문에 연계서비스가 일방적으로 변경·축소되는 상황이 발생해 왔다. 이제 네이버파이낸셜, 카카오페이, 토스 등도 신용카드 사업자처럼 연계서비스를 축소·변경할 때 6개월 전 고지해야 하고 설명의무를 져야 한다. 기존에는 신용카드에만 해당 규제가 적용돼 카드업계는 동일기능·동일규제 원칙을 적용해달라고 요청해 왔다.외화보험에 적합성·적정성 원칙을 적용하는 내용도 포함됐다. 적합성 원칙은 소비자 성향 등에 비춰 부적합한 금융상품 권유를 금지하는 것을 말한다. 적정성 원칙은 소비자가 구매하려는 상품이 소비자에게 부적정할 경우 고지·확인하는 것이다. 그간 외화보험은 환율 변동 등에 따라 손실 가능성이 있음에도 적합성 및 적정성 원칙이 적용되지 않았다. 당국은 손실 가능성이 있는 보험상품에 해당하므로 적합성·적정성 원칙을 적용하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[아이TV]'I2F 2022' 홍민택 토스뱅크 대표 축사</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000684049?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>정보통신기술(ICT)에 강한 종합경제 미디어 아이뉴스24가 주최한 '제 2회 아이뉴스24 금융포럼(I2F 2022)'이 'MZ세대 대체투자'를 주제로 지난 7일 오후 서울 중구 명동 은행연합회 국제회의장에서 열린 가운데 홍민택 토스뱅크 대표가 영상으로 축사를 전하고 있다.정보통신기술(ICT)에 강한 종합경제 미디어 아이뉴스24가 주최한 '제 2회 아이뉴스24 금융포럼(I2F 2022)'이 'MZ세대 대체투자'를 주제로 7일 오후 서울 중구 명동 은행연합회 국제회의장에서 열린 가운데 홍민택 토스뱅크 대표가 영상으로 축사를 전하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>'직접투자부터 인수합병까지'…후배 스타트업 키우는 스타트업</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013306637?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>원티드랩·토스·당근마켓·오늘의집 등신생기업 스타트업 (PG)[백수진 제작] 사진합성·일러스트    (서울=연합뉴스) 임성호 기자 = 스타트업은 설립한 지 오래되지 않은 신생 벤처기업을 뜻하는 말로, 미국 실리콘밸리에서 탄생한 용어다.    성장 초기에는 대기업과 벤처캐피탈(VC) 등으로부터 투자를 받으며 몸집을 키운 뒤 기업공개(IPO) 등을 통해 투자자들에게 투자금을 돌려주는 것이 일반적인 수순이다.    그러나 지난 몇 년 사이에는 각 분야에서 성공을 거둔 국내 정보기술(IT) 스타트업이 '후배' 스타트업을 찾아 투자하거나 인수·합병(M&amp;A)으로 동반 성장에 나서는 경우도 나오고 있다.원티드랩[원티드랩 제공. 재판매 및 DB 금지]    13일 스타트업 업계에 따르면 2015년 출범한 HR 테크(인적자원 관리 기술) 스타트업 원티드랩은 지난 5월 온라인 일정관리 서비스형 소프트웨어(SaaS) 기반 솔루션 '되는시간'을 운영하는 왓타임에 전문 투자사 더벤처스와 함께 시드(Seed) 투자를 했다.    지난 2월에는 성장성이 높은 스타트업에 투자하기 위해 투자 자회사인 '원티드랩파트너스'를 설립했다.    원티드랩 관계자는 "유망한 스타트업을 발굴·지원해 회사 사업과 시너지를 도모하고, 나아가 국내 스타트업 생태계 발전에도 기여할 것"이라고 말했다.    앞서 원티드랩은 지난해 4월 HR 솔루션 스타트업 '커먼스페이스'를 인수해 '원티드스페이스'로 이름을 바꿔 서비스하고 있으며, 2018년에는 기업 정보 제공 사이트 '크레딧잡'을 인수했다.토스[비바리퍼블리카 제공. 재판매 및 DB 금지]    모바일 금융 플랫폼 토스 운영사 비바리퍼블리카가 지난해 10월 모빌리티 스타트업 타다를 인수한 것은 스타트업-스타트업 간 M&amp;A의 대표적 사례다.    2013년 설립된 비바리퍼블리카는 타다를 동남아의 '그랩'처럼 핀테크와 모빌리티 서비스간 시너지를 노린다는 전략이다.     이 회사는 지난해 11월 미국의 비상장 주식 투자 플랫폼 '리퍼블릭'에 500만달러(약 65억 6천만원) 규모의 지분 투자를 하기도 했다. 리퍼블릭 역시 2016년 설립된 스타트업으로, 유망 스타트업과 비상장 기업에 투자를 중개한다.    토스 측은 "해외의 유망한 비상장 기업에 대한 투자수요가 커질 것으로 기대해 잠재적 시너지 효과가 클 것으로 봤다"고 투자 배경을 밝혔다.    토스는 또 지난해 6월 창업자를 위한 전자상거래 플랫폼 '식스샵'에 80억원 규모의 투자를 했다.오늘의집 로고[버킷플레이스 제공. 재판매 및 DB 금지]    인테리어·라이프스타일 플랫폼 '오늘의집' 운영사 버킷플레이스는 올해 1월 폐기물 문전 수거 서비스 플랫폼 '어글리랩'에 전략 투자를 했다. 어글리랩은 지난해 8월 설립된 신생 스타트업이다.    2014년 버킷플레이스를 창립한 이승재 대표는 "라이프스타일과 관련된 모든 문제를 해결하며 공간을 통해 삶의 혁신을 끌어내는 오늘의집 비전과 공간에서 발생하는 폐기물 문제를 해결하려는 어글리랩 비전이 맞닿아 있다"고 투자 배경을 밝혔다.당근마켓[당근마켓 제공. 재판매 및 DB 금지]    2015년 설립된 지역생활 커뮤니티 당근마켓은 지난해 9월 관심사 기반의 모임 커뮤니티 '남의집'에 10억원 규모로 투자했다. 이 투자는 당근마켓이 로컬 커뮤니티 생태계 조성을 하기 위해 신생 스타트업에 처음 투자한 사례다.    당근마켓은 직접 투자 외에도 다양한 스타트업과 협업해 당근마켓 내에서 다양한 생활 서비스를 연결해주는 '당근미니' 코너를 운영하고 있다.     남의집을 포함해 모바일 세탁서비스 '세탁특공대', 운세 앱 '포스텔러', 펫시터 돌봄 서비스 '펫트너', 홈클리닝 서비스 '청소연구소' 등을 별도의 앱 설치 없이 당근마켓에서 바로 이용할 수 있다.    당근마켓 관계자는 "궁극적으로는 스타트업들과의 협업으로 지역 내 다양한 하이퍼로컬('동네' 또는 '단지' 수준의 좁은 지역에 집중하는) 서비스를 활성화하고, 동반 성장하며 함께 하이퍼로컬 생태계를 구축해 나가고자 한다"고 말했다.    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.07.15.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>“이자 한푼이라도 싼곳 찾아라”… 대출 ‘짠테크’ 열풍</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003440192?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>사상 첫 ‘빅스텝’ 등 고금리 비상직장인 한모 씨(41)는 지난달 스마트폰에 대출 비교 애플리케이션(앱)만 5개를 깔았다. 신용대출을 받으려고 주거래 은행을 찾았다가 2년 전 연 2%대였던 신용대출 금리가 연 4.7%까지 뛴 걸 보고 충격을 받았기 때문이다. 한 씨는 대출 비교 앱에서 주거래 은행보다 금리가 0.4%포인트 낮은 지방은행을 찾았고 5000만 원을 빌렸다. 한국은행이 13일 사상 첫 ‘빅 스텝’(기준금리 0.5%포인트 인상)에 나서는 등 최근 대출 금리가 가파르게 오르면서 대출 비교 플랫폼을 찾아 이자를 한 푼이라도 아끼려는 ‘짠테크(짠돌이+재테크)족’이 늘고 있다. ○ “이자 아끼자” 대출 비교 이용액 91% 급증14일 금융권에 따르면 올해 6월 모바일 금융 플랫폼 토스의 ‘대출 비교’ 서비스를 통해 나간 대출은 1조216억 원으로 집계됐다. 1월의 5300억 원에 비해 2배 가까이로 급증했다. 올 상반기(1∼6월) 월평균 대출 실행액은 8324억 원으로 지난해 동기 대비 91% 늘었다. 현재 토스처럼 은행, 보험사, 카드사 등 여러 금융사의 대출 상품을 한데 모아 비교 서비스를 제공하는 핀테크 업체는 14곳에 이른다. 이들 플랫폼에서 소비자들은 자신의 조건에 맞춘 대출 금리와 한도 등을 거의 실시간으로 파악할 수 있다. 지난해 대출 비교 플랫폼을 통해 은행에서 나간 대출만 3조1000억 원에 이른다. 올 들어 금리 상승이 본격화되면서 대출 비교 플랫폼을 찾는 소비자는 더 늘고 있다. 대출 비교 플랫폼 ‘핀크’에서 올 상반기 승인받은 대출은 1년 전보다 5배 이상으로 급증했다. ‘핀다’의 대출 승인액도 6개월 새 2배로 증가했다. 대출 비교 플랫폼 ‘담비’를 운영하는 주은영 베스트핀 대표는 “기준금리 2% 시대가 열리면서 대출자들의 고통이 커지고 있다”며 “다양한 대출 상품을 꼼꼼히 비교해보고 가장 유리한 상품을 합리적으로 선택하려는 똑똑한 소비자가 늘고 있다”고 했다.○ 정치권 “원스톱 대출이동제 도입해야”한은 기준금리가 지난해 8월 0.5%에서 이달 13일 빅 스텝으로 2.25%까지 인상되면서 이 기간 가계의 대출 이자 부담은 약 23조8200억 원, 대출자 1인당 이자 부담은 112만 원 불어난 것으로 추산된다. 이에 따라 정치권에서는 가계의 이자 부담을 낮추기 위해 금융권에 ‘대환대출(대출 갈아타기) 플랫폼 구축’, ‘원스톱 대출 이동제 도입’ 등을 요구하고 있다. 성일종 국민의힘 정책위의장은 5일 “대환대출 플랫폼이 지난해 추진됐으나 금융권 상황으로 중단됐다”며 “지금 같은 금리 상승기에 무엇보다 필요한 사업인 만큼 신속하게 시스템 구축에 나서달라”고 말했다. 금융당국은 지난해 은행, 제2금융권, 빅테크 등이 모두 참여하는 통합 대환대출 플랫폼 출범을 추진했지만 은행권의 반발로 중단된 바 있다.  윤관석 더불어민주당 의원도 6일 원스톱 대출이동제 도입 간담회를 열고 “대환대출 인프라에 대출 비교 플랫폼을 연계하면 대출 비교와 이동이 한번에 가능해진다”며 “금리 경쟁 환경을 조성해 대출 금리 인하를 유도해야 한다”고 강조했다. 당국은 조만간 이 같은 대출 플랫폼 구축을 위한 논의에 들어갈 것으로 보인다. 금융당국 관계자는 “고금리, 고물가 상황에 정치권의 요구가 나온 만큼 금융권 전반의 의견을 수렴하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, PG업계 최초 ISO 14001 인증 획득</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002127703?sid=004</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스의 페이테크(Paytech) 계열사 토스페이먼츠(대표 ‘김민표’)는 PG 업계 최초로 환경 경영 시스템 국제 표준 ‘ISO 14001’ 인증을 획득했다고 1일 밝혔다. ISO 14001은 국제표준화기구(ISO)가 제정한 환경경영 관련 국제 표준 인증으로, 기업의 환경경영 전반에 걸친 종합 평가를 통해 부여된다. 토스페이먼츠는 높은 수준의 친환경 업무 환경을 구현하기 위해 이번 인증 취득에 도전했다. 영국표준협회(BSI)의 인증 심사 과정에서 토스페이먼츠는 ▲ 친환경 경영 방침과 실천 방안 수립 ▲ 자원 재활용, 친환경 제품 사용 등 활동 전개 ▲ 사무용품 사용 현황 측정을 위한 모니터링 시스템 구축 등에서 높은 평가를 받은 것으로 나타났다. 특히, 일상에서 탄소 배출을 줄이기 위한 다양한 아이디어가 긍정적인 평가를 받았다. 예를 들어, 토스페이먼츠는 배달 음식을 비롯해 업무 공간에서 발생하는 음식물 쓰레기를 비료로 재생산하거나, 센서조명 및 냉난방 중앙 제어 시스템 등을 구축해 에너지를 절감했다.또한, 페이퍼리스(Paperless) 업무 시스템 구축을 통해 매달 10만 장 규모의 A4 용지가 사용되는 가맹점 계약 절차 대부분을 전자계약으로 전환, 기존 A4 용지 사용량의 98%를 절약했다. 이는 매달 9.8그루의 나무를 심는 것과 같은 효과다. 그 외에 자율 재택 근무 제도, 클라우드 서비스 사용 등 구성원 누구나 효율적인 업무를 진행하면서 동시에 탄소 배출을 줄일 수 있는 환경을 만든 것도 특징이다. 김민표 토스페이먼츠 대표는 “현재 기후변화를 비롯한 환경 이슈가 대두되고 있는만큼, 기업의 지속 가능한 환경 경영 시스템 구축은 중요한 아젠다 중 하나로 자리잡았다. 토스페이먼츠는 이번 인증 취득을 계기로 기업의 사회적 책임을 다하기 위한 다양한 노력을 이어가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>토스, 시리즈G 투자 유치 추진…"8월 딜클로징 목표"</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005259523?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>대외환경 악화 대비·신성장동력 확보 '목표'[이데일리 정다슬 기자] 핀테크 서비스 ‘토스’를 운영하는 비바리퍼블리카가 오는 8월 딜클로징을 목표로 시리즈G 투자 유치를 진행 중이다. 급변하는 대외환경 변수에 대비하고 신(新) 성장 동력을 확보하겠다는 차원이다. 4일 업계에 따르면, 비바리퍼블리카는 국내외 투자자들을 대상으로 투지 유치에 들어갔다. 핵심인 기업가치와 규모는 아직 협상 중이다.앞서 비바리퍼블리카는 지난해 6월 8조원대 기업가치를 인정받으면서 4600억원대 자금 유치에 성공했다. 그 다음은 IPO 단계이나 단기간 상장을 기대하기 어려워진 상황이다.문제는 상장까지 버틸 자금 유치다. 모든 금융 서비스를 토스 하나로 해결하겠다는 ‘수퍼앱’ 전략을 내세워 비바리퍼블리카는 2021회계연도 연결기준 영업수익(매출) 7808억원을 기록하며 전년대비 100% 증가하는 등 괄목할 성장을 보이고 있다. 다만, 공격적 마케팅과 평생무료송금제 도입 등으로 수수료 수입 감소 등으로 연결 영업손실 역시 1796억 원으로 전년대비 1070억 원 증가했다. 부동산·금융시장 침체 등으로 거시경제 환경이 악화하고 있는 것 역시 장애물이다.이런 상황에서 비바리퍼블리카는 추가 자금 유치를 통해 자본금 비율을 높여 대외환경 변수 등에 대비하고 신(新)성장 동력을 확보하겠다는 입장이다. 하반기에는 ‘토스플레이스’ 등이 본격적으로 출범하며 오프라인 결제시장 쪽으로도 영역을 넓힌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[도청도설] 싼것 찾아 삼만리</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/658/0000013740?sid=110</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>‘발품’의 시대다. 산다는 게 해법을 모색하는 과정인 만큼 발품 파는 건 일상사이겠지만, 요즘처럼 절실하게 찾아 헤맨 적이 있었던가 싶다. 2008년 글로벌 금융위기에 버금가는 고물가가 가장 큰 원인이다. 기름값이 저렴한 주유소를 찾기 위해 유가정보사이트를 검색하는 건 기본이다. 보다 이자가 싼 대출을 찾으려는 대출비교 서비스 수요도 급증했다. 핀테크 플랫폼 ‘토스’의 지난달 대출비교 서비스 실행액은 1조 원을 넘었다. 금융권에선 지난달 전체 실행액이 2조 원을 돌파했을 것으로 추산한다.저소득층의 발품 고통은 더 크다. “네 팩에 1만 원 하던 반찬도 2만 원이 됐다. 반찬이나 생필품을 살 때 여러 곳을 돌아다니면서 가장 싼 데를 찾는다. 3만 걸음을 걸은 날도 있다.” 빈곤사회연대가 지난 2월 18일부터 4월 19일까지 기초생활보장급여 수급자들을 대상으로 실시한 가계부 조사에서 나타난 사례다. 한 수급자는 몸이 불편한데도 차비를 아끼려고 왕복 1시간 넘게 걸리는 곳까지 걸어가서 유통기한이 다 되어 싸게 파는 식료품을 산다. 돈과 시간이 모두 부족한 취업준비생은 돈을 아끼기 위해 시간을 포기한 채 싼 물건을 찾아 발품을 판다. 물건을 들었다 놨다 하며 고민하다 빈손으로 돌아서는 소비자는 시장의 흔한 풍경이다. ‘싼것 찾아 삼만리’를 마다하지 않는 서민의 고단한 일상이다.‘찾아 삼만리’라는 말이 유행하기 시작한 건 1976년 니폰 애니메이션과 후지 TV가 애니메이션 ‘엄마 찾아 삼만리’를 내놓으면서다. 원작은 이탈리아 작가 에드몬도 데 아미치스가 1886년 발표한 동화집 ‘쿠오레’에 삽입된 단편 ‘아펜니니 산맥에서 안데스 산맥까지’다. 돈 벌러 떠난 엄마를 찾아 아르헨티나로 간 소년이 온갖 고생 끝에 엄마를 만나 무사히 이탈리아로 돌아온다는 내용이다. 19세기 후반에서 1910년대까지 이탈리아에선 900만 명이 해외로 이민을 갔다. 가난을 벗어나려는 ‘이탈리아 디아스포라’다. 동화는 해피 엔딩이다. 삼만리의 발품은 헛되지 않았다. 하지만 우리의 발품은 목적 달성을 기대하기 어렵다. 치솟는 물가 억제 가능성을 보여주는 신뢰성 있는 정책이 나오지 않아서다. 유류세 인하 폭을 높였지만, 기름을 적게 쓰는 저소득층보다 많이 사용하는 고소득층에 유리하다. 모든 정책 방향이 기업과 고소득층에 쏠려 있다. 당정은 목소리만 높인다. 보여주기식 ‘호통 정치’다. 우리 방황의 근원은 그런 정치에 있다. 정작 삼만리의 발품이 필요한 건 정치권의 자기 성찰이다.이경식 논설위원</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>"1년도 길다"…6개월 '바짝 모으는' 예·적금 속속 등장</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004768955?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>정기예적금 잔액/그래픽=김지영 디자인기자정기예·적금에 1년 이상 돈을 붓던 고정관념이 깨지면서 6개월짜리 '단기 돈모으기' 상품이 인기를 끈다. 장기적으로 목돈을 모아 집이나 차를 사던 것은 과거 일이 되면서 은행 상품군에도 변화가 생겼다. 7일 은행권에 따르면 카카오뱅크를 시작으로 인터넷전문은행뿐만 아니라 시중은행도 6개월짜리 예·적금 상품을 속속 내놓고 있다. 카카오뱅크는 6개월간 돈을 모으는 '26주 적금'을 내놓을 때마다 흥행에 성공했다. 최근 '오늘의집'과 함께 다섯 번째 파트너 적금 상품을 선보였는데 출시한지 3일 만에 15만좌가 개설됐다. 2018년 6월 처음으로 출시한 26주 적금은 지난 5월 말 기준 1228만좌의 개설 기록을 남겼다.  카카오뱅크의 흥행 공식은 토스뱅크가 이어받았다. 토스뱅크는 처음으로 적금 상품을 선보이면서 6개월 만기, 자유적립식 방식을 도입했다. 월 최대 100만원까지, 6개월간 최대 600만원을 납입할 수 있고 만기 때 3% 금리가 주어진다. 돈 모으는 재미를 더하기 위해 동물을 키우는 콘셉트로 '키워봐요'란 이름을 붙였다. 이 상품은 출시 3일 만에 10만좌의 계좌 개설을 낳았다.   6개월짜리 돈모으기 상품의 인기가 증명되면서 시중은행 상품군도 바뀌었다. 우리은행은 특판으로 정기예금을 출시하면서 6개월 만기도 선택지에 넣었다. 6개월만 돈을 맡겨도 최대 2.45%의 금리를 제공한다. 지난해 말에 완전 민영화를 기념해 특판을 선보이면서는 기간이 1년 이상인 상품만 선보인 바 있다. KB국민은행은 판매금액에 따라 차등금리를 제공하는 '공동구매 정기예금'을 최근 다시 선보이면서 6개월제, 1년제 방식 중 선택하도록 했다. 이 상품도 지난해 10월엔 1년제 상품으로만 출시됐는데 6개월제가 새로 생겼다. 신한은행은 창업 40주년을 기념해 특판으로 10개월짜리 자유적금 상품을 내놨다. 매주 납입하면 최고 금리가 4%로 높은 편이다. 40주년을 기념하는 의미에서 40주인 10개월로 상품 콘셉트를 정했다. SC제일은행은 입출금예금과 정기예금을 결합한 예금 상품의 예치기간을 최대 6개월로 잡았다. 돈을 151~180일간 맡기면 2.5%의 금리가 붙는다.  이처럼 6개월 등 '단기 돈모으기' 상품이 쏟아지는 건 금융생활이 바뀌었기 때문이다. 과거엔 장기적으로 목돈을 모아 집, 차를 구매하곤 했지만 점점 불가능한 이야기가 되면서다. 짧게 돈을 모아 필요한 곳에 쓰는 MZ세대(1980년대 초반~2000년대 초반 출생)의 소비성향이 반영됐다. 최근 예·적금 금리 인상으로 은행에 수신 잔액이 쌓이면서 은행마다 이벤트성 상품에 주력하는 분위기도 한몫 했다. 인터넷전문은행 관계자는 "MZ세대는 재밌는 금융'경험'을 추구한다"며 "적금의 최소 계약기간을 6개월로 정한 한국은행 규정이 바뀐다면 6개월보다 더 짧은 호흡의 상품도 등장할 가능성이 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2년간 치솟았던 美 화물 운송비용 하락세 전환</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000826956?sid=104</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>코로나19 팬데믹(전염병의 세계적인 대유행) 이후 이어진 각종 봉쇄조치 여파로 지난 2년간 치솟았던 미국 화물 운송비용이 하락하고 있다고 월스트리트저널(WSJ)이 10일(현지 시각) 보도했다. 팬데믹발 수요 급증과 공급 부족으로 촉발됐던 가파른 물가상승률(인플레이션)이 최근 원자재 가격 하락 등으로 둔화하고 있다는 것.물류대란으로 미국 캘리포니아주 롱비치 항구에 컨테이너들이 쌓여있는 모습. /트위터 캡처        WSJ에 따르면 과거 운송인력과 재고 부족으로 높게 유지됐던 장기 화물 운송 계약이 효력을 잃어가고 있다. 최근 가파른 물가상승률(인플레이션)과 미국의 중앙은행인 연방준비제도((Fed·연준)의 본격적인 긴축 움직임의 여파로 수요가 줄면서 컨테이너 현물 운임이 추락하기 시작했고, 일부 업체들은 기존의 계약을 파기하고 운송비를 낮춰 재협상에 나서고 있기 때문이다.이와 관련해 미국 대형 수입업체의 한 관계자는 WSJ에 “몇 달 전 체결한 해상 계약 요금을 (최근 하락세에 맞춰) 15~20% 낮췄다”며 연말 추가 인하를 예상한다고 말했다.온라인 화물 마켓플레이스인 DAT솔루션에 따르면 미 트럭 현물 운임은 올해 상반기에만 22% 하락했으며, 5월에는 2년 만에 처음으로 현물 운임이 장기 계약 운임보다 싸졌다. 미국에서 가장 일반적으로 사용되는 화물트럭의 유형인 드라이밴의 6월 현물 운임 비용은 마일(1.6km)당 2.76달러로, 평균 장기 계약 요금(마일당 2.93달러)보다 17센트가 낮았다.해상·트럭 등 운송 전반에 걸쳐 다양한 요인이 운송 요금을 낮추고 있다. 전문가들은 그 중에서도 수요 감소를 최대 원인으로 보고 있다.화물 운송비용 감소는 팬데믹 후 2년간 고물가에 시달렸던 제조·소매업체에 희소식이다. 하지만 화주들은 여전히 팬데믹 이전보다 많은 수준의 운임을 지불하고 있다고 지적한다. 온라인 화물운송 가격 서비스업체인 프레이토스(Freightos)에 따르면 지난 6일 기준 중국에서 출발하는 미국 서부 해안행 해상 현물 운임은 팬데믹 이전인 2019년 7월보다 4배 이상 높았다.화물 운송 분야의 물가상승 기여도도 낮아짐에 따라 인플레이션이 둔화하고 있다는 것으로 보는 의견도 있다. 하지만 전문가 사이에서는 유가 하락 없이는 화물 운송 분야의 인플레이션 둔화를 논할 수 없다는 의견이 많다.이와 관련해 DAT솔루션의 크리스 캐플리스는 “현물 운임이 내려감에 따라 올해 (장기)계약 운임도 하락할 것으로 예상된다”면서도 “디젤(경유) 가격이 내려가지 않는 한 화주들은 (운임 하락의) 혜택을 받지 못할 것이다. 운임은 내려가고 있지만, 운송업체에 대한 유류할증료로 요금 인하 효과가 사라지고 있다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>VC, 'K투자' 성공 공식 해외 스타트업에 심는다</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003027535?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>게티이미지뱅크벤처캐피털(VC)이 한국서 성공한 플랫폼과 닮은 비즈니스모델(BM)을 가진 해외 플랫폼 스타트업에 투자하는 행보를 보이고 있다. 투자 업계가 냉각되고 있는 가운데 안전성을 높이기 위함으로 풀이된다.알토스벤처스는 한국에서 토스에 2014년 3분기 첫 투자한 후 2020년 1분기 일본 캬쉬(Kyash)에 투자했다. 올해 3월에는 캬쉬에 추가 투자를 단행했고 캬쉬는 시리즈 D라운드를 통해 총 4120만달러가량 투자를 받았다. 캬쉬는 일본 간편 송금 및 결제 서비스로 규제가 까다로운 일본에서 최초의 챌린지 뱅크로 자리잡기 위해 시도 중이다.한국에서 세무 플랫폼 삼쩜삼 이용률이 높아지자 알토스벤처스는 인도네시아 기업인 아킬레스시스템이 운영하는 클라우드 기반 세금 SaaS 플랫폼 '파작'에 투자했다. 자비스앤빌런스는 삼쩜삼 세무 서비스를 제공한 지 2년 만에 가입자 1000만을 돌파했다. 또 운동화 리셀 플렛폼 크림 투자에 이어 유사한 BM인 일본 '스니커덩크' 운영사 소다에 투자하기도 했다.더벤처스는 1월 방글라데시 스타트업인 핸디마마와 온나우에 투자했다. 이들은 각각 청소플랫폼, 공유 주방 플랫폼이다. 이 외에도 한국에서 성공한 무신사와 유사한 베트남 패션 플랫폼 도시인에도 투자했다. 퓨처플레이는 올해 상반기 인도네시아 스타트업 핀쿠에 투자했다. 핀쿠는 인도네시아의 토스를 꿈꾸는 금융 플랫폼 기업이다. 캡스톤파트너스는 지난해 4분기 인도네시아 최초 미용의료 플랫폼인 '마이비너스'를 운영하는 써밋츠에 투자했다.이처럼 한국을 기반으로 성공한 플랫폼 기업과 유사한 BM을 띠고 있는 해외 기업에 VC가 연이어 투자를 하는 이유는 한국이 인구밀도가 높고 디지털 수용성 높아 정보기술(IT)기업 및 스타트업 테스트베드로 좋기 때문이다. 한국은 스타트업 성장성도 좋다. 스타트업 정보 분석 기관인 스타트업 게놈(Startup Genome)에 따르면 서울은 스타트업 성장 생태계 10위로 꼽혔다. 한국에서 성공한 플랫폼 BM을 가진 기업은 해외에서도 가능성이 있다는 의미다.김대현 더벤처스 파트너는 “한국에서 성공을 검증한 비즈니스 성장 프로세스를 벤치마킹 한다면, 큰 리스크 없이 해당 국가에서도 성공할 수 있을 것”이라고 전망했다.특히 VC가 눈여겨보는 곳은 동남아 시장이다. 인도네시아, 베트남의 경우 국민 평균연령이 어리고 스마트폰 사용자 비율이 60% 이상이라 '슈퍼앱'과 온라인 기반 서비스의 성장 가능성 높다. 일본도 VC의 이목을 끌고 있다. 경제규모 대비 유니콘 기업이 적지만 최근 디지털트렌스포메이션(DX) 붐이 일어나며 관련 산업이 호황기를 맞고 있기 때문이다.업계 관계자는 “한국에서의 시장 성장성과 고객을 흡인하는 속도에서 투자자가 좋은 경험을 쌓은 상황”이라며 “이를 기반으로 한국 스타트업과 쌍둥이 행보를 보이는 스타트업에 투자업계의 관심이 생기고 있다“고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>경계 희미해진 금융영역…빅테크-정통금융 충돌</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002743410?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>네이버ㆍ카카오 등 금융진출 가속간편결제ㆍ보험ㆍ대출 영역 확장공공성보다 과실만 추구 비판도네이버·카카오·쿠팡과 같은 국내 빅테크 기업들이 금융사업에 진출하면서 산업 간 경계가 모호해지는 '빅블러(Big Blur) 현상'이 가속화하고 있다. 그간 쌓아온 금융산업 구조가 빅테크에 의해 흔들리는 것을 지켜보는 전통 금융사들은 볼멘소리를 내는 중이다. "정식 라이선스도 없이 금융업에 우회 진출하고 있다"는 불만이다. 11일 금융업계에 따르면 최근 금융서비스의 중심이 대면에서 비대면(디지털)로 이동하는 가운데 빅테크 기업들이 잇달아 금융사업에 발을 담그고 있다. 카카오뱅크, 토스뱅크 등 인터넷 전문은행을 시작으로 비교적 진입장벽이 낮은 캐피탈, 간편결제, 대출 중개, 보험 중개 등으로 사업을 확장 중이다. 네이버, 카카오 등 막강한 고객 데이터를 가진 국내 IT(정보기술) 대기업들이 진출한다는 점에서 파급력은 소규모 핀테크와 견줄 수 없을 만큼 강력하다는 평가다. 네이버가 2020년 설립한 네이버파이낸셜은 최근 공격적인 영업을 선언했다. 네이버파이낸셜은 현금을 포인트로 전환해 온·오프라인 가맹점에서 간편하게 결제할 수 있는 '네이버페이'가 대표 서비스다. 네이버파이낸셜은 미래에셋캐피탈, 우리은행과 협업해 '스마트스토어 사업자 대출' 상품도 내놨다. 이 상품은 온라인 사업자를 위한 무담보 신용대출로, 부족한 신용 이력으로 기존 금융권 대출을 받기 어려운 중소상공인들이 주요 대상이다. 여기에는 네이버가 차주의 스마트스토어 사업 내역을 기반으로 구축한 대안신용평가시스템이 활용되고 있다. 카카오와 쿠팡 역시 금융사업을 확대하는 중이다. 카카오는 간편결제, 은행, 증권 등 다양한 업종의 금융 계열사를 보유하고 있으며, 조만간 온라인 채널에 특화한 손해보험회사도 출범할 계획이다. 쿠팡은 '쿠팡파이낸셜'을 통해 입점 사업자에게 대출을 내주는 금융사업을 추진 중이다. 최근 금융감독원에 여신전문금융업 등록을 신청한 쿠팡은 할부금융사를 통해 대출을 직접 취급할 것으로 전망된다. 빅테크 업체들의 금융서비스업 진출로 금융 소비자 입장에서는 보다 편리하고 다양한 서비스 이용할 수 있게 됐다. 하지만 금융감독당국의 규제 사각지대에 놓여있어 금융시장 전체적으로는 안정성을 해칠 수 있다는 지적도 나온다. 특히 전통 금융사들은 '씬파일러(금융이력부족자) 지원'이라는 금융 진출 명분과 플랫폼 영향력, 누적된 데이터, 기술력을 앞세운 빅테크들이 금융의 공공성은 등한시하고 과실만 따먹는다고 비판한다. 네이버파이낸셜이 대출 상품을 내놓을 당시 전통 금융사들 사이에서는 "네이버가 금융업 인·허가 없이 우회적으로 대출사업을 벌인다"는 불만이 제기됐다. 최근엔 '온라인 예금상품 중개업 플랫폼'을 둘러싼 은행권의 불만이 고조되고 있다. 디지털 금융 가속화로 각 은행이 자체 디지털 플랫폼을 만들고 접속자수를 늘리기 위해 다양한 노력을 하는 상황에서 빅테크 플랫폼업체들에게 온라인 예금상품 중개업 플랫폼 서비스를 하게 하면 은행들은 빅테크에 종속될 수 밖에 없다는 주장이다.전통 금융사들은 전통 금융사와 빅테크의 규제 형평성을 문제삼고 있다. 전통 금융사들은 까다로운 금융규제를 받으며 인·허가받은 금융산업 외의 영역을 넘보기 어려웠지만, 규제에서 자유로운 빅테크들은 금융과 비금융의 영역을 오가며 사업을 키우고 있다는 것이다. 금융당국도 이런 전통 금융사들의 이의를 수렴하는 분위기다. 이복현 금융감독원장은 "업권별 간담회 등 여러 기회를 통해 빅테크들과의 동일 규제와 관련한 의견이 있다고 알고 있다"며 "민간 금융기관의 창의적인 경영환경 조성을 위해서 노력할 것"이라고 말했다.  카카오뱅크[카카오뱅크 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>"아트테크·가상자산…재태크 노하우 배우자"…제2회 아이뉴스24 금융포럼 개최</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000683642?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>오늘 낮 2시 은행연합회 국제회의장서 'MZ세대 대체투자' 주제로 진행아이뉴스24가 MZ세대의 경제적 불안 해결을 위한 재테크 가이드를 제시한다. 재테크가 선택이 아닌 필수인 시대가 도래했지만, 금융시장 불확실성이 커지면서 최적의 투자처를 찾기 어려운 상황을 고려해 다양한 분야의 전문가로부터 현명한 재테크 노하우를 듣는 장을 마련했다.아이뉴스24는 오늘(7일) 오후 2시10분 전국은행연합회 은행회관 국제회의실에서 'MZ세대 대체투자'를 주제로 금융포럼을 진행한다고 밝혔다.'아이뉴스24'가 오는 7월 7일 'MZ세대의 대체투자'라는 주제로, 제 2회 금융포럼을 개최한다. [사진=조은수 기자]1980년대부터 2000년대 초반 출생한 일명 'MZ세대'는 경제적 불안을 겪으며 자본의 중요성을 체득한 세대이자 돈과 소비에 대한 편견이 없는 새로운 경제주체다. 이들에게 재테크는 선택이 아닌 필수다.아이뉴스24는 이번 포럼에서 변동성 장세를 이겨내기 위한 다양한 해외주식 투자와 AI(인공지능)을 활용한 간접투자, 가상자산, 미술품 등에 투자하는 아트테크(아트+재테크)는 물론 안정적인 노후보장을 위한 보험, 생애전반에 걸친 자산관리와 투자방법을 제시한다.1부에서는 김상성 삼성화재 강남 SF지점장이 '어른이보험이라고 들어보셨나요'를 주제로 보험을 통한 노후준비와 재태크 방법을 소개한다.2부에선 최화인 블록체인 에반젤리스트가 '비트코인 사도 되나요, 가상자산 가치 어떻게 형성되나'라는 주제로 가상화폐 투자 가이드를 제시한다.마지막 강연에선 서상원 우리은행 팀장이 '금리인상기, MZ세대가 주목해야 할 재테크 전략'을 통해 금리인상기 합리적인 재테크 전략을 소개한다.이번 포럼은 박동석 아이뉴스24 사장의 개회사로 시작되며 홍성국 국회의원, 김용환 한국FPSB회장이 직접 참석해 축사에 나선다.제2회 아이뉴스24 금융포럼에 대해 대한민국 혁신 금융을 대표하는 토스뱅크의 홍민택 대표는 "금융시장에서 MZ세대의 중요성이 점점 높아지는 시점에 MZ세대와 소통하는 공론의 장이 열린 것에 매우 뜻 깊게 생각한다"라며 "오늘의 논의가 MZ세대가 당당하고 성숙한 미래 금융산업의 주인으로서 성장하는 토대가 될 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, PG업계 최초 ISO 14001 인증 획득</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005258203?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>PG 업계 최초 ISO 14001 인증 취득환경경영시스템 구축 노력 높은 평가 받아자원 재활용, 친환경 제품 사용 등 활동 전개[이데일리 김현아 기자]토스의 페이테크(Paytech) 계열사 토스페이먼츠(대표 김민표)가 지급결제대행(PG) 업계 최초로 환경 경영 시스템 국제 표준 ‘ISO 14001’ 인증을 획득했다.ISO 14001은 국제표준화기구(ISO)가 제정한 환경경영 관련 국제 표준 인증으로, 기업의 환경경영 전반에 걸친 종합 평가를 통해 부여된다. 토스페이먼츠는 높은 수준의 친환경 업무 환경을 구현하기 위해 이번 인증 취득에 도전했다. 영국표준협회(BSI)의 인증 심사 과정에서 토스페이먼츠는 ▲ 친환경 경영 방침과 실천 방안 수립 ▲ 자원 재활용, 친환경 제품 사용 등 활동 전개 ▲ 사무용품 사용 현황 측정을 위한 모니터링 시스템 구축 등에서 높은 평가를 받은 것으로 나타났다. 일상에서 탄소 배출을 줄이기 위한 다양한 아이디어가 긍정적인 평가를 받았다. 예를 들어, 토스페이먼츠는 배달 음식을 비롯해 업무 공간에서 발생하는 음식물 쓰레기를 비료로 재생산하거나, 센서조명 및 냉난방 중앙 제어 시스템 등을 구축해 에너지를 절감했다.페이퍼리스(Paperless) 업무 시스템 구축을 통해 매달 10만 장 규모의 A4 용지가 사용되는 가맹점 계약 절차 대부분을 전자계약으로 전환하여, 기존 A4 용지 사용량의 98%를 절약했다. 이는 매달 9.8그루의 나무를 심는 것과 같은 효과다. 자율 재택 근무 제도, 클라우드 서비스 사용 등 구성원 누구나 효율적인 업무를 진행하면서 동시에 탄소 배출을 줄일 수 있는 환경을 만든 것도 특징이다. 김민표 토스페이먼츠 대표는 “현재 기후변화를 비롯한 환경 이슈가 대두한 만큼, 기업의 지속 가능한 환경 경영 시스템 구축은 중요한 아젠다 중 하나로 자리잡았다. 인증 취득을 계기로 기업의 사회적 책임을 다하기 위한 다양한 노력을 이어가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, PG사 최초 ISO 14001 인증 획득</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004071434?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>ISO 제정 환경경영 국제표준[서울경제] 토스페이먼츠는 전자지급결제대행(PG) 업계 최초로 환경 경영 시스템 국제 표준인 ‘ISO 14001’ 인증을 획득했다고 1일 밝혔다. ISO 14001은 국제표준화기구(ISO)가 제정한 환경 경영 관련 국제 표준 인증이다. 기업의 환경 경영 전반을 종합 평가해 부여된다. 토스페이먼츠는 회사가 △친환경 경영 방침과 실천 방안 수립 △자원 재활용, 친환경 제품 사용 등 활동 전개 △사무용품 사용 현황 측정을 위한 모니터링 시스템 구축 등에서 높은 평가를 받았다고 설명했다. 인증 심사는 영국표준협회(BSI)가 진행했다.토스페이먼츠 측은 “배달 음식을 비롯해 업무 공간에서 발생하는 음식물 쓰레기를 비료로 재생산하거나 페이퍼리스 업무 시스템 구축을 통해 매달 10만 장 규모의 A4 용지가 사용되는 가맹점 계약 절차 대부분을 전자계약으로 전환했다”며 “일상에서 탄소 배출을 줄이기 위한 다양한 아이디어가 긍정 평가를 받았다”고 전했다.김민표 토스페이먼츠 대표는 “기후변화를 비롯한 환경 이슈가 대두하는 만큼 기업의 지속 가능한 환경 경영 시스템 구축은 중요한 아젠다 중 하나로 자리잡았다”며 “이번 인증 취득을 계기로 기업의 사회적 책임을 다하기 위한 다양한 노력을 이어가겠다”고 말했다./조윤진 기자 jo@sedaily.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.07.14.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>[아!이뉴스] 티빙은 시즌을, NHN은 NHN빅풋을 '흡수합병'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000685431?sid=105</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>하루가 다르게 변화하는 IT세상 속에서 쏟아지는 정보를 일일이 다 보기 어려우신 독자분들을 위해, 독자 맞춤형 IT뉴스 요약 코너를 마련했습니다. 본지에서 오늘 다룬 IT기사를 한눈에 읽을 수 있도록 구성했습니다. 퇴근길에 가볍게 읽을 수 있기를 기대합니다. [편집자주]시즌, 티빙이 합병한다 [사진=KT시즌, 티빙]◆티빙, 시즌 흡수합병…"K-OTT 1위 사업자 도약"CJ ENM 온라인 동영상 서비스 플랫폼(OTT) '티빙'과 KT '시즌'이 합병된다. '티빙'이 '시즌'을 흡수하는 형태다.양사는 콘텐츠 경쟁력과 OTT·통신 결합 등 전방위 시너지를 통해 국내는 물론, 글로벌 OTT시장에서 영향력을 확대할 계획이다.14일 KT(대표 구현모)와 티빙(대표 양지을)은 이사회를 통해 '시즌'과 '티빙'의 합병안을 결의했다고 발표했다. 합병 기일은 12월 1일이다.이번 합병은 지난 상반기 CJ ENM과 KT의 사업 협력 일환으로 이루어졌다. 양 사는 지난 3월 양해각서(MOU)를 체결하며, 미디어·콘텐츠 시장에서 파트너십을 강화한다는 전략을 발표했다.구체적으로 CJ ENM은 ▲KT스튜디오지니에 1천억원 규모의 지분투자 ▲KT스튜디오지니가 제작한 콘텐츠 구매 및 채널 편성 ▲KT스튜디오지니와 콘텐츠 공동제작 등 양사의 콘텐츠 경쟁력 강화를 위한 전략적 투자자로 참여키로 했다.아울러 양사는 ▲음원사업 협력 ▲실감미디어 사업을 위한 공동펀드 조성 ▲미디어∙콘텐츠 분야 공동사업을 위한 사업협력위원회 구성 등 다방면에서 콘텐츠 사업 시너지를 창출하기로 했다.정수헌 컨슈머부문장(부사장)이 '유독'서비스를 소개하고 있다 [사진=송혜리 기자]◆"LGU+ 구독 유독 선 넘네"…無약정 최대 50%↓LG유플러스가 구독 플랫폼 서비스 '유독' 사업을 본격화한다.구독경제를 이끄는 티빙·디즈니플러스·넷플릭스 등 온라인 동영상 서비스(OTT)뿐만 아니라 배달·쇼핑·교육 등 31종 서비스를 기본료 없이 가입만 하면 최소 5% 최대 50% 할인받는다.이를 통해 회사는 2025년까지 1천만 구독 서비스 가입자 확보 달성, 나아가 '이용자 일상에 스며드는 플랫폼 제공 사업자'로 거듭나겠단 포부를 밝혔다.LG유플러스(대표 황현식)는 14일 서울 용산 사옥에서 기자간담회를 열고 이용자가 원하는 서비스만 골라 구독할 수 있는 구독 플랫폼인 '유독'을 출시한다고 발표했다.정수헌 LG유플러스 컨슈머부문장(부사장)은 "구독 서비스에 있어서 한 차원 높은 차별화된 경험을 제공하기 위해 고민하고 시도한 도전의 결과로 '유독'을 선보이게 됐다"며 "기존 구독 서비스에서 고객이 겪은 불편을 완전히 해소한 유독을 통해 고객 경험의 초격차를 벌릴 것"이라고 강조했다.정혜윤 컨슈머부문 상무는 "LG유플러스는 뻔하지 않은 생각으로 일상의 즐거움을 만들고, 고객을 향해 한 발짝 선을 넘는 서비스를 선보이겠다"고 자신감을 보였다.'유독'은 ▲약정·기본 요금이 없고 ▲이용자가 자신의 라이프스타일에 따라 필요한 서비스만 골라 구독할 수 있다는 것이 기존 구독 서비스와 가장 큰 차별점이다. 아울러 ▲제휴된 모든 서비스를 '유독' 안에서 해지·조회 등 관리할 수 있다.14일 보코서울 강남에서 열린 '제5회 AI 시큐리티 데이(Security Day)'에서 고진 디지털플랫폼정부위원회 출범준비단장이 기조연설을 하고 있다. [사진=김혜경 기자]◆디지털플랫폼정부 국정운영 대전환 필수…내달 민간 협업 위원회 출범"디지털 전환 가속화와 각종 민간 플랫폼 서비스로 국민 눈높이가 높아진 상황을 감안, 국정운영 패러다임 대전환이 필요하다"고진 디지털플랫폼정부위원회 출범준비단장은 14일 보코서울 강남에서 열린 '제5회 AI 시큐리티 데이(Security Day)'에서 "기존 전자정부 노선을 따를 것인지 근본적 혁신을 할 것인지 고민이 있었다"며 이같이 말했다.고 단장은 "디지털플랫폼정부의 개념은 위원회 출범 후 달라질 수 있겠지만 '모든 데이터가 연결된다'는 핵심은 변하지 않는다"며 "제로 트러스트(Zero-Trust) 아키텍처 기반의 플랫폼을 구축, 개인정보 활용 이상 행위를 탐지하고 마이데이터 전 과정의 보안을 강화할 것"이라고 설명했다.지난달 28일 과기정통부와 행정안전부는 국무회의 의결을 통해 대통령 소속으로 디지털플랫폼정부위원회를 설치한다고 발표한 바 있다. 위원회는 30명 이내의 위원으로 구성되며, 민간 전문가를 위원으로 위촉한다. 정부위원으로는 기획재정부 장관과 과기정통부 장관, 행안부 장관, 개인정보보호위원회 위원장이 포함된다. 분야별 분과와 자문단을 구성해 전문성을 확보한다는 방침이다.최영진 개인정보보호위원회 부위원장이 지난 13일 오후 서울정부청사 합동브리핑룸에서 공공부문 개인정보 유출 방지대책에 대해 브리핑을 하고 있다. [사진=개인정보보호위원회]◆공무원 개인정보 유출 즉시 파면한다개인정보를 고의로 유출하거나 부정 이용하는 공무원은 단 한번의 적발에도 파면 또는 해임된다.아울러, 민감한 개인정보를 대규모로 처리하는 기관의 경우 3단계 안전조치의무가 부과된다. n번방 사건, 송파 가족 살인사건 등 공공기관 직원이 개인정보를 유출해 범죄로까지 이어지는 2차 피해가 잇따르자 정부가 공공부문 개인정보 관리 체계를 대폭 강화하면서 부터다.개인정보보호위원회(위원장 윤종인)는 14일 한덕수 국무총리 주재로 개최된 제3회 국정현안점검조정회의에서 '공공부문 개인정보 유출 방지대책'을 보고했다.국민의 개인정보를 고의 유출‧부정 이용 시 무관용 원칙에 따라 파면·해임하는 '원스트라이크 아웃 적용'을 도입한다. 비위 정도가 심각한 공무원의 경우 1회 위반에도 파면·해임 징계를 받아 공직에서 퇴출된다. 이는 내년도 공무원 징계안에 반영될 예정이다.또 개인정보 취급자가 개인정보를 부정 이용할 경우 5년 이하의 징역 또는 5천만 원 이하의 벌금을 부과하는 내용의 처벌 규정을 보호법에 신설하고, 공공기관 대상 과태료·과징금도 적극적으로 부과할 방침이다.한편, 공공기관의 개인정보 유출 규모는 2017년 2개 기관 3만 6천건에서 2021년 21만 3천건으로 크게 증가했으나, 같은 기간 관련 중징계는 9건에서 0건으로 줄어들었다. 또 위반 행위에 대한 제재 수준은 낮고, 개인정보 보호를 위한 인력·예산·제도가 미흡하다.최영진 개인정보위 부위원장은 전날 브리핑을 통해 "징계가 줄어든 이유는 고의로 인한 사건보단 기술적 해킹에 의한 유출이 많았기 때문"이라면서, "다만, 내부로부터 유출이 외부 해킹으로부터 유출과 비교했을 때 6:4의 비율이었다"고 설명했다.공공부문 시스템 전체 1만6천199개 중 약 10%의 시스템을 '집중관리 시스템'으로 선정하고, 3단계 안전조치 의무를 부과한다. 집중관리 시스템은 개인정보 보유량, 민감성 및 유출 시 파급효과, 취급자수 등을 고려해 선정된다. 자동차관리시스템, 보육행정지원시스템, 코로나19대응시스템 등이 대상이다.공공기관에서 접속기록 관리 시스템을 구축한 비율은 56%였고, 인사 이동시 15일을 초과하여 접근권한을 현행화하는 시스템은 43%에 달했다. 접속기록 수기 점검만 가능한 시스템도 약 15%로 조사됐다. 공공기관서 접속기록 점검이 형식적으로 이뤄지고 있는 것이다.이에 접근권한 관리를 위해 취급자 계정 발급을 엄격히하고, 인사정보와 연동하고 미등록된 직원은 계정 발급을 원칙적으로 금지한다. 이용기관의 목적 외 시스템 이용을 통제하고, 취급자가 필요·최소한 정보에만 접근하도록 권한을 제한한다.또한 접속기록 관리 시스템을 의무적으로 도입한다. 운영기관은 이용기관이 취급자의 접속기록을 조회할 수 있도록 하고, 비정상적 접근 시도를 탐지‧차단하는 기능을 구현해야 한다.아울러 대규모 개인정보 또는 민감한 정보를 처리하는 경우, 사전 승인 또는 사후 소명을 해야하고, 개인정보 활용 시 정보주체인 국민에게도 처리 사실을 알려야 한다.이러한 3단계 안전조치는 2024년까지 집중관리 시스템에 우선 도입된다. 2023년 말까지 '공공부문 개인정보 안전조치 기준' 규정을 제정해, 오는 2025년 전체 공공부문으로 확대·적용할 계획이다.최영진 부위원장은 "접속관리 시스템 1대당 5천만원 정도로 예상된다. 시스템 고도화에 따라 폭이 넓어질 수 있지만, 10%의 주요 시스템으로 계산하면 대략 300억 정도가 필요할 것"이라면서, "각 부처별로 얼마나 필요한지 파악해 내년도 예산에 반영하도록 하겠다"고 밝혔다.NHN 사옥 플레이뮤지엄 전경. [사진=NHN]◆'한게임' 다시 뛴다…NHN, NHN빅풋 흡수합병 '왜?' NHN이 게임사업 역량을 본사로 집중한다. 게임 포털' 한게임'으로 유명한 NHN이 다시금 게임 명가를 재건할 수 있을지 주목된다.14일 게임업계에 따르면 NHN(대표 정우진)은 게임 자회사 NHN 빅풋을 흡수합병한다고 이날 공시했다. 그룹 모태인 게임사업 역량을 본사로 모아 집중 육성하기 위한 취지다. 합병비율은 1대0.0000000이며 합병 기일은 오는 10월 1일이다. 합병법인인 NHN은 존속회사로 계속 남고 피합병법인인 NHN 빅풋은 소멸된다.앞서 NHN은 NHN 빅풋, NHN 픽셀큐브, NHN RPG로 나뉜 게임 자회사들을 올해 2월 NHN빅풋으로 통합한 바 있다. 당시에는 자회사인 NHN 빅풋을 주축으로 웹보드 게임 및 신작들을 서비스하겠다는 취지였다.그로부터 5개월만에 다시 본사가 게임 사업을 지휘하는 전략 변경이 이뤄진 데에는 게임사업을 둘러싼 대내외적인 환경 변화 때문이라는 게 NHN의 설명이다. 최근 게임산업에 대한 규제 합리화 추세로 사업 운영의 안정성이 확보됐으며 그룹 내 신사업이 안정적 성장 단계에 진입함에 따라 본업인 게임사업에 집중할 수 있는 여건이 갖춰졌다는 것이다.특히 모바일 웹보드 게임 '한게임 포커'가 지난 9일 구글플레이 매출 순위에서 1년여 만에 10위에 오르는 등 5월부터 진행 중인 대규모 브랜드 마케팅과 7월 1일 적용된 웹보드 게임 규제 완화의 효과가 가시화되고 있다는 분석이다.NHN은 국내 1위 웹보드 게임 분야의 경쟁력을 기반으로, 향후 다양한 장르 기반의 글로벌 게임회사로 발돋움 해나갈 계획이다. 특히 1999년 한게임 출시 이래 20년이 넘는 기간 동안 축적해온 게임 내 재화 관리 역량과 함께 재미를 극대화하면서도 건강한 경제 생태계를 유지할 수 있는 독보적인 노하우를 앞세워 향후 블록체인 게임 시장을 선점해 나간다는 전략이다.네이버페이와 요기요가 적립 및 할인 서비스 손질을 단행했다. 사진은 관련 이미지.  [사진=각 사 홈페이지 ]◆"쏠쏠했는데, 아쉬워"…네이버·요기요, 적립·할인 손질네이버페이와 요기요가 일부 적립 및 할인 혜택에 대해 조정에 들어갔다.14일 관련 업계에 따르면 네이버는 지난 6일 도서 버티컬 검색 오픈 시점에 맞춰, 도서 전문몰 및 도서 카테고리 상품의 네이버페이 기본 적립을 1%에서 0%로 변경했다. 배달의민족에서 네이버페이 결제 때 적립되던 0.2%의 혜택도 0%로 축소됐다.앞서 네이버는 네이버쇼핑의 '선물하기 1% 추가 적립'과 '톡톡' 서비스를 통한 구매 및 '쇼핑 라이브' 방송 중 구매 등의 적립 혜택도 중단했다. 연이은 적립 혜택 축소에 아쉬움을 표하는 이용자도 많다. 타 플랫폼 대비 압도적인 높은 적립 혜택으로 네이버페이와 쇼핑을 이용자가 많았기 때문이다.요기요 역시 이용약관의 손질을 통해 요기패스의 할인 서비스를 일부 중단했다. 기존 요기요 내 모든 할인과 중복해서 사용할 수 있었다면, 이번에 약관 변경을 통해 일부 할인과 중복해서 사용할 수 있도록 개편됐다.회사 역시 서비스 론칭 당시 쿠폰과 오늘의 할인, 포인트 등 요기요의 모든 할인과 중복할인이 가능해, 더욱 큰 혜택을 누릴 수 있다고 강조한 바 있다. 일각에서는 사용자가 불리한 방향으로 서비스 내용이 바뀌었는데도 이를 제대로 인지할 수 있는 안내가 부족했다는 지적도 인다.실제 네이버는 톡톡과 쇼핑라이브 구매 적립 혜택과 관련해 네이버 톡톡 공식 블로그와 쇼핑 라이브 공지사항을 통해 각각 고지했다. 도서 적립과 관련해서는 네이버페이센터를 통해 알렸으며 배달의민족 적립 혜택 종료는 결제창을 통해 소비자들이 인지할 수 있도록 했다.요기요는 지난 6월 공지사항을 통해 회사 조직 변경에 따라 유한책임회사를 주식회사로 변경하며 용어 정리, 요기패스 서비스 변경 및 요기패스 이용계약 해지에 관한 이용 약관 변화를 알렸다.[사진=쏘카]◆2Q 이익 내는데 성공한 쏘카…"올해 연간 첫 흑자전환"쏘카의 2분기 영업이익이 흑자 전환했다. 그간 상반기보다 하반기 실적이 더 좋았던 쏘카는 상반기에 해당하는 2분기에 흑자 전환에 성공하면서 연간 영업이익도 흑자로 돌아설 수 있다는 자신감을 나타냈다.쏘카는 지난 13일 제출한 정정 증권신고서에서 2분기 13억8천700만원의 영업이익을 달성했다고 발표했다. 전 분기와 전년 동기 대비 모두 흑자전환했다. 쏘카가 분기 흑자를 기록한 것은 지난해 3분기 이후 처음이다.쏘카는 그간 성수기에 해당하는 하반기 실적이 상대적으로 좋은 편이었다. 쏘카는 2020년과 2021년 각각 210억원과 85억원의 적자를 기록했지만 2020년 4분기와 2021년 3분기에는 흑자를 달성했다. 이런 가운데 올해는 2분기에 빠르게 흑자전환을 했다는 점에서 주목된다. 쏘카는 이를 근거로 올해 연간 영업이익 흑자전환에 자신감을 나타냈다.쏘카는 그간 수익성 개선을 위해 분주하게 움직여 왔다. '쏘카 패스포트' 등 멤버십 프로그램을 꾸준히 확대했고 이를 토대로 마케팅 비용도 지속적으로 줄였다. 여기에 지난 2021년 택시 호출 서비스인 '타다'를 운영하던 자회사 브이씨엔씨(VCNC)를 토스에 인수하면서 수익성 확대를 위한 본격적인 신호탄을 쐈다. 타다는 큰 규모의 영업손실로 인해 그간 쏘카가 흑자전환을 하지 못하는 주요 원인 중 하나로 지목돼 왔다.쏘카는 신고서에서 "향후 카셰어링 차량 및 쏘카존 확장을 통한 높은 시장점유율을 확보하고 머신러닝·인공지능 기술을 바탕으로 운영을 최적화할 것"이라며 "패스포트 기반 슈퍼앱 전환, 멤버십 프로그램 강화를 통한 마케팅 비용 감소 등을 통해 수익성을 개선시킬 예정"이라고 언급했다.이와 관련해 쏘카 관계자는 "올해 상반기 '사회적 거리두기'가 풀리면서 이동 수요가 전체적으로 늘어났고 쏘카 역시 이와 관련한 수혜를 입은 면이 있다"라며 "'쏘카 패스포트'가 지속적으로 성장세를 나타내고 있는 점도 긍정적인 부분"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>신용대출 금리 9% 초읽기…커지는 빅스텝 공포</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005265703?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>한은, 기준금리 0.5%포인트 인상 가능성 커코픽스에 영향...단기채 적용하는 신용대출 타격[이데일리 전선형 기자] 한국은행이 사상 첫 빅스텝(한번에 기준금리를 0.5%포인트 인상)을 단행할 가능성이 커지면서 대출 차주들의 불안감이 증폭되고 있다. 기준금리 인상이 이뤄지면 대출금리가 인상될 가능성이 크기 때문이다. 특히 신용대출의 경우 일부 은행의 평균금리가 8%를 넘긴 상황이라, 머지않아 평균 9%대를 터치할 가능성도 배제할 수 없다.12일 서울 시내 한 외벽에 붙은 대출 관련 안내문.(사진=연합뉴스)12일 은행연합회에 따르면 지난달 공시 기준(5월) 국내 은행의 신용대출 평균금리는 4.60~8.47%로 직전달 4.39~8.39%와 비교해 하단은 0.21%포인트, 상단은 0.08%포인트 높아졌다. 1월 공시된 수치와 비교하면 3.67~7.45%로 하ㆍ상단이 무려 0.93%포인트, 1.02%포인트 상승했다. 은행별로 보면 평균금리가 가장 높은 곳은 전북은행으로 8.97%나 됐고, 이어 카카오뱅크가 7.62%로, 광주은행이 6.51%, 토스뱅크가 6.46%를 차지했다. 특히 전북은행의 경우 고신용자의 평균금리가 6% 넘기며 높은 금리 수준을 보였다. 전북은행의 1~2등급 평균금리는 6.18%로 타은행대비 높은 수준을 보였다. 이들의 CB사 개인신용평점은 887점(KCB 기준)로 상당히 높은 편이다. 전북은행 측은 “타사 대비 중ㆍ저신용자 대출 많이 취급해 리스크프리미엄이 붙은 경향이 있다”며 “또한 지방은행 특성상 조달금리 높아 가산금리 높을 수밖에 없는 구조”라고 말했다. 전북은행은 외국인 및 당행 서민자금, 중금리대출 제외시 평균금리가 4.59%라고 설명하고 있다. 전세자금 대출과 주택담보대출도 금융당국의 ‘이자장사’ 경고 조치로 다소 주춤하기는 했지만 계속 오름세를 유지하고 있다. 특히 전세자금 대출은 지난 4월 금리 상단을 5%를 돌파한 후 상승세를 지속하며 최근 6%를 넘어 계속 오르고 있다. 시중은행의 전세대출 금리는 이날 기준 연 3.42~6.061%로 집계됐다. 은행별로 △KB국민 3.42~4.62% △신한 4.03 ~ 4.93% △하나 4.686~6.086% △우리 3.68~4.08% △NH농협 3.98~5.18% 등이다. 시중은행 주택담보대출 고정형(혼합형) 금리는 연 4.23~6.156% 수준이다. 제2금융권 금리도 채권금리가 오르면서 상승세다. 지난달 공시 기준 7개 카드사 카드론 금리 평균은 12.07~14.34% 수준이다. 이는 올해 초 11.79~15.15% 대비 상단이 0.81%포인트 상승했다. 금융권은 앞으로 금리가 더 오를 것으로 보고 있다. 특히 13일 한국은행 금융통화위원회에서 기준금리를 올릴 것으로 전망되고 있는 탓이다. 이번에 금리를 올리면 처음으로 연속 3차례 인상이다. 게다가 이번에는 물가 상승 등을 이유로 사상 첫 빅스텝을 밟을 가능성에 무게가 실리고 있다. 기준금리가 인상되면 시장(채권)금리와 조달금리도 덩달아 상승하기 때문에 대출금리가 오를 수밖에 없다. 전세대출과 신용대출은 금융채 금리 영향을 받고, 주담대는 코픽스(COFIX·자금조달비용지수) 영향을 직접적으로 받는데, 모두 기준금리 인상과 밀접하다. 한 금융권 관계자는 “은행들이 금융당국 엄포에 우대금리를 많이 주면서 조정하고 있지만, 기준금리 상승에 따른 영향은 피할 수 없을 것”이라며 “연말에 기준금리 3%까지 간다는 전망이 나온 만큼, 신용대출도 8~9% 넘는 상품들이 나올 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>1700조 대출 쉽게 갈아탄다…여야 합의에 핀테크 속도전</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005261323?sid=105</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>무산됐던 ‘비대면 대환대출 플랫폼’ 추진금결원 망 활용해 앱으로 대출 갈아타기與 “1순위 추진”, 민주당도 “시급히 도입”내주께 방안 발표…토스·핀다·핀크 준비가계대출 시장 지각변동, 은행 반발 변수[이데일리 최훈길 기자] 토스를 비롯한 핀테크 기업들이 스마트폰 앱으로 대출을 갈아타는 서비스를 추진한다. 일일이 은행을 찾아다니지 않고도 금리가 낮은 상품으로 손쉽게 갈아탈 수 있게 되는 것이다. 작년에도 검토했지만 당시에는 쉽지 않았다. 은행이 고객 유출을 이유로 반발하면서 대환대출 플랫폼이 완성되지 않았기 때문이다. 지금은 여야 할 것 없이 모두 고금리 시대에 대출 금리 부담을 줄이겠다는 입장이어서, 핀테크 대환대출 서비스가 속도를 낼 전망이다. 1700조원 넘는 가계대출 시장의 지각변동이 예상된다. 박홍근 더불어민주당 원내대표는 6일 국회에서 열린 간담회에서 “비상 상황인 만큼 원스톱 대출이동제를 시급히 도입해야 한다”고 말했다. 이날 간담회에는 송기헌(정책위 수석부의장 겸 민생우선실천단 가계부채대책팀장)·오기형(민생우선실천단 가계부채대책팀 간사)·윤관석·설훈 의원, 이세훈 금융위원회 사무처장, 김학수 금융결제원장, 이호형 은행연합회 전무, 오광만 여신금융협회 전무, 황정욱 저축은행중앙회 전무, 이근주 핀테크산업협회 회장 등이 참석했다. (사진=연합뉴스, 국회사진기자단)6일 업계에 따르면 토스뱅크가 은행권 최초로 카드론 대출을 자사 신용대출로 바꿔주는 서비스를 출시한 데 이어, 토스는 ‘대환대출 플랫폼’ 사업 진출 준비에 착수했다. 60개 금융사 대출 비교가 가능한 핀다, SK텔레콤(017670)과 하나금융그룹이 투자한 핀크도 대환대출 플랫폼에 참여할 예정이다. 토스 관계자는 “비대면 대환대출 플랫폼 사업은 금리 상승기에 고객이 필요로 하는 서비스가 될 것”이라며 “은행권 대환대출 플랫폼 구축이 먼저이고 이후 핀테크 참여 요청이 있으면 검토하겠다”고 전했다. 핀다와 핀크 관계자는 “적극적으로 참여할 것”이라고 입을 모았다. 비대면 대환대출 플랫폼은 모바일 앱에 접속해 은행 등 여러 대출 상품을 비교하고 낮은 금리로 갈아타는 ‘대출이동’ 플랫폼이다. 금융결제원 망에 핀테크가 운영 중인 대출금리 비교 서비스를 연동하면 대출 갈아타기가 가능하다. 모든 가계대출을 모바일로 쉽게 갈아타는 것이다. 이는 정부가 지난해 도입하려다 무산된 대환대출 플랫폼을 재추진하는 것이다. 기술적 어려움은 없는데 핀테크로 고객을 뺏긴다는 기존 은행권 반발로 당시 좌초됐다. 하지만 여당은 지금처럼 대출금리 부담이 큰 상황에서는 도입이 필요하다며 재추진 방침을 밝혔다.금융결제원 망에 핀테크가 운영 중인 대출금리 비교 서비스를 연동하면 대출 갈아타기가 가능하다. 모든 가계대출을 모바일로 법무사 비용 없이 쉽게 갈아타는 것이다. 사진은 지난해 금융위원회가 추진하려다 무산된 비대면 대환대출 플랫폼 설명 내용이다.(사진=금융위원회)성일종 국민의힘 정책위의장은 지난 5일 원내대책회의에서 “기존 대출기관 방문 없이 신규 대출기관에서 원스톱으로 대환대출을 실행하는 대환대출 플랫폼 사업을 신속하게 추진해달라”고 말했다. 국민의힘은 김주현 후보자가 금융위원장으로 임명되는 즉시 당정 간담회를 열고 대환대출 플랫폼 등 서민 금융지원 방안을 1순위로 논의할 예정이다. 국회 정무위원회 위원으로 예정된 윤창현 국민의힘 의원은 통화에서 “플랫폼 참여 기업, 운영 방식 등은 확정되지 않았는데 참여하고 싶은 곳(핀테크)을 들어오게 할 것”이라며 “이르면 내주에 방안이 나올 것”이라고 말했다. 더불어민주당도 6일 박홍근 원내대표 주재로 간담회를 열고 ‘상환부담 완화를 위한 원스톱 대출이동제 도입 방안’을 검토했다. 박 원내대표는 “문재인 정부는 지난해 8월까지 소비자의 원활한 대출 이동을 보장하는 원스톱 대출이동제를 추진해왔다”며 “당사자 간의 이해충돌로 현재는 추진이 중단됐지만, 급격한 고금리로 국민들의 부담 가중되는 비상 상황인 만큼 원스톱 대출이동제를 시급히 도입해야 한다”고 말했다. 국회 정무위원장을 맡았던 윤관석 민주당 의원은 “대환대출 인프라 구축 및 대출비교 플랫폼 연계를 재가동시켜 금리 경쟁을 통한 대출금리 인하를 효과적으로 유도해야 한다”며 “신용대출을 시작으로 주택담보대출까지 확장하고, 1000조원에 육박하는 자영업자 대출도 시스템에 포함시킬 필요가 있다”고 지적했다. 토스, 핀다, 핀크는 비대면 대환대출 플랫폼 사업에 참여해 ‘대출 갈아타기’ 서비스를 선보일 예정이다. 사진은 이승건 비바리퍼블리카 대표(사진 왼쪽부터), 이혜민 핀다 대표, 권영탁 핀크 대표 모습. (사진=비바리퍼블리카, 김태형 이데일리 기자)핀테크 업계는 대출 갈아타기 수요가 많을 것으로 기대했다. 비대면 대출 갈아타기로 가계대출(올해 1분기 기준 총 1752조7000억원) 금리를 1%포인트 낮춘다면, 개인들은 연간 17조원에 달하는 이자 부담을 줄일 수 있기 때문이다. 권영탁 핀크 대표는 “비대면 대환대출 플랫폼은 비싼 금리로 고통받는 서민들의 고충을 덜어주는 측면에서 대단히 환영받을 서비스”라고 강조했다. 이혜민 핀다 대표는 “고객 쟁탈전이 아니라 전반적인 대출 생태계를 건강하게 하는 방안”이라고 지적했다.  다만 카카오페이·네이버파이낸셜 관계자는 “현재 대환대출 플랫폼 참여를 검토한 바 없다”고 말했다. 기존 은행권은 고객 유출을 우려하며 빅테크의 대환대출 플랫폼 진출에 반대하는 입장으로 전해진다. 이근주 핀테크산업협회장은 “그동안 대환대출 플랫폼은 빅테크 종속, 수수료 문제, 업권 간 이해충돌로 현실화 하지 못했다”며 “금리 부담이 심각하기 때문에 앞으로는 업계가 머리를 맞대고 민생 대책을 마련해야 한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>[조간브리핑] 전세대출 이자 월세보다 비싸…시중은행 금리 상단 연 6%대</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000293657?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 모닝벨 '조간 브리핑' - 장연재조간브리핑입니다.◇ '반도체'와 '자동차 부품'이 효자…삼성·LG전자, 2분기 실적 선방먼저 삼성전자와 LG전자가 2분기 잠정 실적에 대한 기사 보시죠.경향신문입니다. 삼성전자와 LG전자가 어제(7일) 올해 2분기 잠정실적을 나란히 발표했습니다. 삼성전자는 연결기준 2분기 매출 77조 원, 영업이익은 14조 원으로 반도체 메모리 부분이 실적을 견인했고요.연결기준으로 매출 19조 4,720억 원, 영업이익은 7,917억 원으로 자동차 부품(전장) 사업에서 분기 매출이 처음으로 2조 원을 넘어섰습니다.러시아와 우크라이나 전쟁, 고물가 등 여러 악재 속에도 두 기업 모두 분기 기준으로 역대 최대 매출을 올리며 '선방'했다는 평가가 나옵니다. 다만 실적 상승 추세가 꺾였고 하반기 전망에 대해선 워낙 부정적이기 때문에 이번 분기를 기점으로 실적 악화가 시작될 것이란 의견이 지배적입니다. ◇ 치솟는 원가에 정부규제 직격탄…대기업도 가맹점 모집 중단매일경제 기사입니다.최근 가맹사업을 축소하거나 아예 접는 기업이 늘고 있습니다. 국내 프랜차이즈 브랜드당 평균 가맹점 수가 23.7개로 5년 연속 줄어들었습니다. 원부재료 가격이 급등하고 인건비까지 오르면서 사업 여건이 악화했는데요.광고·판촉 사전동의제 도입 등 정부의 규제가 강화되면서 이전보다 가맹점 관리가 어려워진 영향이 큽니다. 이런 이유로 CJ올리브영은 최근 신규 가맹점주 모집을 사실상 중단한 것으로 전해지고요.2013년부터 직접적인 출점 제한을 받고 있는 파리바게뜨, 뚜레쥬르 등 대형 제과점 프랜차이즈는 국내 매장을 못늘리자 해외로 눈을 돌렸는데요. 일각에서는 과도한 중복 규제가 국내 전체 고용에서 약 5%를 감당하고 있는 프랜차이즈 산업 자체를 위축시킬 수 있다는 우려도 제기됩니다. ◇ 재소환된 ‘대환 대출 플랫폼’…은행·핀테크 기싸움 재현?경향신문 기사 보겠습니다. 정치권에서 대출 갈아타기, '대환 대출 플랫폼' 사업을 다시 추진해야한다는 목소리가 나오자 시중은행들이 촉각을 곤두세우고 있습니다. 대환 대출 플랫폼은 대출을 받은 사람이 대출 상품 금리를 한곳에서 비교하고, 비대면으로 대출을 갈아탈 수 있게 하는 원스톱 플랫폼입니다. 작년 은행과 핀테크건 이견이 좁혀지지 않아 논의가 중단됐는데요.  시중은행은 금리 경쟁에서 불리하다는 입장이어서 논의가 재개되더라도 중도상환 수수료 면제 여부를 놓고 진통이 뒤따를 것으로 보입니다. 실제로 토스뱅크가 고금리 카드론을 토스뱅크의 저금리 대출로 바꿔주는 서비스를 시작했다가 카드업계 반발로 잠정 중단했습니다. ◇ 전세대출 2억 이자 月100만원…월세보다 비싸 '전세의 월세화' 가속동아일보 기사입니다.전세대출금리마저 급격하게 오르면서 전세대출 이자가 월세보다 비싼 '역전 현상'이 확산되고 있다는 소식입니다. 4대 시중은행의 전세자금대출 금리 상단이 연 6%대에 근접했습니다. 현재 서울 아파트 전세가 4년 사이 약 2억 원 정도 올랐는데요. 만약 2억 원을 전세 대출받는 대신 4.2%인 전월세 전환율대로 월세로 거주한다면 이자가 70만 원 정도, 전세 이자보다 저렴합니다. 전세 이자 부담이 월세보다 커지면서 '전세의 월세화'가 더 가속화될 전망입니다. 이미 지난 5월 월세 거래 비중은 60%에 육박했고요.이자 부담 떄때 주거 독립을 포기하고 부모님 집으로 돌아가는 20~30대 캥거루족도 늘고 있다고 하네요.◇ 재건축조합-시공단 9개 쟁점 중 8개 합의했지만 '상가 분쟁'에 막혀 출구 못 찾는 둔촌주공한겨레 기사입니다.서울 강동구 둔촌주공아파트의 재건축 공사중단 사태가 ‘상가 갈등’을 풀지 못하고 길어질 것으로 보입니다. 이 단지 재건축 조합은 시공사업단 뿐 아니라 상가 사업관리(PM) 회사와도 분쟁을 벌이고 있는데요. 상가 피엠사인 '리츠인홀딩스'는 조합이 돌연 계약을 해지해 사업비를 회수할 길이 막혔다며 지난 5월 말부터 공사 현장에 대한 유치권을 행사하고 있습니다. 시공단은 재개 조건으로 ‘피엠사와의 분쟁을 마쳐 사업의 걸림돌을 없앨 것’을 요구했으나, 조합은 이를 거부하고 있습니다. 공사비 대출 보증이 끝나는 다음 달 23일까지 양쪽이 이견을 좁히지 못하면 조합원 한 명당 사업 분담금이 1억 원 이상 늘게 됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>인터넷은행 대출 반년새 6조 원 이상↑…6개월째 증가세</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011295000?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>지난달 인터넷 은행 3사(카카오·케이·토스뱅크)의 대출 잔액이 9천억 원 넘게 늘며 증가세를 유지했습니다. 은행권에 따르면 지난달 말 기준 인터넷 은행 3사의 여신 잔액은 39조 7, 463억 원으로 전달보다 약 9,118억 원 늘어나 6개월째 증가세를 유지하고 있습니다. 은행별로 보면 카카오뱅크가 26조 8,163억 원, 케이뱅크가 8조 7,300억 원, 토스뱅크가 4조 2,000억 원 등으로 집계됐습니다. 지난해 말(33조 4,829억 원)과 비교하면 6개월 새 6조 2,634억 원 늘어난 수치입니다. 인터넷 은행 여신 포트폴리오의 대부분이 가계대출인 점을 고려하면, 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출이 6개월째 감소세를 보이는 현상과 대조적입니다. 5대 시중은행의 지난달 가계대출 잔액은 5월 말보다 1조 4,094억 원 감소한 699조 6,521억 원을 기록했습니다. 지난해 말과 비교하면 반년 새 9조 4,009억 원 감소한 것입니다. 최근 부동산과 주식, 가상자산 등 자산시장이 하락세를 보이면서 고신용자들의 대출 수요가 감소했지만, 생활비 목적 등의 중·저신용자 대출 수요는 꾸준한 영향으로 풀이됩니다. 아울러 최근 금리 인상기를 맞아 자금이 고금리 예·적금 상품으로 쏠리면서, 케이뱅크의 수신 증가세가 두드러진 것으로 나타났습니다. 지난달 말 기준 케이뱅크의 수신 잔액은 전달보다 8,500억 원 늘어난 12조 1,800억 원을 기록했습니다. 지난달 케이뱅크가 연 5% 금리의 적금 상품을 두 차례에 걸쳐 특판을 진행한 영향입니다. 카카오뱅크의 지난달 말 수신 잔액은 33조 1,808억 원으로, 이례적으로 전달보다 1,989억 원 감소했습니다. 최근 은행권에서 수신 특판 상품이 쏟아지자 일부 자금이 이탈한 것으로 풀이됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>결제 중단 피했다…카드사 vs. PG업계, 수수료 싸움 '매듭'</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000293381?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>올해 초 불거졌던 카드사와 전자지급결제(PG)업체 간의 수수료 갈등이 곧 봉합될 전망입니다.자칫 온라인 결제중단 사태로 이어질 경우 소비자와 영세 온라인 쇼핑몰이 피해를 볼 수도 있었던 만큼 상황이 마무리돼 다행이라는 평가입니다.오늘(6일) 카드업계와 PG업계에 따르면 최근 국내 7개 카드사(신한·삼성·KB국민·현대·롯데·하나·BC)와 PG사들은 수수료율을 0.02~0.04%포인트 올리는 데 합의했습니다. 현재 대부분의 카드사가 PG사들과 협상 절차를 마쳤으며 나머지 1~2개 카드사도 마무리 단계에 있습니다.PG사란 카드사와 가맹점 계약 체결이 곤란한 중소 온라인 쇼핑몰을 대신해 계약을 맺고 온라인 카드결제와 지불을 대행하는 업체입니다. 중소 쇼핑몰로부터 일부 수수료를 받고 카드사에는 수수료를 냅니다. 나이스페이먼츠·다날·KG모빌리언스·토스페이먼츠 등이 PG사에 해당합니다.카드업계는 지난 2월 PG업계에 수수료율을 0.05~0.1%포인트 범위 내에서 올려야 한다고 통보한 바 있습니다.하지만 PG업계가 인상 폭이 지나치게 높다며 반발하며 지난 3월 신한카드 본사 앞에서 시위를 벌이기도 했습니다.입장 차이가 좁혀지지 않아 자칫 가맹계약 해지 사태로 번질 가능성도 있었습니다. 온라인에서 결제를 할 수 없게 돼 중소 온라인 쇼핑몰과 소비자들에게 피해가 돌아갈 수도 있던 셈입니다.PG협회 관계자는 "애초 수수료 동결을 원했던 만큼 만족하지는 못하지만 당초 전달받았던 수준의 중간에서 절충해 협상을 마무리 짓고 있다"며 "이제 본연의 업무에 집중해야겠다고 회원사들이 판단한 것"이라고 말했습니다.여신전문금융업법에 따르면 카드사들은 가맹점들과 3년에 한 번씩 수수료율을 협상합니다. 이번 합의도 앞으로 3년간 유지됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>'빚내서 물건 사라고?'…현대카드 후불결제 '기대반 우려반'</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000293611?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[앵커] 물건을 구매한 뒤 나중에 결제하는, '후불결제' 시장에 대형 카드사들이 뛰어들고 있습니다. 현대카드에 이어 KB국민카드도 연내 서비스 출시를 준비 중인데요. 하지만 금융이력이 부족한 신 파일러를 주 고객으로 염두에 둔 만큼 연체나 다중채무 우려가 크다는 분석도 나옵니다. 보도에 오정인 기자입니다. [기자] 최근 현대카드가 후불결제 서비스를 선보인 데 이어 KB국민카드도 연내 출시를 목표로 하고 있습니다. 지금까지는 네이버파이낸셜과 카카오페이, 토스 등 빅테크들이 혁신금융서비스 지정을 받아 제공하던 서비스인데, 여기에 카드사들까지 나선 겁니다. 후불결제란 '선구매 후결제', 말 그대로 물건을 산 뒤 결제는 나중에 하는 서비스입니다. 신용카드 할부와 비슷하지만, 카드 없이도 분할 결제가 가능한 점이 특징입니다. [A카드사 관계자 : 신용도 평가 제대로 하는 노하우가 필요한데 카드사가 가장 뛰어나죠. 카드사들이 얼마든지 관심 가질 수 있는 사안이고요.] 대학생이나 사회초년생 등 금융이력이 부족한 신 파일러(Thin filer)나 신용카드를 이용하기 어려운 고객층이 유입될 것으로 보고 있습니다. 문제는 카드사의 리스크 관리입니다. [B카드사 관계자 : 이용하는 분들이 많아질수록 연체율도 올라간다고 하면 카드사가 어느 정도까지 감당할 수 있느냐 이런 문제도 있기 때문에 조심스럽게 접근하는 게 맞지 않나 싶어요.] 특히 최근 이복현 금융감독원장이 카드업계 리스크 관리를 강조한 만큼 후불결제도 중점 관리대상이 될 수밖에 없다는 전망도 나옵니다. [서지용 / 상명대 경영학과 교수 : 최근에 고금리 상황 지속되면서 다중채무자의 채무 상환능력이 떨어지고, 워낙 신용도 낮은 분들을 대상으로 하기 때문에 연체 가능성이 높거든요. 금융당국에서도 규제라든지 모니터링 조치를 취할 가능성이 있고요.] 이와 관련해 현대카드는 "내부 신용평가 모델로 연체율을 관리하고, 금융권 내 연체정보 공유로 다중채무 발생을 억제하겠다"라고 밝혔습니다. SBS Biz 오정인입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[100대 CEO-박종복 SC제일은행장]안정적 수익으로 3연임 성공…은행+증권 복합 점포 오픈</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000061347?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>1955년생. 청주고. 경희대 경제학과. 2006년 SC제일은행 PB사업부 부장. 2007년 SC제일은행 영업본부 부장. 2014년 한국스탠다드차타드은행 리테일금융총괄본부 본부장. 2015년 한국스탠다드차타드은행 은행장 및 한국스탠다드차타드금융지주 회장. 2016년 SC제일은행 은행장(현).박종복 SC제일은행장은 2015년 행장에 취임 이후 과감하고 선제적인 조직 재편을 바탕으로 안정적인 비즈니스 성장 기반을 구축했다. 빠르게 변화하는 영업 환경에서도 실적과 수익성을 크게 개선했다. 2018년 재임 이후 스탠다드차타드와 제일은행이라는 두 브랜드를 조화시켜 전략적 비즈니스 제휴와 디지털 역량 강화, 자산 관리 비즈니스 성장을 통해 변화와 혁신을 주도했다. 2020년 코로나19 사태로 인한 어려운 대내외 경제 환경에서도 수익 다각화를 통해 안정적으로 조직을 이끌었다는 평가를 받으며 3연임에 성공했다.박 행장은 재연임 첫해인 2021년 실적을 개선했다. SC제일은행은 2021년 3분기 누적 순이익 2643억원을 거뒀다. 2020년 같은 기간보다 44.5% 늘어난 실적이다. 3분기 누적 영업이익은 3299억원으로 전년 대비 20% 증가했다. 역대 최저 수준의 기준금리 등 시장 여건이 악화하며 순이자 마진이 하락했음에도 꾸준한 영업 기반 강화를 통해 대출 자산 확대와 함께 저원가성 예금의 성장 덕분이다.박 행장은 특히 힌국의 유일한 외국계 은행으로 SC제일은행의 자산 관리(WM) 사업 강화에 힘을 쏟고 있다. 2022년 3월 은행과 증권 창구를 동시에 갗춘 복합 점포를 공식 출범했다. 수도권 9곳과 부산 1곳에 총 10개의 복합 점포를 오픈했다. 기존 은행 지점에 증권 카운터가 추가된 방식이다. SC제일은행 안에 입점한 SC증권은 SC제일은행의 100% 자회사로 2008년 설립됐다. SC제일은행과 SC증권은 글로벌 기업이라는 특성을 살려 양사 간 시너지를 극대화해 나갈 방침이다. SC제일은행은 복합 점포를 통해 점차 상품 포트폴리오를 확대해 나갈 예정이다. 모바일 뱅킹을 통해 SC증권 계좌 개설이 가능하고 모바일 트레이딩 시스템(MTS)으로도 상품 가입을 할 수 있다.SC제일은행은 모기업인 스탠다드차타드그룹이 검증한 투자 상품 등 차별화된 자산 관리 서비스를 선보이고 있다. 매해 말 자산 관리 고객을 위한 투자 지침을 담은 투자 전략 보고서를 내고 웰스케어 세미나도 개최하고 있다. 박 행장은 2022년 신년 타운홀 행사에서 “소매 금융은 자산 관리 부문의 차별성과 강점을 부각하고 새로운 인재를 적극 영입하는 등으로 시장 환경 변화의 기회를 살려 안정적 성장과 재도약의 발판을 만들어 가야 한다”고 말했다.박 행장은 핀테크 회사와 협력을 확대하는 등 디지털 강화에 속도를 내고 있다. SC제일은행은 제3 인터넷 전문 은행 토스뱅크에 주주로 참여한 바 있다. 박 행장은 핀테크 회사의 주요 고객층이 20~30대인 만큼 이들과의 협력을 통해 SC제일은행의 디지털 역량은 물론 영업력 강화에도 도움이 될 것으로 판단하고 있다. 2020년 12월 핀테크 기업 토스와 함께 카카오페이 인증을 모바일 뱅킹 인증 수단에 추가했다. 시중은행 중에서는 최초다. 2020년 9월 토스와 협업해 소액 단기 신용 상품인 ‘SC제일토스소액대출’을 출시했다. 이 상품은 금융위원회가 도입한 지정 대리인 제도를 활용한 것으로, 은행권에서는 처음 출시된 위탁 심사 상품이다.모바일 뱅킹 애플리케이션(앱)을 다듬는 데도 공을 들이고 있다. 2021년 12월 모바일 뱅킹 앱을 통해 마이데이터 서비스를 선보였다. 마이데이터 서비스에는 가상 데이터 공간을 사용해 속도가 빠른 클라우드 시스템을 적용했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]한은 사상 첫 빅스텝…李 “연말 최고 3% 간다”</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005266761?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>[이데일리 문승관 기자]다음은 7월 14일자 이데일리 신문 주요 뉴스다.△1면-고물가가 바꾼 MZ세대 新풍속도 걷기·출석·리뷰 일상이 다 돈이네-한은 사상 첫 빅스텝…李 “연말 최고 3% 간다”-기업활동 옥죄는 경제형벌 대수술-4차 접종 50대로 확대…거리두기 없다-[사설]한은 사상 첫 빅스텝, 경기보다 물가안정이 먼저다-[사설]당리당락에 발목잡힌 원 구성, 이런 국회 뭣하러 있나△종합-[줌인]‘돈나무 언니’ 캐시우드의 경고 미국은 이미 불황에 빠졌다…연준, 곧 긴축 정책 뒤집을 것-현정은 현대그룹 회장 엘리베이터 넘어 모빌리티로…혁신 통한 제2 도약 포부△한은 사상 첫 빅스텝-경기보다 물가…이 총재 “물가 4분기 정점, 내달부터는 베이비스텝”-이자 16만원 더 내야할 판…영끌족 곡소리-상의 “기업 이자부담 4조 늘어”…한계기업 속출할 판△코로나 6차 대유행 비상-‘BA.5 전염성 높지만 중증도 낮아’…거리두기 대신 접종·치료제로 대응-학습결손 커질라…교육부 “2학기도 전면등교유지”-휴가철 앞두고 ‘더블링 쇼크’…다시 움츠린 항공·여행株 △데이터로 돈 버는 시대-MAU가 곧 경쟁력·토스 “걸으면 100원”, 네이버 “영수증 스캔 50원”-리워드 앱의 진화…AI·블록체인으로 돈 버세요-‘네이버쇼핑 AI’ 스타 판매자 쏠림현상 방지…신생 中企제품 노출시간 늘려△저축은행 불법대출 논란-10년전 악몽 잊었나…꼼수대출로 부실 키우는 저축은행-저축은행 신용대출자 10명 중 7명 다중채무자-“LTV 90%넘는 주담대, 저축銀 건전성 나빠질 것”△종합-최태원 “유연함으로 변화 대응”…추경호 “규제혁파·세율 낮춰 돕겠다”-[이슈분석]표시광고법이 뭐길래 제휴카드 혜택 과장, 유료회원 가격 역차별…‘소비자 기만’ 여부 쟁점-야심차게 나스닥 노렸던 ‘야놀자’ 증시 침체에 상장작업 지연 불가피-6월 취업자 84.1만명 늘었지만…불확실성 커져 하반기 불안△경제-경미한 위반도 형벌…공정거래법·산안법 손본다-소·돼지고기에도 저탄소 인증제 도입-한수원, 고리 2호기 수명연장 절차 속도낸다-이창용 한은 총재, 옐런 美재무장관과 19일 양자회담△정치-탈북어민 강제북송 논란 일파만파…“진실규명” vs “新북풍”-[현장에서]레드팀 소문까지…尹 위기탈출 몸부림-野 “행안위·과방위 사수” vs 與 “과방위는 양보못해”-‘이준석 지우기’로 떠들썩한 與 청년표심 이탈 가속화 우려도-이재명, 당내 스킨십 강화…‘어대명’ 다지나△글로벌-유로화 가치 뚝뚝…긴축 예고한 ECB, 더 큰 침체 부르나-뉴질랜드, 또 빅스텝 금리 0.5%p인상-OPEC “내년 석유 수요 270만배럴 늘어날 것”-봉쇄 완화 효과…中 수출 17.9% ‘깜짝 증가’-구글도 채용 연기…美 빅테크 ‘칼바람’-기시다 내각 지지율 65% 참의원 선거 압승 후 급반등△산업-[이슈분석]DB하이텍 펩리스 분사 나선 DB그룹, 반도체 설계회사 육성 vs 지주회사 강제전환 대비…시각차 뚜렷-명품 사운드와 미니멀 디자인의 ‘화음’ 담을 것 마를루 실반토 뱅앤올룹슨 디자인팀 총괄책임-홈코노미에 새 먹거리 있다…가전업계 ‘식음료 동맹’ 러시-SK이노, 美펄크럼에 260억 투자…폐기물 가스화 기술 확보△ICT-아기별의 탄생·종말, 외계행성 물 발견…“우주 역사 획기적 사건”-속 보이는 스마트폰…英낫싱 ‘폰 원’ 공개-구글에 백기 든 카카오…결국 ‘아웃링크’ 삭제△제약·바이오-큐라클, 황반변성 치료제 임상1상 성공…상업화 8부능선 넘어-한미약품, NASH임상2상 데이터 9월 첫 집계-SK바사 코로나 백신, 3차까지 접종하면 오미크론에 효과△Auto&amp;Life-볼보 ‘S90리차지 플러그인 하이브리드’ 친환경 성능 스마트 다잡았네!-타봤어요 BMW ‘M235i 그란쿠페’ 부드러운 가속력 달리는 재미 쏠쏠△증권-자신감인가 배짱인가…안갯속 M&amp;A시장, 몸값 올려 부르는 매물들-떨어질 만큼 떨어졌다…하락장속 반등株 찾아라-순항하던 해운주, 역풍 만나나-금리인상 수혜주라더니…은행주 내리막길, 왜-[IPO출사표]수산인더스트리 “민간발전정비 강자…해외진출 날개 달것”△부동산-치솟는 원자잿값에…인허가받고도 ‘첫삽’ 못떠-오세훈표 부동산 정책 차기 사령관 누가 될까-“주택 거래절벽 심화…전세의 월세화 가속”-GTX호재 식었나…의왕·안양 아파트값 3억~4억 ‘뚝’△제150회 ‘디오픈’ 개막-‘골프 성지’ 누가 점령할까-첫 우승 노리는 K골퍼들 3번째 도전 임성재 영건 김주형·김민규 샷 감각 ‘최고조’-‘최고의 메이저’ 디오픈은 1860년 시작, 우승 상금 32억 잉글랜드 바던, 6번 정상 올라-3회 우승 우즈 “목표는 우승…LIV 골프 이적은 PGA 투어 배신”-‘세인트엔드루스 올드코스’가 골프의 성지로 불리는 이유△이데일리가 만났습니다-유영대 국악방송 사장 “시공간 초월한 국악마당 메타버스로 세계화 나섭니다”-“나는 국악계 장돌뱅이 저변확대 앞장서겠다”△피플-정서발달 도움주는 수학…아들과 매일 수학놀이 즐겨요 ‘필즈상’ 수상 기념 강연 허준이 교수의 자녀 교육법-신동빈 롯데 회장, 7년 만에 사직구장 찾아-이정재, 亞배우 최초 에미상 남우주연상 후보-삼성, 태평양국가 정상들에 ‘부산엑스포’ 홍보△오피니언-[유지수의 경세제민]규제 완화시 명심해야 할 것-[생생확대경]‘교부금 개편’ 반대가 능사 아니다-[e갤러리]차대영 ‘인왕산’△헌재 심판대 다시 오른 ‘사형제’-“형벌 목적은 교화, 폐지 마땅” vs “범죄 예방 위해서 존치해야”-사형제 대안으로 ‘가석방 없는 종신형’ 힘실려-전문가 의견 갈리지만…헌재 ‘사형제 위헌’ 전망에 무게△사회-‘이씨 월북 판단할 수 있는 기록’ 삭제 정황 포착…檢, 국정원 압수수색-윤희근 경찰청장 후보 경고에도 ‘경찰국’ 반대…빗속에 삼보일배-오세훈 6.4조 슈퍼 추경…‘약자와 동행’ 박차-공수처, 한동훈 고발 건 경찰로 이첩-‘아내 성폭행’ 오해…동료 살해한 대청면사무소 공무원-경기 파주 요양병원서 128명 코로나 집단 감염</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.07.15.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>"MTS로 주식만 하나요?"…마이데이터 사업화 안간힘</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001043015?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>미래에셋증권·키움증권, 키워드 '통합'NH투자증권·한국투자증권 '편의성' 개선국내 증권사들이 떠나는 고객들의 마음을 잡기위해 자사 모바일트레이딩시스템(MTS)의 대대적인 개편에 나섰다.증시 하락장이 장기화되면서 개인투자자들이 떠나가고 있고, 또 편의성 측면에서 더 뛰어난 토스증권, 카카오뱅크 등 핀테크 기업으로 고객이 넘어가고 있기 때문이다.지난 달 30일 미래에셋증권은 흩어져 있던 앱을 한데 묶은 통합 MTS 'M-Stock(엠스톡)'을 선보였다.국내주식, 해외주식, 자산관리 부문으로 흩어져 있던 3개의 앱을 하나로 통합했고 낮과 밤 시간 변화에 따라 앱 디자인이 자동 전환된다.해외 주식 거래지역을 지도로 한눈에 볼 수 있고, 실시간 거래부터 투자 유망종목에 대한 아이디어 제공까지 고객들을 위한 편의성을 대폭 개선했다.메뉴 구성이 복잡하고 활용도가 낮던 통합검색 기능은 상품과 투자정보를 키워드 하나로 한 번에 찾아볼 수 있도록 변경했다.예를 들어 '국민주' 삼성전자를 검색하면 AI(인공지능)를 활용해 삼성전자가 포함된 금융 상품을 모두 찾아서 보여준다.또한 국내외 기업의 ESG 경영 상황을 파악할 수 있는 ESG 평가지표 데이터, 기업의 성장성과 안전성 등을 알려주는 '종목별 AI 스코어' 등의 서비스도 제공한다.안인성 미래에셋증권 디지털부문 대표는 "이용자들에게 투자에 대한 모든 경험을 할 수 있는 모바일 접점으로 완전히 새롭게 변신했다"며 "특히 전 세계 금융 상품을 한 곳에서 확인하고 24시간 투자할 수 있다"고 설명했다.매달 300만 명의 이용자 수를 자랑하는 MTS 대장 키움증권은 1위 자리를 수성하기 위해 이달 말 차세대 MTS인 '영웅문S#'를 출시한다.키움증권은 지난 4월 사전 체험단을 모집한 후 베타 테스트를 마친 상태이며 현재는 소비자의 의견을 받아 앱 성능 개선, 메뉴 체계 개편 등을 준비하고 있다.미래에셋증권과 마찬가지로 키움증권 영웅문S#의 핵심은 '통합'이다.국내 주식 플랫폼인 '영웅문S'와 해외 주식 플랫폼인 '영웅문S 글로벌'을 하나로 통합했으며, 전세계 증시 상황을 한 눈에 확인할 수 있다.김경주 키움증권 업무개발팀 이사는 "빅데이터 활용과 사용자 경험인 UX(이용자 경험)를 기반으로 플랫폼 경쟁력을 더욱 강화하려 한다"며 "이를 통해 시장 지배력을 확대하고 디지털 전환 속도전에 대응해 나갈 계획"이라고 설명했다. 또한 "마이데이터를 활용해 타 금융상품까지 추천하고 있다"고 덧붙였다.증권업계 관계자는 증권사들의 MTS 개편 움직임에 대해 "올해 국내 증시가 해외에 비해 상대적으로 부진하다 보니 해외 주식에 대해 관심을 가지는 투자자들이 늘었다"며 "이에 따라 해외주식 거래가 가능한 MTS를 찾는 투자자들이 증가했다"고 분석했다.이 밖에 NH투자증권과 한국투자증권도 MTS 단장에 나섰다. NH투자증권의 MTS '나무'는 편의성과 접근성이 극대화됐다.모든 관심종목을 하나의 카테고리에서 확인할 수 있도록 국내주식, 해외주식, K-OTC, 선물옵션 등 다양한 관심수요를 한 페이지 내에 담았다. 서학개미들을 위해 자동 환전 서비스도 제공한다.한국투자증권은 고객 편의성과 정보 습득 접근성을 강화했다. 홈 화면에서 고객인 필요한 정보만 골라서 볼 수 있도록 UI(유저 인터페이스) 디자인을 손봤다.한편 증권사들의 이같은 움직임에는 장기적으로 실적을 개선하려는 저의도 엿보인다.마이데이터 서비스를 통해 고객들에게 펀드나 보험 같은 타 금융상품을 소개하고 주식 매매 수수료 외에 추가적인 수입원을 확보한다는 계획이다.올해 상반기 마이데이터 사업에 참여 허가를 받은 증권사는 7곳(미래에셋증권, 한국투자증권, 하나증권, KB증권, NH투자증권, 키움증권, 현대차증권)이며, 하반기에도 9곳(신한투자증권, 교보증권, 대신증권 등)이 추가로 참여한다.마이데이터 서비스를 통해 미래에셋증권은 '신용점수 올리기', 하나금융투자는 '부자 되는 투자 노하우', NH투자증권과 키움증권은 '주식 진단 서비스' 등을 제공한다.그러나 마이데이터 서비스가 단기간 내 수익성 개선으로 연결되기는 어려울 것으로 보인다.아직은 서비스 초기 단계이기 때문에 대부분의 서비스가 기존의 자산관리와 소비패턴분석, 투자가이드와 비교해 차별성이 떨어진다는 지적이다.전통 증권사들이 고객 이탈을 막고 플랫폼 업체를 견제하기 위해 발벗고 나선 만큼, 증권사의 강점을 살려 전문성이 동반된 투자 서비스가 필요한 시점이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>"기본급 인상은 한계 있어" 기업 간 이색 복지 확대 경쟁</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001674771?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>"글로벌 인플레이션으로 인한 대외 불확실성 때문""기본급 올리면 경영 상황 악화할 수도"사진=픽사베이기업들이 인재 이탈을 막기 위해 '파격 복지' 경쟁에 나섰습니다.임금 인상 대비 부담이 덜한 복지 확대를 통해 최근 글로벌 인플레이션 등에 따라 커진 대외 불확실성에 대응하겠다는 취지입니다. 일하느라 고생한 직원들의 문화·여가 생활을 챙겨주는 것이 중요해진 시대 흐름에 발맞춰 인재를 확보하겠다는 의도 또한 보입니다.최근 LG디스플레이는 최희승·강대현 스타일리스트를 초대해 스타일링 교육을 실시했습니다. 상담부터 시작해 전문가의 손길이 더해진 헤어, 메이크업과 화보 촬영 기회가 체계적으로 제공된 것으로 알려졌습니다. SK하이닉스도 전 직원에게 미국 허먼밀러 사의 의자를 제공한다고 밝혔습니다. 허먼밀러의 의자는 개당 200만 원을 웃도는 '명품 의자'로 알려져 있습니다. 삼성전자는 매년 5월 가정의달을 맞아 에버랜드 테마파크 이용권 등 문화 혜택을 늘리기로 했습니다. 또 육아 휴직을 최대 2년으로 확대하고 더 많은 어린이집 시설을 확충하는 등의 제도도 검토 중인 것으로 알려졌습니다.송금 서비스 앱 TOSS(토스)를 개발한 비바리퍼블리카는 최대 1억 원을 무이자로 대출해주는 주택자금 대출 복지를 제공하는 것으로 전해졌습니다. 스타트업 여행 플랫폼인 '마이리얼트립'은 연간 100만 원에 달하는 여행 포인트를 지원하기도 했습니다.이러한 기업들의 '복지 경쟁'은 임금도 중요하지만 그에 맞는 복지 제도도 중요한 기업 선택 가치로 여기는 젊은 세대의 성향을 반영하면서 동시에 임금 상승에 따른 인력 감축 등의 부작용을 막기 위해서 실시된 것으로 풀이됩니다.한 업계 관계자는 "최근 각종 대외 악재로 불확실성이 커지고 있는 상황"이라며 "기본급은 한 번 올리면 이후에 경영 상황이 악화한다해도 다시 내릴 수 없다"고 설명했습니다. 기본급 인상을 섣불리 실행했다간 기업 경영에 차질이 생길 수도 있기 때문입니다.이미 지난해 메타나 넷플릭스, 테슬라 같은 미국 기업들은 연봉 인상 경쟁을 하다 글로벌 경기가 악화됨에 따라 대규모 인력 감축 및 정리 해고를 단행한 바 있습니다. 국내 네이버도 올해 채용 규모를 전년 대비 30% 이상 줄이기로 결정했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>판다는 6백만년 전에도 대나무만 먹었다</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011280920?sid=104</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>기사내용 요약판다의 독특한 신체적 특징 '6번째 가짜 손가락'6백만년 전부터 고대 판다 화석에서도 발견오랜시간 '특이한 식성' 유지했을 것이란 증거[서울=뉴시스] 2016년 4월21일 중국 청두 연구기지에서 판다 한 마리가 대나무를 씹고 있다.(왼쪽) KIZ 전시장에 비치된 현대 판다의 가짜 엄지손가락 표본에 이번 연구를 통해 발견한 고대 판다 '아일루락토스'의 손가락(D)을 나란히 비교한다.(오른쪽) (사진=사이언티픽 리포트에 게시된 논문 자료 사진) 2022.07.01. *재판매 및 DB 금지[서울=뉴시스]문채현 인턴 기자 = 매일 15시간을 대나무만 우적우적 씹으며 보내는 판다의 특이한 식성이 최근에 발현된 것이 아니라 600만 년 전부터 이어졌을 가능성이 있다는 연구 결과가 나왔다.30일(현지시간) CNN 등 외신에 따르면 미국 로스앤젤레스 자연사 박물관의 왕 샤오밍 박사 연구팀은 이날 사이언티픽 리포트에 고대 판다 조상에게도 현재와 같은 '6번째 손가락'이 있었다는 사실을 확인했다는 연구 결과를 발표했다.연구팀은 2010년과 2015년 중국 남서부 윈난성에서 발굴했던 약 600만 년 전 고대 판다 '아일루락토스'의 화석이 가짜 엄지손가락을 가지고 있었을 뿐만 아니라 심지어 오늘날 판다의 것보다도 더 길었음을 발견했다.오늘날의 판다는 손목에 엄지손가락을 닮은 6번째 가짜 손가락을 갖고 있다. 과학자들은 "이 손가락을 판다가 잡식동물에서 대나무만 먹는 초식동물로 진화하는 데 가장 중추적인 역할을 한 요소"라고 생각했다.이 손가락은 인간의 엄지손가락만큼 능력을 갖추고 있는 것은 아니다.하지만 판다가 대나무 줄기를 물고 쪼개 한입 크기로 만드는 것을 도와 하루에 대나무를 45㎏ 가까이 먹는 판다의 어마어마한 식욕에 기름을 붓는 역할을 한다.과거엔 판다 화석 기록이 없었기 때문에 과학자들은 어떻게 판다가 이 독특한 신체적 특징을 갖게 됐는지 알 수 없었다. 최근 연구를 통해 이와 비슷한 구조가 약 10만 년 전에도 있었다는 증거만을 발견했다.그렇기 때문에 과학자들은 "판다의 고대 조상은 대부분의 곰과 마찬가지로 고기를 포함해 훨씬 더 다양한 먹이를 먹었고, 대나무만 먹는 식성은 비교적 최근에 진화한 것"이라 생각했다.하지만 이번 연구를 통해 과학자들은 "고대 판다가 6번째 손가락을 가지고 있었다는 것"과 함께 "대나무에 대한 판다의 집착이 적어도 600만 년 전에 시작됐을 수 있다는 것"을 발견했다.또한 "이 독특한 형태를 긴 시간 동안 유지했다는 것을 통해 이 6번째 손가락이 판다의 생존에 필수적인 기능을 한다는 것을 시사한다"고 분석했다.왕 박사는 현대에 들어 6번째 손가락이 더 짧아진 것에 대해서는 "대나무를 다루는 기능과 무거운 몸을 이끌고 걷는 기능 사이의 진화적 절충일 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>국보 자회사 벅시, 토스와 손잡는다</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005112257?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>코스피 상장사 국보의 자회사인 스마트모빌리티 업체 ‘벅시(buxi)’가 모바일 금융서비스 플랫폼 ‘토스(Toss)’와 손잡고 생애 첫 결제 프로모션을 진행한다.4일 벅시에 따르면 ‘생애 첫 결제 프로모션’은 토스페이 결제 이용자를 대상으로 벅시에 1만원 이상 결제시 1000원 캐시백을 1000명에게 지급하며 이벤트 기한은 오는 7월11일부터 8월9일까지다.토스(Toss)는 대한민국 국민 3명 중 1명이 사용하는 대표 모바일 금융 서비스로, 주 타켓층인 20~30대의 평균 70%는 물론 40대의 50%가 토스앱을 사용하는 유저인 만큼 벅시와 높은 시너지 효과를 낼 수 있을 것으로 기대된다는 설명이다.벅시 관계자는 “토스와 함께 하는 이번 프로모션은 여름철 지속적으로 늘어날 여행 수요에 맞춰 고객들에게 결제 편의 제공을 위한 것으로 앞으로 고객 혜택 강화를 위한 다양한 서비스와 프로모션을 함께 선보일 계획”이라고 설명했다.이와 함께 벅시는 7월 ‘썸머프로모션’을 진행한다. 프로모션 기간은 오는 7월15일까지며 프로모션 코드를 입력하면 7000원 할인을 받을 수 있다. 해당 프로모션 외에도 네이버 회원 등급에 따라 최대 1만원까지 할인 발을 수 있는 프로모션도 진행 중으로 벅시앱에서 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>비아이매트릭스, 로코드 개발 기술력 인정 산업부 'ATC+'에 지정</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003029419?sid=105</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>로코드(Low Code)개발 플랫폼 전문기업 비아이매트릭스(대표 배영근)가 산업부가 중소·중견기업 연구소를 대상으로 연구개발(R&amp;D)을 지원하는 '2022년 우수기업연구소(ATC+)에 지정됐다고 11일 밝혔다.비아이매트릭스는 로코드 기술력과 로코드 시장 활성화에 기여해 온 점을 인정받아, 연평균 5대 1에 달하는 높은 경쟁률을 뚫고 ATC+에 지정됐다. 산업부는 중소·중견기업 연구소를 산업혁신 리더로 육성하기 위해 엄정한 심사를 거쳐 연간 45개 내외의 ATC+를 지정, 지원한다.회사는 오는 2025년 12월까지 총 45개월간 로코드 기술 고도화와 사업화를 위해 24억원 상당을 지원받아 기업들에 누구나 쉽게 접근 가능한 로코드 플랫폼을 제공한다. 로코드 기술이 익숙해지도록 유도하고 관련 시장을 확대하는 것을 목표로 '로코드 애플리케이션플랫폼(LCAP) 기반 응용 SW를 활용한 기업의 협업 자동화 관리 통합 플랫폼 개발' 과제를 수행할 계획이다.바이이매트릭스는 이에 앞서 비즈니스인텔리전스(BI)·온라인분석처리(OLAP), 대시보드·시각화, 사용자인터페이스(UI)·사용자경험(UX) 등 솔루션을 하나로 통합하고 로코드 기술을 적용, 로코드 통합 UI 개발 솔루션 'AUD플랫폼'을 출시했다.회사는 기획재정부, 농림축산식품부, KOTRA, 토스뱅크, 수협은행 등 다양한 기업들의 업무 시스템 구축과 디지털 전환 사업에 AUD플랫폼을 공급하며 현업 담당자에게 개발자 도움 없이도 직접 업무 시스템 화면을 제작하는 로코드 개발 환경을 제공하고 있다.비아이매트릭스 관계자는 “ATC+ 지정으로 기술력, R&amp;D 역량, 성장성 등 기업 핵심가치를 대외적으로 높게 평가받았다”면서 “로코드 역량과 비즈니스 노하우를 발휘해 LCAP 기반 기업용 UI·UX 개발 자동화 플랫폼을 개발하고 실용화한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>중노위 결정 뒤엎은 법원 “타다 드라이버, 근로자 아냐”</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002128243?sid=105</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지기자] 법원이 타다 드라이버(기사)를 근로자로 인정한 중앙노동위원회 판정을 뒤집었다.    8일 서울행정법원 행정3부(유환우 부장판사)는 쏘카가 중앙노동위원회(이하 중노위)를 상대로 낸 소송에서 원고 승소로 판결했다.    타다 운영사 VCNC 모회사였던 쏘카는 타다 드라이버를 노동자라고 판단한 중노위 재심 판정을 취소해달라고 소송을 제기했다. 현재는 토스를 운영하는 비바리퍼블리카가 타다 경영권을 가져갔다. 이날 재판부는 “원고(쏘카)가 사용자 지위에 있다고 보기 어렵고, 참가인(타다 드라이버)이 사용 종속적 관계에서 근로를 제공했다고 보기 어렵다”고 판단했다.    앞서, VCNC는 운전기사들과 프리랜서 계약을 맺고 타다를 운영하다 2019년 7월 70여명을 계약 해지했다. 이 중 한 기사가 이듬해 부당해고에 해당한다며 구제신청을 한 것이다. 이 사이 2020년 3월 ‘타다금지법’으로 불리는 여객운수법 개정안 국회 통과로 ‘타다 베이직’ 서비스가 중단됐다.    서울지방노동위원회는 구제신청을 각하했으나, 중노위는 이와 반대로 부당해고로 봤다. 하지만, 이번엔 법원이 중노위와 다른 결정을 내린 것이다.    타다 드라이버 비상대책위원회(비대위)는 아쉬움을 드러내고 있다. 사측에서 제공하는 매뉴얼과 지휘에 따르고, 시간당 급여를 받는 등 근로자 조건을 충족했다는 설명이다.    반면, 쏘카 측은 “중앙노동위가 쏘카와 타다 사용자라는 것이 사실관계 동떨어진 부분이 많아 소송하기로 했다”며 “법원이 이를 받아들여줬으며, 법원 판결에 존중한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>"요즘 누가 쓰나?"…페이 공세에 체크카드 시대 저문다</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000294045?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>[앵커] QR코드로 찍고, 미리 충전하고, 심지어 돈을 나중에 내기도 하는 결제방식들이 생활 속에서 빠르게 자리 잡고 있습니다. 이에 맞춰 카드사들도 다양한 결제 방식을 속속 내놓고 있는데요. 그러다 보니 전통적인 결제수단이었던 체크카드 발급이 크게 감소했는데요. 그만큼 찾는 발길이 줄고 있는 겁니다. 류정현 기자가 보도합니다. [기자] 신용카드 없이도 일단 물건을 사고 돈은 나중에 나눠서 낼 수 있는 후불결제 서비스입니다. 지난 5일 현대카드가 국내 카드사 중 처음으로 내놨는데 국민카드도 올해 안에 출시할 예정입니다. 이처럼 최근 카드사들이 기존의 틀에서 벗어난 결제 서비스를 잇달아 선보이는 반면 대표적인 결제수단이었던 체크카드의 발급량은 계속 줄고 있습니다. 올해 1분기 기준 국내에 남아 있는 체크카드는 모두 1억 533만 장. 지난 1년 동안 280만 장이 줄었습니다. 반면 네이버페이·카카오페이·토스에서 간편결제 서비스를 통해 지불된 금액은 지난해 60조 원을 넘겼는데 3년 만에 6배가량이나 폭증했습니다. [카드업계 관계자 : 인구의 지속적인 감소로 기존 체크카드 주 고객이었던 10대에서 20대 고객층이 줄어들고 있고 빅테크 플랫폼 업체의 확대로 체크카드 발급 수가 지속 감소하고 있습니다.] 여기에 페이 서비스 내에 휴대전화번호만 입력해두면 자동으로 현금영수증 발행도 가능하기 때문에 체크카드의 장점인 소득공제 혜택을 대체한다는 점도 이탈 요인 중 하나로 꼽힙니다. 또 카드사 입장에서도 체크카드의 수수료율이 신용카드에 비해 낮은 점도 발급에 소극적인 요인입니다. 소비자의 니즈 변화와 카드사 영업전략 흐름에 따라 한 시대를 풍미했던 체크카드가 설자리마저 잃어가고 있습니다. SBS Biz 류정현입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>여전업계 CEO들, 금감원장 비공개 간담회서 “정부정책 적극 협조”</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005113214?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>5일 금융감독원장-여전업계 첫 간담회비공개 회담 전환 후 무슨 얘기 나눴나"취약차주 연착륙, 자영업자 적극 지원"빅테크 진출 두고서는 "생존에 위협"5일 서울 중구 여신금융협회에서 이복현 금융감독원장(앞줄 왼쪽 4번째)이 여전업계 최고경영자들과 간담회를 열기 전 기념사진을 촬영하고 있다. 사진=금융감독원여전업계 최고경영자(CEO)들이 금융감독원장과의 첫 간담회에서 금융당국 및 정부정책에 적극 협조하겠다는 의지를 드러냈다. 건전성·유동성 관리뿐 아니라 금융취약계층 지원 등에도 힘쓰겠다고 약속했다.5일 이복현 금융감독원장은 서울 중구 여신금융협회에서 14개 카드·캐피탈 CEO 및 협회 관계자와 간담회를 하고 업계 현안을 논의했다. 이날 회의는 이복현 금감원장의 공개 모두발언 이후 비공개 회담으로 전환한 뒤 업계 대표들의 발언을 듣는 식으로 진행됐다. 비공개 회담에서는 주로 리스크 관리와 취약차주 보호에 관해 업계 대표들이 협력하겠다는 발언이 주를 이뤘다.이창권 KB국민카드 대표는 “유동성·건전성 등 동시에 복합위기 상황이 있어 스트레스 테스트를 시행해 위기와 건전성을 관리한다”면서 “2020년부터 코로나19가 터지면서 준비 열심히 했고 올해도 보수적으로 충분히 관리하고 있다”고 강조했다. 이어 “리볼빙 금리는 현재 금융위원회와 금감원에서 주장하는 내용에 따라서 적극 하고 있다”면서 “말씀하신 취약차주에 대해서는 연착륙방안을 지원하겠다. 카드발 위기도 없게끔 최대한 노력하겠다”고 얘기했다.권길주 하나카드 대표도 “손실을 흡수할 수 있을만한 조치들, 유동성 관련해서는 위기를 철저히 대비하도록 하겠다”면서 “정부에서 하는 자영업자 지원 이런 것에도 적극 협조하겠다”고 말했다. 취약차주나 금융시장 보호에 대해서도 “열심히 노력을 다하겠다”고 밝혔다.빅테크의 여전시장 진출 "생존에 엄청난 위협"임영진 신한카드 대표 역시 “원장님께서 말씀해주신 것을 기반으로 해서 저희 업권이 좀 백업을 잘해서 같은 방향으로 달려가는 노력을 하겠다”며 “위기 단계별로 시나리오 경영을 통해 건전 경영에 힘쓰도록 저희가 노력하겠다”고 전했다. 또 “서민·중소상공인과의 상생, 양극화 해소 문제, 금융취약계층 보호 등 정부 정책에도 적극적으로 호응해가도록 하겠다”고 덧붙였다.여전업계의 노력을 강조하는 대표도 있었다. 조좌진 롯데카드 대표는 “여전업계가 조금 미진한 것도 사실 있다”면서도 “채권안정펀드 이런 것을 통해서 제도적으로 시장을 안정화했던 것도 있었다”고 설명했다. 임영진 대표의 경우 “많은 상품과 좋은 결제 인프라를 가지고 국민 소비 잔작이라든지 정부 세원 확대에도 기여하고 있다”며 “코로나19 상황에서도 피해지원 등 중요 인프라 역할을 해왔다”고 평가했다.빅테크 진출에 대한 우려의 목소리도 나왔다. 최근 여전업계는 토스가 카드론 시장에서 대환시장에 진출하는 등 경쟁이 심화하고 있는 상황이다. 황수남 KB캐피탈 대표는 “마이데이터 사업도 사실은 활성화되면 아마 2금융권이 가진 고객들의 이동이 급속히 진행될 수밖에 없을 것”이라면서 “저희가 볼 때는 캐피탈 업권에서 특히 리테일을 많이 하고 있는 저희 회사 같은 경우에는 생존에 엄청난 위협이 될 수밖에 없는 변화의 흐름”이라고 우려했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>소비패턴 맞춰 매일 최대 3500원 캐시백</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004986240?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>◆ 재테크 빙하기 추천상품 / 토스뱅크 ◆  알뜰족에게 사랑받은 토스뱅크 체크카드가 '에피소드3'로 다시 돌아왔다. 올해 말까지 운영되며 매일 최대 3500원까지 캐시백 혜택을 받을 수 있다.체크카드 에피소드3는 기존 고객들의 소비 패턴을 분석해 맞춤형 캐시백 영역을 확대했다. 기존 에피소드2에서 제공하던 5대 영역(커피, 편의점, 택시, 패스트푸드, 대중교통)에서 결제 횟수가 높은 △영화(CGV·롯데시네마·메가박스) △디저트(던킨도너츠·배스킨라빈스) 2개 영역을 추가했다. 이에 따라 에피소드2에서 영역별 1번씩, 매일 5번까지 받을 수 있었던 캐시백 혜택을 에피소드3에서는 영역별 1번, 매일 최대 7번까지 누릴 수 있게 됐다.토스뱅크 체크카드는 기존 체크카드 이용고객의 목소리도 적극적으로 반영했다. 3000원 이상 결제해야만 캐시백 혜택을 주던 조건을 없앴다. 1만원 이상 결제 건에 대해 500원 혜택을 제공하고, 1만원 미만 결제 건에 대해서는 100원 혜택을 제공한다.또 기존 고객들의 호응도가 가장 높았던 전월실적 제한조건 없음의 이점도 그대로 유지했다. 해외이용금액 무제한 3% 캐시백 혜택은 그대로 지속된다. 코로나19 이후 사회적 거리두기 완화, 해외결제금액 증가라는 소비 트렌드를 반영했다. 특히 해외이용금액에 대해 캐시백 횟수와 금액 제한이 없어 결제 금액이 크거나 자주 결제를 하는 고객일수록 호응이 높다고 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>법원 “‘타다’ 기사, 근로자 아니다”…중노위 결정 뒤집혔다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003208277?sid=102</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>타다의 고급택시 서비스 타다 넥스트. [사진 타다]           차량 호출 서비스 ‘타다’ 운전기사(타다 드라이버)들을 근로자로 인정한 중앙노동위원회의 판정을 취소하라는 법원 판결이 나왔다.      8일 연합뉴스에 따르면 서울행정법원 행정3부(유환우 부장판사)는 이날 타다 운영사 VCNC의 모회사였던 쏘카가 "부당해고 구제 재심 판정을 취소하라"며 중앙노동위원회를 상대로 낸 소송을 원고 승소로 판결했다.      재판부는 "제반 사정 검토한 결과 원고(쏘카)가 사용자의 지위에 있다고 보기 어려워 원고의 청구를 인용하기로 했다"고 판결 이유를 설명했다.      쏘카는 중앙노동위원회가 2020년 7월 타다 운전기사였던 A씨의 신청을 받아들여 쏘카를 사용자로 인정하고 계약 해지를 부당해고로 판정하자 이에 불복해 소송을 냈다.  운전기사들과 프리랜서 계약을 맺고 타다를 운영하던 VCNC는 2019년 7월 차량을 줄이는 것이 불가피하다며 A씨를 비롯한 기사 70여 명에게 계약 해지를 통보했다.      이에 A씨는 실질적으로 VCNC의 지휘와 감독을 받고 일하는 근로자였는데 일방적으로 해고당했다며 노동위원회에 부당해고 구제를 신청했다.      서울지방노동위원회는 A씨의 신청을 '각하' 판정했으나 상급 기관인 중앙노동위원회는 A씨의 신청을 받아들여 쏘카의 통보가 부당해고에 해당한다고 판정했다.      '타다 드라이버 비상대책위원회'(비대위)는 법원 앞에서 기자회견을 열어 "타다 드라이버가 근로자라는 주장의 근거가 굉장히 많은데도 법원이 쏘카의 주장을 받아들였다"며 아쉬움을 드러냈다.      이번 판결은 타다 운전기사들을 노동자로 볼 것인지를 두고 법원이 내린 첫 판결이다. 운전기사들의 계약 해지를 둘러싼 분쟁이 별도로 진행되고 있어 이번 판결이 어떤 영향을 미칠지 주목된다.      타다는 이른바 '타다 금지법'으로 불리는 여객운수법 개정안이 2020년 3월 국회를 통과하자 핵심 서비스인 타다 베이직을 같은 해 4월 중단했고, 이에 따라 1만2천명의 운전기사가 일자리를 잃었다.      비대위는 타다 운전기사들의 근로자 지위를 확인해달라며 쏘카와 VCNC를 상대로 민사 소송을 제기해 현재 서울동부지법에서 1심이 진행 중이다.      쏘카는 자사가 보유하던 VCNC의 지분 100% 가운데 60%를 지난해 모바일 금융 플랫폼 토스의 운영사 비바리퍼블리카에 매각했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>애플도 뛰어든 BNPL 시장이 뭐기에…</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/053/0000031872?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>photo 게티이미지애플이 눈독을 들인 산업은 시장의 관심을 받는다. 1년6개월 전 애플의 전기차 진출 소식이 나오던 때로 거슬러 가보자. 2020년 12월, 오랫동안 기회를 노리던 애플의 자동차 사업 진출이 가시화하고 있다는 보도가 나오자 전 세계가 들썩였다. 월가는 긍정론과 부정론 사이 충돌이 벌어졌다.완성형 자동차 기업을 가진 우리 경제도 애플 진출설 영향권 아래 놓였다. 특히 애플이 현대차를 협업 대상으로 고려 중이라는 소식에 현대차 주가는 폭등했다. 협력관계나 부품 공급이 예상되는 국내 기업들의 주가도 널뛰었다. 특히 모빌리티 산업의 진화가 이뤄질 거라는 기대감이 증폭됐던 때였다.그랬던 애플이 최근에 눈독을 들이는 분야가 또 있다. BNPL 시장이다. '지금 사고 나중에 지불하라(Buy Now, Pay Later)'는 말 그대로, 선구매 후결제 시스템이다. 애플은 지난 6월 6일 세계개발자콘퍼런스(WWDC)에서 애플페이를 이용해 상품을 구입할 때 6주에 걸쳐 4회 할부 결제할 수 있는 '애플 페이 레이터'를 발표했다.코로나19 수혜 받은 BNPL이날 애플의 선언은 스타트업들이 자리 잡고 있던 이 시장에 균열을 가져왔다. BNPL의 대표주자였던 어펌(Affirm)은 이날 하루만 주가가 5%가 넘게 빠졌다. 어펌 측에 애플의 시장 진출에 관한 의견을 묻자 짧은 답변이 돌아왔다. "여전히 이 분야는 전도유망한 시장이며 어펌은 경쟁자들보다 앞서서 나가고 있다."BNPL은 신용카드와 비슷하지만 다르다. 현금 없이 물건을 구매하고 지급을 나중에 한다는 점은 닮았다. 하지만 신용카드를 만들려면 개인의 신용을 보증할 수 있는 정보가 필요하다. 직장, 소득, 계좌 등이 대표적이다. 신용점수와 금융이력도 중요하다. 여기에서 소외되기 쉬운 사람들, 즉 학생이나 주부, 파트타임 알바생 등은 신용카드를 만드는 것도 쉽지 않다. BNPL은 이런 확인 절차가 없다. 일정 나이만 넘으면 서비스를 이용할 수 있다. 애플처럼 할부를 해주는 업체도 있고 수수료도 신용카드보다 적거나 없다.BNPL은 코로나19 팬데믹의 수혜를 입은 분야다. 온라인 쇼핑 시장이 커지는 과정에서 지갑이 얇은 젊은층이 할부 서비스를 이용하기 위해 BNPL을 즐겨 사용하기 시작하면서부터다. 시장조사업체 스태티스타(Statista)의 조사에 따르면 미국에서 BNPL 서비스를 한 번 이상 활용한 사용자는 18~24세가 37.71%(2020년 7월)에서 61.16%(2021년 3월)로 늘면서 급증을 이끌었다. Z세대의 결제 수단화된 셈이다.이러다 보니 시장 성장성도 크다. 어펌 측의 답변처럼 BNPL은 큰 시장이 될 거라고 평가받는다. 미국 시장 기준이지만 지난 2월 시장조사기관인 리서치앤마켓은 BNPL 결제대금 시장이 2021년 492억9600만달러에서 2028년 4437억8140만달러로 10배 가까이 커질 걸로 전망했다. 애플의 진입은 이런 측면에서 이해해볼 수 있다. 애플 생태계 내 매출의 규모를 키우는 수단으로 활용할 수 있다. IT시장조사전문업체인 가트너의 데이나 포드 수석디렉터는 "BNPL이 매출 증대의 방법으로 인기 있기 때문에 애플페이의 사용을 증가시키는 데 도움이 될 것이다. 애플 사용자의 지불 증대를 노리는 논리적 연장에 있는 진출이다"라고 말했다.국내에서는 플랫폼 사업자들을 중심으로 BNPL 사업이 전개되고 있다. 국내 시장은 해외와 상황이 다르다. 일단 신용카드와 간편결제 시장이 정착돼 있다. 게다가 현행 전자금융거래법에 따르면 후불 결제는 신용카드사만 할 수 있다. BNPL 서비스가 태동할 수 없는 환경이었는데, 상황이 바뀐 건 지난해부터다. 규제 샌드박스를 통해 소액 후불 결제 서비스 제공이 가능해지면서 플랫폼 기업들이 진출할 수 있는 길이 열렸다. 네이버파이낸셜, 카카오페이, 토스 등이 BNPL에 뛰어든 계기다.BNPL은 슈퍼앱 징검다리일단 비즈니스 구조는 단순하다. 카드와 달리 BNPL은 밴(VAN)사와 같은 결제대행업체가 없다. 중간 과정이 생략되고 '소비자-BNPL 업체-판매자'의 직선 구조로 구매와 지불이 이뤄진다. 만약 이용자가 상품을 구매하면 BNPL 업체가 판매자에게 값을 지불하고 물건을 구입한 이용자는 BNPL 업체에 추후 비용을 지불하면 된다. BNPL 업체가 여기에서 얻을 수 있는 수익은 가맹점에서 받는 수수료다. 만약 소비자가 연체할 때는 연체료를 추가로 받는다.BNPL이라고 하지만 해외랑은 차이가 뚜렷하다. 할부가 되지 않고 온라인 결제만 가능하다. 최대 한도도 30만원이다. 네이버파이낸셜과 토스는 월 사용한도가 30만원이고 카카오페이는 후불형 모바일 교통카드로 제공되는 한도가 15만원이다. 해외 BNPL 서비스는 철저하게 판매자에게 수수료를 물리는데 우리 경우는 그 수수료가 그리 비싸지 않다. 네이버파이낸셜의 경우 스마트스토어에 입점한 가맹점의 매출액에 따라 수수료를 달리 매긴다. 네이버페이 후불 서비스의 수수료는 1.8%(연매출 3억원 이하)~3.3%(연매출 30억원 이상) 수준이다.지난 3월 14일 새로 선임된 박상진 네이버파이낸셜 대표이사는 취임 소감에서 "금융 소외계층과 MZ세대의 금융 수요를 충족시키기 위한 혁신서비스 확대를 강화해 나가고자 한다"고 밝혔다. 여기서 포인트는 '금융 소외계층'과 'MZ세대'를 위한 서비스다. 금융이력이 부족한 '신파일러(Thin Filer)'들을 붙잡기 위한 노력을 더 많이 하겠다는 얘기다. 네이버파이낸셜 관계자는 "BNPL은 은행 등의 금융기관이 놓친 신파일러의 금융 생활을 돕는 역할도 하지만 잠재적 신규 이용자를 확보할 수 있는 좋은 통로가 될 수 있다"고 말했다.상품 후불 판매를 하고 있는 쿠팡도 BNPL에 공을 들이고 있는데 지난 3월 미국 핀테크 스타트업 브렉스 창업자 페트로 프란체스키의 사외이사 선임에서 방향성을 읽을 수 있다.현재 기업가치가 약 15조원으로 평가받는 브렉스는 온라인 금융계좌를 열고 5만달러를 예치하면 충전식 법인카드를 발급해준다. 연회비도, 대표이사 보증도 필요 없다. 업력을 쌓지 못한 스타트업이 주고객이 됐는데 기존 금융권에서 제공하지 못한 사각지대를 메우는 서비스라는 점에서 BNPL과 닮았다.아직 규제 샌드박스 안에 갇힌 BNPL은 정부 방침에 따라 중단될 수도 있다. 업계에서는 이런 리스크 속에서도 플랫폼 기업들이 뛰어드는 걸 슈퍼앱 전략으로 해석한다. 하나의 앱 안에서 모든 것이 가능한, 그래서 플랫폼 중심의 생태계를 형성하는 경쟁에서 이기려면 새로운 고객들과 결제 서비스는 필수적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.07.02.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>8조 씨티은행 신용대출 두고…시중은행 '엎치락뒤치락'</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008879?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>[금융 핫&amp;뉴]서울 알짜 지하철역 이름 차지한 은행은?삼성 금융사 새 CI '둥근 삼성 마크 없네'/그래픽=비즈니스워치'아 뜨거워' 씨티은행 신용대출 대환 유치 경쟁국내에서 소비자금융 부문 폐쇄를 시작한 한국씨티은행 신용대출을 차지하기 위해 시중은행들이 뜨거운 경쟁을 벌이고 있다. 씨티은행은 대출 이용자들이 승계를 쉽고 편리하게 할 수 있도록 KB국민은행, 토스뱅크와 협약을 맺었다. 하지만 다른 시중은행들도 제각각 우대금리를 내세우며 이를 흡수하기 위해 안간힘을 쓰고 있다.씨티은행 신용대출 이용자들은 이달 1일부터 다른 은행을 택해 대환(갈아타기) 대출을 받을 수 있다. 씨티은행은 국민·토스와 맺은 협약을 바탕으로 '개인신용대출 대환 제휴 프로그램'을 시작했다. 3월 말 기준 씨티은행의 개인 신용대출 잔액은 약 8조409억원이다. ▷관련기사: 씨티은행 신용대출, 국민·토스 택해 '갈아타기' 가능(6월22일)국민은행과 토스뱅크는 씨티은행 대출 정보를 공유받아 '기존 대출금리' 대비 국민은행은 연이율 기준 0.2~0.4%포인트, 토스는 0.3%포인트의 금리를 할인해 준다. 차주별 총부채원리금상환 비율(DSR) 등 가계대출 규제 면제도 적용된다. 하지만 제휴를 하지 못한 우리·하나·신한은행이 잇달아 대환 상품을 만들어 선보이며 경쟁에 뛰어들었다. 이 은행들은 각 은행 신용평가 기반으로 산정되는 이자율에 큰 폭의 우대금리를 내세운 게 특징이다. 우리은행은 최대 1.5%포인트 우대금리를 적용해 최저 연 3% 초반 수준으로 대출을 내준다. 대출한도는 대환금액 범위 내에서 연소득의 최대 230%, 최대 3억원까지다. 하나은행은 대환시 2.1%포인트 기본 우대금리에 추가거래 약정 조건으로 0.9%포인트를 더해 최대 3.0%포인트의 금리 할인을 해준다고 밝혔다. 한도는 대환 금액 범위 내에서 최대 2억2000만원까지다. 신한은행은 거래 실적에 따라 최고 1.6%포인트까지 금리를 감면해준다. '비제휴' 은행들이 뛰어들자 국민은행은 추가로 대환 고객 대상 판촉 행사도 벌인다. KB스타뱅킹을 통해 대환대출을 이용할 경우 응모 고객 중 선착순 1만명에게 6개월간 0.3%포인트 상당의 이자 지원금을 제공한다. 을지로입구는 하나은행, 명동은 우리은행하나은행은 서울교통공사에서 진행한 서울지하철 2호선 '을지로입구역' 역명 병기 유상판매 입찰에 참여해 지난 27일 최종 낙찰자로 선정됐다고 밝혔다. 을지로입구역은 종전까지 IBK기업은행이 부역명을 가지고 있었다. 을지로입구역 1·2번 출구는 하나은행 본점과 연결돼 있다. 5번 출구에 인접한 하나금융그룹 명동사옥 내에는 하나카드, 하나생명, 하나대체투자자산운용, 하나펀드서비스, 하나에프앤아이 등 관계사들이 입주해 있다. 앞서 하나금융그룹은 인천국제공항철도 '청라국제도시역'에 '하나금융타운'이란 부역명도 확보한 바 있다. 4호선 명동역은 우리금융그룹이 낙찰받아 '우리금융타운'이라는 부역명을 붙이게 됐다. 우리금융 관계자는 "우리은행 명동금융센터가 1962년부터 명동에 위치해 인근 상권과 함께 성장했다"며 "현재도 명동역 인근에서 일하는 우리금융그룹 임직원 수가 3000명이 넘는다"고 말했다.한편 이번 부역명 낙찰가는 을지로입구역 하나은행이 8억원, 명동역 하나금융타운이 6억5467만원이다. 삼성그룹 금융사들의 새 얼굴은삼성그룹 금융사들은 기존 그룹 계열사들이 공통으로 사용하는 '오벌마크'를 제외한 새로운 국·영문 CI(Corporate Identity)를 1일 공개했다. 새 금융사 CI는 예전보다 둥글고 부드러운 느낌을 소문자와 친근한 글자체로 시각화한 것이 특징이다. CI 변경에 따라 삼성 금융사들은 '디자인 가이드북'을 제작·배포하고, 가이드북 기준에 맞춰 옥외 간판과 홈페이지 등의 BI 및 CI 교체 작업을 진행할 예정이다. 생명과 화재, 증권, 자산운용의 본사가 있는 서초사옥과 금융사 공동 연수 시설인 서초동 소재 삼성금융캠퍼스의 옥외 간판들은 1일 교체 완료했다.새 명함도 직원들마다 선택해 사용할 수 있게 한다. 기존 흰색 명함을 통해 깔끔함을, 새로 추가한 파랑 명함을 통해 신뢰성과 금융 전문성을, 노랑 명함을 통해서는 따듯하고 부드러운 이미지를 추구했고, 녹색 명함으로 친환경 성격도 강조했다.삼성 금융사 명함 예시/자료=삼성금융네트웍스네이버파이낸셜, 우리·전북은행과 '스마트플레이스 사업자대출'네이버파이낸셜은 우리은행, 전북은행과 함께 자사 플랫폼 '스마트플레이스'에 등록된 오프라인 중소상공인(SME)을 위한 '스마트플레이스 사업자 대출' 서비스를 시작했다. 등록된 250만명의 개인 사업자가 대상이다. 우리은행과 전북은행은 이와 연계해 전용 무보증·무담보 신용대출을 출시했다. 전북은행을 통한 정책서민금융상품(햇살론 뱅크, 햇살론 15)등 4가지 대출상품에 대해서는 비대면으로 한도조회가 가능하다. ▷관련기사: 네이버파이낸셜의 2025년 '100조·50만명·1000만명'(6월14일)네이버파이낸셜은 대출모집법인 자격으로 각 은행이 사업자의 공동인증서 및 네이버인증서를 사용해 진행한 대출 심사 결과를 제공한다. 사업자는 해당 조건으로 대출을 받고자 한다면 추가 서류 제출이나 영업점을 찾을 필요 없이 해당 금융사 앱에서 이용할 수 있다.네이버 예약·주문을 통한 거래금액이나 건수, 각 은행 계좌로 매출 정산 대금 입금 등 조건 충족 시 우리은행은 최대 0.8%포인트, 전북은행은 최대 1%포인트의 우대금리 혜택을 제공한다. 중도상환수수료가 없으며, 대출을 받은 사업자가 사망했거나 고도후유장해 시 대출금을 대신 갚아주는 '대출안심케어'도 1년간 무료다.네이버 스마트플레이스 대출 화면 캡처/자료=네이버파이낸셜 제공신한은행, 창업 40주년 기념 예·적금 특판신한은행은 창업 40주년을 맞아 특판상품 2종을 출시했다. 먼저 '신한 40주년 페스타 적금'은 주 단위로 납입하는 만기 10개월 자유 적금이다. 매주 납입 여부에 따라 최고 연 4.0% 금리가 적용된다. 월 최고 30만원까지 납입 가능하며 10만좌 한도로 출시된다.'신한 S드림 정기예금(창업 40주년 감사)'은 최고 연 3.2%의 금리를 받을 수 있는 1년제 정기 예금으로 최고 1억원까지 가입 가능하다. 판매 한도는 1조원이다. 케이뱅크, '주거래우대 자유적금' 최대 연 0.6%p 인상케이뱅크는 '주거래우대 자유적금'의 금리를 기간별로 최대 연 0.6%포인트 올린다고 1일 밝혔다. 우대 조건 충족 시 가입기간 1년은 최대 연 2.7%에서 최대 연 3.2%로, 2년 이상 3년 미만은 최대 연 2.9%에서 최대 연 3.4%, 3년은 최대 연 3.1%에서 최대 연 3.7%로 오른다. 이 적금은 △급여이체 또는 통신비 자동이체 △케이뱅크 체크카드 월 20만원 사용 등 두 조건을 충족하면 각각 0.3%포인트씩 총 0.6%포인트의 우대금리를 받을 수 있다. 월 납입액은 최대 300만원까지다. 1년 만기 상품에 월 300만원을 납입할 경우, 만기 시 이자 혜택은 세후 약 53만원이다.'금융 핫&amp;뉴'는 한 주간 선보인 새로운 금융상품과 은행·보험·카드 등 금융사들의 눈에 띄는 움직임을 간추린 비즈워치 경제부의 주말 코너입니다. [편집자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>예·적금 플랫폼서 가입 추진…은행권 '부글부글'</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000009005?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>금융위, 예금·적금 비교가입 서비스 추진은행권 "플랫폼 배만 불려…비용 고객 전가 우려"플랫폼 사용자 혜택 감소 가능성도 제기이른바 금융 플랫폼들의 금융시장 장악력이 더욱 커질 전망이다. 현재 금융 플랫폼들은 압도적인 이용자 수를 바탕으로 금융시장의 새로운 판매채널로 등극했는데, 금융당국이 이들에게 대출상품에 이어 예금과 적금 등 수신상품까지 중개할 수 있도록 해주겠다는 방침을 밝히면서다.이에 은행권들은 고민에 빠졌다. 금융 플랫폼을 사용하는 사용자는 계속 늘어나고 있는데다가 취급하는 금융상품이 늘어나면 어쩔 수 없이 판매채널 주도권을 빼앗길 수 있다는 우려가 깊어지면서다. 나아가 은행권에서는 금융당국이 플랫폼 기업 '배불리기'에 나선다는 지적이 나온다. 나아가 이러한 행태가 지속될 경우 오히려 플랫폼 사용자들에게 돌아가는 혜택이 줄어들 수 있다는 우려도 나온다. 대출이어 예금·적금까지 플랫폼에서 가입하나금융위원회는 지난 7일 금리정보 공시제도 개선방안을 발표하면서 앞으로는 플랫폼업체들이 여러 금융회사의 예금상품을 비교하고 가입할 수 있도록 하는 서비스를 내놓을 수 있도록 하는 방안을 검토하겠다고 밝혔다. 다시 말해 금융소비자가 카카오페이, 토스, 네이버 등 금융 플랫폼 기업에서 다양한 금융회사의 예금과 적금 상품들을 한 번에 비교하고 가장 높은 금리의 상품에 가입할 수 있도록 하겠다는 얘기다. 이형주 금융위 금융산업국장은 "대출상품의 경우 온라인 판매중개업에 대한 별도 등록요건인 금융소비자보호법이 마련돼 서비스가 활성화된 반면 예금상품은 은행법 등 관련 법령에 중개업 등록 및 영위 근거가 없어 관련 서비스를 제공하기 곤란했다"며 "이에 대해 규제를 면책해주는 혁신금융서비스로 지정하는 것을 검토 중"이라고 설명했다. 금융위는 이에 대한 수요조사도 마친 상태다. 현재 9개 플랫폼업체가 온라인 예금상품 중개업 영위를 희망하고 있다는 게 금융위의 설명이다. 대출상품을 금융 플랫폼 회사에서 판매할 수 있는 서비스는 관련 법령이 재정된 이후 빠르게 성장중이다. 당장 금융 플랫폼 회사들은 그들의 핵심 서비스로 이러한 금융상품 중개가 자리잡고 있다고 설명할 정도다. 실제 지난해 기준 총 42만5000건, 6조원 가량이 금융플랫폼 회사를 통해 대출이 집행된 것으로 확인됐다.  업계 관계자는 "금융 플랫폼 회사들은 일반 가입자 수는 물론 정기적으로 이용하는 활성 이용자가 일반 금융회사에 비해 월등하게 높은 수준"이라며 "접근성 자체가 높은 가운데 다양한 회사의 금융상품을 한 번에 비교할 수 있다는 편의성을 갖춘 데다가 플랫폼 기업이 적극적으로 마케팅을 펼치는 등 다양한 요인이 합쳐진 결과라고 보면 될 것"이라고 설명했다.은행권 "플랫폼 배만 불릴 것"은행업계에서는 이에 대해 플랫폼 기업의 배만 불려주는 꼴이 될 것이라는 우려가 나온다. 나아가서는 소비자의 불편이 가중되거나 일부 비용이 전가될 가능성을 배제하기 힘들다는 분석도 있다. 현재 금융 플랫폼 회사들은 금융상품 중개 서비스를 펼치면서 실제 플랫폼을 통해 금융상품 가입이 이뤄지면 금융회사로부터 일정 수수료를 받는다. 대출을 중개할 경우 중개된 대출 금액의 약 2%가량을 수수료로 받는 것으로 알려졌다. 수신상품이 중개될 경우에도 금융회사는 고객이 정기적으로 납입하는 금액이나 만기 혹은 계약 해지 시점에 예치된 금액의 일정 부분을 수수료로 지불해야 할 가능성이 높다.이 과정에서 자연스럽게 제기되는 부작용은 금융회사가 이 비용을 고객에게 전가할 가능성이 있다는 것이다. 하나의 플랫폼에서 예금과 적금의 금리를 바탕으로 상품 비교가 이뤄짐에 따라 예금과 적금상품 등의 금리를 낮추지는 않겠지만, 그동안 면제해왔던 수수료를 부활시키는 등 다른 부분에서 고객에게 비용을 전가할 가능성이 있다는 얘기다.은행 관계자는 "금융소비자의 금융생활을 좀 더 편리하게 영위하겠다는 취지는 충분히 이해하지만 기업과 기업 간의 비즈니스 차원에서 접근하면 한쪽은 쉽게 돈을 벌고 한쪽은 비용을 계속 지출해야 하는 구조가 고착화 될 것"이라며 "결국 계속 비용이 지출되는 쪽에서는 이 비용 보전을 위한 방안을 찾게 될 것이고 이는 결과적으로 금융소비자의 혜택 축소로 이어질 가능성을 배제하기 힘들다"라고 짚었다.또 다른 은행 관계자는 "정부 한 쪽에서는 플랫폼 기업의 시장 독점력에 대해 우려를 하면서 다른 한 쪽에서는 플랫폼 기업들의 시장 장악력을 더욱 키워주는 것 아니냐"며 "정책의 방향이 엇갈리는 상황이 연출되고 있다"고 지적했다. 은행 관계자들은 현재 유통업계에서 나타나고 있는 플랫폼 기업의 시장 독점에 대한 부작용이 금융권으로 확대될 것이라는 관측을 내놓는다. 대표적인 사례가 배달앱의 시장 장악력이 커지면서 요식업에 배달료라는 요금이 새로 책정됨은 물론 지속해서 상승하고 있는 것이다.이 관계자는 "불과 몇 년 전만 하더라도 배달 음식을 시켜 먹을 때 배달료라는 것을 생각해 본 적이 있는가"라며 "몇몇 플랫폼 기업이 이를 장악하면서 배달료라는 새로운 형태의 요금을 탄생시켰고 이는 고스란히 소비자에게 전가됐다"고 강조했다.이에 이형주 금융위 금산국장은 "새로운 유통창구가 생기는 만큼 유통비용 상승의 우려도 있지만 경쟁 촉진으로 보는 것이 맞다"라며 "다만 우려가 있는 것은 사실이고 근거가 없다고 보기도 힘들기 때문에 혁신금융을 지정할 때에도 다양한 부가조건을 걸고 긴밀히 모니터링 해 나갈 것"이라고 말했다.이와 관련 금융당국은 플랫폼 기업이 예금과 적금을 중개할 수 있도록 하면서도 △소비자에게 유리한 조건 우선 제시 △관련 없는 동종상품 광고 금지 △소비자 선택권 보장을 위한 유사상품 및 시장평균 금리정보 제공 △신규모집액 중 플랫폼 판매 비중 한도 제한 △적기시정조치 대상 금융회사 상품 중개 금지 등의 부가조건 등을 내건다는 계획이다.플랫폼 사용자 '바보' 만들수도은행권 일각에서는 금융회사에게만 비용이 전가되는 현재와 같은 사업구조가 지속될 경우 플랫폼 사용자들이 오히려 금융 혜택을 온전히 누리지 못하게 되는 부작용이 나타날 수도 있다는 우려도 나온다.금융회사가 금융당국 등에 면피용으로 혜택이 적은 일부 상품만 금융플랫폼에 중개하고 금융 혜택이 높은 금융상품은 자신들이 직접 운영하는 은행창구, 모바일뱅킹 등에서 판매하는 행태가 가속화 될 것이란 것이다.실제 현재 금융 플랫폼 회사에서 중개하고 있는 대출상품들 중에서 가장 금리경쟁력이 높다고 평가받는 KB국민, 신한, 하나, 우리, 농협 등 주요 시중은행의 상품은 찾아보기 어렵다. 이는 은행들이 플랫폼 기업에게 사용자를 뺏기지 않기 위한 전략과 함께 이 과정에서 지출되는 비용을 염두하고 있기 때문이란게 은행권의 설명이다. 은행 관계자는 "주요 상품의 경우 금융 플랫폼 기업의 상품 라인업에 포함되지 않도록 하고 있다"며 "이 상품들은 플랫폼 기업과 제휴한 상품보다 금리 등에서 혜택이 더 좋은 경우가 많아 플랫폼 기업에서 금융상품을 찾는 고객보다 발품을 파는 고객들이 더 유리하게 금융상품을 이용하는 상황"이라고 설명했다. 이어 "나이키가 지난 2019년 세계 최대 이커머스 플랫폼인 아마존에서 자사의 상품판매를 중지한 것이 우리나라 금융산업의 미래가 될 수 있다"며 "나이키도 결국 플랫폼 기업에 제공해야 하는 수수료의 문제로 아마존에서 자진 철수했는데 은행 입장에서도 이같은 움직임이 나타나지 말라는 법은 없다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>대학생이 가장 일하고 싶은 금융기업 1위에 '카카오뱅크'</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000683171?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>만족스러운 급여·보상제도 등 이유로 꼽혀…2위 KB국민은행·3위 토스대학생들이 가장 일하고 싶은 금융기업으로 카카오뱅크가 꼽혔다.5일 HR테크 기업 인크루트에 따르면 대학생이 선정한 가장 일하고 싶은 금융기업 1위는 카카오뱅크(16.5%)였다. 카카오뱅크는 2020년 1위, 2021년 2위에서 올해 다시 한 번 1위에 올랐다.카카오뱅크를 선택한 이유로는 만족스러운 급여와 보상제도(19.0%)를 가장 많이 꼽았다. 카카오뱅크 임직원 평균 연봉은 1억5천만원대(스톡옵션 행사이익이 보수총액에 반영)로 업계 최고 수준으로 알려진 바 있다. 기업의 사업가치와 성장가능성이 유망함(14.9%)도 이유로 들었다.대학생이 일하고 싶은 금융기업 순위 [사진=인쿠르트]작년 조사에서 1위였던 KB국민은행(12.2%)은 올해 한 계단 하락한 2위를 기록했다. KB국민은행을 고른 이들은 동종업계와 지역사회에서 선도기업 이미지(38.8%)를 가장 많이 언급했다. 아울러 구성원으로서의 자부심(23.3%)과 만족스러운 급여와 보상제도(14.7%)를 고른 이들도 있었다.3위는 종합 금융 플랫폼인 토스(10.9%)였다. 핀테크 스타트업 비바리퍼블리카가 운영하는 토스를 꼽은 데는 기업의 사업가치와 성장가능성이 유망함(19.1%)이라는 이유가 가장 많았다.4위를 차지한 금융사는 카카오페이(8.7%)로, 이유로 동종업계와 지역사회에서 선도기업 이미지(19.6%)를 많이 꼽았다. 또 다른 이유로는 본인의 성장, 개발 가능성(16.3%) 기업의 사업가치와 성장가능성이 유망함(16.3%)도 있었다.이어 5위는 신한은행(7.7%)이 차지했다. 그 이유로는 동종업계와 지역사회에서 선도하는 기업 이미지(34.6%)가 가장 많았다. 시중은행 가운데 활발한 경영활동을 펼치고 있는 신한은행은 현재 청년 구직자 취업연계와 소외계층 지원 등 다양한 공익 프로그램도 운영하고 있다.이밖에 6위는 작년 조사 대비 두 계단 오른 NH농협은행(6.0%)이, 7위는 한국투자증권(4.0%), 8위는 우리은행(3.8%), 9위와 10위는 각각 KB증권(3.5%)과 IBK기업은행(3.3%)이 차지했다.서미영 인크루트 대표는 "이번 조사를 통해 인터넷전문은행과 핀테크 기업에 대한 대학생들의 높은 취업선호도를 확인할 수 있었다"며 "경영실적은 물론 비전제시 능력이 우수한 기업일수록 대학생들에게 많은 관심을 받을 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>카카오엔터, 기업공개 막히자 글로벌 PE서 자금 유치나서</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004991045?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>KKR·블랙록 등서 최대 1조 기업공개(IPO) 시장 한파로 자금 조달에 차질이 생긴 카카오엔터테인먼트가 대규모 투자 유치에 나섰다. 복수의 글로벌 사모투자펀드(PEF) 운용사에서 최소 6000억원 이상의 투자금을 모아 엔터테인먼트 인수·합병(M&amp;A) 자금 등으로 활용한다는 복안이다. 13일 투자은행(IB) 업계에 따르면 카카오엔터테인먼트는 JP모건을 주관사로 선정하고 투자 유치 작업을 시작했다. 콜버그크래비스로버츠(KKR), 블랙록 등 복수의 글로벌 PEF 운용사와 논의 중인 것으로 알려졌다. 총 6000억원에서 1조원까지 조달 가능한 구조를 계획하고 있는 것으로 전해진다. 주관사 측은 PEF 운용사들을 대상으로 이번 투자에 참여하기 위해선 최소 2000억원을 출자해야 한다는 조건을 내건 것으로 알려졌다.IB업계에서는 카카오엔터테인먼트가 이번에 유치한 자금을 국내외 엔터 기업 M&amp;A에 활용할 것으로 보고 있다. 카카오엔터테인먼트는 SM엔터테인먼트 경영권 인수를 추진 중인데, 해당 거래에 필요한 자금이 6000억~1조원 수준인 것으로 알려졌다. 카카오엔터테인먼트는 기업가치를 극대화하기 위해 각종 지식재산권(IP)을 지닌 기업들의 M&amp;A도 적극 검토 중이라 보유 현금만으로는 충분하지 않은 것으로 전해진다. 카카오엔터테인먼트가 투자 유치에 속도를 내는 건 녹록지 않은 투자 시장 환경 때문이기도 하다. 굵직한 기관들이 출자에 소극적인 모습을 이어가면서 시중 유동성이 말라가고 있다. 이 같은 분위기에 올 초부터 프리IPO를 추진 중인 토스(비바리퍼블리카)와 SK온 역시 고민이 적지 않은 상황이다. IPO 시장이 얼어붙은 것도 카카오가 투자 유치에 힘을 쏟는 이유다. 지난 5월 SK쉴더스와 원스토어가 상장을 자진 철회한 뒤 주식 발행 시장은 급랭했다. 유통 주식 수가 적고 몸값 눈높이를 낮춘 코스닥 공모 기업 일부만 흥행에 성공하는 분위기가 이어지고 있다. 여기에 코스피가 2300선까지 떨어져 더 이상 상장으로 '대박'을 기대하긴 어려워졌다. 앞서 카카오엔터테인먼트는 국내외 증권사 네 곳을 주관사단으로 뽑은 뒤 상장 시점을 저울질해 왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>토스뱅크, 카드업계 반발에 ‘카드론 대환대출’ 잠정 중단</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003438850?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>토스뱅크가 고금리 카드론을 토스뱅크의 저금리 대출로 바꿔주는 서비스를 잠정 중단했다. 기존 고객 이탈을 우려한 카드업계가 강하게 반발한 것이 영향을 미쳤다. 7일 금융권에 따르면 토스뱅크는 시범적으로 운영해 온 ‘카드론 대환대출 서비스’를 최근 중단했다. 카드론을 금리가 낮은 은행 신용대출로 바꿔주는 서비스를 내놓은 것은 토스뱅크가 처음이었다. 토스뱅크는 5월 말 삼성카드 카드론을 대상으로 서비스를 시작해 이르면 이달부터 대상 카드사를 늘릴 계획이었다. 카드론 고객 상당수가 중신용자여서 대출 갈아타기 수요가 많을 것으로 예상됐다. 이에 카드사들은 거세게 반발했다. 특히 토스뱅크가 카드론 정보를 모으는 과정에서 보안 문제가 발생할 수 있다고 지적했다. 카드업계는 5일 이복현 금융감독원장과의 간담회에서도 이에 대한 우려를 제기한 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.07.02.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>쑥쑥 큰 카뱅·케뱅·토뱅…MZ 잡고 중장년층 공략</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005111853?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>2017년 인터넷전문은행이 출범한 지 5년 만에 가입자가 3000만명을 돌파한 것으로 파악됐다. 2일 인터넷전문은행 3사에 따르면 가입자는 총 3053만명이다. 카카오뱅크 가입자는 1913만명, 케이뱅크는 780만명, 토스뱅크는 360만명(6월 기준)으로 집계됐다.인터넷전문은행들은 MZ세대(밀레니얼+Z세대)를 잡고 중장년층까지 범위를 넓혀가며 무섭게 이용자들을 끌어들이고 있다. 지난해 10월 가장 문을 늦게 연 토스뱅크의 연령별 고객 비중을 보면 20대(25.1%), 30대(25.4%)만큼, 40대(23.8%)와 50대 이상(19.2%) 고객들이 많았다. 카카오뱅크와 케이뱅크의 경우도 50대이상 비중(5월 기준)이 각각 18%, 17%에 달했다.대출 금액도 빠른 속도로 불어나 총 40조원을 눈앞에 두고 있다. 5월말 기준 카뱅은 26조5445억원, 케뱅은 8조4900억원을 기록했고 토뱅은 이달 4조원을 돌파했다.인터넷전문은행들은 기존의 시중은행 상품들을 재해석 하는 방식으로 성장하고 있다. 시중은행들의 전통적인 창구 영업 상품인 주택담보대출의 경우 카카오뱅크는 획기적으로 편리해진 비대면 방식으로 이용자를 공략했다. 카카오뱅크가 지난 2월 출시한 비대면 주택담보대출은 카카오톡으로 대화하는 것 같은 ‘대화형’ 인터페이스다. 대출 가능한도와 금리를 파악하는 데 걸리는 시간은 평균 3분29초다. 누적 약정금액 2620억원을 돌파했다. 40~50대 비중도 43%에 달한다.이외에도 카카오뱅크는 지켜야 하는 납입일이나 납입횟수가 없는 자유적금, 모임통장, 잔액을 모아주는 저금통 등 기존 상품을 재해석한 아이디어로 젊은층을 비롯해 시니어 고객까지 사로잡고 있다. 특히 모임통장의 경우 40~60대 비율이 38.2%에 달한다.토스뱅크 역시 카카오뱅크와 유사한 전략으로 앞선 두 은행을 추격하고 있다. 2200만명의 가입자를 가진 토스 플랫폼에 토스뱅크를 가장 상단에 노출시켰다. 또 연 2%대 금리의 입출금 통장을 출시하면서 이용자들을 모았다. 토스뱅크 역시 '모임통장' 출시를 준비하고 있다.카카오, 토스와 달리 플랫폼 효과를 기대하기 힘든 케이뱅크는 적극적인 제휴 전략으로 가입자를 늘렸다. 케이뱅크는 코인 열풍이 불던 2020년 6월 업비트와 제휴를 통해 인지도를 올리며 2021년 한 해에만 가입자를 500만명 가까이 늘렸다. 이후 케이뱅크는 업계에서 가장 좋은 조건의 금리를 제공하는 방식 등으로 ‘락인효과(고객 묶어두기)’를 유지하고 있다. 케이뱅크는 조건없이 연 3%대 정기예금을 제공하고 5%대 적금을 선보였다.다만 장기 성장 전략은 여전히 숙제다. 서지용 상명대 경영학부 교수는 "인터넷전문은행들이 수익을 내는 모델은 시중은행과 행태가 비슷하다"며 "비이자수익을 넓혀야 하고, 신탁 서비스를 대중화하는 등 수수료 수익 모델을 다양하게 만들 필요가 있다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.07.14.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>1년간 착오송금액 40억원 주인에게 돌아갔다</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004770923?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>착오송금 반환지원 제도 도입 전후 비교/자료=예금보험공사착오송금 반환지원 제도를 통해 지난 1년간 3218명에게 40억원이 반환됐다. 또 제도 도입 후 반환기간이 평균 4개월 줄었고, 1인당 비용부담도 55만원 이상 감소했다. 예금보험공사(예보)는 지난해 7월6일 착오송금 반환지원 제도 도입 후 지난달 말까지 3218명에게 착오송금액 40억원이 돌아갔다고 14일 밝혔다. 1년간 착오송금 반환지원을 신청한 건수는 1만720건(158억원)이다. 착오송금 반환지원 제도는 착오송금한 고객의 돈을 다시 되찾아주는 제도다. 5만~1000만원 이하 금액을 대상으로 한다. 금융사 계좌뿐 아니라 카카오페이, 토스 등 간편송금업자의 계정을 통해 타인의 계좌로 잘못 전달한 돈도 반환지원 신청이 가능하다. 착오송금 반환지원 신청건의 평균금액은 147만원이고, 반환이 완료된 경우 고객은 평균 총 착오송금액의 95.9%를 돌려받았다.예보는 직접 소송과 비교했을 때 반환기간이 평균 4.5개월 이상 단축됐다고 설명했다. 또 1인당 비용부담이 55만원 이상 절감됐다고 했다. 제도 도입 이전에는 민간 소송을 통해서만 착오송금의 회수가 가능했다. 이에 따라 소송비용도 최소 60만원 가까이 들어 착오송금 회수를 포기하는 경우도 빈번했다.예보는 앞으로 간편송금업자 회원 간의 착오송금에 대해서도 반환지원이 가능토록 제도를 검토할 계획이다. 또 현재는 PC를 통해서만 온라인 신청이 가능한데, 모바일 앱을 개발해 편의성도 높일 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>'습관앱' 챌린저스 "전국민 '건강앱'으로 도약"</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003029638?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>습관 형성 애플리케이션 '챌린저스'가 건강 관리 앱으로 변신을 추진한다. 2018년 11월 출시된 챌린저스는 목표를 설정하고 성공하면 상금을 받는 운영 방식으로, MZ세대(밀레니얼+Z세대)에 자리매김했다.김준태 화이트큐브 이사는 최근 전자신문과 만나 “음식, 수면, 운동, 스트레스 대처 등 건강 관리 서비스를 확장해나갈 것”이라면서 “챌린저스를 '습관앱'에서 '건강앱'으로 재정의하려 한다”고 말했다.회사는 4월 '챌스토어'를 선보이며 변화를 알렸다. 챌스토어는 영양제 복용을 인증할 때마다 플랫폼 내에서 현금처럼 사용 가능한 포인트를 적립해주는 방식으로 습관 형성을 돕는 서비스다. 챌스토어 카메라로 영양제를 촬영해 태그하면 인증되며, 영양제 복용을 놓치면 자동으로 알람이 온다.챌스토어 이미지.(화이트큐브 제공)화이트큐브는 습관 형성 플랫폼의 확장성 한계를 극복하고, 건강앱 시장을 공략하겠다는 계획이다. 의식주와 금융 등 분야별로 플랫폼이 성장해 대국민 앱으로 자리 잡고 있는 반면에 건강앱은 아직 이렇다 할 서비스가 없다고 판단, 건강앱을 목표로 삼았다.김 이사는 “토스가 송금 서비스로 시작해 신용정보, 보험, 증권 등으로 기능을 확장했듯이 건강 관리에 필요한 서비스를 순차적으로 론칭하겠다”면서 “영양제 정보를 얻고 싶거나 건강 관리에 관심이 생기면 챌린저스 앱을 먼저 설치할 수 있게끔 대표 건강앱으로 만들겠다”고 말했다.챌린저스의 최대 강점 중 하나는 MZ세대 유저다. 전체 유저 중 20~34세 비중이 절반에 달하고 35~44세도 22%를 차지할 만큼 젊은 세대에서 각광을 받고 있다. 특히 다른 플랫폼과 달리 건강 및 생활 관리에 적극적으로 행동하는 이용자를 확보한 것이 경쟁력이다. 김 이사는 “건강한 생활을 추구하는 120만명의 유저를 보유한 플랫폼”이라면서 “건기식 회사를 비롯해 뷰티 회사, 스포츠 브랜드사, 건강 식품회사 등이 협업해나가고 있다”고 말했다.화이트큐브 사무실 전경.(화이트큐브 제공)</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>'수신 확보 경쟁' 뛰어든 저축은행·인터넷은행</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004719977?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>조만간 금리 더욱 높일 가능성"1년 만기 대신 6개월짜리 유리"저축은행과 인터넷전문은행들이 높은 금리를 앞세워 ‘수신 확보 경쟁’에 뛰어들고 있다. 금리 인상으로 조달 여건이 나빠지면서 예·적금을 통해 자금을 확보할 필요성이 커졌다는 분석이다. 최근 저축은행 1년 만기 정기예금 금리가 연 3%를 넘어섰고, 조만간 연 4%에 도달할 수 있다는 전망도 나온다.지난 1일 저축은행중앙회 금리 공시에 따르면 79개 저축은행의 1년 만기 정기예금 단순 평균 금리는 연 3.09%다. 가장 금리가 높은 저축은행 1년 만기 정기예금은 키움YES 저축은행의 ‘e-회전yes정기예금’으로 금리가 연 3.52%에 달한다. NH·대신·우리금융·참저축은행 등이 연 3.5%짜리 상품을 판매한다.저축은행들이 조만간 예·적금 금리를 더욱 높일 가능성이 있다는 점에서 1년 만기 대신 6개월 만기 정기예금을 선택하는 게 유리하다는 분석도 나온다. 6개월 만기 상품 중에선 대신저축은행의 스마트정기예금 금리가 연 3.0%로 가장 높고, 한국투자저축은행(비대면정기예금)이 연 2.81%, 신한저축은행(e-정기예금)이 연 2.7%로 뒤를 잇는다.저축은행의 1년 만기 적금 상품으로는 KB저축은행의 ‘KB착한누리적금’ 금리가 연 4.5%로 가장 높다. 6개월 만기 상품 중에선 푸른저축은행의 ‘푸른정기적금’(연 3.0%)이 최고 금리다.인터넷전문은행들도 최근 예·적금 금리 인상 움직임에 가세했다. 케이뱅크는 1일부터 ‘주거래우대자유적금’의 금리를 기간별로 최대 연 0.6%포인트 높였다. 1년짜리 상품의 금리는 최고 연 2.7%에서 3.2%로 높아졌다. 2년 이상 3년 미만은 최고 연 3.4%로, 3년 만기는 연 3.7%로 금리가 올랐다.다만 케이뱅크 적금 이자를 최대로 받으려면 계좌로 급여이체 또는 통신비 자동이체(0.3%포인트) 등을 걸어야 하고, 케이뱅크 체크카드를 월 20만원 이상 사용(0.3%포인트)해야 한다. 월 납입액 한도는 최대 300만원이다.조건이 없는 ‘코드K 자유적금’ 1년 만기 상품 금리는 연 2.6%에서 2.9%로, 2년 이상 3년 미만은 연 2.8%에서 3.1%로, 3년은 연 3.0%에서 3.4%로 인상됐다. 납입액은 월 30만원까지만 가능하다.추후 갑작스럽게 자금을 꺼내쓸 일에 대비하려면 토스뱅크의 자유입출금식 통장이 유리하다. 토스뱅크는 1억원 납입금까지 연 2% 이자를 지급한다. 카카오뱅크도 최근 예·적금 기본 금리를 0.4%포인트 인상했는데, 26주 적금의 금리는 연 3.0%고, 자유적금 금리는 연 2.9~3.4%다. 기존 정기예금 금리는 1년 만기의 경우 연 2.5%이고, 3년 만기는 연 3.0%로 조정됐다.금융권 관계자는 “시중은행에 이어 저축은행과 인터넷전문은행들이 예·적금 금리 인상 행렬에 가세하면서 조건 등을 따져보고, 장단기 상품을 선택하는 소비자 전략이 중요해졌다”며 “지역 농축협, 신협 등의 특판 수신 상품을 챙겨보는 것도 방법”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.07.14.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>제2의 증권거래소 ‘ATS’ 설립 속도낸다…KB·미래·NH 등 증권사 “빠른 추진 기대”</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000827492?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>“연내 대체거래소 예비인가 기대”수수료 인하·거래 시간 확대 등 효과서울 종로구 정부서울청사 금융위원회./뉴스1        국내주식 매매 체결을 독점하는 한국거래소와 경쟁할 대체거래소(ATS) 설립을 위한 예비 인가 신청이 본격화될 예정이다. 오는 8월 ATS 인가 심사 가이드라인이 나오면 대체거래소 준비를 위한 ATS설립위원회(이하 ATS설립위)가 조속히 예비인가를 신청할 예정이다. 30여곳의 증권사들도 대체거래소가 속히 설립되는 것을 기다리는 분위기다.2일 증권업계에 따르면 금융투자협회(이하 금투협)와 7개 증권사로 구성된 ATS설립위는 대체거래소 인가 준비와 법인 설립 등 사전작업을 진행 중이다. 대체거래소는 한국거래소(정규거래소)의 주식 매매 체결 기능을 대체하는 거래소다. 미국과 유럽, 호주, 일본 등은 이미 도입한 제도다.ATS설립위는 연내 금융위원회 예비인가를 완료하겠다는 목표를 갖고 있다. 김영돈 금투협 자본시장혁신과제TF 부장은 “대체거래소 설립을 위해서는 금융위 예비인가가 필수”라면서 “연내에 약 30여곳의 증권사와 논의를 거쳐, 인가신청을 목표로 준비에 착수하고 있다”고 말했다.금투협과 증권사들은 지난 수년간 ATS 설립을 준비해왔다. 대체거래소는 지난 2015년 논의 됐다가 한 차례 무산됐다. 당시 금투협과 7개 대형 증권사들이 TF를 결성해 대체거래소 설립을 추진했지만 부산시민 단체 등 반발로 추진이 전면 보류됐다. 이후 지난 2018년 7월 한국거래소의 독과점 구조를 깨고 문재인 정부의 일자리 창출 공약 행보와 발 맞춰 대체거래소 설립이 다시 수면위로 떠올랐다.여기에 신종 코로나바이러스 감염증(코로나19) 이후 주식시장 거래대금이 폭발적으로 증가하면서 논의가 급물살을 탔다. 나재철 금융투자협회장도 지난 12일 기자간담회에서 “증권 거래의 편의성과 효율성을 높이고 글로벌 스탠다드에 부합하는 ATS가 설립되도록 참여 회원사들과 최선을 다할 계획”이라고 밝히며, 대체거래소 설립 의지를 재차 보여줬다.대체거래소 예비인가를 위해서는 금융위의 허가가 필요하다. 그간 금융위원장 자리는 공석이었으나, 지난 11일 김주현 금융위원장이 임명되면서 대체거래소 인가신청에도 속도를 낼 것으로 보인다. ATS 설립을 위해서는 금융감독원의 가이드라인(심사 매뉴얼)이 확정되야 한다. ATS설립위에 참여하고 있는 한 증권사 관계자는 “대체거래소 예비인가 신청 서류를 내면 금융위원회가 예비 인가를 검토하는 절차를 밟아야 한다”면서 “8월쯤 ATS 심사 가이드라인이 나오고, 거기에 발맞춰 예비인가를 위한 서류 절차도 준비할 것으로 본다”고 설명했다.증권가에서는 제2의 증권거래소 설립을 적극 환경하는 분위기다. 그간 독점 구조였던 한국거래소의 주식 매매 기능을 대체할 거래소 설립 필요성을 꾸준히 제기했다. 미국과 유럽연합(EU)은 각각 60여 곳, 150여 곳의 ATS가 있다. 하지만 국내에는 한국거래소가 유일하다. 이를 두고 한 금융투자업계 관계자는 “물건을 만들어 판매하는 제조사(증권사)의 입장에서 제품을 유통할 수 있는 마트(거래소)가 한개 밖에 없는 것은 불공정한 것 아니었나 싶다”면서 “거래 효율화, 다양화를 위해서라도 거래소가 더 필요하다”고 말했다.ATS가 설립되면 거래소 독점 체제가 깨지면서 매매 수수료 인하, 거래 시간 확대, 다양한 형태의 거래 활성화 등 긍정적 효과가 발생할 것으로 기대하고 있다. 예컨대 ATS를 통해 정규 거래시간(오전 9시∼오후 3시 반) 외 야간에도 주식 매매가 가능해지면 국내 투자자들이 미국 뿐 아니라 유럽 등 해외 시장 상황을 반영해 유연하게 투자할 수 있는 기회를 얻는다. 삼성증권이 지난 2월 도입한 미국주식 주간거래는 한국시간 오전 10시부터 오후 4시 30분까지 미국 주식거래가 가능한 서비스다. 삼성증권의 미국 주간거래는 미국 증권거래위원회(SEC)와 미국 금융산업규제국(FINRA)으로부터 오버나이트 세션을 승인받은 유일한 대체거래소인 블루오션(Blue Ocean)과 독점 제휴를 맺으면서 가능해졌다. 이처럼 대체거래소도 여기에 따르는 매매 수수료로 수익을 낼 수 있다.대체거래소 참여에서 핵심 주축에는 7여곳의 증권사가 있다. TF는 금투협을 중심으로 미래에셋증권, 한국투자증권, NH투자증권, 삼성증권, KB증권, 키움증권, 신한금융투자 등 7개 ATS준비설립위원회 증권사에서 파견된 직원들로 구성됐다. 이들 7곳 증권사 지분은 약 7~8% 수준으로 결정됐다. 여기에 약 23곳의 증권사가 추가로 참여 의사를 밝혀, 약 30여곳이 ATS 설립에 참여할 것으로 보인다. 이들 23곳의 증권사들의 지분은 2~3% 정도로 알려졌다.대체거래소 설립으로 인한 투자 실익 우려는 논란거리다. ATS의 목표 자본금은 1000억원 이상이다. 최근 경기 침체 우려, 글로벌 증시 불확실성, 금리 인상 여파로 국내 주식 거래대금이 대폭 줄었다. 이에 수익성 부담 우려도 커지고 있다.이 때문에 메리츠증권과 토스증권은 투자 실익이 나지 않을 것으로 판단하고, ATS 설립에 참여하지 않기로 했다. 황세운 자본시장연구원 연구위원은 “국내 증시 일평균 거래량이 코로나19 이전 수준인 10조원 정도까지 떨어지면서 한국거래소와 대체거래소 모두 수익성 측면에서 어려움을 겪게 될 위험성도 배제하기 어렵다”고 밝혔다.반면 시장상황에 따라 다르지만 배당수익을 충분히 챙길 수 있다는 의견도 있다. 한 증권사 관계자는 “주식시장 불확실성은 언제나 있었던 것”이라면서 “대체거래소 설립 이후 다양한 방식의 거래 활성화로 인해 수수료 수익이 나고 여기에 따르는 배당수익을 기대할 수 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>애플, 국내 모든 앱에 '제3자 결제' 허용…수수료 최고 26%</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003659703?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>핵심요약애플 앱스토어의 제3자 결제는 앱 내에서 이뤄지고 수수료율이 플랫폼 자체 인앱결제(최고 30%)보다 4%포인트 낮은 26%로 책정됐다. 구글의 플레이스토어와 수수료는 같고 결제 방식도 거의 유사하다.연합뉴스애플이 '앱스토어'(애플의 앱 마켓)에서 모든 한국 앱에 대해 제3자 결제를 허용한다. 모든 앱에 제3자 결제를 허용한 것은 한국이 처음이다.애플은 지난달 30일 '인앱결제 강제 금지'를 명시한 개정 전기통신사업법을 준수하기 위해 한국에서 배표되는 앱에 한해 제3자 결제를 허용한다고 밝혔다.애플은 개발사가 '외부 구입 권한'을 사용할 수 있다며, 이 권한을 통해 대한민국에서만 배포되는 앱스토어의 앱에 '대체 앱 내 결제 처리 옵션'을 제공할 수 있다고 설명했다.애플은 KCP, 이니시스(Inicis), 토스(Toss), 나이스(NICE) 등 국내에서 인증된 4곳 중 한 곳을 제3자 결제를 위한 전자결제대행업체(PG)로 우선적으로 선정토록 앱 개발사에 요구했다.애플 앱스토어의 제3자 결제는 앱 내에서 이뤄지고 수수료율이 플랫폼 자체 인앱결제(최고 30%)보다 4%포인트 낮은 26%로 책정됐다. 구글의 플레이스토어와 수수료는 같고 결제 방식도 거의 유사하다.다만 구글과 달리 '병행 결제'가 허용되지 않는다. 개발사는 애플의 인앱 결제 방식과 외부 결제 방식 중에서 무조건 하나를 선택해서 제공해야 한다.애플이 한 국가의 모든 앱에 제3자 결제를 허용한 것은 한국이 최초다. 이번 조치는 애플이 지난 3월 방통위에 전기통신사업법 개정에 따른 이행계획을 제출하면서 6월 중 제3자 결제를 허용할 것이라고 보고한 내용에 따른 것으로 보인다.방송통신위원회는 애플이 제3자 결제 관련 공지를 게시함에 따라 인앱 결제 강제 등 위법 행위가 있는지를 본격적으로 점검할 방침이다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : jebo@cbs.co.kr카카오톡 : @노컷뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>카드사 수수료는 3년마다 깎고…빅테크 간편결제엔 "동일기능 아냐"</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004074553?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[다시 기업을 뛰게하자] 2부- '규제 주머니' OUT&lt;12&gt; '같은 종목 다른 룰' 적용받는 카드·보험사◆'기운 운동장' 신음하는 카드사빅테크 적자·단기 마케팅 가능카드사는 행정지도 등에 묶여고객 구매내역 등 공개도 차별◆빅테크에 영토 뺏기는 보험사카카오페이손보 3분기 본격 출범네이버도 '보험통합조회' 서비스"우월적 플랫폼 활용···불공정 경쟁"[서울경제] 빅테크의 금융시장 진출에 금융사들의 위기감이 커지고 있다. 보험 업계는 빅테크 최초 보험사인 카카오페이손해보험의 공식 출범을 앞두고 불공정 경쟁 등 부작용에 대한 우려의 목소리를 높이고 있다. 카드사들은 빅테크에 대한 금융 당국의 느슨한 규제에 반발하며 ‘동일 기능, 동일 규제’가 필요하다고 주장한다.10일 업계에 따르면 카드사들은 가맹점 수수료, 마케팅, 부가 서비스 등에서 빅테크사들과 불평등한 규제가 적용돼 ‘기울어진 운동장’이라는 불만이 다시 커지고 있다. 한 카드사 최고경영자(CEO)는 “카드사들은 소비자와 연결되는 부분이 많은 만큼 카드사들이 새로운 비즈니스를 할 수 있도록 규제 혁신이 필요하다”며 “빅테크와의 규제 체계를 맞추는 것도 중요하다”고 토로했다. 이에 대해 5일 이복현 금융감독원장은 여신전문금융회사 CEO와의 간담회에서 “여전사는 빅테크와의 경쟁 심화로 여타 업종보다 어려움에 처해 있으므로 새로운 성장 동력을 발굴할 수 있도록 지원하겠다”고 밝혔다.빅테크와의 규제 불균형은 카드사들의 성장은 고사하고 생존의 발목을 잡고 있다. 카드사들은 빅테크와 달리 적극적인 마케팅이 막혀 있다. 빅테크들이 포함된 전자금융업자들은 별도 규정이 없어 적자 마케팅, 단기 마케팅 등 폭넓고 유연한 마케팅이 가능하다. 하지만 카드사는 각종 행정지도 및 적격 비용 산정 과정 등으로 인해 사실상 마케팅 자체가 힘들다.때마다 반복되는 카드 수수료 인하 요구는 빅테크와의 차별은 물론 정부의 시장 개입으로 꼽힌다. 현재 카드 업계는 여전법에 따라 3년마다 금융 당국으로부터 ‘수수료 원가(적격 비용)’ 재산정을 관리·통제 받고 있다. 반면 빅테크의 간편결제는 지난해 금융 당국이 동일 기능이 아니라는 잠정 결론을 내렸다. 기존에 유지했던 ‘동일 기능 동일 규제’ 원칙을 뒤엎었다.빅테크가 갖고 있는 고객 구매 내역 등 정보를 금융사들이 가질 수 없는 것도 불평등 요소다. 마이데이터는 신용정보보호법상 ‘개인신용정보’를 취급하는 금융회사는 거의 모든 정보가 공개 대상이지만 빅테크가 보유하고 있는 소비성향 분석 등에 핵심이 되는 구매 내역 등 정보는 ‘개인정보’로 분류돼 금융사에 공개되지 않고 있다.카드·캐피털 등 여전사들은 겸영 업무 및 부수 업무 범위 확대도 필요하다는 주장이다. 여전사는 수신 기능이 없고 금융 시스템에 미치는 영향이 상대적으로 크지 않은 만큼 소비자 보호 및 건전성에 큰 문제가 없을 시 부수 업무를 자유롭게 영위하도록 과감히 허용해달라는 것이다. 류창원 하나금융경영연구소 연구위원은 “종합지급결제업자 등 새로운 라이선스가 카드사를 배제하고 전자금융업자에게만 부여되면 카드업과 빅테크 사이의 기울어진 운동장은 해소되기 어렵다”며 “우수한 결제 인프라인 카드를 활용하고 발전시킬 수 있는 균형 있는 정책이 필요하다”고 지적했다.보험 업계에서도 빅테크 진출로 인한 긴장감이 높아지고 있다. 현재 카카오·토스·네이버 등 빅테크 기업은 보험사와의 제휴, 자회사 설립을 통한 보험 관련 업무 영위, 규제 샌드박스 제도 이용 등 다양한 형태로 보험 업계로 진입했다. 특히 빅테크 최초의 디지털 손해 보험사인 카카오페이손해보험이 3분기 본격적인 출범을 앞둔 상태다. 카카오페이손해보험은 카카오톡과 연계한 생활 속 보험 상품을 우선 선보인다는 계획이다. △동호회, 휴대폰 파손 보험 △카카오키즈 연계 어린이 보험 △카카오모빌리티 연계 택시 안심, 바이크, 대리기사 보험 △카카오 커머스 반송 보험 등을 선보일 것을 전망된다. 그동안 보험 관련 서비스를 본격적으로 출시하지 않았던 네이버파이낸셜도 6월부터 41개 보험사 마이데이터 정보를 기반으로 사용자가 가입한 보험을 일시에 확인할 수 있도록 도와주는 ‘보험통합조회’ 서비스를 시작했다. 건강보험·저축보험·생명보험 등 사용자가 가입한 보험 상품을 종류별로 분류해 보여주며 사용자가 속한 지자체에서 제공하는 시민안전보험 등의 무료 보험 정보도 알려준다. 자동차 보험의 경우 주행 거리에 따른 마일리지 할인도 예측해 주고 통합 차량 관리 서비스인 ‘네이버 마이카(MY CAR)’와 연결해 편의성을 높였다.빅테크 기업의 온라인 플랫폼은 보험회사 판매 채널의 공급 정보와 소비자의 수요 정보를 모두 보유하고 활용하기 때문에 일반적인 대면 거래에 비해 시장 지배력이 월등히 높다. 그만큼 보험 업계에서는 빅테크의 우월적 지위 남용과 기존 대면채널(전속?GA) 시장 잠식 등 빅테크의 보험 시장 진입에 따른 불공정 경쟁과 소비자 권익 저해를 우려하는 모습이다.이로 인해 최근 금융 당국은 빅테크의 보험 서비스에 대한 관련 규제 합리화를 추진하고 있다. 빅테크의 보험 서비스를 ‘모집(중개) 행위’로 규정하고 빅테크의 보험대리점 진입을 허용하되 공정 경쟁 저하 우려가 없도록 영업 행위 규제를 마련한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.07.02.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>증권플러스 비상장, 거래 종목 456→50개…토스·컬리 빠져</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004861089?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>이한영 두나무 '증권플러스 비상장' 서비스총괄실장 /사진=뉴스1[파이낸셜뉴스]1일부터 비상장주식 거래 플랫폼인 증권플러스 비상장에서 일반 투자자가 투자 가능한 종목이 총 456개 기업에서 50개로 크게 줄어든다. 서울거래소 비상장의 경우도 24개 종목만 거래가 가능하다.   2일 블록체인 및 핀테크 전문기업 두나무가 운영 중인 증권플러스 비상장은 "혁신금융서비스 연장에 따른 당국의 지침을 준수하고 투자자 보호를 강화하고자 7월 1일 거래 가능 종목 제한 및 정책 변경을 완료했다"며 이같이 밝혔다.   이날부터 거래 가능 종목 기준이 변경되면서 증권플러스 비상장 일반투자자를 대상으로 한 거래 가능 종목 수는 50개다. 2일 기준 실시간 거래 상위 종목 10개는 두나무, 야놀자, 케이뱅크, 바이오노트, 넷마블에프앤씨, 애자일소다, 오아시스, 빗썸코리아, 루닛, 지엔티파마 순이다. 기존 거래 상위 종목은 비바리퍼블리카, OCI스페셜티, 케이뱅크, 두나무, 바이오엑스, 컬리(마켓컬리 운영사) 등이었으나 순위가 크게 바뀌었다.   재무요건을 충족하고 회사가 증권플러스 비상장 등록에 동의한 종목이 반영됐다. 재무요건은 △자본전액잠식 상태가 아닐 것 △최근 사업연도의 매출액이 5억 원 이상일 것 △감사인의 감사의견이 적정일 것 △한국예탁결제원의 증권 등 취급 규정에 따른 주권이거나, 전자 등록된 주식일 것 △명의개서대행회사와 명의개서대행계약을 체결하고 있을 것 △기업의 존립 및 투자자 보호에 영향을 미치는 사유가 없을 것 등이다.   서울거래소 비상장의 경우 174개 거래 종목 중 156개의 거래가 중단됐다. 이날 서울거래소도 발행 회사가 거래 동의를 하지 않아 매수 불가한 기업 45개, 등록 기준을 충족하지 못하여 매수 불가한 기업 111개를 공지했다. 이중 비바리퍼블리카, 쏘카, 컬리, 오아시스, 케이뱅크 등도 포함됐다.   한편 금융당국은 일반 투자자와 전문 투자자로 비상장주식 거래 시장 이원화를 유도한다는 계획이다. 개인전문투자자로 등록된 고객은 기존의 모든 비상장 기업에 대해 종목과 금액 제한 없이 거래할 수 있도록 했다. 기존 투자자의 경우 거래가 불가능해진 종목들의 경우에도 전문투자자를 대상으로 매도가 가능하다.   전문투자자 신청 요건은 투자경험요건을 필수로 충족하고 소득·전문가·자산 요건 중 1가지 이상 충족해야된다. 투자경험요건은 금융투자상품 잔고 최근 5년 중 1년 이상 월말 평균 잔고 5000만원 이상이다. 소득은 본인 1억원 이상 또는 부부합산 1억5000만원 이상이다. 전문가는 공인회계사, 감정평가사, 변호사, 변리사, 세무사, 투자자산운용사, 금융투자분석가, 재무위험관리사 등이다. 자산은 부부합산 거주 부동산 관련 금액을 제외한 순자산가액 5억원 이상이다.   증권플러스 비상장은 "삼성증권에서 개인전문투자자로 등록된 고객은 비상장앱-&gt;내 정보 탭에서 인증을 통해 모든 비상장 종목을 종목과 금액 제한 없이 거래할 수 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>[취재수첩] ESG 외치는 기업들, 정보보호 투자 공개하라</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002128456?sid=105</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 대부분의 기업들이 ESG(환경·사회·지배구조) 경영을 외치고 있다. ESG가 단순히 기업의 도덕성을 판단하는 것을 넘어, 브랜드 가치를 결정짓는 주요 지표 중 하나로 활용되기 시작한 탓이다. ESG에 얼마나 투자하느냐를 두고 거래나 투자 대상을 정하기도 한다.   ESG 경영과 함께 꼭 언급되는 것이 ‘투명성’이다. 지배구조라고 번역되는 거버넌스(Governance)를 국립국어원은 ‘투명 경영’이라고 정의했다. 기업의 지배구조나 활동을 투명하게 공개해야 한다는 것이 ESG의 근간이다 보니 과거에는 기밀이라며 숨겼던 정보들도 외부에 공개하는 추세다.   지난 6월 30일까지 마감이었던 정보보호 투자 현황 공개도 ESG의 일환이다. 정보보호의 경우 투자 미흡으로 사고가 발생하면 기업 고객들이 피해를 겪을 수 있는 만큼, 사회적 책임이라는 ESG 요소와도 맞닿아 있다. 각 기업이 어느 정도로 정보보호에 투자하고 있는지가 기자를 비롯한 업계 관계자들의 주요 관심사로 떠오른 이유다.   이번이 첫 공개인 만큼 어느 정도의 정보보호 투자액이 적절한 수준인지 판단하기는 어렵다. 다만 일부 기업의 경우 동종업계와 비교했을 때 턱없이 낮은 액수를 투자해 눈길을 끌었다. 대표적인 예가 당근마켓이다.    당근마켓은 2021년 정보보호에는 3억7000만원만 투자했다. 정보보호 전담 인력은 265명 중 1명이다. 일일 평균 이용자 수 100만명 이상, 기업가치 3조원이라는 당근마켓의 위상에 어울리는지는 의문부호가 붙는다. 아직 본격적인 수익화가 이뤄지지 않은 만큼 투자에는 제약이 있을 수밖에 없다곤 하나 해커가 이를 고려해가며 노리지는 않을 터다.    이에 반해 정보보호에 많은 투자를 한 기업들 역시 눈에 띈다. 정보를 공개한 전체 기업 가운데서는 삼성전자가 대표적이다. 삼성전자는 6939억원을 정보보호에 투자했는데, 이는 삼성전자를 뺀 시가총액 상위 10개 기업 정보보호 투자의 약 5배에 달하는 액수다. 이커머스 기업 중에서는 쿠팡이 534억원을 투자하며 눈길을 끌었다. 지마켓글로벌·롯데쇼핑·이마트·11번가·GS리테일·SSG닷컴·위메프·인터파크·티몬의 정보보호 투자 합보다 크다.   단순히 많은 금액을 정보보호에 투자한다고 해서 능사가 아니다. 실제 국내 기업 중 최대 액수를 투자한 삼성전자는 지난 3월 보안사고를 경험했다. 쿠팡도 지난 연말 31만여명의 개인정보가 노출된 바 있다. 다만 삼성전자나 쿠팡의 정보보호 투자액은 ‘막으려는 노력을 했으나 피치못하게 당했다’는 주장에 개연성을 부여한다. 만일 이들 기업의 정보보호 투자가 저조했다면 더 큰 비판을 피하기 어려웠을 것이다.   금액을 떠나 의무적으로 정보를 공개해야 하는 대상이 아님에도 정보보호 투자 현황을 공시한 모범적인 기업들도 있다. 금융 애플리케이션(앱) ‘토스’를 운영하는 비바리퍼블리카와 토스뱅크, 신한금융투자, 카카오페이, 우리은행, SK쉴더스 등이다.    올해 기준 정보보호 투자 현황 공시 의무가 부여된 것은 598개 기업이다. 그러나 7월 12일 기준 642개 기업이 자사의 투자 현황을 공개했다. 최소 40개 이상 기업은 자발적으로 투자 현황을 공개한 셈이다. ‘ESG 경영’을 외치는 기업이라면 공개를 피할 만한 명분이 없어 보인다.    향후 기업 중 투자를 잘한 기업이 있다면 그에 따른 격려나 인센티브를 주는 등의 조치도 이뤄졌으면 한다. 더 많은 기업이 정보보호에 투자하고, 정보보호 산업계가 성장해 디지털 안전망이 갖춰지길 기대한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>"큰놈부터 쓰러진다" 벤처투자 늘었지만 후기투자는 '보릿고개'</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004769375?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>전세계 인플레이션과 금리 인상 기조 등의 영향으로 글로벌 벤처투자시장이 빠르게 위축되면 투자 라운드 시리즈C 이상 후기단계 스타트업들의 자금조달에 빨간불이 켜졌다. 자금조달이 여의치 않자 기업가치를 낮추는가 하면 IPO(기업공개)를 미루는 스타트업들도 속속 생겨나고 있다. 전문가들은 물가와 금리 향방을 가늠할 수 있는 3분기가 벤처투자의 침체와 반등 분위기를 결정지을 분수령이 될 것으로 전망했다.11일 스타트업얼라이언스가 집계한 자료에 따르면 6월 벤처투자액은 1조3888억원으로 전년동기(1조1859억원) 대비 2029억원 증가했다. 투자건수 역시 179건으로 지난해 6월 117건보다 1.5배 증가했다. 5월 벤처투자액이 7577억원으로 1조원 아래로 내려가고 전년동기(1조1452억원)와 비교해도 3875억원 적은 것과 비교하면 어느정도 회복된 모습이다.다만 건당 평균 투자금액은 지난해보다 감소했다. 올해 5월과 6월 건당 평균 투자금액은 44억3100만원과 81억2200만원으로 100억원을 밑돌았다. 지난해 5월과 6월 평균 투자금액이 각각 127억2400만원, 101억3600만원으로 모두 100억원을 넘긴 것과 대조적이다. 초기단계 투자는 견고하게 이어지고 있지만 투자금이 큰 후기단계 투자가 감소하면서 평균 투자금액이 줄어든 것으로 업계는 보고 있다.실제 벤처투자 시장에서는 후기단계 투자 감소세가 이어지고 있다. 벤처투자 정보업체 더브이씨에 따르면 올해 2분기 프리IPO(기업공개)를 포함한 시리즈D 이상의 후기단계 투자가 19건으로 지난해 2분기 27건보다 8건 감소했다. 같은 기간 상장을 앞둔 스타트업의 프리IPO 투자금액도 2214억원으로 전년 동기 8753억원의 3분의 1수준으로 감소했다. 토스, 무신사 등 올해 IPO 대어로 불리던 유니콘(기업가치 1조원 이상 비상장기업)들은 상장 일정을 줄줄이 취소하거나 연기를 검토하고 있다.업계는 당분간 후기단계 투자가 위축되고 초기단계 투자만 이어지는 현상이 계속될 것으로 전망했다. 후기단계 투자의 경우 기업공개를 통해 빠르게 투자재원을 회수할 수 있는지 여부가 결정적 영향을 미치는데, 현재 증시 분위기로는 기대만큼의 수익을 내기 어려워서다. 반면 초기투자의 경우 회수까지의 기간이 길어 시장 환경에서 비교적 자유롭다. 여기에 업력 7년 이하 초·중기 스타트업에 대한 투자는 정부의 모태펀드 재원이 상당비중을 차지하고 있어 상대적으로 투자흐름이 견조하다. 한국벤처투자에 따르면 지난해 모태펀드가 출자한 펀드들의 투자금액은 3조9017억원으로 이중 69.9%가 업력 7년 이하 초·중기 스타트업에 투자됐다. 벤처캐피탈(VC)업계 한 관계자는 "정책펀드가 마중물 역할을 하는 국내 벤처투자시장 특성상 민간 투자가 위축되면 초기보다 후기 스타트업이 더 어려워진다"며 "실적 등 정량적으로 뒷받침되지 못하는 후기 스타트업은 몸값을 낮춰도 자금조달이 녹록지 않은 상황이라 심할 경우 폐업하는 곳들도 발생할 것"이라고 전했다.투자업계는 3분기가 벤처투자 시장의 분수령이 될 것으로 내다봤다. 한 VC 대표는 "아직까지 버블이 터졌다고 할 만큼 심각한 분위기는 아니다"면서도 "다만 3분기 금리, 물가 등 경제상황이 반등하지 못한다면 투자침체가 본격화될 수도 있다"고 우려했다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>[이기자의 친절한 금융] 우대금리 받으려면 "걷고 키우세요"</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000828525?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>/사진=이미지투데이 은행권이 금리상승기에 따라 이색적인 '미션형 적금'을 출시하며 고객몰이에 나섰다. 주식과 가상화폐 시장이 침체하고 자금이 안전자산인 예·적금에 몰리자 MZ세대(밀레니얼+Z세대)를 잡기 위한 다양한 혜택을 담은 상품 출시에 한창이다. 은행권에 따르면 NH농협은행은 연 최고 5.85%의 금리를 주는 'NH걷고싶은 대한민국 적금'을 판매 중이다. 이 상품은 설악산·지리산·한라산 등 전국 17개의 산악형 국립공원과 제주 올레길, 독도버스(농협은행 메타버스 플랫폼)까지 총 20개의 구역을 방문해 올원뱅크앱을 통해 인증하면 인증 구역 수에 따라 우대금리를 차등지급하는 게 특징이다. 농협은행은 국립공원공단과 함께 해당 상품을 기획했다.금리는 12개월 가입기준 1.85%(6월27일 기준)에 ▲위치인증 구역 수에 따라 최대 3.0%포인트 ▲누적 걸음 수에 따라 최대 0.7%포인트 ▲국립공원 자원봉사 확인서 제출 시 0.3%포이트를 추가해 최고 연 5.85%이 적용된다. 가입기간은 1년이며 매월 30만원 이내에서 적립할 수 있다.토스뱅크는 최근 '키워봐요 적금'을 출시하면서 귀여운 동물 콘텐츠를 내세웠다. 매주 동물 캐릭터가 자라나는 방식이다. 카카오뱅크는 '카카오프렌즈' 캐릭터를 활용한 마케팅으로 MZ세대 공략에 성공한 바 있다.고객이 매주 적금에 성공하면 동물이 자라지만 한 번이라도 자동이체를 실패하거나 통장에 잔액이 부족해 채워넣기에 실패하면 기본금리(연 1.8%)밖에 받지 못한다. 키워봐요 적금은 2000년대 유행하던 '다마고치'처럼 앱 안에서 동물을 키우는 재미를 느낀 MZ가입자들이 몰리면서 출시 3일만에 누적 계좌개설 10만좌를 돌파했다.BNK부산은행은 매주 1회 이상 부산은행 앱에 접속 할 수 밖에 없는 '펫 적금'을 선보였다. 반려동물을 키우며 일상을 기록하는 모바일 앱 내 펫 다이어리를 주 1회 이상 작성하면 주 단위 0.01%포인트의 우대금리를 제공한다. 또 동물등록증을 제출하거나 부산은행 펫 신용카드 사용 실적을 충족한 경우에도 0.1~0.2%포인트의 우대금리가 제공된다.금융권에선 올해 안전자산 선호 현상이 지속될 것으로 보고 있다. 미국 연준(Fed)이 '자이언트 스텝'(기준금리를 한 번에 0.75%포인트 올리는 것)'을 단행하며 유동성을 흡수하고 있기 때문이다.한국은행도 이달 기준금리를 추가 인상할 전망이다. 금융권에선 한은이 기준금리를 연내 2.75~3.00%까지 올릴 것으로 전망하고 있다. 당장 7월에 '빅스텝(기준금리를 한 번에 0.5%포인트 올리는 것)'을 단행할 가능성도 있다.은행 관계자는 "기준금리가 오르면 은행의 예·적금 금리도 지금보다 오르게 될 것"이라며 "추가 금리 인상을 기다리는 대기수요까지 가세하면서 은행으로의 역머니무브는 더욱 가속화될 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>금리 비교하는 ‘대환대출 플랫폼’ 속도… 은행 반발은 변수</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000827040?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>금리 인상에 정치권 ‘대환대출 플랫폼’ 추진 논의 급부상은행 반발 커 난항 예상… 고객 뺏길까 우려 “은행·저축은행·카드사 참여 중요”        정부와 여야는 금융권에서 금리 인상기 가계 대출 부실 우려와 금융 소비자의 이자 부담을 완화하기 위해서 대환대출 플랫폼을 구축해야 한다는 입장이다. 하지만 은행업계는 부정적인 반응을 보이고 있다.12일 금융권에 따르면 최근 국민의힘은 새 금융위원장이 임명되는 즉시 대환대출 인프라 구축을 위한 당정 간담회를 개최할 계획이라고 밝혔다. 윤석열 대통령이 김주현 금융위원장에 대한 임명을 재가함에 따라, 정치권이 대환대출 플랫폼 사업에 속도를 낼 것으로 보인다. 앞서 더불어민주당도 대환대출 플랫폼 ‘원스톱 대출이동제’ 도입 간담회를 열고 플랫폼 구축을 논의했다.대환대출/P2P대출업체 렌딧 제공·조선비즈DB        정치권에서는 금융소비자의 금리 인상 부담을 덜어주기 위해 대환대출 플랫폼이 필요하다는 입장이다. 성일종 국민의힘 정책위의장은 “지금도 고금리 상품을 저금리로 대환해주고 있지만, 행정적 번거로움이 크다”면서 “대환대출플랫폼 사업을 신속하게 추진해줄 것을 요청한다”고 밝혔다.작년 10월 대환대출 플랫폼을 출범한다는 게 금융당국의 애초 계획이었다. 하지만 은행권을 중심으로 반발이 일면서 사업이 뒤로 밀렸다가 최근 정치권에서 논의를 재개하면서 다시 화두로 부상했다.은행권의 우려와 반발 탓에 사업이 뒷전으로 밀린 것인데 은행들은 여전히 회의적인 반응이다. 이번에도 대환대출 플랫폼 사업이 원활하게 추진되기 어려울 것이란 예상이 나오는 이유다. 2금융권 역시 우량 고객 이탈 가능성을 우려하고 있다.김광수 은행연합회 회장은 올해 초 기자간담회에서 “은행 내부에서 거래 실적 등을 반영한 자체 신용평가를 이용해 신용대출 금리를 산출하는데, 이런 것까지 고려하면 금리 산출 정확도가 떨어져 플랫폼 이용에 대한 실효성이 높지 않을 것”이라고 말했다.카드사들은 ‘수수료’ 문제로 반기를 들었다. 카드론 등 카드사 대출은 중도상환 수수료가 없어 주로 단기 이용이 많다. 그런데 대환대출 플랫폼을 통해 한눈에 금리를 비교할 수 있게 되면 수수료가 없으니 낮은 금리를 찾아 빈번하게 대출을 갈아타는 현상이 나타나고, 대환대출을 통한 고객 이탈이 더 많이 발생할 수 있다는 지적이다.작년 7월 금융위원회가 구상한 '대환대출 플랫폼'./금융위원회 제공        이러한 기존 업계의 반발에는 빅테크나 IT 기반 금융 플랫폼 서비스 사업을 벌이는 후발주자에 주도권을 뺏길 수 있다는 우려가 깔렸다. 최근 인터넷전문은행 토스뱅크가 ‘카드론 대환대출 서비스’를 시장에 내놓은 지 약 한 달여 만에 운영을 잠정 중단한 것이 ‘대환대출’을 두고 벌인 업계 갈등의 단적인 예다.앞서 토스뱅크는 지난 5월 말부터 삼성카드 카드론을 대상으로 대환대출 서비스를 시범 출시했다. 이는 이용자가 개인정보 열람에 동의하고 인증서 정보를 입력하면 기존 삼성카드사에서 받은 대출 금리 등을 안내하고 토스뱅크 대출로 갈아탈 수 있도록 해주는 서비스다.카드론을 은행 신용대출로 바꿔주는 서비스를 시장에 내놓은 것은 토스뱅크가 처음이었다. 토스뱅크의 카드론 대환대출 서비스를 이용한 고객은 평균 7.75% 금리로 대출을 받았다. 다른 카드론 이용 시 금리와 비교하면 평균 6.83%포인트(p) 인하된 수준이다. 이에 따라 토스뱅크가 시범 운영을 거쳐 이르면 이달부터 카드론 대환대출 서비스를 확대 운영할 것으로 기대를 모았었다.기대에도 불구하고 서비스가 잠정 중단된 배경엔 고객 이탈을 우려한 카드사들의 거센 반발 탓이 크다는 게 시장의 지배적인 해석이다. 앞서 카드업계는 토스뱅크가 카드론 정보를 수집하는 과정에서 사용하는 ‘웹 스크래핑’ 방식이 보안 상 취약할 수 있다고 지적하기도 했다.한 시중은행 관계자는 “대환대출 플랫폼 사업에 카카오, 토스 등 빅테크·테크핀 기업들이 주도적으로 뛰어들 텐데, 기존 은행으로선 대출 상품, 고객 정보 등 은행이 가졌던 경쟁력을 빼앗기는 것이다 보니 반기지 않는 것”이라고 말했다.일각에서는 대환대출 플랫폼이 구축되면서 대환대출을 장려하게 되면서 대출을 부추기는 부작용이 생길 수 있다고도 지적했다. 한 은행 관계자는 “대환대출을 실행하면서 대출금을 기존보다 늘리는 ‘증액 대환’이 이뤄지면서 가계 부채를 외려 키울 수 있다”고 말했다.한 금융 플랫폼서비스 업체 관계자는 “정치권의 압박과 비판 여론을 감안하면 이번엔 은행 등 금융업계가 크게 반발하거나 거절하기는 쉽지 않을 것이라고 본다”면서 “금융소비자 입장에서는 불편한 대환대출 절차를 간소화할 수 있다는 점에서 나쁠 게 없다”고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[주요기업 IT투자현황②] 누가 적극적이었나…주요기업 정보보호 투자 현주소</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002127834?sid=105</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>디지털 전환이 기업의 화두가 되고 있는 가운데 이를 파악할 수 있는 중요한 지표가 공개됐다. 정보보호산업법 개정으로 국내 631개 주요 기업의 정보보호 등 ICT 투자지표가 공개됐다. 매출액 3000억원 이상, 일평균 이용자수 일정 수준 이상인 기업들이 해당 됐다. &lt;디지털데일리&gt;는 이번에 발표된 자료를 바탕으로 주요 산업군별 IT투자 현황 및 수준 등을 점검해본다 &lt;편집자 주&gt;[디지털데일리 이종현기자] 기업들의 정보보호 투자 규모 및 활동 내역이 공개됨에 따라 누가 더 기업 및 고객정보 보호에 많은 노력을 기울이는지 여실히 드러났다.   지난 30일을 마감으로 631개 기업이 2021년 정보보호 현황을 공개했다. 정보보호산업법 개정에 따른 조치로 ▲매출 3000억원 이상 상장사 ▲일평균 100만명 이상 서비스 제공자 ▲특정 산업군(ISP·IDC·CSP·상급종합병원) 등 598개 기업에게 공시 의무가 부과됐는데, 공시 의무가 없는 기업들도 일부 정보 공개에 참여한 상태다.   공개된 정보는 기업들의 정보기술(IT) 분야에 대한 투자액과 그중 정보보호 영역에 대한 투자액, 전담인력 등이다. 각 기업들이 정보보호에 얼마나 투자를 하는지 드러남에 따라 투자를 잘 하는 기업, 그렇지 않은 기업을 확인할 수 있게 됐다. 투자 내역은 자회사를 뺀 개별 기업 기준이다.  ◆정보보호 투자 잘한 기업, 안한 기업들 드러났다   공개 기업 중 정보보호에 가장 많은 투자를 한 것은 삼성전자다. 7조2664억원을 IT 부문에 투자했고 정보보호에는 6939억원을 사용했다. SK하이닉스가 투자한 526억원 대비 13배 이상이다. 두 기업의 작년 매출액 규모는 6.5배가량으로, 삼성전자가 매출규모 대비 정보보호에 대한 투자액이 2배 수준이다. LG전자는 정보보호에 454억원 투자했다.   공공기관, 금융회사는 정보보호 공시 의무 대상에서 제외됐다. 하지만 금융 애플리케이션(앱) ‘토스’를 제공하는 비바리퍼블리카, 토스뱅크를 비롯해 우리은행, 신한금융투자, 카카오페이 등 기업은 정보보호 투자 현황을 공시했다.   투자 규모는 우리은행이 405억원을 투입하며 가장 컸다. 다만 매출 대비 정보보호에 대한 투자를 많이 한 것은 토스 측이다. 두 기업의 매출 규모가 12배 이상 차이나는 데 반해 투자액은 그렇게까지 차이나지 않기 때문이다. 다만 1금융권의 경우 수십년간 꾸준히 정보보호에 투자를 해왔기 때문에 한해 만의 투자 규모로 그 수준을 판단하기는 조심스럽다.   이커머스 분야에서는 쿠팡의 투자액이 가장 높았다. 쿠팡은 작년 534억원을 정보보호에 사용했는데, 정보유출 등으로 홍역을 치렀던 만큼 투자 규모를 늘린 것으로 풀이된다. 정보보호 전담 인력은 170여명을 두고 있다. 반면 중고거래 플랫폼 기업 당근마켓은 정보보호에 3.7억원만을 투자한 것으로 확인됐다. 보안 전담인력도 1명뿐인데, 한창 커지는 기업인 만큼 선제적인 정보보호 투자 노력이 필요할 것으로 보인다.    네이버는 카카오 대비 2배가 넘는 350억원을 정보보호에 투자했다. 카카오는 140억원이다. 두 기업의 클라우드 계열사인 네이버클라우드와 카카오엔터프라이즈도 큰 차이를 보였다. 네이버클라우드는 280억원 카카오엔터프라이즈는 37억원을 정보보호에 투자했다. NHN은 정보보호에 76억원을 사용했다.   네이버클라우드가 총 임직원 798명인데 반해 카카오엔터프라이즈는 1078명이라는 점도 눈길을 끌었다. 이중 정보보호 전담 인력은 네이버클라우드가 69명, 카카오엔터프라이즈는 39명이다. 내년에는 클라우드 부문을 별개 회사로 독립한 KT클라우드, NHN클라우드까지 함께 살필 수 있을 전망이다. 2021년 기준 주요 기업들 정보보호 투자 현황  ◆ESG 외치는 기업들, 정보보호에는?   단순히 정보보호에 대한 투자액 규모로 판단할 문제는 아니다. 가장 많은 규모로 투자한 삼성전자는 지난 3월 LG전자와 함께 해킹조직 랩서스(LAPSUS$)에 의해 데이터 유출 사고를 경험했다. 현대사회에 100% 안전이란 존재하지 않는다고 해도 과언이 아니다.   그럼에도 이번 정보보호 현황 공개가 가지는 의미는, 각 기업이 얼마나 정보보호에 노력을 기울이고 있는지 나타내는 지표로 활용될 수 있다는 점이다. 각 기업의 매출 규모와 정보보호 투자액, 사고유무 등을 고려하면 ‘노력했지만 어쩔 수 없다’, ‘노력하지 않았다’와 같은 판단을 할 수 있다. 투자도 적었다고 보안사고를 겪을 경우 비판을 피하기 어렵다.   또 기업들의 브랜드 이미지 제고 및 신뢰성 확보 차원에서도 정보보호 투자는 중요하다. 대부분의 기업들이 고객정보를 요구·활용하고 있는데, 정보를 안전하게 다루지 못할 기업의 제품이나 서비스를 이용하는 이들은 드물 수밖에 없다. 기업의 보안사고로 해당 기업의 고객이나 파트너사가 피해를 입었다는 소식은 드문 일이 아니다.   비교적 투자가 미흡했던 기업들은 정보보호 투자 안 하는 기업이라는 낙인을 피하기 위해, 투자를 많이 했던 기업들은 경쟁 우위를 유지하기 위해 등 제각기의 이유로 각 기업들의 정보보호 투자는 확대될 것으로 예상된다. ‘정보보호에 투자를 많이 하는 기업’이라는 것은 그 자체가 브랜드 홍보 요소다.   최근 기업들이 ESG(환경·사회·지배구조) 경영을 강조하고 있다는 점도 이번 정보보호 현황 공개와 맞물릴 것으로 보인다. 기업 투명성 측면에서, 또 고객 및 자사 산업 생태계 보호 측면의 노력의 지표로도 볼 수 있기 때문이다. 의무 공시 기업이 아님에도 정보보호 현황을 공개한 토스와 신한금융투자, 카카오페이, 우리은행, SK쉴더스, SSG닷컴, 야놀자, 위대한상상(요기요) 등 기업은 공개하지 않은 경쟁사 대비 ‘보다 투명한 기업’이라고 평가할 수 있다.   정보보호 기업에게는 기회다. 윤석열 대통령이 국정과제로 사이버보안을 제시, 한-미 정상회담에서도 수차례 강조함에 따라 정부의 정보보호업계 육성 의지는 그 어느 때보다 강하다. 지난 2년여간의 코로나19 팬데믹부터 이어진 산업계 황금기가 이어질 것으로 전망된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>"나도 대박 나볼까"…큰손 자산가들이 수십억씩 투자하는 곳 [긱스]</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004720746?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.증권사 프라이빗뱅커(PB) 등을 활용한 '큰손' 자산가들의 스타트업 투자가 이어지고 있습니다. 최소 수십억원 이상의 자산을 가진 이들은 스타트업 등 비상장 기업에 큰 관심을 보이고 있습니다. 기업가치가 상승곡선을 그리는 시리즈B~C 단계 스타트업을 주요 타깃으로 투자하는 사례가 많습니다. 한경 긱스(Geeks)가 고액 자산가들은 어떤 방식으로 스타트업 투자를 하고 있는지 집중적으로 파헤쳐봤습니다. 게티이미지뱅크주식시장이 활황세를 보이던 2020년 말부터 주식·암호화폐에 투자해 수백억원대 자산가가 된 A씨(39)는 지난해 하나금융그룹 클럽원을 통해 대형 벤처캐피털(VC)이 만든 블라인드펀드에 20억원을 투자했다. 수십~수백억원대 자산가들이 잇따라 개인 자격으로 스타트업 투자에 나서고 있다. 구주 투자뿐만 아니라 VC와 같은 기관투자가들의 전유물이던 정규 투자 라운드에도 '큰손'들이 투자금을 베팅하는 사례가 속속 나타나고 있다.올 1분기까지는 전체적으로 '벤처 붐'이 지속되는 경향을 보였지만 최근 공모주 시장이 침체되면서 프리IPO(상장 전 지분투자) 단계를 시작으로 후기 스타트업들이 자금 조달에 점차 어려움을 겪고 있다. 이 과정에서 고액 자산가들이 증권사 자산관리(WM)센터 등을 통해 스타트업들의 구주를 할인된 가격에 활발히 매입하는 중이다.   '큰손' 개인 투자자들 눈길자료=한국벤처캐피탈협회중소벤처기업부에 따르면 올 1분기 신규 벤처투자액은 2조827억원 수준이었다. 종전 최대치인 지난해 1분기(1조3817억원)보다 58%나 늘어난 수치다. 1분기 실적이 2조원을 넘어선 것도 역대 최초다. 투자 건수(1402건)나 건당 투자 금액(14억9000만원), 투자기업 수(688개사) 등도 역대 가장 많았다.눈여겨볼 점은 개인 출자 금액이 5305억원으로 전년 동기보다 3배 이상 증가했다는 것이다. 이는 올 1분기 전체 벤처투자 출자의 20%가 넘는 금액이다. 개인은 VC가 만든 펀드에 출자하는 방식으로 벤처투자에 참여할 수 있다. 다만 대내외 악재가 겹쳐 기업공개(IPO) 시장이 주춤하자 프리IPO 규모는 쪼그라들었다. 마켓컬리를 운영하는 컬리는 지난해 말 2500억원 규모로 프리IPO를 유치했지만 이때 평가받은 4조원의 기업가치를 상장 시점에 인정받지 못하면 공모가 어려워질 수도 있다. 또 최대 1조원 규모의 프리IPO에 나선 토스(비바리퍼블리카) 역시 펀딩이 녹록지 않다. 직방은 3조원대 기업가치를 겨냥해 투자 유치에 나섰지만 이보다 수천억원 이상 눈을 낮춰 펀딩을 진행하고 있다.하나증권, 삼성증권 등 고액 자산가 대상 비상장주 투자 상품을 활발히 내놓는 증권사들은 스타트업 구주를 최대 30% 수준까지 싸게 들여오고 있다. 한 VC 대표는 "시장이 주춤했지만 투자자들 입장에선 오히려 저렴한 가격에 구주를 매입할 수 있는 기회로 여겨진다"고 설명했다.통상 일반적인 '개미'들의 벤처투자는 엔젤투자에 참여하는 방식으로 이뤄진다. 개인이 기업과 직접 접촉하거나 엔젤클럽 활동을 통해 투자하기도 하고, 49명 이하의 개인이 모여 100만~1억원씩 개인투자조합에 출자해 간접 투자하기도 한다. 다만 이 경우엔 시드(초기)~시리즈A 단계의 초기 스타트업들에 투자금이 집행된다. 또는 '증권플러스비상장' '서울거래비상장' '엔젤리그'와 같은 비상장 주식 전문 거래 플랫폼을 이용할 수도 있다. 최근엔 증권사 프라이빗뱅커(PB)를 활용한 '부자'들의 스타트업 투자가 이어지는 추세다. 수십억원대 이상의 자산을 가진 큰손들이 비상장 기업에 관심을 갖고 있는데, 기업가치가 급격한 상승곡선을 그리는 시리즈B~C 단계 회사들이 주요 타깃이다. 또는 상장 직전의 프리IPO 라운드에 참여해 빠르게 투자금 회수를 노리기도 한다. 지난해부터는 공모주 청약 시 균등 배정 제도가 도입돼 '돈 넣고 돈 먹기'식 투자가 어려워지면서 큰손들이 비상장 투자로 눈을 돌리는 경향이 더 심화했다고 한다.  하나 클럽원·삼성 SNI '주목'서울 삼성동 하나금융 클럽원 내부비상장 투자업계에선 하나금융그룹의 VIP 전용 WM센터인 '클럽원'이 가장 잘 알려져 있다. 클럽원은 부자들의 비상장 투자 메카로 불린다. 2017년 8월 문을 연 서울 삼성동 지점을 시작으로 지난해 6월엔 한남동 지점이 문을 열었다. 최소 이용 요건은 예탁자산 30억원 이상이다. PB 한 명당 관리하는 자산은 5000억원이 넘는다. 클럽원은 큰손 개인 투자자들에게 유니콘(기업가치 1조원 이상 비상장사) 기업의 구주를 사들일 수 있는 기회를 제공한다. 지난해엔 버킷플레이스(오늘의집) 구주 투자를 위해 자산가들로부터 130억원을 모집하기도 했다. 이때 거래는 버킷플레이스가 처음으로 1조원대 기업가치를 인정받은 의미 있는 '딜'이었다는 평가다. 최근엔 직방의 구주 투자자도 모집했다. 2020년엔 클럽원이 당시 상장 전이던 크래프톤의 구주 투자를 위해 170억원을 모집했다. 크래프톤은 지난해 8월 상장했는데 이때 투자했던 사람들은 1년여 만에 투자 원금의 5배에 달하는 '잭팟'을 터뜨렸다. 클럽원은 지난해 총 56건, 5692억원을 투자했다. 최근엔 직방의 프리IPO 라운드에도 참여해 100억원 이상을 베팅했다.VC가 만든 블라인드펀드에 출자금을 대는 방식으로 스타트업의 신규 투자 라운드에 참여할 수도 있다. 클럽원은 이미 IMM인베스트먼트, DSC인베스트먼트 등 국내 유수의 VC가 만든 펀드에 출자할 수 있는 상품을 고액 자산가에게 선보이기도 했다. 블라인드펀드부터 시리즈A~프리IPO 단계까지 위험 정도별로 투자 대상을 나눠 포트폴리오를 구성했다.스타트업 액셀러레이터(AC)인 블루포인트파트너스는 지난해 하반기 삼성증권과 함께 '삼성신탁블루포인트2021개인투자조합'을 만들었다. 이 상품은 자산 30억원 이상의 '큰손'들 40명이 출자해 114억원 규모로 결성됐다. 현재 정보기술(IT) 분야 2개사, 제조업 분야 2개사 등 총 4개 회사에 투자가 집행된 상태다.이 상품이 고액 자산가들로부터 인기를 끌자 블루포인트파트너스와 삼성증권은 2호 조합도 내놨다. 168억원이 몰렸다. 최소 가입금액이 3억원임에도 관심이 뜨거웠다. 1호와 2호 상품 모두 창업 3년 이내의 벤처기업에 50% 이상 투자해야 한다는 조건을 갖고 있다. 투자 자산은 보통주·우선주 혹은 메자닌(CB·BW)이다. 삼성증권은 2019년 5월 중견 VC인 인터베스트와 손잡고 '2019크로스보더바이오벤처투자조합'을 출시하기도 했다. 이 상품은 총 270억원 규모로 만들어졌는데, 이 중 6%인 16억원가량을 SD바이오센서에 투자했다. 지난해 SD바이오센서가 IPO에 성공하면서 수익률은 17배에 달했다. 투자 원금은 이미 회수됐고, 나머지 약 250억원에 대해선 추가 수익을 실현하고 있다. 또 유진투자증권은 VIP 대상 WM센터인 챔피언스라운지를 통해 지난해 두나무에 투자하는 프로젝트펀드를 내놔 개인 투자자들의 자금을 받았다. 이 상품은 사흘 만에 완판됐다.  기관투자가급 대우받는 고액 자산가들게티이미지뱅크삼성증권은 2020년 금융 자산 1000억원 이상의 초고액 자산가를 대상으로 패밀리오피스 서비스도 내놨다. 개인 큰손들에게 기관투자가급 서비스를 제공한다. 이 패밀리오피스는 지난해 초 1조2000억원 규모로 진행된 케이뱅크의 유상증자에서 400억원의 물량을 확보해 개인에게 제공했다.  당시 케이뱅크는 유상증자 과정에서 내년까지 IPO를 하지 못하면 최대주주인 비씨카드가 재무적 투자자(FI)들에게 투자금의 연 5%의 수익을 보장하면서 지분을 사주는 콜옵션 등을 부여했다. 이때 삼성증권 패밀리오피스의 개인 고객들도 동일하게 조항을 적용받았다. 고액 자산가들이 기관투자가와 동일한 대우를 받는 경우가 생기면서 벤처투자에도 힘쓸 수 있는 환경이 조성됐다는 평가다. 소득공제 혜택 역시 큰손의 관심을 끌어들인 것으로 분석된다. 조합을 이용한 비상장 주식 투자 시 3000만원 이하 금액까지는 100%, 5000만원까지는 70%, 5000만원을 넘는 금액에 대해서는 30%까지 소득공제 혜택이 적용된다. 한 VC 대표는 "세제 혜택이 있는 덕분에 일단 돈을 넣은 뒤 원금만 건져도 수익을 얻는 셈"이라며 "다만 초기 스타트업들은 여전히 '고위험 고수익'이기 때문에 리스크는 짊어져야 한다"고 말했다. 투자업계에선 이 같은 현상을 두고 "스타트업 투자에 대한 인식이 달라졌다는 것을 단적으로 보여주는 것"이라고 입을 모은다. 백혜진 삼성증권 SNI 전략담당 상무는 "미디어 환경이 발달하면서 상장 주식에 대한 정보 비대칭성은 많이 해소됐지만, 비상장주 투자는 여전히 '닫혀 있는' 경향이 있어 큰손들이 스타트업 투자에 몰리고 있다"며 "주식, 코인 투자 등으로 '잭팟'을 터뜨렸거나 엑시트에 성공한 스타트업 오너들이 투자에 많이 참여한다"고 설명했다.다만 공모 시장의 영향을 많이 받는 만큼 리스크가 작지 않다는 게 전문가들의 설명이다. 또 상장 주식만큼 유동성이 크지 않아 장이 나빠지더라도 쉽게 매도할 수 없다는 점도 리스크다. 소수의 프리IPO 거래를 제외하곤 최소 몇 년 이상 기다려야 하는 '장기 투자'의 영역이란 점도 기억해야 할 요소라는 설명이다. VC업계 관계자는 "최근 후기 투자를 중심으로 벤처투자 시장에도 위축이 나타나면서 '셀러 마켓'에서 '바이어 마켓'으로 전환되는 조짐이 나타나고 있다"며 "이럴 때일수록 낮은 밸류에이션의 프리IPO 딜 같은 저위험 영역 투자에 접근한 뒤 순차적으로 리스크를 높여나가는 방향으로 투자하는 게 요령"이라고 설명했다. 이어 "사모펀드는 종목 수가 많을수록 시장의 영향을 덜 받는 만큼 검증된 전문기관을 통해 체계적인 포트폴리오를 구성하는 게 중요하다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>[알쏭달쏭 금융약관]토스뱅크 연 2% 이자 모두 받으려면</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008910?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>묵혀만 두면  5년 뒤 복리효과 사라져1억원 넘긴 예금에는 이자율 연 0.1%뿐깨알 같은 글자들로 빼곡하게 적힌 금융상품 약관, 차근차근 읽어보신 적 있나요? '모두 동의' 단추 누르기에 바빠 쭉 흘려내려보고 마는 경우가 많죠. 하지만 약관은 중요한 '계약서'랍니다. 내 돈을 지키려면 꼭 알아둬야 할 내용들이 담겼죠. 금융상품에 가입할 때 놓치기 쉬운, 그러나 꼭 알아둬야할 약관 속 숨은 내용들을 함께 들여다보시죠. [편집자]요즘 토스뱅크 통장 많이 쓰시죠? 지난해 10월 이 인터넷은행이 출범하면서 자유롭게 입금과 출금이 가능한 수시입출금식 예금에 연 2%라는 꽤 높은 금리를 책정했죠. 그래서 사용자가 순식간에 불어났다고 해요. 토스뱅크에 따르면 올해 1분기 말 기준 이 상품에만 21조원가량이 몰려 있다고 하네요. 그런데 이 통장 가입할 때 약관은 꼼꼼하게 읽어 보셨나요? 토스뱅크는 아직 돌도 지나지 않았기 때문에 현재까지는 큰 문제가 없을 겁니다. 하지만 시간이 지나면 내가 예상했던 것보다 더 적은 금액의 이자를 받았을 수도 있어요. 따라서 이 상품을 통해 최대한의 금리 혜택을 누리려면 약관을 꼼꼼하게 따져봐야 합니다.토스뱅크 통장 가입시 확인해야 하는 약관과 상품설명서는 총 4개입니다. △예금거래기본약관 △입출금이자유로운예금(상품명) 약관 △토스뱅크 통장 특약 △토스뱅크 통장 상품설명서 등이에요. 이 약관들에서 중요하게 확인해봐야 할 점을 짚어보겠습니다.2% 이자 언제 받지?토스뱅크 통장은 1억원 이하의 예금에 대해 연 2%의 금리로 이자를 지급합니다. 이자는 매달 지급되며 이자를 산정하기 위한 원금은 이자계산일 기준 잔액을 기준으로 합니다. 즉 최초 가입금액을 기준으로 매달 이자를 지급하는 것이 아닌 매달 이자 산정을 위해 원금을 재산정하는 '복리식' 상품입니다. 이는 '입출금이자유로운예금 약관'에 약관의 적용을 받는 예금의 이자는 각 상품별 특약에서 정하고 있는 이자 계산 기준일에 셈하여 각 상품별 이자지급일(이자 계산 기준일 익일)에 원금을 더합니다라고 명시돼 있어요.그렇다면 토스뱅크가 정한 이자 지급 날짜는 언제일까요? 토스뱅크는 이자 지급일을 매월 세번째 토요일이라고 약관에 명시하고 있습니다. 이자 계산을 위한 기준일은 이자 지급일 전일이라고 하니 매월 세번째 금요일이 되겠네요. 지금은 아니지만 시간이 오래 지났을 때 주의해야 할 점도 있습니다. 이 상품의 약관에는 위의 이자지급을 제외한 최종거래일로부터 5년 이후부터는 이자를 원금에 더하지 않고 계좌해지 또는 추가입출금거래발생일에 일괄 계산해 이자를 지급한다고 합니다. 다시 말해 예금에 가입해 두고 추가적인 거래가 5년 동안 없으면 복리 적용을 받지 못한다는 겁니다. 이에 따라 계산되는 이자는 추가 거래가 발생하거나 계좌를 해지하는 경우에 한 번에 준다는 이야기입니다. 다만 이는 토스뱅크 통장만의 이야기는 아닙니다. 이 내용은 휴면예금(오랫동안 방치해 온 통장을 의미합니다)과 관련된 약관으로 해당 약관은 다른 은행 예금과 적금에도 포함돼 있습니다.1억원이 넘으면 이자는?앞서 말했듯이 토스뱅크 통장의 금리 연 2%는 1억원까지만 적용돼요. 이는 토스 통장 사용설명서에 명시돼 있습니다. 그럼 1억원을 예치해 두고 1달이 지날 경우에는 이자로 세금(통상적인 예금과 적금에는 이자 수익금의 15.4%가 과세됩니다)을 떼고 난 14만1000원이 들어올겁니다. 통장잔액은 1억14만1000원이 되겠네요.그럼 이후 이자는 어떻게 계산할까요? 일단 1억원에 대해서는 2%금리가 계속 적용이 됩니다. 다만 1억원을 넘어선 14만1000원에 대해서는 0.1%의 금리만 적용되요. 따라서 1억원을 예치한 후 2개월 째에는 1억원에 대한 2% 이자 14만1000원에 더해 1억원을 초과했던 14만1000원에 대한 이자 0.1%에 해당하는 10원이 들어오는 셈입니다. 1억원을 예치한 이후 2개월이 되는 시점에 내 토스뱅크 잔액은 1억28만2010원이 되겠네요.그런데 중요한 점이 있어요. 토스뱅크의 현재 수신상품은 수시입출금식 통장인 토스뱅크 통장과 키워봐요 적금 크게 두 가지인데, 토스뱅크 통장에 연계된 또 다른 금융상품이 있다는 점입니다. '토스뱅크 모으기'라는 서비스가 주인공입니다. 토스뱅크 모으기 상품설명서를 살펴보면 이 상품은 '토스뱅크 입출금이 자유로운 예금 약관'이 적용된다고 적혀있어요. 즉 이 서비스를 이용해 돈을 모은다면 이는 토스뱅크 통장 잔액으로 인정이 된다는 말입니다.  이 상품은 최대 30개까지 공간(계좌와 안의 계좌와 비슷한 개념입니다)을 설정해 따로 목적에 맞게 수시입출금식 통장 안에 있는 돈을 떼어 둘 수 있는 서비스입니다. 그러니 이자 지급 잔액은 토스뱅크 통장 잔액과 합산해 계산됩니다.따라서 기존 토스뱅크 통장과 토스뱅크 모으기 서비스를 통해 예치한 잔액 총액을 확인해야 내가 받아야 하는 정확한 이자를 계산할 수 있다는 얘기입니다.매일 주는 이자는 어떻게 계산할까토스뱅크는 요즘 말로 아주 '신박한' 서비스도 내놨습니다. 바로 매일 이자 받기 서비스인데요. 그럼 이 이자는 어떻게 계산하는 걸까요?토스뱅크 특약에 정답이 나와 있습니다. 이 오늘의 이자받기' 서비스는 금액 구간에 해당하는 매일의 최종잔액에 금액 구간별 적용 이율을 365로 나누어 산출한다고 쓰여 있네요. 하루에 받는 이자를 산출하는 방법입니다. 앞서 말했듯이 토스뱅크는 매달 셋째주 토요일을 이자 지급일로 정하고 있어요. 그런데 이 이전에 이자를 받기 희망한다면 '달'이 아닌 '일'로 이자를 계산해야겠지요? 이 때문에 365로 나누어 계산하는 겁니다.따라서 7월 1일날 5000만원을 예금한 사람은 7월 22일날 4만7000원가량에 해당하는 이자를 받을 겁니다. 가입 첫 달이라 1개월치의 이자가 온전하게 지급은 되지 않아서입니다.이 고객이 7월 15일에 이자받기를 누른다면 1년간 지급받아야 하는 이자 85만3798만원(월복리 기준)을 365로 나눈 14일치 지급하는 구조겠네요. 이자지급일은 전일의 잔액을 기준으로 하기 때문에 14일치의 이자를 받는 겁니다. 토스뱅크의 계산식을 토대로 셈해보면 2339원 가량이니까 3만2748원가량의 이자를 받게 됩니다. 그럼 그 이후에는 어떻게 될까요? 이 고객은 5003만2748원에 대한 이자를 받게됩니다. 이 상품은 복리식 상품이라 원금이 이자지급일 이전날 잔액으로 산정이 되기때문입니다. 7월 16일에 또 그날의 이자받기를 누른다면 2430원가량의 이자가 들어오게 됩니다. 15일보다 하루 이자가격이 1원 높지요? 이는 원금이 5003만2748원으로 늘어났기 때문입니다.그럼 그 이후에 '그날의 이자받기'를 누르지 않는다면 어떻게 될까요? 토스뱅크 통장은 매월 세번째 토요일날 이자를 지급하고 이를 산출하기 위한 통장 잔액 기준은 세번째 금요일날 진행합니다. 아울러 토스뱅크 통장 약관에는 이자지급일부터 다음 이자지급일 전날까지의 기간을 이자계산기간으로 한다고 명시돼 있습니다. 따라서 위 고객의 경우 7월17일부터 7월22일까지가 이자계산을 위한 날짜로 사용되겠네요. 약 6일 동안 예치된 금액에 대해 연 2.0%의 금리를 적용해 이자를 받는 겁니다. 그렇다면 매일 이자받기 서비스를 이용하는 것과 이용하지 않을 때에는 기대할 수 있는 이자는 차이가 있을까요? 네 있습니다. 토스뱅크 통장은 '일복리' 상품이라 이자가 전일 잔액기준으로 산정이 되기 때문입니다. 따라서 매일 이자받기를 누르면 이자산정을 위한 원금이 늘어나는 효과가 있는 거죠.따라서 맨 처음 5000만원을 토스뱅크 통장에 넣어뒀다면 1년 뒤에는 85만3798원가량의 이자가 쌓여있답니다. 반면 매일 꼬박꼬박 이저받기를 눌렀을 경우에는 기대할 수 있는 이자는 약 85만4000원 가량이 돼 있을 겁니다. 매일매일 조금이나마 원금이 늘어난 까닭입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>물가 상승세 진짜 꺾였나? 美 화물 운임 2년 만의 '역전 현상'</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004769542?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>[트럭 현물 운임 장기계약 운임보다 싸져, 경기둔화 우려 속 수요 감소로 인한 하락…운송업체들 "팬데믹 전보다 여전히 높아"]/AFPBBNews=뉴스1코로나19 팬데믹(세계적 대유행) 이후 나타난 수급 불균형에 지난 2년간 치솟았던 미국 화물 운송비용이 하락하고 있다. 팬데믹발 수요 급증과 공급 부족으로 촉발됐던 가파른 물가상승률(인플레이션)이 최근 원자재 가격 하락 등으로 둔화했다는 분석에 힘을 싣는다.10일(현지시간) 월스트리트저널(WSJ)은 과거 운송인력·재고 부족으로 높은 가격에서 체결됐던 장기 화물 운송 계약이 힘을 잃어가고 있다고 보도했다. 미국 화물 운송비용은 앞서 수요가 늘고 운송인력은 부족하자 크게 뛰었다. 하지만 최근 가파른 물가상승률(인플레이션)과 연준(연방준비제도)의 긴축 강화로 수요가 줄면서 컨테이너 현물 운임이 추락하기 시작했고, 일부 업체들은 기존의 계약을 파기하고 운송비를 낮춰 재협상에 나서고 있다. 온라인 화물 마켓플레이스인 DAT솔루션에 따르면 미 트럭 현물 운임은 올해 상반기에만 22% 하락했으며, 5월에는 2년 만에 처음으로 현물 운임이 장기 계약 운임보다 싸졌다. 미국에서 가장 일반적으로 사용되는 화물트럭의 유형인 드라이밴의 6월 현물 운임 비용은 마일(1.6km)당 2.76달러로, 평균 장기 계약 요금(마일당 2.93달러)보다 17센트가 낮았다.  미국 대형 수입업체의 한 관계자는 "몇 달 전 체결한 해상 계약 요금을 (최근 하락세에 맞춰) 15~20% 낮췄다"며 연말 추가 인하를 예상한다고 WSJ에 말했다. /AFPBBNews=뉴스1화물 운송 전문가들은 "해상·트럭 등 운송 전반에 걸쳐 다양한 요인이 (운송) 요금을 낮추고 있지만, 수요 감소가 최대 요인"이라며 "현물 시장에서 먼저 나타난 하락세는 향후 장기 계약 운임 하락으로 이어질 것"이라고 전망했다.화물 운송비용 감소는 팬데믹 후 2년간 고물가에 시달렸던 제조·소매업체가 반길 희소식이다. 또 화물 운송 분야의 물가상승 기여도도 낮아짐에 따라 인플레이션이 둔화하고 있다는 것으로 해석할 수 있다. 시장 및 경제 분석가들은 40년여 만에 최고치로 치솟은 미국 물가상승률의 주요 원인이 팬데믹발 공급난과 러시아-우크라이나 전쟁으로 인한 에너지 위기에 따른 운송·식품 가격 상승으로 보고 있다.그러나 화주들은 여전히 팬데믹 이전보다 많은 수준의 운임을 지불하고 있다고 지적한다. 온라인 화물운송 가격 서비스업체인 프레이토스(Freightos)에 따르면 지난 6일 기준 중국에서 출발하는 미국 서부 해안행 해상 현물 운임은 팬데믹 이전인 2019년 7월보다 4배 이상 높았다. 이와 관련 DAT솔루션의 크리스 캐플리스는 유가 하락 없이는 화물 운송 분야의 인플레이션 둔화를 논할 수 없다고 주장했다. 캐플리스는 "현물 운임이 내려감에 따라 올해 (장기)계약 운임도 하락할 것으로 예상된다"면서도 "디젤(경유) 가격이 내려가지 않는 한 화주들은 (운임 하락의) 혜택을 받지 못할 것이다. 운임은 내려가고 있지만, 운송업체에 대한 유류할증료로 요금 인하 효과가 사라지고 있다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>“어디서 대출 받을까” 비교플랫폼 봇물</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004862771?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>금리인상기 서비스 수요 확대인터넷은행 새 수익활로 부상토스뱅크·핀다 등 가파른 성장  인터넷은행 등 비대면 플랫폼을 주축으로 금융상품 비교 서비스가 늘어나고 있다. 금리 상승기에 조금이라도 더 유리한 금리로 대출받고자 하는 대출자들의 심리에 따른 결과다.   5일 금융권에 따르면 토스뱅크는 고객 맞춤형 금융상품 추천 서비스 출시를 앞두고 있다. 시장의 금융 상품을 한데 모아 고객 개개인에게 가장 유리한 대출 상품을 추천해주는 것이다. 비교 대상은 제휴를 맺은 금융사들의 대출 상품이다.   홍민택 토스뱅크 대표는 지난달 28일 '미디어데이' 행사에 참석해 "시장에 있는 좋은 상품들을 발굴해 토스뱅크 고객들이 더욱 현명하게 투자하거나 더 좋은 상품에 예치할 수 있도록 준비하고 있다"고 말했다.   기존 제공하던 서비스를 확장하려는 노력도 꾸준하다. 앞서 핀다, 핀크, 토스, 카카오페이를 비롯한 14개 플랫폼은 금융당국의 혁신금융서비스 인가를 받아 관련 서비스를 제공하기 시작했다. 이들은 금융사와 제휴를 늘려가고 있으며 이들 플랫폼을 통한 대출 실행액도 느는 추세다.   가령 가장 많은 금융기관과 제휴를 맺은 핀다는 62개의 금융기관, 200여개의 대출 상품을 중개한다. 지난 5월 말 하나은행과 제휴를 맺으면서다. 누적 대출 승인액도 최근 1000조원을 돌파하며 성장세가 가팔라졌다.   핀다 관계자는 "목표치는 정해두고 있지는 않다"며 "연계된 금융사 개수를 계속 늘리고 있다"고 전했다.   토스 역시 제휴사를 52개사로 늘렸으며, 올해 1~5월 월평균 대출 실행액이 지난해 월평균 대비 약 81% 증가했다고 지난달 밝힌 바 있다.   이처럼 모바일에 기반을 둔 플랫폼이 대출 비교 서비스 출시 혹은 확장에 속속 나서는 것은 금리 인상기를 맞아 대출 금리나 한도를 보다 꼼꼼히 따지고자 하는 고객 수요가 높아졌기 때문이다. 코로나19 영향으로 모바일, 비대면 플랫폼이 보편화되면서 서비스 접근성이 좋아진 점도 한 몫했다.   특히 인터넷은행에게 금융상품 비교 서비스 확장은 좋은 수익 모델이 될 수 있다는 기대도 나온다. 예대마진을 통한 이자수익 외 비이자수익을 늘릴 수 있는 환경을 만들어주기 때문이다.   토스뱅크 관계자는 "(인터넷은행은) 가계 금융만 하다 보니 예대마진 성장 규모가 크지 않다"며 "수익을 위한 다양한 활로를 모색하고 있다"고 설명했다.   다만 대출 비교 서비스가 일부 금융사의 일부 상품에 한정된 점은 한계로 지적된다. 제휴 금융사에 KB국민은행과 NH농협은행 등 주요 시중은행이 포함되지 않았고, 취급 상품도 신용 대출 상품에 치중된 경향이 있다는 것이다. 주택담보대출 금리 비교에 특화된 서비스를 제공하는 플랫폼 담비도 5대 은행 주택담보대출 상품을 중개하지 않고 저축은행과 캐피탈 등의 상품을 주로 취급한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>취업희망 금융기업 1위 '카뱅' 이어 KB국민은행, 토스</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003028189?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 대학생이 일하고 싶은 금융기업 1위에 올랐다. 높은 연봉과 기업 성장 가능성이 매력적인 요소로 꼽혔다. KB국민은행은 2위로 순위가 하락했다. 3위에는 토스를 운영하는 비바리퍼블리카, 4위는 카카오페이가 각각 차지하며 인터넷전문은행과 핀테크가 강세를 보였다.인크루트가 전국 대학생 1056명을 대상으로 조사한 '2022 대학생이 뽑은 일하고 싶은 금융기업' 온라인 설문에서 카카오뱅크(16.5%)가 1위를 차지했다. 카카오뱅크는 2020년 1위, 2021년 2위에서 올해 1위를 탈환했다. 카카오뱅크를 선택한 이유로 '만족스러운 급여와 보상제도'(19.0%)를 가장 많이 꼽았다.지난 3월 공개된 카카오뱅크 임직원 평균 연봉은 1억5000만원대(스톡옵션 행사이익이 보수총액에 반영)로 업계 최고 수준으로 알려져 기업 선택에 영향을 미쳤을 것으로 풀이된다. 이어 '기업의 사업가치와 성장가능성이 유망함'(14.9%)을 이유로 꼽았다.작년 조사에서 1위였던 KB국민은행(12.2%)은 올해 한 계단 하락한 2위를 기록했다. KB국민은행은 취업 선호 이유로 '동종업계와 지역사회에서 선도기업 이미지'(38.8%)가 가장 많이 언급됐다.국민은행은 오후 4시까지인 영업점 운영시간을 오후 6시까지 연장 운영하는 형태 특화지점 '9 투(To) 6 뱅크'를 운영하며 고객접점을 확대하고 새로운 시도를 한 것이 높은 평가를 받은 것으로 해석된다.3위는 종합금융플랫폼인 토스(10.9%)였다. 핀테크 스타트업 비바리퍼블리카가 운영하는 토스를 꼽은 데는 '기업의 사업 가치와 성장 가능성이 유망함'(19.1%)을 가장 큰 이유로 꼽았다. 뒤를 이어 4위는 카카오페이(8.7%), 5위는 신한은행(7.7%), 6위는 작년 대비 두 계단 오른 NH농협은행(6.0%)이 이름을 올렸다. 7~10위는 한국투자증권(4.0%), 우리은행(3.8%), KB증권(3.5%), 국책은행인 IBK기업은행(3.3%)이 각각 차지했다.서미영 인크루트 대표는 “대학생들은 연봉과 직업의 안정성만큼 미래 비전이 있는 기업에서 느낄 동기부여도 가치있게 생각했다”면서 “경영실적은 물론 비전제시 능력이 뛰어난 기업일수록 대학생들에게 많은 관심을 받을 것”이라고 말했다.올해 5월 20일부터 6월 19일까지 진행한 이번 설문조사 대상기업은 시중은행과 국책은행, 인터넷전문은행, 증권사, 핀테크 기업 등 40곳이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>빅테크에 배운다… 이승건 대표 초대한 윤종규 회장</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000830043?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>윤종규 KB금융그룹 회장이 지난 1일 개최된 '2022 하반기 그룹 경영전략회의'에서 경영진을 대상으로 특강을 하고 있다. /사진=KB금융 윤종규 KB금융지주 회장이 하반기 그룹의 경영전략회의를 논의하는 자리에 이승건 비바리퍼블리카 대표를 초대했다. 혁신의 대명사로 통하는 최고 경영자(CEO)의 경험담을 통해 새로운 아이디어를 얻자는 취지다. 디지털금융이 대세로 떠오른 가운데 국내 금융회사가 빅테크와의 다른 DNA를 공유함으로 새로운 미래금융에 대비하는 것으로 풀이된다. 7일 금융권에 따르면 KB금융은 지난 1일 2022년 하반기 그룹 경영전략회의에 이승건 대표를 초빙해 강연을 열었다.코로나19 이후 2년 반 만에 대면으로 진행된 이날 회의는 윤종규 회장, 이재근 KB국민은행장 등 비롯한 경영진 270여명이 참석해 상반기 실적을 리뷰하고 하반기 전략을 공유하는 중요한 자리로 경쟁사 대표를 초청하는 것은 다소 이례적이다. 이 대표는 1시간 남짓한 시간 동안 토스의 성공스토리와 혁신 과정 등을 설명하고 금융시장 변화에 따른 새로운 가치 창출의 노하우 등에 대해서도 언급했다.KB금융 관계자는 "경영전략회의가 2년여 만에 대면방식으로 개최되면서 더 활발하고 실질적인 논의가 진행될 수 있었다"며 "경영환경의 불확실성이 높아지는 시점에서 그룹이 나아갈 방향을 공유하고 구체적인 실행방안들을 머리를 맞대고 도출했다는 점에서 큰 의미가 있었다"고 말했다. 지난해 초 우리은행도 상반기 경영전략을 직원과 공유하는 자리에 윤호영 카카오뱅크 대표를 초청해 특별강연을 들었다. 진정한 디지털 혁신을 실현하려면 경쟁사의 우수한 점도 배워야 한다는 취지에서다. 최근 국내 금융회사는 이종산업과 동종업계를 아우르는 전방위적 협업에 나서고 있다. 산업간 경계가 모호해지는 미래 금융시장에서 도태되지 않으려면 금융회사도 스스로 울타리에서 벗어날 필요가 있다는 위기의식이 반영된 것으로 풀이된다. 금융권 관계자는 "이제는 업종 간의 벽이 무너지고 경쟁과 협력을 통해 서로의 이익을 극대화하는 코피티션(협력적 경쟁)의 시대"라며 "경쟁사는 물론 핀테크, 이종업종 간의 협업 사례가 더욱 더 늘어날 것"이라고 말했따.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>상장 릴레이? 상장 딜레이!…토스·무신사·야놀자 IPO 연기</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004722377?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>유니콘 기업들 전전긍긍몸값 자진 삭감하며 자금 수혈보로노이·쏘카 등 기업가치 낮춰기업공개(IPO)를 앞둔 유니콘 기업(기업가치 1조원 이상 스타트업)들이 상장 일정에 차질이 빚어질 가능성에 조바심을 내고 있다. 공모시장은 물론 상장 직전 프리 IPO 등 자본시장 전반에 걸쳐 자금줄이 마르면서다.10일 투자금융(IB)업계에 따르면 토스뱅크 운영사 비바리퍼블리카는 내년을 목표로 했던 상장 일정을 2~3년가량 늦추기로 결정했다. 앞서 시행한 프리 IPO 라운드에서 1조원 규모의 투자를 유치하려 했지만, 예상보다 싸늘한 시장 반응 탓에 딜 클로징이 미뤄지면서다.온라인 패션 플랫폼 무신사 역시 올해 하반기 주관사를 선정하고 이르면 내년 상반기 IPO에 나설 계획이었지만 시장 상황을 감안해 내년 이후 IPO 일정을 다시 수립하기로 했다. 펀딩을 한 차례 더 진행해 IPO에 나설 시간적 여유를 확보할 예정이다.쿠팡 이후 두 번째로 미국 나스닥시장 상장을 꾀하던 여행·숙박 예약 플랫폼 야놀자도 최근 시장의 눈높이가 크게 낮아지자 상장 계획을 재검토하고 있다는 후문이다. 지난해 야놀자가 소프트뱅크로부터 2조원의 투자를 유치할 당시 기업가치는 10조원으로 평가받았으며, 시장에선 상장 후 기업가치가 최대 30조원까지 치솟을 것이란 기대가 컸다. 하지만 최근 장외시장에서 야놀자 기업가치는 7조원 수준으로 쪼그라들었다.공모 시장에서 자금 흐름이 기대치를 밑돌자 유니콘 기업들이 상장 일정을 하나둘 미루는 모습이다. 투자 심리가 급랭한 가장 큰 원인은 국내외 주식 시장의 침체다. IB업계 관계자는 “최근 2~3년간 IPO 시장이 호황기를 맞으면서 유니콘 기업이 외부 투자 유치부터 IPO까지 순탄하게 진행할 수 있었던 호시절은 지나갔다”며 “투자금 회수가 만만치 않아진 만큼 투자자의 심사 잣대도 한층 높아졌다”고 말했다.얼어붙은 시장 상황에서도 IPO를 강행하는 유니콘 기업들은 자진해서 기업가치를 낮추는 선택을 했다. 운영자금 마련을 위한 외부 자금 수혈이 필수적인 만큼 기존 투자자를 설득해 상장을 최우선 목표로 잡은 결과다.‘유니콘 특례 상장 1호’로 도전한 보로노이는 지난 3월 수요예측에서 흥행에 실패하자 재도전에 나서면서 공모가 기준 시가총액을 5000억원대로 내려 잡았다. 지난해 8월 프리 IPO 투자를 유치할 당시 인정받은 기업가치(7000억원)보다 낮은 몸값이다. 올 8월 공모를 진행하는 쏘카 역시 공모가 하단 기준 시가총액이 1조1000억원대로 3월 롯데렌탈로부터 투자를 유치할 때 인정받은 기업가치(1조3000억원)보다 낮은 수준이다.당분간 성장성으로 주목받는 플랫폼 스타트업의 자금 조달은 차질이 빚어질 가능성이 높다는 게 시장의 지배적 관측이다. 유니콘 기업에 대한 ‘투자자 우위 시장’이 형성된 상황에서 이미 많은 적자를 내는 회사들이 시장에서 예전처럼 높은 가격을 인정받기 쉽지 않다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>대형 카드사도 뛰어든 BNPL…편리하지만 연체 확대 우려도</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001538008?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>현대카드, 국내 카드사 최초 BNPL 서비스 개시신용이력 부족한 2030에서 인기채무 급증 우려도현대카드는 5일 국내 카드사 최초 '후불결제 서비스' 개시했다고 밝혔다. 현대카드 제공미리 물건을 사고 결제는 나중에 하는 이른바 ‘선구매 후결제(BNPL·Buy now pay later)’ 시장이 활기를 띠고 있다. 지난달 글로벌 IT 공룡 애플이 뛰어들더니 국내 대형 금융사인 현대카드도 카드사 최초로 시장 진출을 선언했다. 가입 절차 간소화 등 장점으로 소비자층을 확대할 수 있다는 점에서 기업들이 앞다퉈 뛰어들었지만 자금 여력이 부족한 이들이 결제 대금을 갚지 못해 채무가 급증할 것이란 우려도 나온다.5일 현대카드는 국내 카드사 중에서는 처음으로 BNPL 서비스를 개시했다. 현대카드는 무신사가 운영 중인 한정판 마켓 ‘솔드아웃’에 후불결제 서비스 ‘카드 없이 분할결제’ 기능을 탑재했다. 현대카드 관계자는 “카드없이 분할결제는 신용이력이 부족해 금융 서비스를 이용하기 힘들었던 ‘씬파일러’를 위한 서비스”라고 밝혔다.BNPL은 상품을 먼저 구매하고 비용 결제를 나중으로 미루는 일종의 단기 금융 서비스다. 구조적으로 신용카드와 유사하다. 그러나 신용카드를 이용하려면 까다로운 발급 절차를 거쳐야 하는 반면 BNPL은 비교적 가입 절차가 간소하다. 통상 회원비가 별도로 없다는 점에서도 차이가 있다.외국에서는 일찌감치 BNPL 시장이 활성화됐다. 클라르나는 2005년 스웨덴에서 설립된 대표적인 BNPL 기업으로 총 45개국에서 가맹점 40만개를 보유하고 있다. 이용자가 1억4700만여명이고 하루 평균 결제 건수는 200만건에 달한다. 지난해 1월 미국 나스닥에 상장된 어펌은 페이팔 공동 창업자인 맥스 레브친이 설립한 업체로 지난해 8월 세계 최대 전자상거래업체 아마존과 제휴를 맺기도 했다.국내에서는 전자금융거래법 규제 속에 신용카드사만 후불 결제가 가능했지만 지난해부터 규제 특례(규제 샌드박스)가 생기면서 플랫폼 사업자들의 BNPL 진출이 가능해졌다. 현재 네이버파이낸셜, 카카오페이, 토스 등 기업들이 시장에 뛰어든 상태다. 다만 국내에선 아직 30만원 한도의 소액 결제만 가능하다.신용카드가 없거나 지갑이 얇은 2030 세대가 BNPL의 주 이용층이다. 국내 BNPL 서비스 업체 ‘소비의미학’의 BNPL 결산 보고서에 따르면 2020년 9월 이후 BNPL 서비스의 연령별 사용 비중은 20대가 65%, 30대가 17%를 차지했다. 직업별로 보면 학생이 38%, 직장인 34%로 집계됐다. 이들은 애플워치, 에어팟, 닌텐도 스위치 등 일시 전액 결제가 부담되는 고가의 소형 전자기기를 주로 분할 결제로 구매한 것으로 나타났다.BNPL은 금융 이력이 부족한 이용자의 소비 확대 취지로 도입됐지만 오히려 이들을 채무의 늪에 빠뜨릴 수 있다는 지적이 나온다. 부채조정 상담기관 DebtHammer의 조사에 따르면 미국 BNPL 사용자의 30%가 지불에 어려움을 겪고 있으며, 32%는 BNPL 청구액을 내기 위해 임대료, 공과금, 자녀 양육비 등 지불을 건너뛴 적이 있는 것으로 나타났다.성장성이 둔화되고 있는 것도 시장의 우려를 키우고 있다. 코로나19 사태 당시 급증했던 온라인 쇼핑이 일상 회복과 함께 주춤하고 있기 때문이다. 더욱이 각국 중앙은행의 공격적인 금리인상은 기술 기업에 치명적이다. 최근 불안정한 경제 상황과 고객들의 연체로 인해 BNPL 대표 업체인 클라르나와 어펌의 주가는 지난해 동기 대비 3분의 1 수준으로 내려앉았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>오늘의집·직방·리디, CB인사이츠 선정 '유니콘 클럽' 입성</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013295588?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>CB인사이츠 최신 유니콘 마켓지도 추가…한국 기업 15개로 늘어 이커머스·직접판매 분야에 포함된 오늘의집[CB인사이츠 캡처. 재판매 및 DB 금지]    (서울=연합뉴스) 임성호 기자 = 인테리어·라이프스타일 플랫폼 '오늘의집'(운영사 버킷플레이스), 부동산 중개 플랫폼 '직방', 콘텐츠 플랫폼 기업 '리디' 등 한국 스타트업 3곳이 글로벌 시장조사기관이 선정한 '세계 유니콘 클럽'(Global Unicorn Club)에 추가됐다.    7일 미국의 데이터 분석·리서치 기관 CB인사이츠(CB Insights)에 따르면 이 기관이 전날 발표한 '2022 글로벌 유니콘 마켓지도'($1B+ Market Map)에 포함된 세계 1천170개 유니콘 기업 목록에 이 3개 스타트업이 신규로 포함됐다.    유니콘 마켓지도는 기업가치가 10억달러(약 1조2천994억원)를 넘는 '유니콘 기업'에 해당하는 비상장 스타트업을 인공지능, 핀테크, 교육기술 등 15개 분야로 분류해 한눈에 볼 수 있도록 정리한 것이다. CB인사이츠는 매년 유니콘 기업 리스트를 업데이트해 발표하는데, 올해 지도는 이달 1일을 기준으로 작성됐다.    올해 지도에서 '오늘의집'과 '리디'는 15개 범주 중 이커머스·직접판매(D2C) 분야에 속했다. '직방'은 모바일·통신으로 분류됐다.모바일·통신 분야의 종합 프롭테크(proptech·부동산과 기술의 합성어) 기업 직방[CB인사이츠 캡처. 재판매 및 DB 금지]    오늘의집은 온라인 홈퍼니싱(집 꾸미기)·인테리어 시장의 1위 기업으로, 올해 5월 2천300억원의 신규 투자를 유치했다. 이는 올해 상반기 국내 스타트업이 받은 투자 중 최대 규모다.    웹툰·웹소설을 서비스하는 리디는 올해 초 1천200억원 투자를 유치했다. 국내 콘텐츠 기업 중에서는 첫 유니콘 기업이 됐다. 직방은 지난달 1천억원 규모의 투자를 받으며 유니콘으로 떠올랐다.    이에 따라 CB인사이트 유니콘 마켓지도에 포함된 국내 기업은 ▲ 비바리퍼블리카(토스) ▲ 컬리 ▲ 쏘카 ▲ 두나무 ▲ 무신사 ▲ 야놀자 ▲ IGA웍스 ▲ 위메프 ▲ 지피클럽 ▲ 에이프로젠 ▲ L&amp;P코스메틱 ▲ 옐로모바일 등 총 15개로 늘었다.    이 지도를 기준으로 2020년 말 전 세계 563개이던 유니콘 기업은 지난해 말 960개로 70% 넘게 증가했으나, 올해 들어 인플레이션과 금리 인상 등 글로벌 시장 상황이 악화하면서 증가 속도가 다소 둔화했다.    올해 2분기까지 새로 유니콘에 합류한 회사는 210개다. 1분기에 125개, 2분기에 85개 회사가 추가로 이름을 올렸다.이커머스·직접판매 분야에 포함된 리디[CB인사이츠 캡처. 재판매 및 DB 금지]    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>내 신용점수 손쉽게 조회 가능…‘금리정보 공시’ Q&amp;A</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/662/0000003350?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>은행별 예대금리차 매달 한번에 비교 토스·카카오페이서 금리 예측 중저신용자 불익 없도록 보완 이미지투데이  가파른 금리 인상으로 예대금리차(예금금리와 대출금리의 차이)에 대한 소비자들의 관심이 높다. 금융위원회는 예대금리차 공시제도를 개선해 ‘금리정보 공시제도 개선방안’을 최근 내놨다. ‘투명한 예대금리차 공시’는 윤석열 대통령의 대선공약 가운데 하나다. 바뀐 금리정보 공시제도에 대한 궁금증을 문답으로 짚어본다.Q. 예대금리차 비교공시제도는 어떻게 달라졌나?A. 소비자가 모든 은행의 예대금리차를 은행연합회 누리집에서 한번에 비교할 수 있도록 개선됐다. 이전까진 예대금리차는 3개월 주기로 공시됐다. 공시 주기가 길고 소비자가 각 은행 누리집에서 하나하나 찾아봐야 하는 등 비교가 어렵다는 지적이 있었다. 이에 따라 금융당국은 소비자가 매달 예대금리차를 한번에 비교할 수 있도록 했다.Q. 대출금리 공시제도도 바뀌었나?A. 금융위는 소비자가 대출금리를 간편히 확인할 수 있도록 공시기준을 신용평가사의 신용점수로 바꿨다. 지금까지 대출금리 공시기준은 은행의 신용등급을 적용해 발표됐다. 은행의 신용등급은 자체 기준에 따라 결정되며, 소비자가 조회하기 까다롭다는 단점이 있다. 소비자는 자신의 신용이 몇 등급인지, 어떤 수준의 대출금리가 적용되는지 파악하기 어렵다. 공시제도가 개선되며 소비자는 토스·카카오페이 등 제휴플랫폼에서 신용점수를 조회해 몇 %의 금리가 적용될지 손쉽게 예측할 수 있다.Q. 다른 개선사항은?A. 소비자의 금리정보 접근성도 높아졌다. 금융위는 예·적금의 전월 평균 금리를 공개하고 예금상품을 한눈에 비교할 수 있는 금융서비스를 도입할 계획이다. 또 신용점수가 높아지면 대출금리를 깎아주는 금리인하요구권 운영실적을 6개월마다 소비자에게 안내한다.Q. 금리 상승기 대출금리는 빠르게 오르지만 예금금리 상승은 느리게 느껴진다. 그 이유는 무엇인가?A. 대출금리는 주로 변동금리가 적용되고, 예·적금은 고정금리 비중이 높다. 금리 인상기에 변동금리 비중이 높은 대출상품은 높아진 금리를 빠르게 반영한다. 반면 고정금리가 주로 적용되는 예·적금은 금리가 인상돼도 반영이 더디다. 이에 따라 금리 상승기에는 예대금리차가 커지는 경향이 있다. 다만 지난해말부터 대출·예금 금리 모두 비슷한 수준으로 높아지며 예대금리차가 줄고 있다는 게 금융위의 설명이다.Q. 예대금리차 비교공시를 하면 중저신용자 대출 축소 등 부작용이 뒤따를 수 있다는 지적도 나오는데?A. 은행은 신용에 따라 대출금리를 다르게 적용한다. 저신용자일수록 높은 대출금리를 부담해야 한다. 이에 따라 중저신용자 대출 비중이 높은 은행은 평균 예대금리차가 확대되는 현상이 나타날 수 있다. 일부 은행이 예대금리차가 크다는 비판을 피하고자 중저신용자 대출 비중을 낮출 수 있다는 우려도 있다. 금융위는 이런 위험을 막고자 평균 예대금리차뿐만 아니라 신용점수 구간별 예대금리차, 평균 신용점수도 함께 공시할 계획이다. 금융소비자들이 은행별 특성을 고려해 예대금리차를 파악할 수 있다는 것이 금융위의 판단이다.Q. 대출금리 공시기준을 신용평가사 신용점수로 바꾸면 소비자가 잘못된 정보를 얻는 것 아닌가?A. 은행은 신용평가사 신용점수에 자체 신용등급을 반영해 대출 여부와 금리를 결정한다. 은행의 자체 신용등급은 소비자가 내 신용등급이 얼마인지, 어떤 기준에 따라 등급이 정해지는지 알 수 없어 공시 효과가 낮다. 반면 신용평가사의 신용점수는 소비자가 제휴 플랫폼을 통해 손쉽게 확인할 수 있어 편의성이 높다.김소진 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>은행 예대금리차, 이달 대출부터 매달 공시</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002618620?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>금리산정체계 年 2번 점검금리인하요구권 실적 공개정부서울청사 금융위원회 현판 ⓒ금융위원회[데일리안 = 김효숙 기자] 은행들의 예대금리차(대출금리와 예금금리 차이)가 내달부터 매달 공시된다. 또 불투명했던 금리산정체계를 개선하고자 자율점검이 강화되고, 금융소비자들의 이자부담을 줄이기 위해 금리인하요구권 실적도 6개월마다 공시하기로 했다.금융위원회는 금융소비자 권익을 보호하고 은행간 금리경쟁을 촉진하기 위해 이같은 내용을 담은 '금리정보 공시제도 개선방안'을 6일 발표했다.이번 개정안에는 ▲금리정보 공시 개선 ▲금리산정체계 합리성·투명성 제고 ▲경쟁촉진 및 소비자 권익 보호를 위한 방안들이 담겼다.먼저 은행들의 이달 예대금리차를 시작으로 매달 은행연합회에 비교공시된다. 신규취급액 기준이며, 이달 말까지 대출과 예금액 산출이 끝나면 내달부터 홈페이지에 공시될 예정이다.예대금리차는 크게 두 가지로, '대출평균(가계+기업) 기준'과 '가계대출 기준'을 함께 공시한다. 특히 가계대출 예대금리차는 신용점수 구간(50점 기준)별로 공개되며 구간별 평균 신용점수도 같이 공시된다. 중·저신용자 대출 비중이 높은 인터넷전문은행의 수치가 커보일 수 있다는 지적이 나온 가운데, 이런 오해를 줄이겠다는 설명이다. 중·저신용자가 많으면 평균 신용점수가 낮아지는 식이다.대출금리 공시기준은 은행 자체 신용등급에서 신용평가사 신용점수로 변경된다. 신용평가사 신용점수는 토스 등 제휴플랫폼에서 상시 확인이 가능한 만큼 편의성을 높이겠다는 취지다.예금금리의 경우 실제 소비자에게 적용된 금리정보를 확인할 수 있도록 예·적금 상품의 전월 평균금리도 추가 공시된다. 우대금리가 아닌 실제 소비자가 체감하는 예금금리를 기준으로 정보를 공개하겠다는 설명이다.대출금리 및 신용점수별 예대금리차 공시 예시 ⓒ금융위원회소비자들의 불만이 많았던 불투명한 금리산정체계도 개선된다. 대출금리는 가산금리와 우대금리가 더해 정해지는데, 가산금리에 지나치게 자의적 판단이 이뤄지지 않도록 업무원가·리스크 프리미엄 등 지표를 기본원칙 중심으로 개선한다.예금금리도 월 1회 이상 시장금리 변동을 점검해 기본금리에 반영할 수 있도록 한다. 일부 은행은 시장금리가 올라도 기본금리는 그대로 두고 우대금리만 조정해 제한된 고객만 혜택을 누릴 수 있게 했는데, 이를 막겠다는 취지다.금융당국은 이같은 금리산정체계가 합리적인지 1년에 2번 이상 점검하고, 금융감독원 정기검사 과정에 참고자료로 활용할 계획이다.은행 간 금리경쟁을 유도하고 금융소비자의 권익을 보호할 방안도 내놨다. 여러 금융사 예금상품을 한눈에 비교할 수 있는 온라인 예금상품 중개 플랫폼이 시범운영된다. 현재는 대출, 보험상품과 달리 예금상품은 중개업 등록의 법적 근거가 부족해 관련 서비스 제공이 어려웠다.은행별 금리인하요구권 운영실적도 6개월마다 은행연합회에 공시되며, 이같은 정보를 모르는 소비자를 위해 1년에 2번 이상 안내한다. 금리인하요구권은 대출을 받은 사람이 취업, 승진 등 이유로 신용상태가 개선되면 금융회사에 금리를 인하해달라고 할 수 있는 권리다.금융위 관계자는 "소비자 정보 접근성 확대 및 금리경쟁 촉진을 위하여 최대한 신속하게 추진하겠다"며 "예대금리 공시는 이달 정보부터 공시가 이뤄질 수 있도록 시스템을 구축하고 다른 과제도 속도를 내겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문] 한중 꼬인 실타래 문화 교류로 풀자</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005262254?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>[이데일리 노희준 기자] 다음은 7월 8일자 이데일리 신문 주요 뉴스다.△1면-한중 꼬인 실타래 문화 교류로 풀자-美은행 플랫폼기업 인수할 때, 韓 금산분리에 발목-실적 기록 멈춘 삼성전자…하반기가 더 문제-“재정만능 환상 깨라”△2면 종합-친환경 계열사 한곳에...SK ‘강북 랜드마크’ 품다-해경·선관위·방통위 전방위 조사 감사원 칼 끝 ‘文청와대’ 향하나-SD바이오센서, 美의료기기 상장사 2조원에 인수 추진△3면 실적 신기록 멈춘 삼성전자-반도체·환율 덕에 선방했지만...‘D램값 하락’예고에 불안감 커져-LG전자 영업익 12% 뚝...전장 ‘흑자전환’ 위안-코스피 추락 막아줄까...‘실적 풍향계’ 삼성전자에 촉각△4면 글로벌 스탠더드에서 답을 찾다-美은행은 벤처, 日은 ICT기업 소유 가능...한국만 ‘15%룰’에 막혀-일부 비금융 사업 할 수 있지만...‘2+2년’ 시한부-은행이 왜 알뜰폰 장사하나...이통사·대리점 ‘결사 반대’△5면 한중관계, 문화교류로 풀자-한한령에도 BTS앨범 45억원어치 공구...중국은 K콘텐츠를 원한다-“현지 리메이크 등 中시장 전략 다양해져야”-“K팝 공연+한국 여행, 관광산업 새 수익모델 주목해야”△6면 尹정부 첫 재정전략회의-강력한 재정준칙 마련...GDP 대비 재정 적자비율 3% 이내로 통제한다-학생 줄어도 세수 따라 느는 교육교부금-고물가 고통 분담…내년도 공무원 임금 인상 최소화하기로△8면 종합-원가 폭등하는데 ‘납품단가 연동제’라니...재계 “산업계 피해만 키울 것”-“뛰는 물가에 경제심리 위축 대외여건 악화로 제조업 정체”-市 “둔촌주공 재건축 8개안 합의”종합 “사실 아냐, 절반은 합의 안돼”-“첨보 보고서 무단삭제·합동조사 강제종료...국정원법 위반”△9면 경제-‘원전=친환경’ 추진...방폐물 처리방안 마련 숙제-중대재해 처벌 알아야 피한다...‘열공’ 나선 기업들-무보, 수출中企 지원사업 힘준다-홍장표 KDI 원장 결국 사표 제출△10면 정치-尹대통령 ‘공정과 상식’...부메랑 되나-기약없는 원구성 국회 공전 장기화-‘사퇴 압력’ 받는 전현희 “권익위, 신분·임기 보장돼”-민주 “홍장표 사퇴 압박한 한덕수 고발 검토”-‘이재명당’에 대한 불안한 시선△12면 금융-기준금리 1.25%P 오를 때, 예적금 1%P도 안올라-토스뱅크, 카드사 반발 의식했나 ‘카드론 대환대출 서비스’ 중단-은행끼리 금리인하 경쟁 불가피 빅테크에 날개 달아줄까 우려도-신한금융 창립 40주년...청년층에 14조원 지원△13면 글로벌-IMF·연준 수장 “침체 각오한 긴축” 천명...또 자이언트스텝 밟나-‘사면초가’ 존슨 英총리 불명예 퇴진-“中, 서방 기술 훔쳐”…美·英 정보당국, 스파이 활동 경고-프랑스, 전력공사 다시 국유화 추진△14면 제9회 글로벌 헬스케어 대상-어려워도 연구·투자 소홀히 안했다...‘K헬스케어’ 도약 이끈 13곳-전 병동 ‘간호·간병 통합서비스’ 부민병원-60여종 첨단 장비로 원스톱 피부케어 임이석테마피부과-친환경 원료 수액 세트 韓·美 특허 메디라인액티브코리아-20여년간 성조숙증 연구·치료 집중 하이키한의원-팬데믹 속 감염병전담병원 역할 수행 근로복지공단병원-수입 의존 ‘NK세포 배양배지’ 국산화 엔케이젠△16면 산업-완성차 회사 가깝고 인건비 싼데, 세제 혜택도...북미 전기차 공략 최적지-놔두면 빚된다...조원태, 마일리지 소진 전략 가속-친환경 신사업 문 두드리는 석유화학 기업...‘재생’ 열풍-삼성디스플레이, 작년 지속경영가치 4.3조 창출△17면 소비자생활-복잡한 에어컨 설치...사전 점검 서비스로 해결-무서운 자장면값...상반기 최대폭 상승-“신세계 메타버스를 커뮤니티 공간으로 만들 것”-오비맥주, 카스 등 5개 브랜드 ‘국제 우수 미각상’△18면 이수연의 아트버스-박제당한 여인 박차고 나온 여인-존 싱어 서전트&amp;마리 드니즈 발레르 ‘초상화의 목소리’△20면 증권-외국인, 오랜만에 사들였지만 개미 불안은 사라지지 않았다-M&amp;A시장 메가딜 스타 배달앱 엔데믹·인플레 2연타 위기에-“ESG공시 국제표준 제정에 적극 대응해야”-“삼전이 주 고객, 특례상장 기술평가 A”-서울 5호선 여의도역 신한금융투자역 된다△21면 부동산-실거주 안해도 양도세 ‘0’...재개발 투자 불붙나-노후 주거지 통합개발...‘오세훈표 모아타운’ 추가모집-서울 아파트값 6주 연속 하락-학군·교통망·인프라 탄탄...3박자 갖춘 ‘인천 두산위브 더센트럴’△22면 여행-굽이 도는 강, 외나무다리 건너...산 속 섬마을, 여름 속으로-심심한듯 담백한 맛...메밀묵 넣은 김치찌개 ‘태평초’를 아십니까-거대한 기와집 아래...선비처럼 먹고 입고 보고 배우다△24면 스포츠-박민지 “이번 타이틀 방어전은 욕심 난다”-박성현 닮았다는 말 많이 들어...나의 롤모델-‘부상 투혼’ 나달, 윔블던 테니스 남자 단식 준결승 진출-이승우·조규선 선봉...토트넘 맞설 ‘팀K리그’ 명단 확정-한국 럭비 ‘비인지 스포츠’ 설움 딛고 ‘꿈의 월드컵’ 도전△25면 오피니언-플랫폼 정책, 규제보다 상생 필요-협력 확대하는 발칸 중심 세르비아-코로나 재유행 오는데 방역수장 임명 서둘러야△26면 피플-“메타버스에 ‘K시티’ 만들면 수억명 몰려올 것”-‘60주년 가곡 외길’ 이동규씨, 국가무형문화재 된다-최태원 회장 “부산 엑스포가 멕시코 발전에도 도움될 것”-장준혁 한양대 교수팀 국제 AI인식기술 대회 준우승-이화여대, 고 이어령 교수 문학 조명 학술대회 12일 개최△27면 사회-고물가 시대 속타는 취준생들-‘박원순色’지운 오세훈, 동행·매력 서울 만들기-‘서해 공무원 피살’ 수사 속도...檢, 특별수사팀 꾸리나-코로나로 줄었다지만...의사 연봉 2.3억</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>정치권 압박에...멈췄던 ‘대환대출플랫폼’ 구축 재시동 건다</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005261428?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>여야, 저금리 갈아타는 원스톱 플랫폼 한목소리 요구지난해 은행ㆍ핀테크 간 이견으로 추진 중단돼금융위, 의견 조율 나서...시중은행, 여전히 반대[이데일리 전선형 최훈길 박기주 기자] 지난해 8월 이후 논의가 중단된 ‘대환대출 플랫폼’ 구축이 다시 재논의된다. 대출금리 고공 비행으로 차주들의 이자 부담이 커지면서 이번엔 정치권에서 ‘카드’를 들이밀었다. 하지만 과거에도 은행들과 빅테크 간 이견이 컸던 만큼, 이번에도 플랫폼 구축이 쉽지는 않을 것이란 관측이다.◆ ‘대환대출’ 고금리 부담 줄여줄 수 있어6일 금융당국에 따르면 금융위원회는 금융사들에게 ‘대환대출플랫폼’ 구축에 대한 의견을 조율 중이다. 특히 은행과 빅테크사를 중심으로 대환대출 플랫폼 구축 및 이용 방식에 대한 의견을 물은 것으로 전해진다.금융결제원 망에 핀테크가 운영 중인 대출금리 비교 서비스를 연동하면 대출 갈아타기가 가능하다. 모든 가계대출을 모바일로 법무사 비용 없이 쉽게 갈아타는 것이다. 사진은 지난해 금융위원회가 추진하려다 무산된 비대면 대환대출 플랫폼 설명 내용이다.(자료=금융위원회)대환대출플랫폼은 모바일 등 비대면으로 여러 금융사 대출 상품의 금리를 조회하고, 그중 낮은 금리로 갈아탈 수 있도록 하는 시스템을 말한다. 지난해 8월 금융당국이 빅테크가 운영 중인 대출금리 비교 서비스를 활용해 은행ㆍ카드사ㆍ저축은행 등의 대출상품을 갈아탈 수 있도록 하는 방식으로 사업을 추진했다. 망은 금융결제원 망을 이용하기로 했다. 하지만 당시 은행권은 고객을 빼앗길 우려를 내비치면서 강한 반발을 했고, 결국 사업은 중단됐다.그렇게 잊혔던 대환대출플랫폼이 1년 만에 다시 고개를 든 건, 정치권의 압박이 있었기 때문이다. 기준금리 인상, 물가 인상 등으로 차주들의 부담이 커지면서 금리 부담을 줄이기 위해서는 ‘대환대출 플랫폼이 반드시 필요하다’는 게 정치권의 생각이다. 특히 이번에는 여야 할 것 없이 한목소리를 내고 있다.실제 국민의 힘은 지난 5일 금융당국에 대환대출 플랫폼 사업을 신속하게 추진할 것을 요구했다. 성일종 국민의힘 정책위의장은 원내대책회의를 통해 “대환대출 플랫폼이 지난해 추진됐으나, 금융권 상황으로 중단됐다”며 “하지만 당시보다 상황이 더 악화된 지금과 같은 금리 상승기에 무엇보다 필요한 사업“이라고 강조했다. 국민의힘은 김주현 금융위원장 후보자가 위원장으로 임명되는 즉시 당정 간담회를 열고 대환대출 플랫폼 등 서민 금융 지원 방안을 1순위로 논의하겠다는 입장이다.더불어민주당도 6일 오전 ‘상환부담 완화를 위한 원스톱 대출 이동제 도입 간담회’를 열고 대환대출 플랫폼에 대한 구체적인 논의를 했다. 박홍근 더불어민주당 원내대표는 “낮은 금리의 대출로 갈아타는 대환대출도 서민들의 부담 줄이기 위해 고려할 선택지”라며 “당사자 간의 이해충돌로 현재는 추진이 중단됐지만 급격한 고금리로 국민들의 부담이 가중되는 비상 상황인 만큼 원스톱 대출 이동제를 시급히 도입해야 한다”고 말했다.◆은행권 우려 여전해...반면 빅테크는 적극적다만 금융권이 이를 받아들일 지는 미지수다. 특히 빅테크들의 금융권 진출로 고유 영역(예금ㆍ대출)을 빼앗긴 시중은행들의 반발은 여전히 거세다. 지난해에도 금융당국의 대환대출 플랫폼 추진 과정에서 시중은행들이 빅테크 종속·수수료 지급 등을 이유로 불참을 선언하면서 결국 도입이 무산됐다. 더욱이 당시 은행끼리 모여 추진했던 자체 플랫폼 구축 사업도 시중은행ㆍ지방은행ㆍ인터넷은행 간에 의견이 갈리면서 현재 중단된 상태다.반면 빅테크ㆍ핀테크사들은 적극적으로 움직이고 있다. 토스도 대환대출 플랫폼 사업 진출 채비에 나섰다. 특히 토스는 금융당국 주도의 대환대출플랫폼에 참여 요청이 있다면 적극적으로 검토하겠다는 입장이다. 60개 금융사 대출 비교가 가능한 ‘핀다’, SK텔레콤(017670)과 하나금융그룹이 투자한 ‘핀크’도 대환대출 플랫폼에 참여할 예정이다. 현재 양사 모두 대출 비교는 가능하나 앱으로 실시간 대출 갈아타기는 불가능하다.한 금융권 관계자는 “금융결제원의 망을 이용하고, 플랫폼 서비스를 그대로 활용하면 되니까 사실 시스템적으로 문제 될 것은 없다”며 “하지만 각 금융사마다 신용등급을 산정하는 기준이 달라 직접적인 비교가 불가능하고, 기존 금융권의 경우 빅테크 플랫폼 이용 시 수수료까지 지불해야 하는 불합리성이 있어 해당 사업이 달갑지 않은 건 사실”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>우리 '아이유', 하나 '김유정'…젊어지는 시중은행</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003219756?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   하나은행이 새 모델로 발탁한 배우 김유정     시중은행이 '젊은' 이미지 씌우기에 나섰다. 미래 주요 고객이 될 젊은 층의 눈에 띄는 것은 물론 친근하게 다가갈 수 있는 효과가 있기 때문이다.     7일 금융권에 따르면 최근 하나은행은 배우 김유정을 새로운 광고모델로 발탁했다.      하나은행은 김유정을 'MZ세대를 대표한다'고 표현하며, 젊은 이미지를 강조하고 있다.    하나은행 관계자는 "배우 김유정이 가진 MZ세대 특유의 상큼발랄함과 맑고 깨끗함, 건강하고 친근한 이미지가 하나은행이 추구하는 가치와 잘 부합해 새로운 광고모델로 선정했다"고 선정 배경을 설명했다.    김유정은 지속적인 기부 활동을 해오며 ‘초록우산어린이재단’ 고액 기부자 중 최연소 멤버이기도 하다. 또 범죄피해 위기 아동 지원을 위해 거액을 기부하는 등 다양하고 활발한 선행 활동을 이어가고 있어 ‘함께 성장하며 행복을 나누는 금융’이라는 하나금융의 미션과도 잘 부합된다.    하나은행의 기존 모델 축구선수 손흥민과 함께 전 세대를 연결하는 하나금융의 가치를 보여주겠다는 게 하나은행의 계획이다.    앞서 지난 4월에는 우리은행이 모델로 가수 겸 배우 아이유를 내세우며 효과를 톡톡히 봤다.    최근 아이지에이웍스의 데이터분석 솔루션 모바일인덱스에 따르면 우리은행의 '우리WON뱅킹' 앱이 구글플레이에서 전체 무료 앱 인기 순위 10위에 올랐다. MZ세대가 많이 쓰는 토스(24위)나 카카오뱅크(30위)보다 높았다.      우리은행이 지난 4월 모델로 기용한 가수 겸 배우 아이유.      여기에 '아이유 효과'가 있었다는 평가가 나온다.      우리금융그룹은 2019년 이후 3년 만에 연예인을 모델로 내세웠다. 지난해 완전 민영화 성공과 함께 새출발하며, 금융그룹의 대외 인지도를 높이겠다는 취지가 반영된 결정이었다.     이후 '우리WON뱅킹' 앱의 순위가 오르기 시작했다. 아이유 모델 기용이 알려진 직후인 지난 4월 24일에는 구글플레이 앱 순위 21위에 올랐다. 이후 지난달 17일 구글플레이 인기 앱 1위, 앱스토어 뱅킹앱 1위를 차지했다.      이에 6월 우리WON뱅킹 이용자 632만명을 기록했다. 한 달 만에 50만명 가까이 급증한 수치다.     아이유는 젊은 층 뿐만 아니라 전 연령대에서 큰 인기를 끌고 있다. 실제로 우리금융이 내부 임직원 대상 광고모델 추천 설문조사를 진행한 결과 아이유는 20대부터 50대까지 여러 세대에 걸쳐 가장 많은 추천을 받았다.    우리은행 관계자는 "후보로는 남자 배우도 있었고 아이돌도 있었지만, 아이유를 추천했다"며 "아이유를 모델로 한 우리은행 광고에서 MZ세대를 겨냥해 젊고 세련된 이미지에 집중할 계획"이라고 말했다.      KB국민은행이 지난해 모델로 발탁한 걸그룹 에스파      KB국민은행의 경우에는 지난해부터 걸그룹 에스파가 광고모델로 활동 중이다. 에스파는 국내 물론, 글로벌 시장에서 인기를 얻고 있는 걸그룹이다.    최근에는 '리브Next' 전용 라이브 스트리밍 서비스를 출시하면서 에스파와 팬들이 만날 수 있는 시간을 마련했다. 오는 15일 라이브방송에서 에스파와 실시간으로 소통하고 경품도 받을 수 있는 이벤트를 열며, 젊은 층 겨냥을 이어가고 있다.    시중은행 관계자는 "꾸준히 활동하면서 젊은 층에게 각인된 연예인을 모델로 기용해 잠재 미래 고객의 눈을 돌리는 효과를 볼 수 있을 것"이라며 "은행이 MZ세대 고객에게 좀 더 친근하게 느껴질 수도 있고, K컬처의 영향으로 국내외 마케팅에도 효과를 볼 수 있을 것으로 본다"고 말했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.07.15.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>[단독] '칼잡이' 이복현, 내달 빅테크 '네·카·토' CEO 만난다</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004724500?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>금감원장, 빅테크·핀테크 업계 간담회빅테크 규율체계 구축 방향 논의금융사 간 '규제 차익' 언급할 듯이복현 금융감독원장. 사진=허문찬기자이복현 금융감독원장이 다음 달 취임 후 처음으로 빅테크 및 핀테크 최고경영자(CEO)들과 간담회를 갖는다. 검사 출신인 이 원장이 시중은행, 증권사, 보험사, 카드사 수장들을 차례로 만나며 압박성 발언을 쏟아낸 만큼 빅테크 및 핀테크 업계를 향해 어떤 메시지를 내놓을 지 주목된다. 15일 한경닷컴 취재에 따르면 이 원장은 다음 달 30일 서울 마포 프론트원에서 빅테크 및 핀테크 업계 간담회를 열고 업계 현안에 대해 논의한다. 이날 자리에는 박상진 네이버파이낸셜 대표, 신원근 카카오페이 대표, 이승건 비바리퍼블리카(토스) 대표, 이근주 한국핀테크산업협회장, 변영한 한국핀테크지원센터 이사장 등이 참석할 예정이다.이 원장은 간담회에서 빅테크 규율체계 구축 및 핀테크 혁신 지원 추진 방향에 대해 중점 논의할 계획이다. 윤석열 대통령의 국정과제를 뒷받침하는 취지에서다. 앞서 윤 대통령은 정부 110대 국정과제를 통해 국제 논의 동향에 맞춰 빅테크 기업에 대한 규율체계를 합리적으로 재정비하겠다고 밝힌 바 있다. 구체적으로는 불완전판매 방지, 고객 정보 보호 강화 등 금융 분야 빅테크 기업에 대한 새로운 규율체계를 도입하는 단계에서 업계 의견을 청취하는 형태가 될 전망이다.빅테크 규율체계 구축과 관련해서는 전통 금융사와의 규제 차익 문제 해소에 대한 의지를 밝힐 것으로 보인다. 앞서 이 원장은 지난 5일 열린 여신전문금융업계 CEO와의 간담회에서 빅테크 기업과의 규제 차익 문제가 제기된 데 대해 "개인적으로 공정한 경쟁, 투명성 확보를 위해 (빅테크) 제도 개선이 필요하다는 의견을 갖고 있다"며 "향후 이와 관련해 금융위원장에게도 건의할 예정"이라고 언급한 바 있다. 동일 기능 동일 규제 원칙하에 '기울어진 운동장' 문제를 해결해야 한다는 뜻을 내비친 셈이다. 당시 거론된 사안은 현재는 운영이 중단된 토스의 카드론 대환대출 서비스였다.유사한 관점에서 결제 수수료 최종 공시 방안에 대한 발언도 나올 수 있다. 그간 결제 수수료는 빅테크와 전통 금융사 간 대표적인 차등 규제 사례로 거론돼왔다. 신용카드 가맹점 수수료는 금융당국이 3년 마다 재조정하도록 법에 명시돼 있으나 빅테크의 간편결제 가맹점 수수료는 당국의 통제를 받지 않아서다. 금감원은 지난 5월 간편결제 서비스 가맹점 수수료 산정 투명성을 제고하기 위해 태스크포스(TF)를 통한 가이드라인을 마련하고 수수료 공시를 추진 중이다.끝으로 이 원장은 '소비자 보호 강화'를 함께 주문할 것으로 보인다. 금감원은 올해 초 검사업무 운영계획을 발표하면서 빅테크와 핀테크의 금융사업 확대에 따른 소비자 피해 예방에 초점을 맞출 것이라고 예고한 바 있다. 당시 금감원은 거래 규모, 신규 사업 진출 등 위험 요소를 분석해 리스크가 큰 대형 전자금융업자를 대상으로 현장검사를 병행한다는 계획을 밝혔다. 실제 금감원은 올해 1·2호 수시검사 대상으로 토스와 카카오페이를 각각 선정해 현장검사를 진행한 바 있다.금감원 관계자는 "이 원장이 취임 이후 시중은행, 보험사, 카드사 등 전통 금융사와 차례로 간담회를 가진 만큼 빅테크, 핀테크 기업과도 상견례 차원의 만남을 갖고자 마련한 자리"라며 "업계의 주요 현안에 대해 의견을 나누고 업계에 당부 사항도 전달할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>현대카드, 카드사 최초 후불결제 서비스 도입</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004720539?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>현대카드가 온라인 패션 쇼핑몰 무신사의 운동화 리셀 플랫폼 솔드아웃에 BNPL(buy now pay later·후불결제) 서비스 ‘카드없이 분할결제’를 도입했다고 5일 발표했다. 신용카드가 없어도 후불로 할부 수수료 없이 3개월에 걸쳐 물건값을 나눠낼 수 있는 서비스다.BNPL은 소비자가 상품을 우선 구매한 뒤 일정 기간 후에 대금을 갚는 결제 방식이다. ‘온라인 외상’인 셈이다. 현금 사용 비중이 높은 해외에선 핀테크 스타트업을 시작으로 시장이 급성장해 아마존에 이어 최근에는 애플도 진출을 선언했다. 국내에서도 지난해 네이버페이와 쿠팡이 처음으로 후불결제를 선보였고 올해 카카오페이와 토스가 서비스를 시작했다. 국내 카드사 중에선 현대카드가 처음이다.카드없이 분할결제는 현대카드를 신청·이용한 이력이 없는 만 19세 이상 솔드아웃 회원이 대상이며 현대카드의 심사를 통과하면 이용할 수 있다. 10만원 이상 50만원 이하의 단일 상품을 결제할 때 선택할 수 있고, 대금은 구매 시점부터 다다음 달까지 세 번에 걸쳐 나눠 결제한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>"年 20% 금리가 5%로"…토스뱅크, '카드론 대환대출' 잠정 중단</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004721410?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크인터넷전문은행 토스뱅크가 '카드론 대환대출 서비스'를 잠정 중단한다.7일 금융권에 따르면 토스뱅크는 국내 카드사 카드론을 자사 대출로 갈아탈 수 있게 해주는 대환대출 서비스를 7월 초 잠정 중단했다.토스뱅크의 카드론 대환대출 서비스는 이용자가 개인정보 열람에 동의하고 인증서 정보를 입력하면 기존 카드사에서 받은 카드론 금리 등을 안내하고 토스뱅크 대출로 갈아탈 수 있도록 해주는 서비스다. 카드론을 은행 신용대출로 바꿔주는 서비스를 시장에 내놓은 것은 토스뱅크가 최초다.앞서 토스뱅크는 지난 5월 말부터 삼성카드 카드론을 대상으로 대환대출 서비스를 시범 운영해왔다. 이달부터는 서비스 대상 카드사를 확대 운영할 계획이었다. 그러나 카드업계에서 반발이 커면서 서비스를 잠정 중단하기로 한 것으로 전해졌다.앞서 카드업계는 토스뱅크가 카드론 정보를 수집하는 과정에서 사용하는 '웹 스크래핑' 방식이 보안상 취약할 수 있다는 점을 지적한 바 있다. 지난 5일 열린 이복현 금융감독원장과 여신전문금융사 최고경영자(CEO) 간 간담회에서도 해당 서비스에 대한 카드업계의 우려가 제기된 것으로 알려졌다.당시 이 원장은 "개인적으로도 공정한 경쟁, 투명성 확보를 위해 제도 개선이 필요하다는 의견을 갖고 있다"며 "(토스뱅크의 카드론 대환대출과 관련해) 여전업계에서 의견을 냈고, 그 의견과 규제 완화 등 공정한 경쟁 환경 조성과 관련해 금융위와 추진 중인 여전업법(여신전문금융업법) 개정 태스크포스(TF)에서 함께 살펴보겠다"고 말했다.토스뱅크의 카드론 대환대출 서비스 재개 여부 및 시점은 미정이다. 토스뱅크 관계자는 "서비스 운영 자체를 잠정 중단한 만큼, 확대 계획도 무산됐다고 보는 게 맞다"며 "현재 서비스 개선 및 고도화 작업을 진행 중이나 재개 시점은 정해진 바가 없다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>25년 VC맨의 조언 "위기 때 투자가 가장 성과 좋았다" [긱스]</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004722501?sid=105</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.글로벌 금리 인상 기조와 경기 침체 가능성이 스타트업들에도 많은 충격을 주고 있습니다. 벤처캐피털(VC) 투자 시장이 위축되고 스타트업의 몸값 하락과 감원 사례도 나타나고 있습니다. 당분간 스타트업의 영업 환경도 쉽지 않아 보입니다.  하지만 격동의 시기는 준비된 자들에겐 언제나 기회가 됐습니다. 벤처캐피털(VC)업계에서는 올해나 내년이 투자 '풍작'을 의미하는 '그레이트 빈티지 이어(great vintage year'가 될 것이란 기대감이 큽니다. 송은강 캡스톤파트너스 대표는 대내외 위기의 충격을 견뎌낸 스타트업들은 그만큼 더 높은 도약의 기회가 찾아왔다고 합니다. 25년간 VC업계에 몸 담아오면서 1990년대말 글로벌 외환위기와 2008년 금융위기 속에서 스타트업의 부침을 함께 해온 송 대표가 한경 긱스(Geeks)를 통해 '불황의 강을 건너는 지혜'를 들려드립니다. 사진=연합뉴스  위기 속에서 위워크, 에어비앤비 탄생최근 미디어에서 벤처 투자 축소와 위기론을 일제히 논하기 시작했다. 글로벌 경기 위축의 파고에서 한국도 예외일 수 없고 스타트업 투자가 다소 보수적으로 돌아설 수 있지만, 과연 스타트업계에서 ‘위기론’까지 제기할 수 있을 것인가에 대해서는 조금 더 냉철하게 짚어볼 필요가 있다. 우선 최근 정부가 모태펀드 2차 출자를 통해 약 1조원 규모의 벤처펀드를 조성하면서, 올해 총 모태펀드 출자 금액은 1조508억원, 민간 출자금은 1조4843억원으로 총 2조 5000억원 규모에 달한다. 또한 최근 한국투자파트너스와 스톤브릿지벤처스 등 벤처캐피탈업계의 큰 손들이 설립 이래 최대 규모의 벤처펀드 결성했다. 이런 현상은 위기론에 대한 근본적인 의문을 갖게 한다. 지난 역사는 우리에게 위기론을 냉철하게 짚어 봐야할 이유를 제시하고 있다. 실제로 IMF경제 위기 이후 제1차 닷컴 버블이 꺼지는 국면에서 거대 글로벌 IT기업인 구글과 아마존이 탄생했고, 2008년 글로벌 금융위기에도 새로운 시장을 개척한 위워크, 에어비앤비 같은 스타트업이 탄생했다. 가장 어두웠던 시기에 오히려 새로운 경제 질서를 만든 주인공인 거대 디지털 기업들이 성장했다는 것은 최근 일고 있는 스타트업 위기론을 어떻게 볼 것인가에 대한 시사점을 주고 있다. 또한 모태펀드 운용사인 한국벤처투자에서 발표한 마켓워치 보고서에서도 국내 벤처펀드 청산 성과는 2008년이 가장 좋았다는 결과를 확인할 수 있다. 벤처펀드 청산이 완료된 2004년부터 2021년 중 2008년 결성된 벤처펀드의 납입액 대비 총 가치(TVPI)가 3.58배로 가장 높았다. 금융위기 후 기업가치가 하락한 시점에 투자한 펀드들이 좋은 결과를 가져온 것을 증명하고 있다.  핵심에 집중하고 과감히 베팅하라경제 주체들이 가장 두려워하는 것은 위기 그 자체보다도 오히려 불확실성이다. 모든 리스크가 시야에 들어오고 불확실성이 제거되는 시점에서 반등이 기다리고 있다. 그 시점이 오기까지 스타트업들은 지금의 상황을 견딜 수 있는 회사인지 자생력을 살펴 보는 것이 중요하다. 캡스톤파트너스에서는 투자한 스타트업의 70% 정도가 최소 2년 동안 펀딩이 잘되지 않더라도 생존할 수 있게 지원해야 하고 있고, 대신 불필요한 사업은 접고 핵심에 집중하고 현금흐름을 꾸준히 늘려가는 것이 필요하다면서 조언하고 있다. 코로나 팬데믹 초기 모두들 위기를 말했지만 오히려 캡스톤파트너스의 투자 포트폴리오사들은 크게 성장했다. 초신선 식품 플랫폼인 정육각의 경우 지난 3월 대상그룹의 초록마을을 인수하면서 시장의 주목을 받았다. 또한 1인 피자 브랜드 고피자는 싱가포르, 인도, 홍콩 시장 진출 후 꾸준한 매출 성장을 기록하고 오프라인 매장 계속해서 확장하고 있다. 올해는 인도네시아, 말레이시아 진출을 목표로 하고 있다. 이들은 모두 위기에 굴하지 않고 오히려 핵심에 집중하고 과감하게 베팅을 했다는 공통점이 있다. 국내 벤처캐피털 100개 이상이 업력이 20년이 넘고, 이들은 위기에 흔들리지 않고 잘 버티면 더 좋은 시기가 온다는 것을 경험으로 알고 있다. 이런 이유로 벤처투자 시장이 겨울이라고 말하는 여론에도 아랑곳하지 않고 펀드를 결성하고 있고 지속적인 투자를 하고 있다. 오히려 기업가치가 낮아지면서 투자에 집중할 수 있는 절호의 기회로 보고 있다. 게티이미지뱅크국민 서비스화 된 스타트업들...뿌리 단단해져최근 들어 스타트업계를 바라보는 시선이 현격하게 달라지고 있다. 의사와 변호사 같은 전문직들은 물론이고 대기업 임원 출신들의 스타트업 창업도 봇물을 이루고 있다. 미국에서 가장 똑똑한 엘리트들이 창업을 선택하는 것처럼, 이제 한국 사회도 엘리트 집단이 스타트업 창업에 도전하는 변화의 물결이 일기 시작했다. 스타트업 창업자들에게서 성공 스토리들이 확산되면서 스타트업 창업에 대한 도전 욕구를 자극했기 때문이다.지난 2010년 초반까지 한국의 부는 재벌 2,3세의 전유물이였다. 하지만 올해 4월 포브스가 발표한 Korea’s 50 Richest People에 따르면 한국의 부자 50위 내에 카카오 김범수 의장, 스마일게이트 권혁빈 CVO, 두나무 송치형 의장, 토스 이승건 대표 이사 등 스타트업 출신이 대거 선정됐다. 부모의 부가 승계되는 구조가 아닌 스타트업 창업을 통해서 스스로 부를 만드는 것이 가능하다는 것을 증명하고 있다. 또한 쿠팡과 배달의 민족, 토스와 마켓컬리, 당근마켓처럼 수많은 스타트업 서비스들이 국민 서비스로 깊숙하게 뿌리내리면서, 넘볼 수 없는 벽, 즉 넘사벽이 아닌 도전을 통해서 누구든 성공 신화를 쓸 수 있다는 롤모델을 스타트업들이 만들어내면서 도전의 욕망을 자극하고 있기 때문이다. 캡스톤파트너스는 플랫폼, 인공지능, 바이오, Saas 등의 분야에 지속적으로 투자할 예정이다. 또한 앞으로 10년을 내다보면서 에너지 대전환에 대비하여 심사역을 보강하였고 에너지 스타트업에 투자를 시작했다. 투자를 결정할 때는 실행력이 좋으면서 탄탄한 기술이 가지고 있는 회사인지 확인한다. 실행력이 좋다는 것은 프로젝트 마일스톤을 세우고 100% 집중하여 그 마일스톤을 빠르게 달성하는 것이다. 또한 당장 매출이 나지 않더라도 돈이 아닌 다른 숫자로 나타나는 성장과 숫자로 잘 나타나지 않는 개발 성과 등이 진전되는 성장을 투자와 후속 투자의 중요한 지표로 삼고 있다. 투자자와 피투자사는 마치 결혼과 같다. 배우자가 모두 서로에게 좋은 짝이 돼야하는 것처럼 좋은 스타트업을 고르는 것도 중요하지만 스타트업에겐 좋은 투자자를 선택하는 것도 중요하다. 투자자를 선택할 때는 돈만 중요한 것이 아니다. 한번 투자한 이후에 계속적으로 지원을 하는 것이 중요하다. 회사가 조금 재무적으로 어려워지더라도 의미 있는 성장을 알아주고 긴밀한 커뮤니케이션을 통해 서로를 이해하며 계속 투자해줄 수 있는 사람들이 필요하다. 사업을 모르면서 돈만 보고 투자하는 곳은 극히 유의해야만 한다. 나무는 겨울을 견디면서 단단하게 성장한다. 스타트업 역시 위기론을 견디면서 더욱 내실을 갖추고 성장한다면 더욱 강해질 것이다. 한국 스타트업계는 이제 바람에 흔들리지 않는 나무처럼 뿌리 깊은 나무가 됐다. 지금 일고 있는 위기론을 기회로 삼아 더욱 강하고 내실 있는 경제 주체로한국경제의 미래를 만드는 주체로 성장할 것이라고 감히 단언한다. 송은강 | 캡스톤파트너스 대표국내 1세대 벤처캐피털 캡스톤파트너스에서 선한 영향력과 올바른 기업가 정신을 가진 창업자들에게 투자하고 있습니다. 스타트업 설립 초기 투자에 집중하는 이른바 ‘마이크로 VC’를 추구합니다. 스타트업의 성장을 지켜보면서 펀드규모가 되는 한 지속적인 후원해 보탬이 되고자 합니다. 목표에 도달하기 위한 일에 집중하고 몰두하는 뉴칼라(New Collar) 창업자를 찾고 있습니다. [학력]한국과학기술원 전산학 석사(1986-1988)서울대학교 계산통계학과 학사(1982-1986)[경력]캡스톤파트너스 설립자 및 대표이사(2008 ~)엠브이피창업투자 설립자 및 대표이사(2000-2007)미국 보스턴 캠브리지삼성파트너스 투자 팀장(1998-2000)삼성그룹 회장 비서실 WIN TF팀 과장(1997)삼성종합기술원 삼성전자 선임연구원(1988-1997)한국벤처캐피탈협회 부회장(2018~)한국엔젤투자협회 이사(2016~)한국초기투자기관협의회 이사(2020~)SNU 홀딩스 이사(2021~)한국공학한림원 정회원(2018~)</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>조응준 아스타 대표이사 "정부 적극적 지원 해주길...올해는 해외진출 분수령"</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005259774?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>2002년 日에 노벨상 안긴 기술로 2006년 회사 설립“한국 정부보다 외국에서 먼저 우리 진가 알고 찾아”말디토프 응용해 산업용 시장 선점..."고가 시장 선도"사우디 통해 중동 진출…내년 하반기 미국 진출 예정이 기사는 2022년07월04일 08시57분에 팜이데일리 프리미엄 콘텐츠로 선공개 되었습니다.[이데일리 나은경 기자] “말디토프 질량분석법은 의료용뿐 아니라 반도체, 디스플레이, 이차전지 등 산업용 분석장비로도 응용되고 있습니다. 차세대 검사 장비로써의 가능성을 고려해서 이제는 정부가 글로벌 규모로 성장할 수 있도록 기업을 적극적으로 지원해야 하는 시점이 아닌가 싶습니다. 처음엔 국내 시장부터 확실히 장악하고 해외로 나가자 생각했지만 지금까지는 판매에 있어 정부의 적극적인 지원이 없었기 때문에 지금은 국내 시장부터 공략하는 것이 능사가 아니라는 생각입니다.”조응준 아스타 대표이사 (사진=아스타)지난 1일 경기 판교 아스타에서 이데일리와 만난 조응준 대표이사는 내년 하반기부터 본격적으로 미국에 진출해 말디토프 질량분석법을 산업용 분석검사에 응용한 차세대 검사 장비를 판매할 예정이라며 이같이 말했다.아스타는 말디토프 기능을 활용하는 산업용 분석검사장비로는 세계에서 가장 앞선 회사다. 조 대표는 “산업용 분석검사장비 시장에서 미국, 유럽, 중국 등의 경쟁사가 아스타를 따라잡으려면 최소 2~3년은 더 걸릴 것”이라며 기술력에 자신감을 표했다.아스타의 사업 아이템이 된 말디토프 질량분석기는 진단의 기반이 되는 데이터를 생성하는 핵심장비다. 현존 분석기기 중 가장 정확하고 신속하게 금속 및 화합물은 물론, 폴리머, 바이오물질 등을 구성하는 단백질을 측정할 수 있다. 기존 질량분석법의 정확성과 정밀성을 유지하면서도 고감도, 고질량, 대용량 분석이 가능해 의료, 고분자연구, 검역, 바이오 등 다양한 분야에서 활용할 수 있다.말디토프 질량분석법은 지난 2002년 일본에서 실험기기 제작회사 시마쯔(島津)의 주임연구원이었던 다나카 고이치가 말디토프를 활용해 당 단백질의 분자량을 분석하는 방법을 발견한 공로로 노벨 화학상을 받으면서 세계의 주목을 받았다. 혈액 내 단백질을 분석하면 알츠하이머, 암과 같은 주요 질환의 병명과 진행 정도를 파악할 수 있어 질병 진단 및 치료에 활용할 수 있다. 하지만 기술적 진입장벽이 높아 개발업체는 독일의 브루커와 아스타를 포함해 극소수에 불과하다. 시마쯔는 영국의 크레이토스를 인수해 말디토프 생산업체가 됐고 프랑스의 비오메리으와 연합해 ‘비오메리으-시마쯔’로 미생물 동정시장에 진출했다. 아스타는 지난 2014년 국내 최초이자 세계 세 번째로 말디토프 질량분석 장비인 ‘마이크로아이디시스’(MicroIDSys)를 개발해 미생물 진단용 제품상용화에 성공했다.아스타가 설립된 것은 2006년. 지금이야 말디토프 질량분석법이 차세대 미생물 분석시스템으로 인정받고 있지만 당시는 산업계에서도, 정부에서도 낯선 기술이었다. 심지어 병원체 샘플로 데이터베이스를 구축해 질병을 진단할 수 있다는 것은 현실성이 낮은 주장으로 여겨졌다.조 대표는 “수년간 질병 데이터베이스 구축을 위한 샘플데이터를 달라고 정부에 요청했지만 ‘특정 기업에 특혜를 줄 수 없다’는 등의 이유로 지속적으로 지연됐다”며 “그때 우리가 병원체 샘플을 먼저 받을 수 있었더라면 미생물 동정기기 시장에서도 경쟁사에 앞설 수 있었을 것”이라고 아쉬움을 드러냈다.수 년간 지연되던 정부의 빗장이 풀린 것은 아이러니하게도 경쟁사인 브루커와 비오메리으가 국내 시장에 진출하면서다. 두 회사에 대한 식품의약품안전처(식약처) 허가가 신속히 나오고 나서부터 아스타에도 병원체 샘플을 활용하여 데이터베이스를 만들 수 있는 기회가 주어졌다.브루커와 비오메리으 진출 이후 아스타는 또 다른 시련을 겪었다. 아스타를 경계한 두 회사가 막대한 자금력으로 아스타를 적극 견제했기 때문이다. 그는 “경쟁사에서는 다른 나라 시장에서 보통 20만~35만달러에 판매하는 말디토프 질량분석장비를 한국에선 아주 낮은 가격에 팔고 대신 기기 매출이 아닌 소모품 및 검사 1건당 가격으로 매출을 올리더라”며 “상대적으로 규모가 작은 아스타가 미생물 동정기기 시장에 진출하는 것을 어렵게 만들었다”고 말했다.‘사우디-한국 산업단지’(SKIV) 프로젝트에 21개 기업 중 하나로 참여하게 된 것도 아스타의 기술력이 경쟁사보다 낫다는 점을 사우디아라비아 정부가 인정했기 때문이라는 것이 조 대표의 설명이다. 그는 “아스타의 의료용 말디토프 질량분석장비가 경쟁사보다 낫다고 사우디 정부를 설득했다”며 “이 프로젝트를 통해 사우디와 주변 16개 중동국가, 북아프리카에 의료용 기기를 판매할 예정”이라고 했다.결국 아스타는 전략을 바꿔 의료용의 경우 해외로 기술을 라이선싱해 매출 및 이익을 가져온 후 국내 시장에 확대하기로 했다. 반도체, 디스플레이, 이차전지 등 새로운 응용 분야인 산업용 시장을 선점해 고가 말디토프 시장을 선도할 방침이다. 현재 아스타가 세계 유일하게 가능한 미생물 및 암 검사용 클라우드 서비스 사업은 소, 돼지, 닭 등 동물 검사에서 시작해 사람 질병으로 확대하는 새 전략을 진행시키고 있다. 조 대표는 “오는 3분기를 시작으로 내년부터 결실이 가시화될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.07.01~2022.07.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.07.01~2022.07.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CU서 토스머니 충전한다…CU·토스 업무 제휴</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013301265?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[CU 제공. 재판매 및 DB 금지](서울=연합뉴스) 황희경 기자 = 편의점 CU를 운영하는 BGF리테일은 모바일 금융플랫폼 '토스'를 운영하는 비바리퍼블리카와 업무협약을 맺고 전국 CU에 토스머니 충전 서비스를 도입한다고 11일 밝혔다.    토스머니 충전서비스는 토스 앱을 기반으로 한 선불충전금인 토스머니를 CU에서 충전할 수 있는 서비스다.    토스 앱에서 생성한 바코드를 CU 점포 근무자에게 제시하고 충전할 금액을 현금으로 지불하는 방식으로, 용돈 등을 현금으로 받는 청소년 사용자들도 이용할 수 있다.    두 회사는 이 밖에도 온·오프라인 플랫폼과 서비스를 결합해 고객 이용 편의를 높일 수 있는 서비스를 지속해서 검토해 나갈 계획이다.    연정욱 BGF리테일 마케팅실장은 "토스와 지속적인 협업을 통해 핀테크(FIN-Tech·금융과 디지털 기술의 결합) 기술의 편리함을 일상 속에서 자연스럽게 경험할 수 있는 서비스를 선보일 것"이라고 말했다.    zitrone@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>네파·카페·토스도 서비스혜택 바꿀 때 6개월 전 고지해야</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004767803?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>금융위원회네이버파이낸셜, 카카오페이, 토스 등 선불·직불지급사업자도 연계서비스를 바꿀 때 신용카드처럼 6개월 전 고지해야 한다. 동일 기능·동일 규제 원칙에 따라 평평한 운동장을 만드는 조치 중 하나다. 또 일반 금융소비자에게 고난도 상품, 사모펀드 등의 방문판매는 금지된다. 금융위원회는 이 같은 내용을 담은 금융소비자 보호에 관한 법률 시행령 및 감독규정을 입법예고한다고 6일 밝혔다.우선 선불·직불지급수단(전자지급수단 포함)에도 연계서비스 규제가 적용된다. 연계서비스 규제란 서비스에 대한 설명하고, 서비스 축소·변경 시 6개월 전 고지의 의무화를 골자로 한다. 그간 신용카드와 달리 토스, 카카오페이 등이 상품을 출시한 후 얼마 지나지 않아 혜택을 변경해 논란이 일은 바 있다.개정된 방문판매법이 12월8일부터 시행됨에 따라 원치않는 금융상품의 방문판매를 막기 위해 불초청권유 금지범위도 재검토한다. 원칙적으로 금소법 상 고객의 요청이 없으면 방문, 전화를 통한 투자성 상품의 권유가 금지돼 있으나, 시행령에서 넓은 예외를 인정해 장외파생을 제외한 대부분 투자성 상품을 방문판매할 수 있다. 이에 금융위는 전문 금융소비자가 아닌 일반 금융소비자에게는 고난도 상품, 사모펀드, 장내·장외파생 상품의 판매를 금지한다.외화보험에는 소비자 성향에 비췄을 때 부적합한 금융상품의 권유를 금지하는 적합성과 소비자가 구매하려는 상품이 소비자에게 부적절한 경우 고지나 확인해야 하는 적정성 원칙이 적용된다. 기존에는 외화보험의 경우 환율 변동에 따라 손실가능성이 있음에도 이 원칙들이 적용되지 않았다.전자서명 외 휴대폰 인증, 신용카드 인증 등을 통해서도 금융소비자의 확인을 받을 수 있는 전자 방식도 확대된다. 상품을 끼워파는 이른바 '꺾기'에 대해서도 '자신이 판매하는 다른 금융상품의 계약 체결을 소비자에게 강요하는 행위'라는 점을 명시해 이를 방지할 계획이다. 또 이사회가 없는 외국금융사의 지점은 대표자가 참여하는 내부 의사결정기구 승인으로 내부통제기준을 제·개정 가능토록 한다. 금융위 관계자는 "다음달 16일까지 입법예고 기간을 갖고 법제처 심사 등을 거쳐 올 하반기에 금소법 시행령과 감독규정 개정안을 시행할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.07.14.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>금리인상 상품 뜯어보니, 1%대 예금 모두 2%대로 껑충</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004770974?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>서울 중구 하나은행 본점 영업부/사진=뉴시스한번에 기준금리를 0.5%포인트 올리는 빅스텝이 단행되면서 금리 인상 효과가 곧바로 나타났다. 1%대에 머물던 은행 예금상품이 하루 사이 일제히 2%대로 뛰는 등 이전보다 증가 속도가 빠르고 폭이 컸다. 다만 여전히 최고 인상폭이 적용된 상품은 미끼 성격이 강했다. 14일 은행권에 따르면 하나·우리 등 시중은행은 한국은행 금융통화위원회가 기준금리를 0.5%포인트 올리자 곧바로 예·적금 금리를 인상했다. 최고 인상폭은 빅스텝에 걸맞게 어느 때보다 컸다. 하나은행 0.9%포인트, 우리은행 0.8%포인트 등이다. 상품별 금리 인상폭을 하나씩 살펴보면 빅스텝 효과는 뚜렷했다. 하나은행은 모두 30개 상품의 금리를 올려잡았는데 예금은 최소 인상폭이 0.5%포인트로 기준금리 인상폭과 동일했다. 1년 이상 돈을 맡기면 대부분 예금 상품에서 2% 이상의 금리가 적용됐다. 대표적인 예금 상품인 '하나의 정기예금'은 가입기간 1년 이상~2년 미만 기준 금리가 1.7%에서 2.3%로 뛰었다. 우리은행에서도 1%대였던 예금 상품 금리가 줄줄이 2%대로 오른 것이 가장 큰 변화였다. 1년 이상~2년 미만 가입 기준 정기예금 금리는 1.75%에서 2.05%로, '우리 슈퍼 정기예금'은 1.9%에서 2.4%로 상향됐다. 빅스텝 이전에 선제적으로 수신금리를 인상한 신한은행의 예금, 적금 평균 인상폭은 각각 0.57%, 0.46%로 기준금리 인상폭과 비슷했다. 기준금리가 0.25%포인트 올랐을 때와 비교해서 0.5%포인트 인상된 데 따른 효과는 좀더 컸다. 최고 인상폭, 평균 인상폭 모두 근래 최대치였다. 경제·금융 전문가들이 줄곧 빅스텝 전망에 무게를 실어왔기에 은행들도 선제적으로 수신금리를 상향 조정했다. 금융당국과 정치권의 금리 압박도 한몫했다. 예대마진이 과도하다는 비판 여론이 생겨났고 예대금리차 매월 공시가 다음달부터 도입되면서 은행들이 발빠르게 움직였다. 대출금리를 마냥 낮추기 어려우니 예금금리를 올리는 식으로 대응책을 마련한 것으로 보인다. 한은 금통위가 연말까지 기준금리 추가 인상을 염두에 둔 데다 다음달부터 예대금리차 공시가 시행되는 데 따라 예·적금 금리 인상은 계속될 전망이다. 지난해 하반기만 해도 토스뱅크가 처음으로 입출식예금에 2% 금리를 주는 '2% 통장'을 들고 나왔을 때 시중은행 예금 금리보다 높아 반향이 컸는데 1년 사이 분위기가 달라졌다. 다만 여전히 최고 인상폭이 적용된 상품이나 특판 상품엔 미끼 성격도 강하다. 금리가 두드러지게 높지만 월 납입 한도가 30만원에 그치는 등 제약이 따르는 식이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>씨티가 남긴 '8조' 두고 경쟁 치열…연 3% 대출에 연장까지</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004719167?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>토스뱅크·국민은행, 0.3~0.4%포인트 우대금리 제공하나은행, 최대 3%포인트 금리우대 혜택최근 금리 급등으로 우대금리 혜택 크지 않을 수도토스뱅크가 씨티은행의 '개인신용대출 대환 제휴 프로그램'을 전개한다. (사진 = 토스뱅크)씨티은행이 소매금융사업을 철수하면서 8조원 규모 개인 신용대출 자금이 대환(갈아타기) 대출 시장에 나왔다. 씨티은행과 제휴를 맺은 은행 외에 다른 시중은행도 우대금리를 내걸어 대환대출 경쟁에 뛰어들었다. 1일 은행권에 따르면 씨티은행의 개인 신용대출 잔액은 지난 3월말 기준으로 약 8조409억원에 달한다. 씨티은행은 '개인신용대출 대환 제휴 프로그램'을 이날부터 전개한다. 앞서 KB국민은행, 토스뱅크와 제휴 협약을 맺었다. 제휴은행을 이용하면 간편하게 갈아타기를 할 수 있다는 게 장점이다. KB국민은행과 토스뱅크를 이용하면 별도의 서류 제출 없이 100% 비대면으로 대환이 가능하다. 이들 제휴 은행은 씨티은행 대출 정보를 공유받을 수 있기 때문이다. 또 중도상환해약금 및 인지세가 면제되고, 출금액의 증액이 없으면 차주별 총부채원리금상환(DSR) 등 가계대출 규제 면제도 적용된다. 금리 혜택도 받을 수 있다. 토스뱅크는 대환 대출을 이용할 경우 0.3%포인트 금리 할인 혜택을 제공한다. 대출 기간은 기존 씨티은행에서 동일한 조건에 따라 최소 5년 간 대출 만기 연장이 가능하며, 이후엔 토스뱅크가 정한 조건에 따라 추가로 5년 더 연장(최대 10년)할 수 있다.KB국민은행은 0.4%포인트 우대금리를 제공하고, '웰컴 우대금리(0.2%포인트)'도 별도 조건 없이 일괄 적용된다. 자체 신용평가 결과 6등급 이내 고객에게도 우대금리 최대 0.2%포인트가 추가 적용돼, 많은 고객이 최대 0.4%포인트의 우대금리 혜택을 받을 수 있다. (사진 = 한경DB)다른 시중은행도 경쟁에 뛰어들었다. 제휴사로 선정되지 않은 하나·우리·신한은행은 높은 우대금리 혜택을 앞세웠다. 하나은행은 씨티은행 신용대출 고객이라면 최대 2.1%포인트의 기본 우대금리를 적용한다. 추가 거래를 약속할 경우, 0.9%포인트를 더해 최대 3%포인트의 금리 우대 혜택을 제공한다. 대출 한도는 대환 금액 범위 내에서 최대 2억2000만원까지 가능하다.우리은행은 최대 1.5%포인트 우대금리를 제공, 최저 연 3% 초반 수준으로 대출을 이용할 수 있다. 대출한도는 대환금액 범위 내에서 연소득의 최대 230%까지 부여하며, 최대 3억원까지 가능하다. 신한은행도 거래 실적에 따라 최고 연 1.6%포인트까지 금리를 감면해준다. 대출은 현재 보유중인 씨티은행 신용대출 원금 이내에서 최대 5억원까지 취급한다. 또 고객 피해를 최소화하기 위해 최초 씨티은행에서의 신용대출 신규 취급 시점에 따라 가계대출 관련 연소득 및 DSR 규제를 적용했다.이처럼 제휴를 맺지 않은 시중은행들도 씨티은행 대환대출 경쟁에 뛰어든 이유는 가계대출이 줄고 있어서다. KB국민·신한·하나·우리·NH농협 등 5대 은행의 6월 말 기준 가계대출 잔액은 699조4183억원으로, 5월 말과 비교해 1조6432억원 줄었다. 가계대출 잔액은 6개월 연속 감소하고 있다. 씨티은행 신용대출을 쓰고 있는 고객이라면 금리 수준을 잘 따져봐야 한다. 제휴은행은 고객이 씨티은행에서 받았던 대출 금리를 그대로 적용해주지만, 다른 은행들의 경우 현재 기준금리 상황과 고객 신용평가를 통해 다시 적용 금리를 산출하기 때문이다. 여기에 우대금리를 적용해서 최종 대출금리가 결정되기 때문에 기존 대출금리와 비교해 차이가 날 수 있다. 지난해 8월부터 기준금리가 가파르게 올라온 만큼, 우대금리 효과가 크지 않을 수도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>의정부문화재단 22∼24일 가족 공연 예술 축제</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013304512?sid=103</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>(의정부=연합뉴스) 김도윤 기자 = 경기 의정부문화재단은 오는 22∼24일 지하철 1호선 의정부역 앞 아트캠프와 시민정원에서 가족 공연 예술 축제 '예술극장 보물찾기'를 연다고 12일 밝혔다.    이번 축제는 의정부문화재단과 협력단체인 '예술무대 산'을 비롯해 어린이극 창작단체들이 릴레이로 선보이는 15∼20분 분량의 '한 뼘 공연'을 관객들이 찾아다니면서 관람하는 방식으로 진행된다.    특별 공연으로 브러쉬씨어터의 매직 드로잉 가족극 '두들팝'도 무대에 오른다. 개구쟁이 두 주인공이 그린 낙서가 살아 움직이며 호기심과 상상력을 자극한다고 주최 측은 설명했다.    이 공연은 2018년 에든버러 페스티벌 화제작, 아시안 아츠 어워드 베스트 코미디상, 2019년 대한민국 콘텐츠 대상 등에 선정되기도 했다.    이밖에 축제장 주변에서는 핼러윈 가면 만들기, 링 토스 게임, 볼링 게임, 자이언트 젠가, 얼음 속 보물찾기 등 다양한 체험 행사도 즐길 수 있다.    특별 공연 관람료는 3만원이며 나머지 프로그램은 무료다.    kyoon@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.07.09.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>[토요리뷰]'J형'이 되고 싶은 'P형'을 위해…구독 관리 '왓섭'</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006206914?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>신용카드·계좌 연동으로 구독 서비스를 '한눈에'구독 상품 맞춤형 추천도…서비스 인식 정확도는 아쉬워구독 관리 애플리케이션 '왓섭' 이용 화면 갈무리 © 뉴스1(서울=뉴스1) 윤지원 기자 = "잊고 살아요. 우리가 챙길게요." 온라인동영상서비스(OTT)와 음악은 물론, 도서에 심지어는 식품까지. 각종 구독 서비스가 늘어나면서 결제 금액을 일일이 파악하기가 번거로워졌다. 결제 알림 문자가 뜨면 그제야 돈이 빠져나간 사실을 알게 된다.지난 2020년 2월에 출시된 '왓섭'은 이같은 문제의식에서 출발했다. 한마디로 최근 유행하는 성격유형검사 'MBTI'의 언어를 빌리자면 계획과 질서를 중시하는 'J형'(판단형)이 되고 싶은 'P형'(인식형)을 위한 앱이라고 할 수 있겠다. "구독의 홍수" 속에 허덕이기 쉬운 요즘, 흩어져 있던 여러 구독 서비스를 관리해준다는 앱 왓섭을 직접 써봤다.왓섭의 원리는 간단하다. 이용자가 신용 및 체크카드, 은행 계좌 또는 공인인증서를 등록하면 매달 결제되는 구독 서비스를 한눈에 모아 보여준다. 계좌 등이 연동되면 직관적인 사용자 인터페이스(UI)가 가장 먼저 눈에 들어온다. 화면에는 구독하고 있는 서비스 목록, 결제 금액, 결제일 등이 표시된다. 이번달 지출 총액, 현재까지 결제가 된 금액도 볼 수 있다. 화면 상단에는 총 몇건의 구독 서비스가 며칠 뒤에 결제되는지가 표시된다. 서비스 결제 3일 전부터는 푸시 알림으로도 알려준다.구독 관리 애플리케이션 '왓섭' 소개 홈페이지 갈무리 © 뉴스1대부분의 구독 서비스는 1만원 단위의 결제가 많은데 매달 빠져나가는 금액의 총액을 한눈에 볼 수 있다는 점에서 '구독 다이어트'에도 요긴하다. 이외에 1000원 단위의 소액 결제 내역까지도 파악할 수 있다. 구독 서비스뿐만 아니라 교통·통신비 등 정기적인 생활 지출 내역 또한 확인할 수 있다. 물론 기존에도 결제 내역을 관리해주는 앱은 많았다. 토스와 뱅크샐러드가 대표적이다. 이와 달리 왓섭은 구독 관리에 초점을 둬 앱 내에서 바로 서비스 해지도 할 수 있도록 했다.'간편 해지' 메뉴를 선택하고 해지하고 싶은 서비스를 누르면 그 이유를 선택하라는 화면이 뜬다. 이후 서비스의 계정을 입력하면 계정 해지, 웹페이지 내 해지, 전화 해지 중에 선택할 수 있다.구독 관리 애플리케이션 '왓섭' 이용 화면 갈무리 © 뉴스1왓섭의 구독 관리 기능은 무료다. 현재 서비스를 이용 중인 20만여명의 이용자로부터 벌어들이는 수익은 없다. 그렇다면 왓섭은 어떻게 수익을 창출할까. 왓섭은 이용자들의 결제 내역을 분석해 맞춤형 구독 상품을 추천하고 있다. 앱 내에서 바로 커피, 아이스크림, 빵, 과일 등의 식품은 물론 휴지, 세제 등의 생필품을 구독할 수 있다. 현재 1500여개 품목이 마련돼있으며 Δ식품 Δ음료 Δ생필품 Δ뷰티 Δ건강 Δ반려동물 Δ출산·육아 Δ취미·여가 등 총 8개 카테고리로 구분된다. 왓섭에 따르면 이중에서도 커피 구독 서비스는 이용자들로부터 반응이 좋은 상품 중 하나라고 한다. 왓섭 앱을 통해 구독 상품을 결제하는 이용자가 늘어날 때마다 구독 서비스 사업자로부터 수수료를 받는다. 다만 OTT, 음악 등의 디지털 콘텐츠를 앱 내에서 바로 구독할 수 있는 기능은 없다. 구독 서비스 인식 정확도가 개선될 필요도 있다. 예컨대 구글 인앱결제 내역을 모두 유튜브 프리미엄으로 인식하는 식이다. 실제로 구글 저장소 '구글 원' 요금제가 유튜브 프리미엄으로 잘못 표시되기도 했다. 이에 대해 왓섭 측은 학습을 통한 서비스 고도화는 필요하다는 입장이다. 김준태 왓섭 대표는 "현재 정확도가 92%인데 스팟형으로 검증해보면 96%까지는 나온다"면서도 "내부 학습을 시킨 다음에 향후 업데이트하는 식으로 진행하고 있다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>재택근무보다 더 좋다는 직장인 복지 1위는?</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003701323?sid=102</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>“금요일 2시에 퇴근해서 팀원들이랑 골프치러 가요.” 직장인 A씨 이야기입니다. 같은 직장에 다니는 B씨는 본가가 부산이라 매주 금요일 3시면 기차를 타고 부산으로 내려갑니다. 금요일 이른 오후에 퇴근이라니, 이들은 직원 처우가 남다른 외국계 기업에 다니고 있는 걸까요? 아닙니다. 이젠 국내 기업에서도 이런 사례들이 나오고 있습니다. 최근 주 4.5일제를 운영하는 국내 기업들이 늘어나고 있습니다. 직원들은 금요일 오후 2시에 퇴근하거나 월요일 오후 2시에 출근하는거죠. 4.5일 근무제를 실시하는 회사 직원들은 “금요일도 주말 같아서 회사 복지 중 가장 만족한다”고 말했습니다.◇직장인이 원하는 복지 1위는 ‘주 4일제’최근 채용 플랫폼 인쿠루트가 발표한 조사를 보면 다들 같은 생각인 것 같습니다. 직장인 885명에게 본인 회사에서 시작했으면 하는 사내 복지제도가 무엇인지 물어봤습니다. 1위는 주 4일제(23.4%)로 나왔습니다. 2022년 4월 29일부터 5월 1일까지 사흘 간 조사했는데요.그 다음으로는 재택근무 시행(7.3%), 탄력근무제(7.1%)를 꼽았습니다. 직장인들은 물품이나 서비스를 제공하는 것보다 근무 형태를 개선하는 복지를 더 원하는 것으로 나타났습니다.희망하는 사내 복지제도 직장인 대상 설문조사. /인쿠르트앞으로 기업에선 주 4일제 같은 워라벨 복지에 신경 써야할 것 같습니다. 취업준비생들이 기업을 선택할 때 크게 작용하기 때문입니다.잡코리아가 Z세대(1990년대 중반~2000년대 초반 태생) 대학생과 취준생 1923명 대상으로 한 설문조사를 봐도 알 수 있습니다. 그들에게 취업할 기업에 대해 뭐가 가장 궁금한지 물었는데, 전체 응답자 중 가장 많은 62.0%가 ‘직원 복지 제도’가 궁금하다고 했습니다. 그 다음 순위들을 살펴봐도 놀랍습니다. 연봉 보다 복지 제도나 조직 문화, 소재지와 같은 근무 환경을 더 궁금해했습니다. 연봉보다 워라벨에 영향을 주는 것들을 중요하게 여기는 것입니다.◇금요일 2시 퇴근…우리나라도 주 4일제 기업 점점 생겨코로나19로 근무 방식이 다양해졌습니다. 사무실에서 모두 월요일부터 금요일 9시부터 6시까지 일할 필요는 없다는 걸 체감했기 때문입니다. 기업들도 이런 외부적인 요인과 직원들의 요구에 빠르게 반응하고 있습니다. 현재 몇몇 국내 기업들에서 주 4일, 주 4.5일 근무제를 시작했습니다. 대기업 중에서도 IT와 게임, 엔터테인먼트와 같은 창의성을 중시하는 업종에서 먼저 도입하고 있습니다.CJ ENM 엔터테인먼트 사옥./ CJ ENM 제공CJ ENM 엔터테인먼트는 2022년부터 매주 4.5일제를 시작했습니다. 2021년에는 격주로 4.5일제를 했는데요. 직원들 반응이 좋아 매주로 확대했습니다. 일명 ‘B.I+(Break for Invention+)’ 제도입니다. 매주 금요일에는 오전 4시간만 일하고 2시에 퇴근합니다. CJ ENM 직원은 “우리 회사가 콘텐츠를 만드는 기업이다 보니 금요일에 일찍 퇴근하고 새로운 영감을 얻으러 다닌다. 영화나 전시회, 콘서트를 보러 간다. 실제로 콘텐츠를 기획 할 때 도움이 된다. 은행이나 병원과 같은 업무를 보기에도 좋다. 인사팀에서 4월 말에 이 제도에 대한 만족도 설문조사를 했다. 회사에서도 직원 복지를 신경 쓰는 느낌이 든다”고 말했습니다. 매주는 아니지만 한 달에 한 번이나 2주에 한 번 금요일에 쉬게 해주는 기업들도 점점 늘고 있습니다. 카카오게임즈는 2018년 7월부터 3년간 매달 마지막 금요일마다 전 직원이 쉬는 ‘놀금 제도’를 시행했습니다. 2021년 4월부터는 이를 격주로 확대했습니다. 카카오게임즈 관계자는 “직원들로부터 업무 효율이 높아졌고 워라밸에 만족한다는 평가를 많이 받았다”고 밝혔습니다. SK그룹도 일부 계열사에서  주 4일제를 하고 있습니다. SK그룹의 SK수펙스추구협의회는 격주로 주 4일제를 합니다. SK텔레콤은 매달 셋째주 금요일에 쉬는 월 1회 주 4일제를 운영 중입니다.주 32시간 근무제를 도입한 우아한 형제들./ 우아한 형제들 제공스타트업 업계에서도 이런 흐름이 이어지고 있습니다. ‘배달의 민족’을 운영하는 ‘우아한 형제들’도 2022년부터 주 32시간 근무를 시작했습니다. 직원들은 월요일 오후에 출근합니다. 화요일부터 금요일은 7시간씩 근무합니다. ‘여기어때’의 위드이노베이션과 ‘토스’의 비바리퍼블리카에서도 주 4.5일제를 시행하고 있습니다.◇해외는 이미 주 4일제에 ‘성큼’유럽 일부 국가에서는 본격적으로 주4일제가 자리 잡고있습니다. 스페인 정부는 2021년에 주 4일제 시범 사업을 시작했습니다. 200개 중소기업 직원 6000여 명이 대상입니다. 직원들 근무시간이 줄어서 기업에서 발생한 추가 비용을 정부가 첫해에 전액 지원합니다. 둘째 해엔 50%, 세번째 해엔 33% 보상하기로 했습니다. 스페인 정부는 이를 위해 5000만 유로(약 670억원)의 예산을 배정했습니다. 국가적인 차원에서 주4일제를 장려하는 것입니다.주4일제 프로그램을 진행하는 포데이위크글로벌. /포데이위크글로벌 홈페이지 캡처프랑스는 이미 주 35시간제를 시행 중입니다. 벨기에는 기존 법정 근로시간 내에서 하루 근무시간을 줄이는 유연근무 방식의 주 4일제를 허용했습니다. 스코틀랜드 정부도 2023년부터 6개월간 주 4일제 실험을 진행합니다. 영국은 60개 회사, 직장인 3000명이 주 4일제를 경험할 예정입니다. 영국 옥스퍼드·캠브리지대와 미국 보스턴대가 진행하는 ‘포데이위크글로벌’(4 Day Week Global) 프로그램에 참가하기로 했습니다.◇주 4일제 정말 괜찮을까?주 4일만 일하면 다른 요일에 업무가 많아지진 않을까요? 일의 양을 줄여야하는 걸까요? 아이슬란드가 4년간 주 4일제 실험을 한 걸 보면 안심할 수 있습니다. 아이슬란드에서는 국가적 차원에서 다양한 직업군에 2015년부터 2019년까지 주 4일제를 시행하게 했습니다. 사무직, 관리직, 교사, 병원 종사자 등 다양했습니다. 임금은 주 5일을 일했을 때와 똑같이 줬습니다. 그 결과 연 1.7% 오르던 노동생산성이 3.8%로 증가했습니다. 삶의 만족도도 올라갔습니다. 현재 아이슬란드 노동자의 85% 이상은 주 4일제 근무를 하고 있습니다.또 미국의 소프트웨어 회사인 마이크로소프트(MS)의 일본지사가 2019년 8월 한 달 동안 실험한 주4일제 결과도 매우 성공적이었습니다. MS 일본지사는 워라벨 프로그램인 ‘워크라이프 초이스 챌린지(Work-Life Choice Challenge Summer)’을 도입했습니다. 2300여 명의 직원에게 임금은 그대로 유지하고, 금요일을 쉬도록 했습니다. 그 결과 1인당 매출 기준 생산성이 39.9% 증가했습니다. 또 전기 사용량은 23.1%, 서류 출력 및 복사 횟수는 58.7% 줄었습니다. 비용 절감 효과도 봤으니 기업 입장에서도 좋은 것이죠.주 4일제 의무화 법안이 발의된 캘리포니아./ 픽사베이최근 미국에서는 50개주 중 인구가 가장 많은 캘리포니아(3900만명)가 ‘주 4일제’ 법제화에 시동을 걸었습니다. 캘리포니아 주의회는 4월 18일(현지 시간) 500명 이상 직원이 다니는 기업은 ‘주 4일, 32시간 근무제’를 의무화하도록 하는 법안을 발의했습니다. 기존 주 5일, 40시간에서 8시간이 줄었습니다. 임금 삭감은 금지되고, 32시간보다 더 일할 땐 정규 급여의 1.5배 이상 수당을 지급하라는 내용도 포함했습니다. 법안이 통과되면 캘리포니아 기업 2600여 곳이 영향을 받게됩니다.  이런 분위기 덕분인지 해외 온라인에서는 “’TGIF‘(Thank God, It’s Friday)가 아니라, ‘TGIT(Thank God, It‘s Thursday)’라고 불러야한다”며 환호하고 있습니다. TGIF는 평일에서 해방될 때 기쁨을 뜻하는 말입니다. 우리나라도 TGIT의 시대가 올까요?</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>싼 이자로 ‘대출 갈아타기’...0.01%P가 생활을 바꾼다 [재테크 플러스]</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002014015?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>아는 만큼 줄이는 ‘금리 노마드 시대’주택 시가 4억이하 대출자 대상 지원9월 고정금리 방식 ‘안심전환대출’ 출시핀테크 앱통해 금융사 금리 꼼꼼히 비교씨티銀 대출자, 다른은행·인뱅 이동 가능자영업자 ‘은행권 고금리’ 전환도 물꼬#이른바 ‘영끌(영혼 끌어모은 대출)’로 주택담보대출을 받은 직장인 이모씨. 금리가 급등할지 전혀 예상하지 못한 이 씨는 지난해 1년 변동 금리로 대출을 갱신했다. 그러나 기본금리인 금융채 1년물 금리가 세 배 오르면서 매달 내던 원리금이 90만원에서 110만원으로 늘었다. 해마다 원금의 10% 내에서 중도상환수수료 없이 원금을 조금씩 갚으면서 원리금을 줄여왔으나 가만히 앉아 있는데도 원리금이 늘자 원금 상환에 대한 의욕이 크게 떨어졌다.대출 받은 은행에 금리인하요구권을 행사했지만 은행의 심사 결과는 0.01% 인하에 그쳤다. 한달에 2000원 덜 내는 수준이다. 대출을 갈아타려고 해도 조건을 충족하지 못해 이러지도 저러지도 못하는 상황이다.금리가 급등하면서 0.01%라도 낮은 금리를 적용받기 위해 대환대출, 이른바 ‘대출 갈아타기’를 위한 금융소비자들의 관심이 커지고 있다. 당장 대출 원금을 갚지 못하는 상황에서 매달 내는 이자라도 줄이기 위해선 현재 금융시장에 나온 상품에 대해 꼼꼼히 따져봐야 한다.▶주택담보대출, 안심전환대출로 갈아타기=은행연합회에 따르면 시중은행들이 취급하는 주택담보대출에 적용되는 코픽스 금리는 지난해 연초 0.90%에서 6월 15일 공시 기준 1.98%로 두 배 이상 올랐다. 또 다른 기준인 금융채(무보증, AAA 1년물) 금리는 상승세가 더 가파르다. 연초 1.719%이던 금리는 6일 기준 3.581%로 뛰었다.내집 마련을 위해 주택담보대출을 받은 이들의 시름이 커질 수밖에 없다. 이에 생각해 볼 수 있는게 오는 9월 출시 예정인 ‘안심전환대출’이다. 제 1·2금융권의 변동·혼합금리 주택담보대출을 고정금리로 바꿔주는 상품이다.부부합산 소득이 7000만원 이하이고 주택 시가가 4억원 이하인 대출자를 대상으로 최대 2억5000만원을 지원한다.정부는 올해 20조원 규모를 공급하고, 내년에도 금리와 시장 상황 등을 고려해 20조원을 추가 공급할 방침이다.정부는 주택가격을 기준으로 구간을 설정해 낮은 순부터 9월 중순부터 10월초까지 순차적으로 주택금융공사와 시중 은행을 통해 신청을 받을 계획이다. 이후 최소 60일 이상의 심사기간을 거쳐 11월쯤 대출이 이뤄질 예정이다.다만 안심전환대출 금리는 시행 시점에 보금자리론 금리에서 0.3%포인트 낮춘 금리를 적용하고, 지원의 형평성과 신속심사를 위해 추가 우대금리는 운영하지 않을 방침이어서 이를 감안해 대출 신청을 결정해야 한다.▶핀테크 금리 비교로 저금리 대출 갈아타기=핀테크 애플리케이션(앱)을 이용하면 은행별로 방문하지 않고도 비대면으로 저금리 대출 상품을 알아볼 수 있다.먼저 앱을 이용한 대환대출은 토스가 대표적이다. 토스는 지난 2019년 5월 금융위원회로부터 혁신금융서비스로 선정된 이후 같은 해 8월 ‘대출 비교 서비스’를 시작했다. 해당 서비스는 토스 앱 내 ‘대출받기’ 메뉴를 통해 제공되며, 간단한 사용자 정보를 입력하면 48개 금융사의 신용대출 상품 금리와 한도 비교가 가능하다. 만 19세 이상 본인 명의 휴대폰을 가진 이라면 누구나 이 서비스를 이용할 수 있다.이러한 대환대출 서비스는 제일 낮은 금리를 제안해주는 금융회사를 손쉽게 비교 가능하다. 특히 오프라인 상담에 필요한 지점방문, 대출 상품 상담, 가심사 조회, 실제 대출 심사 요청 등 여러 절차를 한 번에 해결할 수 있다.데이터 기반 원스톱 대출 관리 서비스를 운영하는 대출 전문 핀테크 기업인 ‘핀다’도 대출 서비스를 운영하는 국내 324개 금융사와 마이데이터로 연계해 대출 비교 서비스를 제공한다.특히 핀다는 지난해 8월 통합대출관리 서비스 중 하나인 ‘대환대출 진단’ 알림 기능을 도입, 핀다에서 대출받은 고객을 대상으로 1개월 후 더 좋은 조건을 가진 대출이 있는지 조회 후 비교할 수 있도록 하고 있다.▶씨티은행 대출자는 시중은행 저금리 대출로 갈아타기=한국씨티은행의 소매금융사업 철수로 이달부터 개인고객 신용대출 갈아타기가 시작됐다. 금융권에 따르면 씨티은행 대환대출 제휴사로는 KB국민은행과 토스뱅크가 있다. 제휴은행은 대환금액 한도가 없어 기존 대출 그대로 갈아탈 수 있다.KB국민은행은 0.2%포인트의 우대금리를 일괄 적용한다. 자체 신용평가 결과 6등급 이내 고객에게는 우대금리 최대 0.2%포인트가 추가 적용돼 최대 0.4%포인트 혜택을 받을 수 있다. 대환 시 발생하는 인지세는 은행이 전액 부담한다. 대출기간 중 상환 시 발생하는 중도상환수수료도 면제한다. KB국민은행은 오는 31일까지 KB 제휴 대환 신용대출 고객을 대상으로 1000만원 이상 대환을 완료하고 KB스타뱅킹에서 이벤트에 응모한 고객 중 선착순 1만명에게 6개월간 0.3%포인트 상당의 이자 지원금을 제공한다. 토스뱅크는 0.3%포인트의 금리를 할인해 준다. 인지세 및 중도 상환 수수료도 전액 면제된다. 대출 기간은 기존 씨티은행에서의 동일한 조건에 따라 최소 5년간 만기 연장이 가능하다. 이후에는 토스뱅크가 정한 조건에 따라 추가로 5년 더 연장(최대 10년)할 수 있다. 연체가 발생하거나 채권 추심 절차가 진행 중인 고객은 제외된다.비제휴은행은 회사별 대환금액 한도가 있다. 적용 금리는 현재 기준금리와 고객 신용평가를 반영해 재산출한다. 최고 우대금리는 제휴사보다 비제휴사가 높고, 인지세나 수수료 면제 혜택은 동일하다. 이에 고객별로 대출 규모와 적용 금리에 따라 대환에 유리한 은행이 달라질 수 있다. 대출금액을 복수 은행에 나눠서 대환하는 것도 가능하다.▶금융당국, 1금융권 대출 갈아타기 문 열어=대출 갈아타기에 대한 수요가 클 것으로 보고 금융위원회는 코로나19로 피해를 본 소상공인과 자영업자의 고금리 대출을 저금리 대출로 전환하는 대상에 은행권 고금리 대출도 포함하기로 했다.금융당국 관계자는 “예산 과정에서 제기된 지적도 있었고 은행쪽에도 고금리 대출이 있어 은행 대출도 (소상공인 대환대출 지원 대상에) 집어넣는 걸로 했다”며 “최종 사업은 금융권과 협의를 통해 확정할 것”이라고 말했다.정부는 제2차 추경 금융분야 민생 지원 프로그램의 하나로 코로나19로 피해를 본 소상공인과 자영업자의 고금리 대출 대환 프로그램을 추진하고 있다.만기연장과 상환유예 조치가 9월말로 종료됨에 따라 10월부터 고금리 대출을 최대 7%대 저금리 대출로 차주당 3000만원 한도로 갈아타는 방식이다. 2금융권 소상공인 고금리 대출은 통상 15% 수준이다. 애초 정부는 예산안에서 이 사업을 7조5000억원 규모로 담았으나 국회 예산 심의 과정에서 8조5000억원 규모로 사업 규모가 늘었다. 지난 2월 기준 연 7% 이상 은행권 대출 규모는 4조5000억원 수준으로, 같은 기간 비은행권 7% 이상 대출 18조6000억원 규모의 25% 수준이다.2금융권의 고금리로 대출을 받은 소상공인과 자영업자가 관심을 가져볼 만하다.은행업계 관계자는 “대환대출 시 기존 대출의 중도 상환 수수료 등의 조건을 꼼꼼히 따져볼 필요가 있다”며 “금리인상기에 가중되는 이자부담을 상쇄할 대환대출 서비스를 통해 본인에게 유리한 금리와 한도를 제시하는 금융사로 변경해 부담을 더는 것도 현명한 재테크가 될 것”이라고 말했다.이태형 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>오늘의집·직방·리디, ‘세계 유니콘 클럽’ 입성…한국 기업 15개로 늘어</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011297922?sid=104</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>인테리어·라이프스타일 플랫폼 ‘오늘의집’과 부동산 중개 플랫폼 ‘직방’, 콘텐츠 플랫폼 기업 ‘리디’ 등 한국 스타트업 3곳이 글로벌 시장조사기관이 선정한 ‘세계 유니콘 클럽’에 추가됐습니다.  미국의 데이터 분석·리서치 기관 CB인사이츠에 따르면 이 기관이 현지시각 6일 발표한 ‘2022 글로벌 유니콘 마켓지도’에 포함된 세계 1천170개 유니콘 기업 목록에 이 3개 스타트업이 신규로 포함됐습니다.  유니콘 마켓지도는 기업가치가 10억 달러, 한국 돈 약 1조 2천994억 원을 넘는 ‘유니콘 기업’에 해당하는 비상장 스타트업을 인공지능, 핀테크, 교육기술 등 15개 분야로 분류해 한눈에 볼 수 있도록 정리한 것입니다. CB인사이츠는 매년 유니콘 기업 리스트를 업데이트해 발표하는데, 올해 지도는 이달 1일을 기준으로 작성됐습니다.  올해 지도에서 ‘오늘의집’과 ‘리디’는 15개 범주 가운데 이커머스·직접판매(D2C) 분야에 속했고, ‘직방’은 모바일·통신으로 분류됐습니다. 이에 따라 CB인사이트 유니콘 마켓지도에 포함된 국내 기업은 ▲비바리퍼블리카(토스) ▲컬리 ▲쏘카 ▲두나무 ▲무신사 ▲야놀자 ▲IGA웍스 ▲위메프 ▲지피클럽 ▲에이프로젠 ▲L&amp;P코스메틱 ▲옐로모바일 등 총 15개로 늘었습니다.  이 지도를 기준으로 2020년 말 전 세계 563개이던 유니콘 기업은 지난해 말 960개로 70% 넘게 증가했으나, 올해 들어 인플레이션과 금리 인상 등 글로벌 시장 상황이 악화하면서 증가 속도가 다소 둔화했습니다.[사진 출처 : CB인사이츠 캡처]</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>"나만 그런게 아니었어"…마통 연장하러 갔다 금리보고 놀랐다</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004989266?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>연 3.7%→6.7%로 2배 뛰기도"금리 오르지 않은 사람이 없다"한은, 내주 빅스텝 단행 시 금리 충격↑[사진 제공 = 연합뉴스] #6500만원 한도로 하나은행에서 마이너스통장(이하 마통) 대출을 쓰고 있는 A씨는 지난달 만기를 연장하면서 금리가 크게 뛰었다. 종전 연 4.6%에서 5.3%로 0.7%포인트 상승한 것. 이로 인해 연간 감당해야 할 이자는 종전 299만원에서 344만5000원으로 45만5000원 늘었다. A씨가 마통을 처음 개설했을 때 금리는 3.1%였다. 이후 금리 상승기를 맞아 만기를 연장할 때마다 마통 금리가 올라 현재의 5%대까지 부담하게 됐다.  #카카오뱅크에서 마통 대출을 받은 직장인 B씨는 다음달 만기 연장을 앞두고 있다. 현재 연 3.7% 금리로 마통 대출을 쓰고 있지만 만기 연장 시 금리가 연 6.7%로 최소 2배 오른다는 안내를 받았다. B씨는 "주변에 물어보니 마통 금리가 오르지 않은 사람이 없었다"고 말했다.  최근 마통 대출 만기 연장을 앞두고 부쩍 높아진 금리를 체감하는 직장인들이 많다. 월급은 그대로인데 고물가에 높아진 대출 금리까지 가중되고 있어 허리가 휠 지경이라는 하소연이 나온다. 게다가 다음주 한국은행이 금융통화위원회에서 기준금리를 한 번에 0.5%포인트 올리는 빅스텝을 단행할 것이란 전망에도 무게가 실리고 있다. 현실화할 경우 영끌(영혼까지 끌어 모아 내집 장만), 빚투(빚내서 투자) 가계에 적지 않은 금리 충격을 안길 것으로 보인다.   은행연합회에 따르면 5대 시중은행에서 지난달 신규 취급한 마통 대출 평균 금리는 연 4.52%~4.94%로 집계됐다. 6개월 전에는 연 4.04%~4.52% 수준이었다.이는 모두 신용점수가 높은 고신용 차주 대상의 마통 대출까지 포함한 수치로 '평균의 함정'이 있는 만큼 개별 차주별로는 금리 수준이나 상승에 대한 체감이 더 클 수 있다. 가령 우리은행이 지난달 신규 취급한 마통 대출 평균 금리는 연 4.68%이지만  개별 차주별로 보면 최고 금리는 연 10.47%였다. 평균 금리가 연 4.83%인 신한은행도 최고 금리는 연 11.37%였다.  5대 시중은행이 지난달 신규 취급한 마이너스통장 대출 금리. [자료 제공 = 은행연합회] 인터넷전문은행들의 마통 금리 상단은 8일 기준 최고 연 13.74%에 달했다.이날 기준 케이뱅크는 최대 2억원 한도의 마통 대출에 최저 연 4.40%부터 최고 연 8.81% 금리를 받는다. 예컨대 최저 금리로 5000만원을 쓰면 하루 이자가 약 6000원, 최고 금리로 사용하면 1만2000원 가량이다.토스뱅크가 운영하는 마통 상품의 금리는 연 4.77~13.74%로 한도는 최대 1억5000만원이다.마통 대출 금리가 오름세에 있다는 것은 한은의 통계에서도 나타난다. 한은이 가장 최근 발표한  '2022년 5월중 금융기관 가중평균금리'에 따르면 지난 5월 마통 대출 등 일반 신용대출 금리는 장단기 지표금리 상승 등에 기인해 연 5.78%를 기록했다. 이는 전월 대비 0.16%포인트 상승한 것이며 2014년 1월(연 5.85%) 이후 최고치다.이런 가운데 금리 인상기에 취약한 가계의 변동금리 대출 비중은 되레 확대되고 있다. 지난 5월 은행이 신규 취급한 가계대출 중 고정금리 비중은 17.4%로 전월의 19.2% 대비 줄어 4개월째 감소세가 이어졌다.반대로 변동금리 대출 비중은 4개월째 확대됐다. 가계의 변동금리 대출 비중은 5월중 82.6%로, 2014년 1월(85.5%) 이후 가장 높은 수준을 보였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>이복현 금감원장 "카드·빅테크 공정 경쟁 위해 제도 개선 필요"(종합)</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006198107?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>카드사 유동성 확보 방안·PF리스크 논의 진행이복현 금융감독원장이 5일 오전 서울 중구 여신금융협회에서 열린 여신전문금융회사 최고경영자(CEO)들과의 간담회에서 모두발언을 하고 있다. 2022.7.5/뉴스1 © News1 이광호 기자(서울=뉴스1) 한유주 기자,서상혁 기자 = 이복현 금융감독원장이 "카드업권과 빅테크 업계와의 공정한 경쟁을 위해선 제도 개선이 필요하다는 의견을 갖고 있다"고 밝혔다.이 원장은 5일 서울 중구 여신금융협회에서 열린 14개 여전사 CEO와의 간담회 직후 기자들과 만나 이같이 말했다.이 원장은 "결제나 중개 관련 업종에 빅테크가 진출하면서 여러 시장 여건이 변하고 있는 것에 대해 여전업권의 적극적인 의견이 있었다"며 "개인적으로도 공정한 경쟁이나 투명성 확보를 위해서는 제도 개선이 필요하다는 의견을 갖고 있어서 그부분에 대해 신임 금융위원장 내정자께도 건의할 예정"이라고 말했다.토스뱅크가 이달부터 카드론 대환대출을 시행하는 것과 관련해서도 "그와 관련된 여전 업계의 의견을 오늘도 들었다"며 "규제완화나 공정한 경쟁환경 조성을 위해 여전업 개정 TF를 금융위와 함께 추진 중이기 때문에 다같이 살펴보려고 생각 중이다"고 말했다.이 원장은 빅테크 업권과도 간담회를 진행할 계획임을 밝혔다. 그는 "일단은 여전업권도 그렇고 긴급한 리스크 차원에서 넓은 카테고리로 만나 뵙고 있는데 좀 더 작은 카테고리로 상황과 이해관계가 조금 다른 분들을 별도로 구분해 만날 계획은 있다"고 말했다.간담회에선 시장금리가 빠르게 상승하면서 카드사들이 자금 조달에 어려움을 겪는 상황도 주요하게 다뤄졌다. 카드사가 운영자금을 조달하는 여전채 금리가 오르면 서민들이 자주 이용하는 카드론 금리도 상승할 가능성이 커진다. 금융취약계층의 상환 부담이 가중될 뿐만 아니라, 카드사 역시 유동성 위기에 처할 수 있다. 이 원장은 "카드사는 자체 수신 기능이 없기 때문에 자금을 여전채 형태로 채권 시장에서 조달하고 있다"며 "단기 채권 시장 전체가 최근의 금융시장 불안 요인에 영향을 받고 있기 때문에 종합적으로 살펴보고 관련해 금융위와도 긴밀히 협의 중"이라고 밝혔다.그는 간담회 모두발언에서도 "자체적으로 보수적인 상황을 가정해 유동성 스트레스테스트를 실시하고 비상자금 조달 계획도 다시 한 번 점검해 달라"며 "단기 수익성 확보를 위한 무리한 영업 확장이나 고위험 자산 확대는 자제해 달라"고 강조하기도 했다.여전사의 프로젝트파이낸싱(PF) 리스크에 관한 논의도 진행됐다. 과거 10년간 저금리 기조가 장기화됨에 따라 여전사들은 부동산 업종을 중심으로 기업대출을 확대했는데, 최근 들어 부동산 가격 하락 우려가 제기되면서 이에 대한 리스크도 커지고 있는 상황이다.이 원장은 부실 가능성이 높은 PF 대출을 회수할 수 있느냐는 취재진 질문에 "예를 들어 지역별 또는 주택 내지 상가 같은 카테고리에 따라서 리스크가 조금씩 다를 수 있다"며 "(금감원이) 여전업권 전체 부동산 PF에 대해 전수 검사를 한번 실시해 사업장별 리스크를 점검하고 신규 기업여신 실행과 관련한 관리 방안에 대해 점검할 예정"이라고 말했다.한편 이 원장은 우리·신한은행 등 은행권에서 연달아 외환 이상거래 정황이 나오고 있는 상황과 관련해 "금감원은 우리·신한은행 건에 대해 살펴보고 있고 혹여 유사한 거래가 있을 수도 있다는 우려를 반영해 타 은행 전체에 대해서도 점검을 진행 중"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>[SS초점] 카카오뱅크 부진에도 상장 도전장 내민 케이뱅크 전망은?</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000861849?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>케이뱅크 사옥 전경. 사진|케이뱅크[스포츠서울 | 홍성효기자] 인터넷은행인 케이뱅크가 앞서 상장한 같은 업종 카카오뱅크가 부진을 거듭하고 있음에도 코스피 상장 절차에 돌입한다. 예정된 수순을 밟으면 올해 안에 상장이 가능해진다.지난달 30일 한국거래소에 따르면 케이뱅크는 상장 예비심사를 신청하고 기업공개(IPO) 일정을 시작했다. 케이뱅크의 상장 대표 주관사는 NH투자증권과 JP모건, 씨티 증권이며, 공동 주관사는 삼성증권이다. 심사 지연 사유가 발생하지 않으면, 9월쯤 상장 예비심사가 가능할 것이란 관측이다. 이후 증권신고서 제출을 거치고 공모 청약에 돌입하게 되면 11월까지는 상장을 완료할  전망이다.그러나 같은 업종인 카카오뱅크의 주가가 곤두박질치며, 케이뱅크의 IPO 성공 가능성에 불안감이 감돌고 있다. 3일 한국거래소에 따르면 카카오뱅크는 전일 대비 1300원(4.30%) 내린 2만8950원에 거래됐다. 지난해 8월18일에 기록한 최고가(9만4400원) 대비 6만5450원(69.33%) 폭락한 것이다. 카카오뱅크의 추락은 중·저신용자 대출 비중을 늘려야 하는 인터넷은행에 대해 수익성 둔화 우려가 제기되고 있기 때문이다.케이뱅크는 지금까지 가상화폐거래소인 업비트와의 제휴로 후광효과를 누렸었다. 그러나 최근 불안정한 시장환경으로 인해 가상화폐 시장이 추락하고 있다. 이에 케이뱅크가 상장을 하더라도 얼마 지나지 않아 카카오뱅크처럼 반토막나는 것이 아니냐는 우려도 나오고 있다.실제 지난 3월 말 기준 케이뱅크의 전체 예수금은 11조5400억원으로 집계됐다. 이 중 업비트에 예치된 금액은 5조5617억원으로 절반에 가깝다. 이에 금융감독원은 지난해 4월 케이뱅크의 뱅크런(예금 대량 인출) 가능성 점검에도 나선 바 있다. 이에 금융업계에서는 증시가 부진하고, 가상화폐 시장도 추락하고 있다는 점에서 케이뱅크의 공모가가 높게 형성되지는 않을 것이라 전망하고 있다.그러나 긍정적인 전망도 나오고 있다. 최근 금리 상승기가 찾아오면서 은행 업종은 호조를 맞았다는 것이다. 이에 케이뱅크는 지난해 흑자전환에 성공한 이후 수익성이 꾸준히 개선될 것이라는 관측이다. 케이뱅크는 코스피 입성을 성공시켜 성장세를 이어가려 한다. 1호 인터넷전문은행인 케이뱅크는 그동안 2번째로 등장한 카카오뱅크에 밀리는 모양새를 보였고. 3번째로 등장한 토스뱅크의 파급력에도 다소 부족한 듯 했다. 케이뱅크는 도전을 성공시켜 경쟁업체들을 따라잡을 수 있을지 귀추가 주목된다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.07.14.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>MAU가 곧 경쟁력…토스 "걸으면 100원", 네이버 "영수증 스캔 50원"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005266772?sid=105</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[데이터로 돈 버는 시대]보상 체계 통해 앱생태계 활성…접속시간 늘려마케팅 비용 줄이면서 유료 결제 어려운 고객 이탈막아축적된 데이터 新사업 기반으로…크라우드소싱 사업도 활성[이데일리 정다슬 기자] [이데일리 김정훈 기자]모바일 핀테크 어플리케이션 ‘토스’는 1000걸음을 걸으면 10원, 5000걸음을 걸으면 10원, 1만 걸음을 걸으면 20원 총 40원을 준다. 2021년 9월부터는 미션 장소에 도착하면 한 곳당 20원, 최대 100원을 받는 기능이 추가됐다. 방문 미션 개편 이후 2021년 8월 46만명이던 누적 사용자는 1년만인 2022년 5월 기준 400만명을 기록했다. 기업들이 다양한 보상 시스템을 적용하며 고객들을 유인하는 이유는 월간방문자 수(MAU·Monthly Active Users)가 바로 더 현 사업의 발판이자 미래의 수익이기 때문이다. 만보기는 토스 기능의 일부분 중 하나다. 하지만 토스 관계자는 “금융의 슈퍼앱을 지향하고 있는 토스는 한 앱에서 다양한 서비스를 이용할 수 있도록 해 더 많은 유저가 토스에 매력을 느끼고 서비스를 고도화하고 있다”며 “특히 토스 만보기는 20대부터 50대 이상까지 전 연령대가 고르게 사용 중인 기능”이라고 말했다. 이같은 앱 생태계에 적응한 고객들은 토스에 락인(Lock-in)된다. 빅데이터 플랫폼 모바일인덱스에 따르면 토스의 1인당 월평균 접속 사용시간은 2.07시간으로, 카카오뱅크(0.4시간)의 5배에 달한다. 슈퍼앱 전략이 성공하면서 오히려 기존 금융기업들이 토스의 전략을 따라하고 하고 있다. 지난 4월 출시된 삼성금융네트워크의 금융통합앱 모니모는 출석체크와 만보기 등을 통해 돈으로 환전할 수 있는 젤리를 주고 삼성 금융계열사 상품을 얼마나 구독했느냐에 따라 적립률을 달리 적용하고 있다. 후한 보상에 개인정보 유출 논란에도 불구하고 5월 모니모의 MAU는 156만 6568명으로 삼성화재와 삼성생명앱을 훌쩍 뛰어넘었다. 최근 기업들은 고객들의 유료 결제에 대한 심리적 장벽을 낮추면서 앱 생태계에 머무르게 하기 위한 방안으로도 보상시스템을 사용한다. 광고를 보거나 구독을 하거나 가입, 결제를 할 경우 상응하는 보상을 주는 광고시스템 ‘오퍼월’이다. 네이버 웹툰의 쿠키 오븐 시스템이 대표적이다.통상 네이버 웹툰에서 미리보기를 하려면 돈을 내고 ‘쿠키’를 사야 하지만 쿠키 오븐 시스템을 통해 이용자는 쿠키를 벌 수 있다. 네이버 웹툰은 별도의 마케팅 비용을 들이지 않고 고객에게 보상을 제공할 수 있게 된다. 광고주는 앱 설치, 가입 등 성과에 대한 비용을 지불하기 때문에 광고 효율을 측정하기 쉽고 단기간에 유효한 지표를 달성할 수 있다.애디슨 오퍼월을 운용하는 엔비티 관계자는 “모바일앱 30일 평균 잔존율은 10%(퀘트라, 2015)이라고 한다. 결국 서비스의 핵심은 고객을 얼마나 빠져나가지 않게 하냐는 것”이라며 “최근 앱 시장이 성숙도에 이른 상황에서 회사들은 보상 체계를 통해 소비자의 앱 효용감을 높이고 구매의향이 없거나 구매 여력이 부족한 사람들도 서비스를 이용할 수 있는 수단을 만들어주려고 한다”고 말했다. 사용자들이 한 앱 생태계에서 장기간 영위한 다양한 활동은 빅데이터로 남게 돼 앱 서비스의 경쟁력으로 이어진다. 네이버, 카카오, 토스 등 빅테크·핀테크 업체들도 마찬가지다.네이버의 마이플레이스나 모두닥, 패널나우, 캐시플레이스는 더욱 적극적으로 보상을 통해 데이터를 수집해 경쟁력을 갖춰나가는 경우다. 첫 방문에 50원, 두번째 방문부터 10원을 주는 네이버의 마이플레이스의 영수증 리뷰는 자체 개발한 광학인식문자(OCR) 기술을 바탕으로 한 것이다. 영수증을 스마트폰으로 스캔하는 것만으로도 방문인증이 가능하고 인식된 영수증은 데이터화돼 또다시 소상공인들의 매출증대를 위한 빅데이터로 활용된다. 모두닥은 영수증 인증, 본인 인증, 수기 검수 등 총 3단계에 걸친 병원 방문자 리뷰 35만개를 확보해 시리즈A 투자유치에 성공했다. 캐시플레이스의 경우 실내위치 데이터를 수집하는 과정에서 소상공인 매장의 높은 폐점율 때문에 자체 인력만으로 매장정보를 수시로 업데이트하기 어렵자 리워드를 꺼내 든 사례다. 유병호 서울대 교수는 “기업이 플랫폼화를 지향하는 이유는 고객의 삶과 다양한 접점을 통해 양질의 데이터를 축적할 수 있기 때문”이라며 “결과적으로 이는 새로운 서비스 모델을 개발하는 등 기업의 성장성으로 이어진다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>비상장 시장, 높아진 문턱…갈 곳 잃은 '선학개미'</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000009058?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>비상장 플랫폼 거래종목, 이달 들어 8분의 1토막토스·컬리도 거래막혀…"높아진 기준, 남을 이유 없다"국내 증시가 좀처럼 힘을 쓰지 못하고 있는 가운데 비상장 주식시장까지 고사 위기에 처했다. 금융당국이 이들 비상장 시장에 대한 거래 문턱을 높이면서다. 이는 금융소비자인 투자자 보호를 위한 취지이지만, 실익이 적다는 게 업계의 중론이다. 여기에 자칫 시장 위축과 음지화 우려마저 나오고 있어 현실적인 조정이 필요하다는 목소리가 설득력을 얻고 있다. /그래픽=비즈니스워치증권플러스·서울거래 비상장서 토스·컬리 모두 빠져12일 금융투자업계에 따르면 이달 들어 비상장 주식거래 플랫폼에서 일반투자자가 거래할 수 있는 종목이 대폭 줄었다.대표적인 비상장 주식 거래 플랫폼인 '증권플러스 비상장'과 '서울거래 비상장'에서 현재 거래할 수 있는 비상장 종목은 각각 기존 457개에서 50개로, '서울거래 비상장'은 기존 174개에서 24개로 대폭 축소됐다. 90%에 육박하는 급감률이다. 비상장 주식은 그간 장외주식 시장(K-OTC)이나 장외거래 사설 사이트를 통한 1대 1 거래, 코넥스 거래 등이 대부분이었다. 그러나 2020년 4월 금융위원회가 앞선 두 플랫폼을 규제 샌드박스인 '혁신금융사업자'로 지정하면서 일반투자자도 이들 플랫폼에서 손쉽게 비상장 주식을 사고팔 수 있게 됐다. 특히 코로나19 팬데믹 이후 역대급 유동성이 이들 비상장 주식시장에도 유입되면서 유니콘(기업가치 1조원 이상 비상장 스타트업)을 중심으로 비상장 거래가 급증했다.증권플러스 비상장만해도 작년 11월말 기준 누적 거래대금이 6500억원을 기록했다. 누적 가입 회원 수는 올해 5월말 기준 130만명이다. 비바리퍼블리카(토스), 두나무(업비트), 컬리(마켓컬리), 야놀자 등 이름만 대면 알만한 비상장 기업에 미리 투자한 '선(先)학 개미'들이다. 그런데 금융당국이 여기에 제동을 걸었다. 지난 3월 두 플랫폼에 대한 혁신금융사업자 지정기간을 2년 연장하면서 투자자 보호 장치를 마련하라는 조건을 단 것이다.작년 기업회생절차에 따라 무상소각된 이스타항공 비상장 주식이 2주 넘게 증권플러스 비상장에서 거래된 게 화근이 됐다. 증권플러스가 뒤늦게 이스타항공의 거래를 정지하고 무상소각 이후 거래된 주식 대금을 환불 조치했지만 논란은 계속됐다. 결국 이달부터 일반투자자가 두 플랫폼에서 거래할 수 있는 종목은 자본잠식 상태가 아니면서 최근 사업연도 매출이 5억원 이상이고 감사의견은 '적정' 등 일정 재무요건을 충족한 기업으로 한정됐다.동시에 비상장 기업은 공시 담당자 1명을 필수로 지정하고, 플랫폼 역시 정기 공시서류 미제출 기업을 공표하고 불성실공시법인 지정 기준을 마련하는 조건이 붙게 됐다. 투자 회수 '중간' 단계 사라져…기회 봉쇄 지적감독당국의 제동은 결과로 나타나고 있다. 두 플랫폼 기준 거래종목이 평균 8분의 1 수준으로 쪼그라들었기 때문이다. 특히 대표적 유니콘인 비바리퍼블리카와 컬리는 아예 자취를 감췄다. 이밖에 오아시스와 쏘카, 바디프랜드 등도 비상장 주식거래 플랫폼에서 일반투자자의 매수가 불가능해졌다. 다만 전문투자자의 경우 이전처럼 거래를 계속할 수 있다.업계 관계자는 "정규시장 상장을 앞둔 유망기업들은 굳이 당국의 높아진 기준에 따르면서까지 비상장 시장에 남을 이유가 없다"며 "영세 기업의 경우 재무요건을 못 채웠거나 공시 담당자 지정 등에 대한 여력이 없는 경우가 있다"고 설명했다.다른 관계자는 "투자자보호라는 취지에는 동의하지만 제시한 요건을 모두 맞추는 게 비상장사 입장에선 결코 쉬운 일이 아니다"라고 말했다. 사정이 이렇다 보니 시장에서는 금융당국의 규제가 비상장 주식시장을 위축시킬 것이란 우려가 나온다. 비상장 시장이 투자자가 적절한 때에 투자금을 회수하는 일종의 '중간' 단계 역할을 한다는 점을 감안하면, 이후 기업공개(IPO)에서 공모보다 회수가 중심이 되는 부작용이 따를 수 있다는 것이다. 비상장 주식 거래가 다시 음지화될 수 있다는 지적도 잇따른다. 일부 주식 커뮤니티를 통해 음성적으로 매매가 이뤄지며 사기범죄가 끊이지 않았던 게 불과 2년여 전이다. 또 다른 업계 관계자는 "결국 전문투자자 위주로만 시장을 꾸리겠다는 것"이라며 "일반투자자들은 IPO 이전 단계의 유망기업에 투자할 기회가 봉쇄되는 셈"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>한국IBM, 7월 12일 금융권 코어뱅킹 및 애플리케이션 현대화 세미나 개최</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002127852?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 은행권의 디지털 전환 요구가 속도를 내고 있는 가운데 이제 전통적 은행업무의 핵심이라 할 수 있는 ‘코어뱅킹’에 대한 혁신도 본격화될 움직임을 보이고 있다. 이미 국민은행, 신한은행 등 대형 시중은행들이 코어뱅킹 현대화를 목적으로 클라우드 도입 등을 전격적으로 타진하고 있는 상황이다. 은행들이 차세대시스템 구축을 통해 메인프레임-유닉스-X86으로 대변되는 주전산시스템의 변화를 거쳐 왔던 것처럼 이제 코어뱅킹 영역에 IT인프라로 클라우드가 본격적으로 검토되고 있는 셈이다. 한국IBM과 &lt;디지털데일리&gt;는 7월 12일 오전 9시 30분부터 소공동 롯데호텔 가넷 스위트홀(37F)에서 '디지털 금융 경쟁력 강화를 위한 차세대 코어뱅킹 및 핵심 업무 현대화 세미나'를 개최한다.금융 서비스의 정의는 이제 바뀌고 있다. 디지털 플랫폼 경쟁 시대에 많은 금융사들이 디지털 기술로 금융 업무를 근본적으로 혁신하고 재창조하고 있는 상황이다. 이미 카카오뱅크, 토스뱅크 등 인터넷전문은행 중심으로 ‘BaaS(BANK AS A SERVICE)’ 전환을 위한 사전단계가 진행되고 있으며 기존 시중은행들도 전통적인 계좌기반의 은행 서비스에서 플랫폼 비즈니스로의 전환을 꾀하고 있다. 은행에서의 플랫폼 비즈니스가 가능하기 위해선 기존 온프레미스, 계정중심의 코어뱅킹 시스템의 변화가 불가피하다. 이에 따라 금융 핵심 업무인 계정계 및 코어뱅킹 시스템에도 최신 클라우드 기술을 적용해 언제든 새로운 기술을 빠르고 유연하게 적용하려는 변화의 바람이 일고 있다. 한국IBM과 디지털데일리는 이번 세미나를 통해 차세대 디지털 금융 혁신을 위한 성공적인 코어뱅킹 및 핵심 업무의 현대화 방안을 살펴볼 계획이다. 클라우드 네이티브 기술 기반 코어뱅킹 및 금융 코어 시스템의 현대화를 통해 플랫폼 금융 시대를 선도하는 방안과 IBM이 그동안 경험한 금융산업에서의 경험을 공유할 계획이다. 이날 세미나에선 IBM컨설팅 김희수 상무가 ‘플랫폼 금융 시대의 국내외 금융사 동향 및 BIAN 기반 차세대 코어뱅킁 서비스 모델 적용 방안’을 발표하고 토마스 본 IBM엑스퍼트랩 수석 아키텍트가 ‘애자일 뱅킹 및 금융 서비스를 위한 애플리케이션 현대화 방안 및 데모 시연’을 진행한다. 이어 IBM테크놀로지그룹 김홍석 실장이 ‘차세대 금융전략을 지원하는 현대화 플랫폼과 기술 아키텍처’를, IBM클라이언트 엔지니어링 이형기 상무가 ‘IBM 클라이언트 엔지니어링과 함께 하는 코어뱅킹 및 금융 핵심 업무 현대화 여정’을 설명할 계획이다. 이번 행사는 디지털데일리 홈페이지에서 신청 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>비상장주 플랫폼 거래종목 456 → 50개… 토스-컬리도 빠져</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003438390?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>금융위 “고객 보호” 거래문턱 높여 연매출 5억이상 등 재무요건 강화플랫폼 거래종목 90%↓ ‘개점휴업’… 일반투자자는 토스-컬리 등 못사“과도한 제약으로 비상장주 위축 다시 음성화될 우려” 목소리도‘혁신금융 서비스’로 출발한 비상장주식 거래 플랫폼들이 이달 들어 사실상 ‘개점휴업’에 상태에 들어갔다. 금융당국이 투자자 보호를 위해 거래 문턱을 대폭 높이면서 거래 종목이 10분의 1 수준으로 급감했기 때문이다. 거래 투명화를 위해 소비자 보호 장치는 필요하지만 이 같은 조치가 일반투자자들의 접근을 막아 비상장주식 거래를 다시 음성화하고 스타트업 생태계에 부정적인 영향을 줄 수 있다는 우려도 나온다. ○ 비상장 거래 종목 90% 사라져5일 금융투자업계에 따르면 비상장주식 거래 플랫폼인 ‘증권플러스 비상장’은 이달 1일부터 일반투자자가 거래할 수 있는 종목을 종전 456개에서 50개로 제한했다. ‘서울거래 비상장’도 174개에서 24개로 줄였다. 특히 개인투자자들의 관심이 높았던 비바리퍼블리카(토스), 컬리(마켓컬리), 쏘카 등 대형 비상장기업들이 대거 빠져나갔다. 두 플랫폼은 2020년 4월 금융위원회에서 ‘혁신금융 서비스’(규제 샌드박스)로 지정받아 사업을 시작했다. 이전까지 온라인 커뮤니티 게시판 등 사설중개업체를 통해 이뤄지던 음성적인 비상장주식 거래가 일정 부분 양성화된 것이다. 하지만 금융위는 올해 3월 말 두 플랫폼의 혁신금융 사업자 지위를 2년 더 연장해주면서 ‘투자자 보호 장치’라는 전제 조건을 달았다. 지난해 기업회생절차를 거치며 무상 소각된 이스타항공의 비상장주식이 플랫폼에서 거래된 것이 발단이 됐다.  이에 따라 일반투자자가 두 플랫폼에서 거래할 수 있는 종목은 자본잠식 상태가 아니면서 최근 연매출이 5억 원을 넘기는 등 일정 재무요건을 충족하는 기업으로 한정됐다. 이에 더해 비상장기업의 동의도 받도록 했다. 해당 플랫폼에서 자사 주식이 거래되는 것에 동의하고, 공시 담당자 1명을 지정한 비상장기업만 거래할 수 있게 한 것이다. ○ “투자자 보호 당연”… “비상장 거래 다시 음성화” 우려도하지만 대다수 비상장기업이 동의하지 않으면서 거래 종목은 급감했다. 금융투자업계 관계자는 “기업으로선 플랫폼에 별도 공시를 하는 게 부담스럽고, 특히 비상장주식 거래 과정에서 시세가 형성돼 기업공개(IPO) 때 제대로 가치를 인정받지 못할까 봐 걱정한다”고 했다. 금융위는 향후 비상장주식 거래 서비스를 제도화하려면 소비자 보호 장치가 반드시 필요하다는 입장이다. 이들 플랫폼에서 비상장주식이 상장주식처럼 거래되는 만큼 최소한의 기업정보 공개가 필요하다는 것이다.  금융투자업계도 정보 공시가 상대적으로 부족한 비상장기업의 특성상 최소한의 안전장치가 필요하다는 데 공감하고 있다. 다만 일각에서는 이미 사업보고서 등을 통해 정보 공시 의무를 하고 있는 데다 해당 기업의 동의에 따라 일반투자자의 거래 가능 여부가 결정되는 것이 과도한 제약이라는 지적도 나온다. 이번 조치가 규제 샌드박스 취지에 어긋나고 비상장주식 거래 시장을 다시 위축시킬 수 있다는 우려도 있다.  김상봉 한성대 경제학과 교수는 “비상장주식 시장에 대한 일반투자자의 진입이 어려워지면 스타트업 생태계에도 부정적”이라며 “소비자 보호와 플랫폼 활성화라는 두 마리 토끼를 잡을 방안을 찾을 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>“퇴직연금 큰장..디폴트옵션 잡아라" 운용업계도 들썩</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004865792?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>삼성운용, '삼성TDF' 캠패인 진행..영상제작과 고객이벤트 등 관심유도↑KB운용, 디폴트옵션 시행 맞춰 이달 초 대표상품 ‘KB온국민TDF’ 보수인하  [파이낸셜뉴스] 퇴직연금 디폴트옵션 시행 첫 날에 맞춰 대형 운용사들이 마케팅 경쟁에 나서 눈길을 끈다.   12일 삼성자산운용은 퇴직연금 디폴트옵션 제도 시행을 맞아 퇴직연금 투자에 어려움을 느끼는 퇴알못(퇴직연금을 알지 못하는 사람)을 위한 ‘퇴직연금 투자대책 삼성TDF’ 캠페인을 진행한다고 밝혔다.   최근 디폴트옵션 제도 시행에 따라 퇴직연금 투자에 대한 직장인들의 관심이 더욱 증가하고 있다. 하지만 아직 대다수 투자자들의 경우 디폴트옵션에 대한 이해가 부족하고 자신이 원하는 투자상품에 대한 정보를 습득하기가 쉽지 않아 퇴직연금 투자 방법을 고민하고 있는 것도 사실이다. 이에 삼성자산운용은 국내 선도 운용사로서 디폴트옵션에 대한 관심을 높이는 한편, 퇴직연금 대표 상품인 TDF를 활용한 투자의 효용성을 알리기 위해 영상 제작과 고객 이벤트 등 디지털 캠페인에 나섰다고 전했다. 이번 캠페인 영상은 ‘퇴직연금에도 대책이 필요하다’는 메시지로 퇴직연금 투자의 필요성을 강조했다. 또한, 캠페인 홈페이지를 통해 디폴트옵션의 대표 상품인 삼성 TDF의 특징도 이해하기 쉽게 자세히 소개했다. 또한 내달 10일까지 캠페인 홈페이지에서 진행되는 초성퀴즈 이벤트와 토스 행운퀴즈의 총 2가지 고객 참여 이벤트도 진행한다.   한편 투자자들의 관심을 유도하는 캠페인 외에 TDF보수 인하에 나선 운용사도 눈에 띈다.   KB자산운용은 이달 초 디폴트옵션 본격 시행에 앞서 이 회사의 TDF대표 상품인 ‘KB온국민TDF’ 보수를 10% 추가 인하했다. 지난해 말 운용보수를 인하한데 이어 추가적으로 운용보수를 10%씩 인하해 총 보수는 연0.36~0.61% 수준이다.   2017년 출시된 ‘KB 온국민 TDF’는 장기투자와 복리효과가 중요한 연금펀드의 특성에 맞게 설계된 펀드로 투자자의 생애주기에 따라 포트폴리오를 알아서 조정한다. 패시브(인덱스형) TDF펀드로 저렴한 보수가 장점인만큼 연금 등 장기투자에 최적화 된 상품이다.   사측 관계자는 “디폴트 옵션 시행에 앞서 KB자산운용은 지난달 퇴직연금 사업자 임직원을 대상으로 TDF상품을 설명하는 세미나를 개최했다”며 “고객 위험성향별 라인업을 보강하기 위해 투자위험등급(5등급)이 낮은 ‘KB다이나믹TDF 채권혼합형’과 적극적 자산배분형 상품인 ‘KB타겟리턴 적극투자형 OCIO‘펀드 출시도 준비하고 있다”고 덧붙였다. #삼성자산운용 #kb자산운용 #디폴트옵션 #TDF #KB온국민TDF #OCIO펀드</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>인터넷은행 대출 6개월째 증가세…반년새 6조원↑</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005112061?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 3사 대출 잔액이 6개월 연속 증가세가 이어지고 있다.3일 은행권에 따르면 지난달 말 기준 인터넷전문은행 3사(카카오·케이·토스뱅크)의 여신 잔액은 총 39조7463억원이다. 전달보다 약 9118억원 늘었다. 지난해 말(33조4829억원)과 비교하면 6개월 새 6조2634억원 증가한 수치다.은행별로 살펴보면 카카오뱅크가 26조8163억원, 케이뱅크가 8조7300억원, 토스뱅크가 4조2000억원이다.이는 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출이 6개월째 감소세를 보이는 현상과 대조된다. 지난달 말 기준 5대 시중은행의 가계대출 잔액은 699조6521억원이다. 전달보다 1조4094억원 감소했다. 올해 들어 6개월 연속 감소하면서 700조원을 밑돌았다.이 같은 현상은 주식, 가상화폐 등 자산시장이 하락세를 보이면서 고신용자들의 대출 수요는 줄어든 반면 생활비 목적 등의 중·저신용자 대출 수요는 계속되고 있는 영향으로 해석된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>은행 예대금리차 매달 공개해 경쟁 붙인다</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003438601?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>금융위, 금리인하 유도 대책이르면 이달부터 모든 은행이 예금 금리와 대출 금리의 차이(예대금리 차)를 매달 한곳에서 공개한다. 또 대출, 보험 비교 서비스에 이어 은행 예금 상품을 한눈에 비교할 수 있는 온라인 플랫폼이 등장한다.  금융위원회는 이 같은 내용을 담은 ‘금리 정보 공시제도 개선 방안’을 6일 발표했다. 최근 은행권의 과도한 이자 장사를 경고해 온 금융당국이 은행 간 금리 경쟁 환경을 조성해 대출 금리 인하를 유도하겠다는 취지다. 투명한 예대금리 차 공시는 윤석열 대통령의 대선 공약이기도 하다. ○ 은행 예대금리 차 한데 모아 매달 공시우선 모든 은행의 예대금리 차가 은행연합회 홈페이지를 통해 한 달에 한 번씩 비교, 공시된다. 은행들은 지금도 분기마다 경영공시 항목으로 예대금리 차를 공개하고 있지만 주기가 3개월로 긴 데다 개별 은행 홈페이지에 공시해 소비자들이 제때 맞는 정보를 찾아보기가 힘들었다. 은행들은 매달 저축성 수신 금리와 가계 및 기업의 대출 금리, 이를 통한 예대금리 차를 모두 공시한다. 예대금리 차 기준도 대출 잔액에서 신규 취급액으로 바뀐다.  현재 은행연합회에서 매달 제공하는 대출 금리도 세분된다. 지금은 은행별 자체 5단계 신용등급에 맞춰 공개되지만 앞으로는 신용평가사의 9단계 신용점수에 맞춰 공시된다. 소비자들이 자신의 신용정보에 맞는 금리 정보를 쉽게 확인할 수 있도록 하겠다는 것이다. 예금 금리 또한 소비자들이 실제로 적용된 금리를 알 수 있도록 현재 제공되는 기본 금리, 최고 우대금리에 더해 전달 평균 금리(신규 취급액 기준)가 추가로 공시된다. 7월 금리 정보부터 공시될 수 있도록 은행권은 관련 전산시스템 개편에 착수했다. 금융당국은 예대금리 차 등 금리 정보가 정확하게 공개되면 소비자들의 선택권이 높아지고 은행들의 금리 경쟁을 유도해 대출자의 비용 부담을 덜어줄 수 있을 것으로 보고 있다.○ 예금 비교 플랫폼으로 금리 경쟁 유도금융위는 은행들의 금리 산정 체계를 정비하고 직접적인 금리 경쟁 촉진에도 나서기로 했다. 대출 금리의 경우 가산금리를 산정할 때 대출 종류와 규모에 따라 차등화된 원가가 적용되도록 개선한다. 예금 금리도 매달 1회 이상 시장 금리 변동을 점검해 기본금리에 반영될 수 있게 정비할 계획이다. 그동안 은행들이 예금 기본금리는 그대로 두고 우대금리만 조정해 일부 고객만 혜택을 본다는 지적이 많았다. 또 은행들의 예금 금리 경쟁을 유도하기 위해 온라인 플랫폼에서 여러 은행의 예금 상품을 비교할 수 있는 예금 상품 중개업을 ‘혁신금융 서비스’(규제 샌드박스)로 지정해 시범 운영한다. 현재 대출 상품은 토스, 카카오페이, 핀다 등 온라인 비교 플랫폼이 활성화됐지만 예금 상품은 관련 규정이 없어 서비스가 이뤄지지 못했다.  승진, 취업 등으로 신용도가 개선된 대출자가 이자를 깎아달라고 요구할 수 있는 ‘금리 인하 요구권’을 활성화하기 위해 8월부터 반기마다 은행별 운영 실적을 공시하기로 했다. 지난해 은행권의 금리 인하 요구권 수용률은 30%에도 못 미쳤다. 이형주 금융위 금융산업국장은 “장단기 금리 차가 확대되는 상황에서 앞으로 대출 금리가 낮아지기는 힘들 것으로 예상된다”면서도 “이번 대책을 통해 예대금리 차가 적정 수준 이상으로 커지는 것은 막을 수 있을 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>인뱅 대출 6개월 연속 증가…"생활비·급전 수요 증가 탓"</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004071855?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>6월 3사 여신 잔액 39.7조시중은행 감소세와 대조인터넷은행 3사. 연합뉴스[서울경제] 카카오뱅크·케이뱅크·토스뱅크의 대출 잔액이 6개월 연속 증가세를 보이고 있다. 시중은행의 가계대출이 감소하는 것과 대비되는 모습이다.3일 은행권에 따르면 지난달 말 기준 인터넷은행 3사의 여신 잔액은 총 39조 7463억 원으로 집계됐다. 전달보다 약 9118억 원 증가했으며 지난해 말(33조 4829억 원)과 비교하면 6개월 새 6조 2634억 원 늘어난 수준이다. 은행별로 보면 카카오뱅크가 26조 8163억 원, 케이뱅크가 8조 7300억 원, 토스뱅크가 4조 2000억 원이다.인터넷은행 여신 포트폴리오의 대부분이 가계대출인 점을 고려하면 6개월째 감소세를 나타내는 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출 움직임과 상반된다. 5대 시중은행의 지난달 가계대출 잔액은 5월 말보다 1조 4094억 원 감소한 699조 6521억 원으로 지난해 말과 비교하면 6개월 새 9조 4009억 원 감소했다.인터넷은행이 취급한 대출이 늘어난 데는 국내외 경제 불확실성으로 부동산과 주식 등에 대한 투자 수요가 줄면서 고신용자들의 대출 수요는 줄어든 반면 생활비 목적 등의 중·저신용자 대출 수요는 지속된 데 따른 것으로 보인다. 올해도 인터넷은행은 중저신용자 대출 비중을 꾸준히 늘리고 있다.인터넷은행 중 토스뱅크에서 처음으로 출시한 개인사업자 대출도 증가세가 꾸준하다. 토스뱅크가 올 2월 14일 출시한 ‘사장님 대출’ 잔액은 5300억 원(6월 말 기준)으로 집계됐다. 홍민택 토스뱅크 대표는 지난달 28일 기자 간담회에서 “대출 잔액 4조 2000억 원 가운데 약 36%는 중저신용자에게 공급되고 있다”고 언급한 바 있다.한편 금리 인상기를 맞아 시중 자금이 인터넷은행의 고금리 예·적금 상품으로도 몰리고 있다. 지난달 연 5%금리의 적금 특판 상품을 판매했던 케이뱅크의 6월 말 기준 수신 잔액은 전달보다 8500억 원 늘어난 12조 1800억 원이다. 카카오뱅크의 6월 말 수신 잔액은 33조 1808억 원으로 전달보다 1989억 원 감소했는데 일부 고금리 특판 상품으로 자금이 움직였다는 분석이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[CEO 24시] 윤종규 KB금융 회장, 경영전략회의에 이승건 토스 대표 초대한 이유</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000061391?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>[CEO24시]윤종규 KB금융 회장이 경영전략회의에서 그룹 경영진을 대상으로 특강하고 있다.  사진=KB금융  제공윤종규 KB금융지주 회장이 7월 1일 ‘2022년 하반기 그룹 경영전략회의’에 토스를 운영하는 이승건 비바리퍼블리카 대표를 초대해 화제를 모으고 있다. 토스는 금융업계 혁신의 대명사로 통한다. 디지털 금융이 대세로 떠오른 가운데 금융 빅테크 기업의 DNA를 공유함으로써 새로운 미래 금융에 대비하자는 취지다.코로나19 사태 이후 2년 반 만에 대면으로 진행된 이날 회의는 상반기 실적을 리뷰하고 하반기 전략을 공유하는 자리다. 윤종규 회장, 이재근 KB국민은행장 등을 비롯한 경영진 270여 명이 참석했다. 그룹의 임원진이 총출동해 미래 경영 전략을 논하는 중요한 회의에 경쟁사 대표를 초청하는 것은 다소 이례적이다. 산업 간 경계가 모호해지는 미래 금융 시장에서 경쟁력을 키우기 위해 울타리를 벗어날 새로운 도전이 필요하다는 위기의식이 반영된 것으로 풀이된다.이날 회의에 참석한 이 대표는 1시간 남짓 토스의 성공 스토리와 혁신 과정 등을 설명하고 금융 시장의 변화와 새로운 가치 창출의 노하우 등을 공유했다. KB금융 관계자는 “경영전략회의가 2년여 만에 대면 방식으로 개최되면서 더 활발하고 실질적인 논의가 진행될 수 있었다”며 “경영 환경의 불확실성이 높아지는 시점에서 그룹이 나아갈 방향을 공유하고 구체적인 실행 방안들을 머리를 맞대고 도출했다는 점에서 큰 의미가 있었다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>[데스크가 만났습니다] 이근주 협회장 "ESG핀테크 확산, 가감없는 전방위 소통 노력"</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003029237?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>전자금융업 사회적 역할 점점 중요해지며'전금법 개정안' 국회 통과 필요성도 커져정부-기업 소통 정례화…시장 상황 점검'더 좋은 서비스' 경쟁하도록 적극 뒷받침이근주 한국핀테크산업협회장(간편결제진흥원장)한국핀테크산업협회는 다양한 핀테크 업권 목소리를 정부에 전달하고 정책을 제안하기 위해 2016년 4월 출범했다. 출범 당시 100여개 회원사에서 약 5년 만에 국내 370개 중견·중소 핀테크 기업과 빅테크를 회원사로 보유하며 성장했다.이근주 협회장은 협회 창립 당시 준비국장으로서 직접 핀테크 기업을 찾아다니면서 참여를 독려했다. 협회 창립 후에는 핀테크와 정부에 금융권 오픈API 플랫폼 구축 필요성을 호소하며 실제 오픈뱅킹 확산에 기여한 인물로 꼽힌다.지난 2월 제4대 협회장으로 취임한 이근주 협회장(한국간편결제진흥원장)은 임기 2년 동안 다양한 분야와 규모의 핀테크 기업 목소리를 경청하고 정부에 가감 없이 전달하는 역할이 그 어느 때보다 중요해졌다고 봤다.대담=길재식 디지털금융부 부장이근주 한국핀테크산업협회장(왼쪽)이 전자신문 길재식 디지털금융부장과 만나 이야기를 나누고 있다.-최근 제4대 협회장으로 취임했다. 금융시장에 변화도 많고 그만큼 갈등도 많다. 협회장으로서 중점 추진할 사안은 무엇인가.▲지난 5년여간 핀테크 업권은 눈부시게 성장했다. 카카오페이, 네이버파이낸셜 같은 빅테크 기업과 대형 핀테크 기업인 비바리퍼블리카(토스) 등이 빠르게 성장하면서 플랫폼 금융 시대를 활짝 열었다. 동시에 전통 금융사를 위협하며 사용자에게 새로운 금융생활 경험을 안겨주는 금융 업권 메기 역할을 톡톡히 했다.전자금융업자의 사회적 역할이 중요해지면서 전자금융거래법 개정안의 국회 통과 필요성도 커졌다. 다수 회원사가 전금법 개정안이 조속히 통과되기를 바라고 있다.특히 전금법 개정안에서 신설한 마이페이먼트는 마이데이터(본인신용정보관리업) 서비스를 더욱 맞춤형 초개인화 서비스로 진화시킬 수 있는 자격이어서 핀테크 업계 관심이 크다. 현재 마이데이터에서는 금융상품을 비교·추천해주지만 이후 실제 해당 상품을 금융소비자가 선택·가입하기까지 과정이 구체화돼있지 않다. 마이페이먼트는 금융소비자가 편리하게 최적 상품을 이용할 수 있도록 해줌으로써 마이데이터 서비스 완성도를 더 높이는 기능을 할 수 있다.마이데이터 서비스 활성화도 협회가 지속 노력해야 할 부분이다. 전송요구대상 데이터 종류를 더 확대하고 깊이 있는 정보를 안전하게 주고받을 수 있어야 더 가치 있는 상품을 만들어낼 수 있기 때문이다.최근 다시 논란이 된 대환대출 플랫폼 구축도 도입이 필요하다. 중소 핀테크와 대형 빅테크간 입장 차이도 있고 금융사의 빅테크 플랫폼 종속 우려도 있다. 대환대출에 따른 중도상환수수료 부과 문제 등도 풀어야 할 숙제다.대환대출은 지금까지 자산관리 측면에서 부각됐는데 이제는 바라보는 시각을 바꿔야 한다고 생각한다. 대출은 부채관리가 중요하다. 곳곳에 있는 대출상품을 효율적으로 비교해서 더 나은 대출상품을 추천하고 실제 가입까지 편리하게 이어져야 한다. 이런 환경이 조성된다면 마이데이터 활성화에도 도움이 될 것이다. 업권 간 이해조정 과정에서 핀테크 기업의 목소리를 가감 없이 정책 당국에 전달해서 제대로 된 정책이 실행될 수 있도록 뛰겠다. 업권의 목소리가 전달 과정에서 변형되지 않고 있는 그대로 당국에 전달해 제대로 소통할 수 있도록 역할을 하겠다.-새 정부 들어 금융규제를 완화하는 방향으로 정책 기조가 확연히 형성됐다. 정부에 무엇을 요청하고 싶은가.▲소통이다. 이전 정부에서는 '디지털금융협의회'를 운영하면서 빅테크와의 갈등 해결 등을 위해 정부와 여러 차례 만났다. 이에 비해 중소 핀테크와의 소통 채널은 없었다. 실무 차원의 소통은 있었지만 대부분 협회 내에서 이뤄졌다.앞으로는 정부와 중소 핀테크 기업들간 소통을 정례화·활성화할 필요가 있다. 시장을 제대로 파악하기 위해서 이 점이 반드시 필요하다고 여러 차례 당국에 제안했고 당국도 수용하겠다고 했다. 잠재 유니콘, 시장에 막 진입한 스타트업과 소통 채널을 정례화해 시장 의견이 잘 반영되기를 바라고 있다. 규제 샌드박스 활성화와 망분리 규제 완화 실행도 지속 요청하고 있다.-금융시장에서 핀테크·빅테크 영향력이 커졌지만 성장에 치중해 기업의 사회적 책임에는 소홀하다는 지적도 있다.▲핀테크 사업 자체를 혁신으로 보고 혁신과 포용을 동시에 추구할 수 있다고 생각한다. 여기에 더해 핀테크 기업인들이 사회적 책임에 대한 인식을 중요하게 여겨야 한다.협회 차원에서 앞으로 'ESG핀테크'를 제고하려 한다. 사업 모델 자체에서 탄소감축과 환경보호 등의 모델이 있지만 이 업권 자체가 사회적 책임 의식이 높다는 인식을 심어주고 싶다. 타 산업군보다 '핀테크 기업인은 사회적 책임 인식이 있다' '핀테크 기업 목적에는 이윤추구 외에 ESG 실천이 있다'는 점을 널리 확산하고 싶다.동시에 금융소비자 보호 측면에서도 더 노력하겠다. 핀테크 기업이 혁신 마인드로 무장할 수 있도록 환경을 조성하고 안전한 금융서비스가 되도록 하겠다. 이용자가 '안전한 핀테크'라는 인식을 가질 수 있도록 노력하겠다.또 일정 규모에 도달한 빅테크·핀테크가 자체 비즈니스를 개방하고 협업해 다른 스타트업을 육성하는 산업의 어른 역할을 하도록 환경을 조성하고 싶다. 은행들이 자체 뱅킹 서비스 기반으로 오픈뱅킹에 참여해 계좌 접근성을 높여줌으로써 이를 기반으로 빅테크·핀테크가 빠르게 성장할 수 있었다. 이제는 빅테크·핀테크가 다른 핀테크 성장에 기여하는 모습을 보여줘야 할 때다.협회 역할은 핀테크 산업이 건강하고 지속가능하게 성장할 수 있는 생태계를 조성하는 것이다. 특히 핀테크는 금융과 정보기술(IT)이라는 서로 다른 성격의 산업이 융합한 신산업이기에 협회 역할이 어떤 산업보다 중요하다. 디지털 금융 혁신을 이끌어가는 회원사들이 '혁신'이라는 핀테크 핵심 정체성을 유지하되 금융업권의 한 축으로서 '책임'도 놓치지 않도록 협회가 페이스메이커 역할을 하겠다.-핀테크 업권 영향력은 커졌지만 핀테크산업협회가 빅테크 중심의 정책을 펼쳐서 중소 핀테크 기업과 다양한 분야 기업의 목소리를 제대로 담지 못했다는 비판도 있다.▲협회에 9개 사업분과를 운영하고 있다. 핀테크 업권 특성상 기업 규모나 사업 분야가 상당히 다양해서 회원사 의견을 하나로 모으기가 쉽지 않다. 그래서 비슷한 서비스를 영위하거나 영위할 예정인 회원사를 모아서 그동안의 사업 경험을 나누고 사업적으로 시너지를 낼 수 있는 소통의 장을 마련하기 위한 방안을 준비하고 있다.최근 지급결제분과 모임을 시작했고 나머지 8개 분과 모임도 조만간 시작하려고 한다. 소규모 스킨십을 활성화해서 비즈니스 협업 등 다양한 이야기가 활발하게 오갈 수 있도록 하겠다. 기업의 대관, 개발 등 다양한 분야에서 소통하는 파이프라인 역할을 할 계획이다.회원사들의 사업 분야가 워낙 다양해서 분과를 추가하거나 태스크포스(TF) 방식으로 수시로 분과를 설치·해산하는 등 상황에 대응할 예정이다.협회 사무처 역할도 강화한다. 협회에 '혁신지원팀'을 배치해서 회원사 대응 서비스를 강화할 계획이다. 핀테크 업권의 소통과 홍보에 중요한 역할을 하게 될 것이다.협회 회원사에는 핀테크 기업도 있지만 기업은행 같은 전통 금융사도 있다. 핀테크와 금융사간 협업이 상당히 활발하고 금융사가 직접 핀테크 기업을 육성하기 위한 랩과 프로그램, 펀드 조성 등도 적극적으로 이뤄지고 있다.그럼에도 핀테크는 언번들링이 기본 서비스여서 금융사와 본질적인 부분에서 충돌이 생기고 경쟁할 수밖에 없다. 당연한 현상이다. 이 과정 속에서 금융소비자에게 더 좋은 서비스로 경쟁하게 된다. 시장에서 갈등은 발생 가능하지만 그래도 서비스형뱅킹(BaaS)처럼 협업을 전제로 비즈니스 모델을 확장해나가야 한다. 핀테크와 전통 금융사간 소통 채널을 만들어서 특별한 어젠다가 없더라도 임직원간 생각을 나누다보면 이해도도 높아지고 접점도 찾을 수 있지 않을까 생각한다. 전통 금융사와 핀테크 간 더 원활히 소통할 수 있도록 노력하겠다.-핀테크산업협회에도 가상자산거래소, 조각투자 등 디지털자산과 가상자산 관련 기업들이 회원사로 속속 참여하고 있다. 하지만 일각에서는 분야별 협단체 난립을 우려하는 목소리도 있다. 협회 일원화 이야기도 나오는데.▲핀테크는 금융산업 구조를 혁신하는 역할을 해왔다. 최근에는 가상자산, 조각투자 등 새로운 디지털자산 영역으로 사업을 확장하거나 초기 스타트업으로서 디지털자산 시장에 뛰어든 기업이 많아졌다. 협회는 핀테크 기본 가치인 혁신을 바탕으로 신사업 활성화를 적극 지원하고 있다.특히 디지털자산 등 새로운 금융서비스를 제공하는 많은 기업이 새롭게 협회 구성원으로 합류했다. 두나무, 빗썸, 코인원, 고팍스 등 주요 가상자산거래소가 부회장사로 활동하고 있다. 음악저작권 투자 시장을 만든 뮤직카우, 초기 미술품 조각투자 시장을 형성한 아트투게더도 임원사다.협회는 새로운 구성원들의 다양한 의견을 듣고 당국과 국회 등에 전달해 신산업을 육성하고 소비자를 보호할 수 있는 건강한 생태계를 조성하기 위해 노력하고 있다. 디지털자산 등 새로운 핀테크 시장에서도 한국이 세계를 선도할 수 있도록 협회 차원의 지원을 아끼지 않겠다.○이근주 한국핀테크산업협회 회장은…제4대 한국핀테크산업협회장으로 취임한 이근주 회장은 동국대학교에서 핀테크와 블록체인으로 공학박사 학위를 취득했다. IBK기업은행에서 전산정보부, 뉴욕지점, 국제업무부를 거쳐 스마트금융부장을 지냈으며 전통금융과 핀테크를 모두 경험한 베테랑으로 통한다. 이후 한국핀테크산업협회 설립을 준비하며 설립준비국장으로서 협회 설립과 핀테크 기업 참여에 기여하고 사무국장, 부회장을 역임했다. 소상공인간편결제추진단장, 제로페이SPC설립준비위원장을 거쳐 현재 제로페이 사업을 이끄는 한국간편결제진흥원장으로 재직하고 있다. 동국대 경영전문대학원 겸임교수로도 활동하고 있다. 저서로 '글로벌 관점에서 바라본 핀테크 에센셜' 등이 있다.정리=</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>예금·대출 갈아타기 ‘한눈에 비교’ 플랫폼…은행-빅테크 힘겨루기</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002598015?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>은행권 “빅테크, 은행 정보 다 받아 시장지배”빅테크 “은행 밥그릇보다 소비자 이익 우선을”더불어민주당 박홍근 원내대표가 6일 오전 국회 원내대표회의실에서 열린 원스톱 대출이동제 도입을 위한 간담회에서 발언하고 있다. 국회사진기자단, 연합뉴스대출 및 예금 서비스를 두고 기존 금융회사와 빅테크 기업 간 갈등이 커질 조짐이다. 최근 정치권은 금융당국에 대환대출 플랫폼 도입을 요청했다. 성일종 국민의힘 정책위의장은 지난 5일 “대환대출 플랫폼 사업을 신속하게 추진해달라”고 말했으며, 박홍근 더불어민주당 원내대표도 다음날 “원스톱 대출 이동제(대환대출 플랫폼)를 시급히 도입해야 한다”고 강조했다. 대환대출 플랫폼은 모바일 등 비대면으로 여러 금융사 대출 상품의 금리를 조회하고, 그 중 낮은 금리로 갈아탈 수 있도록 하는 것이다. 지난해 금융위원회가 추진했으나 은행권 반대로 도입이 무산된 바 있다. 당시 은행들은 플랫폼을 제공하는 빅테크 기업들에 종속되면서 금융 상품만 납품하는 ‘하청업체’가 될 수 있다는 불만을 제기했다. 빅테크 기업들이 과도한 수수료를 요구할 가능성도 있다고 봤다. 은행들이 난색을 보인 서비스를 정치권이 재소환한 셈이다. 정치권 요구에 금융당국도 재검토에 들어갔다. 금융위 관계자는 “대환대출 플랫폼은 금융기관마다 입장이 다양하기 때문에 의견 수렴을 하고 있다”고 말했다. 이미 ‘대출 갈아타기’에 대해서는 카드업계와 빅테크 기업 간 충돌도 발생한 상태다. 토스뱅크는 카드론을 자사 대출로 갈아탈 수 있게 해주는 대환대출 서비스를 지난 7일 중단했다. 금융권에서는 카드업계 반발에 토스뱅크가 서비스를 잠정 중단했다는 얘기가 나오고 있다. 대출뿐만 아니라 예금상품에 대해서도 기존업계와 빅테크 간 긴장감이 감돈다. 금융위가 지난 7일 ‘금리정보 공시제도 개선방안’을 발표하면서 예금비교 플랫폼 도입을 언급했기 때문이다. 현재 플랫폼 업체들은 대출 상품을 비교 및 추천해주는 서비스를 제공하고 있는데, 예금상품도 가능하도록 혁신금융서비스 지정을 검토하겠다는 것이다.금융권 현장에서는 은행권과 빅테크 기업 간 이견이 첨예하다. 은행권 관계자는 10일 &lt;한겨레&gt;에 빅테크 기업과 기존 은행들이 함께 참여하는 ‘대환대출 플랫폼’ 도입에 대해 “은행의 경우 대출상품 구조부터 여러 정보를 (플랫폼 사업자에) 제공해야 하는데 빅테크 쪽은 가만히 있으면서 은행의 정보를 다 받는다. 반면 빅테크가 은행에 주는 정보는 없어 ‘기울어진 운동장’ 이야기가 나오는 것”이라고 말했다. 지난해에도 대환대출 플랫폼 도입 논의가 있었지만 은행권이 반발하며 흐지부지된 바 있다. 당시 은행들은 은행연합회를 통해 은행들끼리 플랫폼을 만드는 쪽으로 협의를 몇 차례 이어갔으나 지난해 하반기 금융당국의 가계대출 관리 기조에 따라 일부 은행들이 대환대출을 중단하면서 플랫폼 도입 논의가 중단됐다. 또 다른 한 은행권 관계자는 “(정치권 등에서) 강력하게 추진하는 분위기다 보니 시중은행도 따라서 움직여야 할 것 같은데, 인터넷 은행과 비교할 때 금리 면에서 (기존 은행이) 불리할 수밖에 없다. 인센티브를 줘야 은행들도 적극적으로 움직일 것”이라고 말했다.반면 빅테크 업계는 이를 은행들의 ‘밥그릇 지키기’라고 비판하고 ‘고객의 편의성’을 내세운다. 한 빅테크 업체 관계자는 “기존 대환대출은 상담, 서류제출 등을 위해 3∼4번 이상 영업점에 가야 해 불편하다. 은행권을 넘어 전체 금융권을 아우르는 플랫폼 도입으로 금융 소비자의 선택권을 강화하고 소비자 이익을 높이기 위한 전향적 결정이 필요하다”고 말했다. 빅테크 업계에서는 금융당국이 각 금융기관의 금리를 비교할 수 있는 업체를 선정하고 고객 계좌·대환·상환 정보 등을 조회하는 데 드는 수수료를 최저 수준으로 낮춰줄 것을 요구하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>삼성전자 정보보호 투자 독보적 수준···작년 6939억원 집행</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002127724?sid=105</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 국내 주요 기업들의 정보보호 현황이 공개됐다. 정보보호산업법 개정으로 특정 산업군, 증권시장에 상장한 매출액 3000억원 이상, 일일평균 이용자 수가 많은 서비스 등을 제공하는 기업들이 대상이다.    1일 &lt;디지털데일리&gt;의 확인에 따르면 총 630개 기업이 자신의 정보보호 현황을 공시했다. 국내 598개 기업에게 지난 6월 30일까지 정보보호 현황을 공시해야 할 의무가 부여됐는데, 공시 의무 대상자가 아닌 기업들 일부도 정보 공개에 참여한 상태다.   공개된 내용은 2021년 연말 기준 정보기술(IT)과 정보보호에 대한 투자액, 정보보호 전담 인력 수, 정보보호 활동 현황 등이다.   공개된 자료 중 눈길을 끄는 것은 국내 시가총액 1위 기업인 삼성전자다. 삼성전자는 압도적인 IT, 정보보호 부문 투자액을 기록했다. 7조2664억원을 IT 부문에 투자했고, 이중 6939억원은 정보보호 부문에 대한 투자다. 총 직원 10만7496명 중 9662명이 IT 부문 인력이고 이중 5.4%에 달하는 526명이 정보보호 인력으로 확인됐다.삼성전자가 공개한 2021년 정보보호 현황. 1년 동안 6939억원을 정보보호 부문에 투자했다.  삼성전자의 정보보호 투자액은 자신을 제외한 국내 시가총액 상위 10개 기업의 정보보호 투자 총액보다 훨씬 많다.   ▲SK하이닉스 159억원 ▲삼성바이오로직스 48억원 ▲네이버 350억원 ▲현대차 147억원 ▲삼성SDI 59억원 ▲LG화학 159억원 ▲기아 83억원 ▲카카오 140억원 ▲셀트리온 10억원 ▲삼성물산 260억원 등 삼성전자를 잇는 시가총액 상위 10개 기업의 정보보호 투자액은 1415억원이다. 삼성전자는 이들 10개 기업의 합보다 4.9배 이상 많은 금액을 투자했다. LG에너지솔루션은 올해 상장해 공시 의무 대상에 빠졌다.   삼성전자가 투자 규모로 주목받았다면 LG전자는 높은 IT 부문 투자 대비 정보보호 투자를 기록한 것으로 눈길을 끌었다. LG전자는 IT 부문에는 2410억원, 정보보호에는 454억원을 각각 투자했다. IT 투자액 대비 정보보호 투자액은 18.8%인데, 이는 투자 현황을 공개한 주요 기업 중 가장 높은 비율이다.   이처럼 정보보호에 막대한 투자를 진행 중인 삼성전자와 LG전자이나 두 기업은 올해 3월 해킹조직 랩서스(LAPSUS$)에 의해 나란히 해킹되는 굴욕을 겪었다. 큼직한 해킹사고의 당사자가 됨에 따라 체면을 구긴 만큼 올해도 정보보호 투자는 지속할 것으로 예상된다.   이동통신3사 중 정보보호 투자액이 가장 높은 것은 KT다. KT는 작년 1021억원을 정보보호에 투자했는데, 주요 기업 중 삼성전자에 이은 2번째다. IT 투자액 대비 정보보호 투자액은 5.2%다. SK텔레콤과 LG유플러스는 각각 626억원, 291억원을 정보보호에 투자했다. SK브로드밴드의 정보보호 투자액은 233억원이다.   개인정보 유출 등으로 몇차례 홍역을 치른 쿠팡은 정보보호에 534억원을 투입, 이커머스 기업 중에서는 큰 규모를 투자했던 것으로 나타났다. 중고거래 플랫폼 당근마켓의 경우 IT 투자 대비 1.6%인 3.7억원을 정보보호에 투자했다. 투자 규모와 비율 모두 아쉬운 수준이다. IT 부문 인력 155명 중 정보보호 전담 인력은 1명에 불과하다.    이와 관련 당근마켓은 정보보호 현황의 특기사항으로 “클라우드에서 다양한 보안 서비스를 사용하고 있지만 인프라서비스와 보안서비스 및 기능들의 명확한 비용 분리가 어렵다”고 첨언했다.당근마켓의 2021년 정보보호 현황. 투자 규모와 담당 인력 등 모두 아쉽다.  공공기관, 금융회사는 정보보호 공시 의무 대상에서 제외됐다. 하지만 금융 애플리케이션(앱) ‘토스’를 제공하는 비바리퍼블리카를 비롯해 토스뱅크, 우리은행, 신한금융투자, 카카오페이 등 기업은 정보보호 투자 현황을 공시했다.   이중 투자 규모가 가장 큰 것은 우리은행이다. 정보보호 부문에 405억원을 투자했는데, 이는 IT 투자액 대비 10.9%에 달하는 금액이다. 신한금융투자가 159억원, 비바리퍼블리카 90억원, 카카오페이 34억원, 토스뱅크 20억원 등을 각각 투자했다. 이중 비바리퍼블리카는 IT 투자액 대비 17.3%나 정보보호에 투자했다.   물리·정보보안 기업인 SK쉴더스도 공시 의무 대상이 아님에도 투자 현황을 공시했다. IT 부문에 633억원, 정보보호에 45억원을 투자했다. 물리보안 시장 1위 기업인 에스원은 IT 부문에 484억원, 정보보호 부문에 25억원을 투자했다.    한편 정보보호 공시 의무 대상에는 마이크로소프트(MS), 구글, 오라클, 넷플릭스, 메타(구 페이스북), 트위터, 텐센트, 알리바바 등 국내에 지사를 두고 있는 외국계 기업들도 일부 포함됐다. 다만 이들 기업 대부분은 글로벌 본사 차원에서 통한 관리하고 있기에 한국 지사별 투자액을 공시하지는 않았다.    공시 의무 대상임에도 시일 내 공시를 하지 않은 기업도 있다. 올해 하반기 코스닥 상장을 추진 중인 클라우드 기업 이노그리드와 중국 기업인 텐센트, 알리바바 등이다. 한국인터넷진흥원(KISA)에 따르면 일부 기업은 메일로 투자 현황을 보내 아직 반영되지 않았다. 또 이노그리드의 경우 사전 협의 끝에 제출 기한을 1주가량 연기했다고 전했다. 공시 의무 기업임에도 이를 공개하지 않은 기업에는 1000만원 이하의 과태료가 부과될 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>[세상보기] 기업가(企業家)가 아닌 기업가(起業家)를 위한</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/656/0000017580?sid=110</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>구인혁 우송대 글로벌융합비즈니스학과 교수2003년 7월, 이건희 회장은 삼성전자 사장단을 이끌고 노키아를 방문한다. 이 회장은 기술경쟁력과 핀란드의 협력문화 등 세계 1위 휴대전화 제조사로 성장한 노키아의 경영전략에 깊은 인상을 받았다. 2000년대 후반까지 모바일 보유자 두 명 중 한 명은 노키아를 갖고 있을 정도로 압도적 시장점유율을 자랑했다. 그러나 이제 노키아는 역사의 뒤안길로 사라진 과거의 기업이 됐다. 노키아를 배우기 위해 핀란드를 방문한 지 10년이 되지 않은 2012년 상반기, 삼성전자는 세계 모바일 점유율 1위 기업(25.2%)으로 등극한다. 다시 10년이 흘렀다. 2022년 1분기 삼성은 글로벌 스마트폰 시장점유율 1위(23.8%)를 수성했다. 애플(19.3%), 샤오미(14.3%), 오포(13.1%) 등의 추격을 이겨냈다. 비단 삼성뿐만이 아니다. LG, SK, 현대, 기아자동차가 글로벌 100대 혁신 기업으로 선정됐다. 현대 경영학의 거장인 피터 드러커가 세계에서 가장 기업가정신이 투철한 나라로 예측했던 대한민국의 저력이 입증됐다. 한국기업의 성장을 주시했던 글로벌 컨설팅 회사들은 우리 기업들의 강력한 리더십과 장기비전, 그리고 위기 상황에서 빠르게 움직이고 공격적으로 투자하는 실행력을 성공비결로 평가했다. 스마트폰, 자동차, 반도체 분야에서의 끊임없는 혁신은 물론 글로벌 제품경쟁력을 확보하려는 기업가(企業家) 정신이 성장의 원동력이었다. 이제 앞으로 다가올 10년을 그려보자. 한때 목재기업이었던 노키아를 벤치마킹하기 위해 핀란드를 찾았던 과거, 그리고 오늘, 맞이할 2030년은 어떻게 달라져 있을 것인가? 소수 대기업에 의존하는 우리 경제가 외부 요인에 덜 흔들리고 안정적으로 성장하기 위해서는 작지만 강한 기업을 지속적으로 육성해야 한다. 초격차 우위의 달콤함에 젖어 안주하는 순간 글로벌 1위의 환상은 언제든 물거품이 된다는 사실을 우리는 이미 잘 알고 있다. 생체리듬이 빨라진 경영환경에서 안주하면 쇠퇴하지만, 발 빠르게 준비한다면 도약의 기회가 될 수 있음을 잊지 말아야 한다. '파괴적 혁신, 창조적 파괴'가 가능하다면 새로운 돌파구를 찾는 기업들은 언제든 등장한다. 배틀그라운드로 유명한 크래프톤, 핀테크 기업 토스, 중고거래 서비스 당근마켓, 신선식품 배송서비스 마켓컬리 등 새로운 영역에서 2조 원 이상의 기업가치를 인정받는 우리 스타트업의 대표적 사례에서 볼 수 있다. 새로운 패러다임을 제시하는 IT 최강자의 성공사례도 다르지 않다. 애플, 구글, 페이스북, 아마존은 창업한 지 5년이 되기도 전에 세계 최고 기업으로 성장했다. 이런 기업들의 특징은 특정 기술이나 상품만으로 성장하겠다는 기업문화가 없다. 기존 대기업들과 안정적인 공생관계도 찾아볼 수 없다. 현재 상황에 만족하거나 안주하는 것을 거부하고 실패하더라도 새로운 기회를 만들기 위한 기업가(企業家) 정신만이 유일한 성장동력이었다. 전략적인 측면에서 벤처기업들은 대기업과의 하청 관계를 통해 안정적인 성장을 기대할 수 있다. 그러나 어느 정도 규모를 갖춘 중소기업으로 성장할 수는 있지만, 세계 최고 수준의 기술과 상품을 보유하기는 어렵다. 따라서 새로운 정부는 혁신과 기술력을 갖춘 작은 기업들도 '계급장에 관계없이' 창조적 아이디어만으로 대기업과 경쟁할 수 있는 공정한 기업생태계 조성을 최우선 과제로 삼아야 한다. 중소·벤처기업이 주도하는 경제체제가 미래 전략의 핵심이어야 한다. 단순히 기업을 경영하는 기업가(企業家)가 아니라 새로운 기회를 일으킬 줄 아는 기업가(起業家)를 키워내기 위해 모험자본, 인력육성, 지속 가능한 생태계 조성에 앞장서야 한다. 다가올 10년, 기업가(起業家)들이 선도형 경제의 주역으로 자리매김할 수 있도록 제도적 기반과 인프라 확충을 기대해본다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"요즘 가장 뜨겁다" 스타트업 전쟁터가 된 '인력 중개' 시장 [긱스]</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004723065?sid=105</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.웬만한 직장인 관련 정보를 보유한 회사들은 모두 뛰어들고 있습니다. '채용 중개' 시장 얘기입니다. 그동안 잡코리아, 사람인 등의 이른바 잡보드(채용 공고형 서비스) 회사들이 주도했던 사업 분야지만 요즘엔 잡플래닛(기업 연봉·복지 비교), 블라인드(직징인 익명 게시판), 리멤버(명함 관리) 등도 앞다퉈 인재 스카웃 대행 시장에 뛰어들었습니다. 코딩 교육 업체들까지 가세했죠.  요즘 테크 분야는 한쪽에선 채용이, 다른 한쪽에선 감원이 동시에 진행되면서 어느 때보다 이직이 활발합니다. 채용 시장의 큰 판이 벌어졌죠. 그 와중에 개발자 품귀 현상은 여전합니다. 채용 방식도 수시 채용으로 굳어졌습니다.    스타트업들의 전쟁터가 된 인재관리(HR) 산업 생태계를 한경 긱스(Geeks)가 해부했습니다. 과거 온라인 채용은 접수에서 합격까지 전형 단계를 자동화한 것이 다였다. 최근에는 인공지능(AI) 기술을 기반한 지원자 관리시스템(ATS‧Applicant Tracking System)와 후보자 관리 시스템(CRM‧Candidate Relationship Management) 기술로 진화됐다.기업(B2B) 서비스 ‘그리팅’을 개발한 두들린은 ATS 시장 선발 주자다. 크라우딩 기반 그리팅에서 채용공고를 만들어 각종 채용 공고 사이트에 뿌리면 지원서를 그리팅으로 받아볼 수 있다. 지난해 말 알토스벤처스 등으로부터 43억원 시리즈 A 투자를 유치했다.스펙터는 채용하는 기업 대상 지원자 평판 검증 서비스를 제공하고 있다. 전직장 대표, 임원진으로부터 평판 작성을 받는 플랫폼으로 3일 이내에 지원자 평판을 조회할 수 있으면 비용도 인당 3만원으로 낮췄다.채용 공고 서비스 1, 2위 사업자인 잡코리아와 사람인도 IT 기술 투자를 늘리고 있다. 사람인은 원격 영상면접 서비스를 기업 채용 솔루션 머스트에 적용했다. 잡코리아도 지인 추천 서비스를 추가했다. 3위 업체인 인크루트도 ATS 및 CRM 소프트웨어 개발에 전격 뛰어들었다.사진=게티이미지뱅크  '합격하면 200만원'전현직 직원들의 기업 리뷰를 열람할 수 있는 잡플래닛은 지난 4월부터 채용 중개 서비스에 뛰어들었다. 복지·급여, 워라밸 등 5대 항목에서 평점 3.0 이상 우수 기업들의 채용 공고만 모아 보여주는 구직자 맞춤형 채용 서비스인 '프라이빗 채용관'이 강점으로 꼽힌다. 잡플래닛을 통해 채용 지원하고 합격하면 채용 축하금을 200만원 증정하는 이벤트도 진행 중이다. 채용 중개 플랫폼 원티드는 지인 추천 보상금 제도로 급부상했다. 지인 추천으로 채용이 확정되면 합격 당사자와 추천자 모두에게 50만원 상당을 준다. 원티드가 지난 3년간 합격자와 추천인에게 지급한 보상금 규모는 61억원에 달한다. 2019년 10억원, 2020년 16억3000만원, 2021년 34억6000만원으로 해마다 증가 추세다.원티드에 등록한 개인들 가운데 IT 직군은 50% 정도다. 2021년말 합격자 기준 IT 직군은 70%로 더 높다. IT업계 채용이 더 활발한 최근의 트렌드를 보여주는 수치다.    원티드는 채용 성사시 기업으로부터 채용 중개 수수료로 연봉의 7%가량을 받는다. 프리랜서 매칭 서비스 ‘원티드 긱스’, 커리어 콘텐츠 서비스 ‘원티드 플러스’도 운영 중이다.    직장인 '앱'의 변신리멤버, 블라인드, 퍼블리...직장인 이용자를 확보한 이들 플랫폼들은 일제히 채용 중개 서비스에 뛰어들었다. 가장 앞장 서고 있는 것은 블라인드와 리멤버다. 채용 트렌드의 핵심이 ‘화이트 컬러(사무직)’와 ‘경력직’이라는 점에서 이미 직장인 인재풀을 확보한 점이 유리하기 때문이다. 직장인 익명 커뮤니티 '블라인드'를 운영하는 팀블라인드는 미국에 이어 국내에서도 지난해 6월 경력직 이직을 돕는 ‘블라인드 하이어’를 출시했다. 기업들이 블라인드 인재풀을 보고 직접 이직을 제안하는 ‘블라인드 하이어 셀프’와 블라인드의 자체 헤드헌터가 직접 기업에 인재를 추천하는 ‘하이어 에이전트’ 두 가지 사업모델을 운영하고 있다. 채용 성공시점에 고객사에 수수료를 과금하는 방식이다. 인재 추천형인 하이어 에이전트는 최종 연봉의 20%를, 인재 검색형인 하이어 셀프는 연봉의 7%를 수수료로 받는다. 팀블라인드는 미국에서도 하이어 셀프 서비스를 곧 시작할 예정이다. 미국 시장에서의 수수료는 최종 연봉의 15%로 한국 보다 두 배 이상 높다. 블라인드 하이어를 이용하는 고객사는 지난해 400곳에서 1년 만에 1000개 이상으로 늘었다. 팀블라인드 관계자는 “커뮤니티를 확보하고 있기 때문에 이용자들의 플랫폼 체류시간이 경쟁사 대비 압도적으로 길다”고 설명했다.    스카우트 서비스로 '돌파구' 마련명함관리 플랫폼 리멤버는 국내판 '링크드인'으로 불린다. 2016년 마이크로소프트가 인수한 링크드인은 이용자들이 커리어 프로필을 올리는 글로벌 소셜네트워크다. 인재풀 검색과 채용 공고 서비스를 제공하고 있다.   리멤버를 운영하는 드라마앤컴퍼니는 2020년 10월 기업 인사담당자나 헤드헌터가 이용자 프로필을 열람하고 이직 제안을 보낼 수 있는 스카우트 서비스에 진출했다.  리멤버 이용자 350만명 가운데 스카우드 제안을 받기 위해 자신의 프로필을 등록한 회원 수는 90만명이 넘는다. 스카우트 제안 건수는 200만건, 이중 기업과 직접 연결된 매칭 수는 40만건에 달한다. 기업이 원하는 조건으로 후보자를 검색해 맞춤형 인재를 추천할 수 있는 게 강점으로 꼽힌다.   기업 인사담당자는 리멤버에 등록된 인재풀의 프로필을 무제한 검색하거나 채용 성공 시점에 일정 수수료를 내는 ‘채용 솔루션’을 이용할 수 있다. 리멤버에 등록한 헤드헌터가 기업에 인재를 추천하는 ‘헤드헌팅 서비스’도 제공 중이다.  커리어 콘텐츠 플랫폼 퍼블리 역시 19만명에 달하는 직장인 커뮤니티로 자리 잡은 ‘커리어리’를 통해 채용 제안 서비스를 시작했다.채용 플랫폼 경쟁 지도  코딩 교육→평가→채용까지구인난이 심각한 소프트웨어 개발자 직군의 채용 시장은 컴퓨터 프로그래밍(코딩) 교육 플랫폼이 주도하고 있다. 개발자 교육에 참여한 취업 준비생이나 이직자 풀을 스타트업에 연결시키는 게 유리하기 때문이다.  가장 발 빠르게 움직인 곳은 그렙이다. 일찌감치 ‘유료직업소개사업자’로 등록하고 2020년부터 개발자 맞춤형 채용을 중개하는 ‘프로그래머스’를 운영하고 있다. AI와 데이터 전문가 교육업체 엘리스는 지난 2월 IT 개발자 채용을 위한 ‘엘리스웍스’를 출시했다. 기업들은 입사 제의 메시지 발송, 코딩테스트, 화상 면접까지 한 번에 진행할 수 있다. 온라인 코딩 교육 '항해99'로 시작한 팀스파르타는 8월말 개발자 채용 플랫폼 '포트99' 서비스를 본격 시작한다. 코드스테이츠는 교육 이수자를 채용으로 연계하고 있다. 지난해 기준 정부가 국민내일배움카드 발급자에게 훈련비 전액을 지원하는 'K-디지털 트레이닝'의 훈련기관은 105곳에 달한다. 개발자 교육부터 채용까지 연계한 플랫폼들은 점차 늘어날 전망이다. 임정욱 TBT 대표 파트너는 “직장인 대상 코딩 교육시장은 이제 시작 단계라서 향후 관련 스타트업들의 매출 성장세에 주목할 필요가 있다"고 말했다.    몸값 높아지는 '슈퍼 프리랜서' 구인난을 겪는 기업들은 프로젝트 단위로 전문가 프리랜서를 고용하는 플랫폼으로 눈을 돌리고 있다. 통계청 고용동향에 따르면 2021년 기준 부업이 있는 사람은 56만6000명으로 역대 최고치다. 생계형 부업도 있지만 프로젝트 단위로 업무를 수행하고 연봉 1억원 이상을 버는 '슈퍼 프리랜서'도 증가세다.   탤런트뱅크는 설계 마케팅 재무 신사업 등 다양한 분야의 전문가 프리랜서를 기업의 프로젝트 단위로 중개하고 있다.  원티드랩은 2020년 4월 프리랜서 매칭 서비스 '원티드긱스'를 별도로 출시했다. 인공지능(AI) 기술로 적합한 일자리를 소개하고 매니저를 전담으로 배정한다.프리랜서 마켓 1위 업체 크몽은 전자책 사진 편집 등 재능 거래 마켓으로 시작했지만 기업에 전문가 프리랜서를 연결하는 '크몽 엔터프라이즈'도 운영하고 있다. 올해 크몽의 슈퍼 프리랜서 비중은 전년 대비 20% 증가한 수준이다. 2012년 설립한 위시켓은 IT 전문가 아웃소싱 업체 대표기업이다. 디자인 분야 아웃소싱 분야에선 스터닝이 운영하는 '라우드소싱'이 대표 주자다. 인테리어 이사 등 생활형 서비스 분야 프리랜서 마켓으로는 '숨고'가 꼽힌다. 중고거래 앱 당근마켓도 아이 하원 도우미 등 동네 기반 프리랜서 매칭 서비스를 제공하며 경쟁에 뛰어들었다. 돌봄 방문교사 매칭 분야에선 자란다가 대표 플랫폼이다.    코로나 19 이후 100% 원격 근무를 원하는 사람들의 채용을 중개하는 '플렉스웍'도 등장했다.  사진=게티이미지뱅크  인력 양성에 직접 나선 스타트업계스타트업계도 직접 인재 구하기에 나섰다. 장병규 크래프톤 의장이 설립을 주도한 SW 사관학교 정글은 스타트업계가 개발자 양성에 나선 대표 사례다. 전산학 지식이 없는 졸업생이나 직장인을 대상으로 5개월간 합숙 교육을 통해 개발자를 길러내는 코스다. 채용 중개 기관은 아니지만, 수료생들은 크래프톤, 퍼그스튜디오, 토스, 보이저엑스, 네이버, 니어스랩 등 협력사에 우선 채용되는 특전을 누린다. 초기 스타트업을 육성하고 시드 투자를 하는 액셀러레이터(AC) 퓨처플레이는 5월부터 9주간 프로덕트오너(PO) 교육과정 '나잇스프린트'를 진행했다. PO로 이직하고자 하는 3~8년 차 직장인이 대상이다. 제품과 서비스를 고도화하는 역할을 담당하는 PO는 개발자만큼이나 구인난이 심각해 몸값이 높은 직군으로 꼽힌다.스타트업계가 인재 양성에 팔을 걷어부친 이유는 기업 눈높이에 걸맞은 인재를 확보하기 위해서다. 지난해 11월 소프트웨어산업 실태조사 결과, 소프트웨어 기업이 꼽은 채용 애로사항은 인력 부족(52.6%), 우수인력 입사 지원 부족(19.1%), 장기적인 채용계획 수립 곤란(12.7%) 순이었다. SW 인력 자체도 부족하지만 적합한 역량을 가진 우수 인력이 부족하다는 얘기다.AI 소프트웨어 개발사인 보이저엑스는 최근 개발자 채용 진행 과정에서 원티드 플랫폼을 이용해 서류 전형을 치른 결과, 1차 면접 통과자는 많았지만 2차 면접 통과자는 한명도 없었다. 대신 SW 사관학교 정글 출신 2차 면접 통과자는 상대적으로 많았다.한 정글 협력사 관계자는 “정글은 회사를 그만두고 다시 '학교‘로 가는 개념이다 보니 업무에 대한 태도가 확실히 좋은 것 같다”고 평가했다.  참, 한가지 더국내 채용 플랫폼은 ‘직업정보제공사업’과 ‘유료직업소개’로 나뉜다. 둘 다 고용노동부에 등록해야 한다.  구인·구직자 정보를 제공만 하는 직업정보제공사업체와 달리 유료직업소개사업체는 구직자와 구인자 간 적극적으로 직업 소개를 대행해 이력서 발송 및 정보제공 업무를 할 수 있다. 유료로 채용 중개를 하려면 유료직업소개사업에 등록해야 하지만 요건이 까다롭다. 직업상담사 1급, 공인노무사 자격을 가진 자 등을 두고 있어야 한다. 현재 리멤버, 블라인드, 크몽, 프로그래머스, 잡플래닛, 원티드, 알바콜, 사람인, 리크루트 등이 채용 성공 때 수수료를 받을 수 있는 유료 직업소개 사업체로 등록돼 있다. 이밖에 스터닝, 엘리스, 플렉스, 숨고, 당근마켓, 인크루트, 리쿠르트 등이 직업정보제공 사업체로 이름을 올렸다. 정작 경력직 채용 분야 숨은 강자로 꼽히는 ‘링크드인’은 해외기업이라는 이유로 국내에는 별도로 법적 등록을 하고 있지 않다.스타트업계에선 법 규정 때문에 채용 인센티브가 제한적이라는 지적이 나온다. 직업안정법 제19조에 따르면, 유료직업소개사업자는 기업(사용자)으로부터 3개월 임금의 30% 이하를 소개요금으로 받을 수 있다. 구직자로부터는 임금의 1% 이하를 받을 수 있다. 시장에서는 보통 기업으로부터 10% 내외의 금액을 받는 것으로 알려졌다. 다만 임원 등 고급인력이나 전문 인력은 구인자와 정한 요금을 받을 수 있다.한 스타트업계 관계자는 “구인난이 심각한 개발자 및 PO는 ‘모시기 전쟁’이 일고 있지만 법에서 정한 임원 등 고급인력이나 전문인력이 아니라는 이유로 일정 소개요금 이상을 받을 수 없다”며 “과거 기준으로 만들어진 법 규정이 인재 구하기를 더 어렵게 만들고 있다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>혜택 쪼그라든 '토스뱅크 카드' 아직 쓸만할까</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004722298?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크3000원 이상 결제시300원 캐시백됐지만이달부터 100원만 적립 영화관·디저트점 등가능 업종 추가되고금액상관없이 캐시백하루 최대 금액도 늘어직장인 A씨는 지난 1일 편의점에서 토스뱅크카드로 5000원을 결제한 뒤 앱에서 온 알림을 보고 깜짝 놀랐다. 보통 3000원 이상 결제하면 300원이 캐시백 됐지만 이날은 100원밖에 들어오지 않아서다. 확인해보니 토스뱅크카드 혜택이 변경돼 있었다. 쏠쏠한 캐시백 혜택으로 즐겨 사용하던 A씨는 이제 다른 카드를 써야 하나 고민에 빠졌다.출범 9개월 만에 가입자 360만 명을 끌어모은 토스뱅크의 유일한 체크카드인 토스뱅크카드가 7월 1일부로 캐시백 혜택을 대폭 축소했다. 토스뱅크는 올 1월 5일부터 지난달 30일까지 ‘에피소드2’라는 이름으로 편의점 커피숍 패스트푸드점 택시에서 3000원 이상 결제하면 각 영역에서 하루 300원씩, 대중교통에서는 하루 100원씩 캐시백해줬다. 이달부터는 ‘에피소드3’가 새롭게 적용되면서 해당 영역에서 1만원 미만 결제 시 100원을 캐시백하는 것으로 바뀌었다. 통상 커피전문점이나 패스트푸드점에서 한 잔 또는 1인분을 주로 구매하는 사람이라면 캐시백 금액이 3분의 1 토막 난 셈이다.토스뱅크의 이 같은 혜택 축소는 예견된 일이었다. 연회비를 내는 일반 신용카드 상품은 혜택 변경을 위해 금융소비자보호법에 따라 복잡한 공시 절차를 거쳐야 한다. 체크카드 상품이나 OO페이로 불리는 선불지급수단은 이 같은 의무에서 자유롭다. 토스뱅크 역시 상품 출시 때부터 에피소드1, 에피소드2와 같은 이름으로 혜택 종료 기간을 못박았다. 에피소드1 당시엔 300원을 캐시백 받을 수 있는 최소 결제 금액이 300원밖에 되지 않았다, 편의점도 지금처럼 CU와 GS25만 되는 게 아니라 세븐일레븐 이마트24 미니스톱에서도 가능했다. 대중교통 영역에서도 100원이 아니라 300원이 캐시백 됐다. 에피소드1이 끝난 시점이 지난 1월 4일이란 점을 고려하면 반년 만에 300원 이상 캐시백 받을 수 있는 최소 결제 금액 기준을 30배 이상 올린 것이다.물론 고객에 따라 혜택이 늘어났다고 생각할 여지도 있다. 캐시백 가능 업종이 늘었다. 이번 혜택 변경으로 CGV 롯데시네마 메가박스 등 영화관과 배스킨라빈스 던킨도너츠 등 디저트 업종이 캐시백 대상으로 추가됐다. 평소 해당 업종에서 1000원 미만을 결제하던 고객이라면 이번 혜택 변경이 오히려 득이 될 수 있다. 기존엔 3000원 이상 결제해야 캐시백 받을 수 있었지만 이젠 1만원 미만 금액이라면 금액과 상관없이 100원이 캐시백 되기 때문이다. 해당 업종에서 주로 1만원 이상 결제하던 고객에게도 이득이다. 3000원 이상이라면 금액과 상관없이 300원 캐시백 되던 기존과 달리 1만원 이상 결제하면 500원을 캐시백해주기 때문이다. 1인당 하루 최대 받을 수 있는 캐시백 금액도 기존 1300원에서 3500원으로 늘었다.하루 최대 캐시백 금액을 채우기 위한 최소 결제 금액 역시 늘었지만 여전히 연회비가 없고 기타 실적이 필요 없는 상품이란 점에선 매력적이다. 다만 최대 혜택을 누리기 위한 방정식은 다소 복잡해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>"연 20→4%대로" 토스뱅크, 카드론 대환대출 중단한 이유는</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000830330?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>법정최고금리에 육박하는 카드론(장기카드대출)을 저금리 은행 신용대출로 갈아타는 서비스를 내놨던 토스뱅크가 이달 초 해당 서비스 제공을 잠정 중단했다./사진=이미지투데이 법정최고금리에 육박하는 카드론(장기카드대출)을 저금리 은행 신용대출로 갈아타는 서비스를 제공했던 토스뱅크가 이달 초 해당 서비스 제공을 잠정 중단했다.토스뱅크는 카드론 대환대출 서비스의 기능을 고도화하기 위해 잠정 중단했다는 입장을 내놨지만 일각에선 카드사들의 거센 반발로 중단했다는 해석을 내놓고 있다.8일 금융권에 따르면 토스뱅크는 지난달 초부터 중·저신용자 대출을 확대하기 위해 카드론을 자사 신용대출로 갈아탈 수 있는 서비스를 시범 출시했지만 이달초 카드론 대환대출 서비스를 잠정 중단했다. 카드사 대출을 은행 신용대출로 바꿔주는 서비스를 내놓은 은행은 토스뱅크가 처음이다. 해당 서비스의 재개 일정은 미정이다.당초 토스뱅크는 삼성카드 카드론에 대해서만 대환대출 시범 서비스를 제공해왔으며 이달부터 대상 카드사를 늘릴 계획이었다. 하지만 돌연 잠정 중단이라는 조치를 내린 것을 두고 은행권에선 의아하다는 반응들이 나온다.토스뱅크에 따르면 삼성카드에서 카드론을 받았던 대출자 A씨는 신용점수가 710점(KCB 기준)으로 카드론 금리가 연 19.9%, 한도는 1500만원이었지만 토스뱅크 대환대출을 통해 금리 연 4.43%, 한도 2600만원을 부여 받았다.토스뱅크 측은 "카드론 대환대출 서비스는 그동안 시범적으로 운영돼온 만큼 삼성카드만 대상으로 해왔다"며 "정부에서도 대환대출 플랫폼 논의가 나오고 있는 만큼 전반적으로 고도화 작업을 위해 잠정 중단 조치를 내렸다"고 설명했다.일각에선 이를 두고 토스뱅크가 카드업계의 반발을 의식한 조치가 아니냐는 해석을 내놓고 있다.카드사들은 토스뱅크의 카드론 대환대출을 통해 고객 이탈을 우려해왔다. 카드사들은 가맹점 수수료 인하로 결제 부문에서 수익을 내기 어려워지면서 카드론 등 카드 대출을 통한 이자이익을 확대해 수익을 올리고 있는데 카드론 고객마저 은행권으로 빼앗기면 수익이 저하될 수 있다는 우려에서다.카드사들은 토스뱅크가 고객의 카드론 정보를 수집할 때 이용하는 '웹 스크래핑' 방식이 보안 상 취약할 수 있다는 문제점도 지적했다.카드사 CEO(최고경영자)들은 지난 5일 이복현 금융감독원장과 만난 자리에서 토스뱅크의 카드론 대환대출에 대한 우려도 전달했다.당시 이 금감원장은 "(토스뱅크 카드론 대환대출과) 관련된 여전 업계의 의견을 들었다"며 "규제완화나 공정한 경쟁환경 조성을 위해 여전업 개정 TF(태스크포스)를 금융위와 함께 추진 중이기 때문에 다같이 살펴보려고 생각 중"이라고 말했다.━해넘긴 대환대출 플랫폼 출시, 올해 재개하나━최근 정치권에선 지난해 중단됐던 금융권 대환대출 플랫폼사업을 재추진해야 한다는 목소리가 불거지고 있다.대환대출 플랫폼 서비스는 은행, 저축은행, 캐피탈, 카드사 등 여러 금융기관 대출상품을 비교하고 더 낮은 금리를 제공하는 대출 상품으로 쉽게 갈아탈 수 있도록 하는 비대면 원스톱 서비스를 말한다. 금융결제원이 구축하는 플랫폼에 토스나 카카오페이 등 핀테크 업체가 운영 중인 대출금리 비교 서비스를 연계하는 방식이다.이 사업은 지난해 하반기 추진됐다가 금융사들이 이견을 보이면서 보류된 바 있다. 하지만 최근 들어 정치권을 중심으로 대환대출 플랫폼에 대한 논의가 재개되는 분위기다.앞서 성일종 국민의힘 정책위의장은 지난 5일 국회에서 열린 원내대책회의에서 "대환대출 플랫폼이 지난해 추진됐지만 금융권 상황으로 중단됐다"며 "하지만 당시보다 상황이 더 악화된 지금과 같은 금리 상승기에 무엇보다 필요한 사업"이라고 강조했다.이어 "고금리상품에서 저금리상품으로 소비자들이 더 쉽게 대출을 옮겨갈 수 있는 비대면 플랫폼 구축을 위해 금융업권의 의견을 신속하게 수렴하고 신속하게 시스템 구축에 나서달라"고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>의정부문화재단, 22∼24일 ‘예술극장 보물찾기’ 진행</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003714566?sid=102</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>경기 의정부문화재단은 22∼24일 의정부역 앞 아트캠프와 시민정원에서 가족 공연 예술 축제 ‘예술극장 보물찾기’를 연다고 12일 밝혔다.   이번 축제는 의정부문화재단과 협력단체인 ‘예술무대 산’을 비롯해 어린이극 창작단체들이 릴레이로 선보이는 15∼20분 분량의 ‘한 뼘 공연’을 관객들이 찾아다니면서 관람하는 방식으로 진행된다.   특별 공연으로 브러쉬씨어터의 매직 드로잉 가족극 ‘두들팝’도 무대에 오른다.   개구쟁이 두 주인공이 그린 낙서가 살아 움직이며 호기심과 상상력을 자극한다고 주최 측은 설명했다.   이 공연은 2018년 에든버러 페스티벌 화제작, 아시안 아츠 어워드 베스트 코미디상, 2019년 대한민국 콘텐츠 대상 등에 선정되기도 했다.   이밖에 축제장 주변에서는 핼러윈 가면 만들기, 링 토스 게임, 볼링 게임, 자이언트 젠가, 얼음 속 보물찾기 등 다양한 체험 행사도 즐길 수 있다.   특별 공연 관람료는 3만원이며 나머지 프로그램은 무료다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>"140원 받으려 만보 걷는다"…MZ가 꽂힌 '디지털 폐지줍기'</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003209410?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>직장생활 3년 차인 한모(28)씨는 얼마 전 스마트폰 앱(애플리케이션)을 정리했다. 배달과 쇼핑 앱은 지우고 할인이나 적립금을 쌓을 수 있는 앱을 깔았다. 매월 들어오는 수익은 일정한데 대출이자와 물가 인상으로 생활이 팍팍해져서다.        한씨는 2년 전 은행에서 신용대출 8000만원을 받았다. 당시 금리는 연 3.1%였고, 이자는 월 20만원 정도였다. 슬금슬금 오르던 금리는 이달 연 5.1%까지 상승해 이자만 월 30만원이 됐다. 생활비도 크게 늘었다. 아침 식사 대용으로 마시는 우윳값은 1년 새 20% 가까이 올랐다. 매달 배달음식에만 30만원 넘게 지출했는데 이제는 편의점 도시락을 택한다.      한씨는 편의점 앱을 깔고 멤버십에 가입해 ‘2+1’ 쿠폰이나 다양한 할인 혜택을 받는다. 스마트폰 잠금 화면을 풀 때마다 포인트가 쌓이는 리워드 앱, 걸음 수에 따라 포인트가 쌓이는 만보기 앱도 깔았다. 한씨는 “대출받아서 원룸 전셋값에 보태고 암호화폐와 주식도 샀는데 수익률이 마이너스라 팔수도 없고 지출을 줄이는 수밖에 없다”고 말했다.     다양한 할인 혜택을 받을 수 있는 편의점 멤버십 가입자가 늘고 있다. [사진 BGF리테일]           기준금리 인상으로 대출이자 부담이 커지고 물가가 치솟으며 '짠테크’(짜다+재테크) 바람이 불고 있다. 그간 플렉스(Flex·과시형 소비)에 집중하던 MZ세대(1980년대 초~2000년대 초 출생)를 중심으로 ‘푼돈도 아끼자’는 분위기가 만들어지고 있다. 저금리 시대에 빚을 내 주식이나 암호화폐 등에 투자하는 ‘한 방’ 재테크를 했다면 금리 상승기에는 밥값도 아끼는 짠테크로 돌아선 것이다.       이처럼 젊은 층을 중심으로 씀씀이를 줄이는 건 기준금리 인상과 물가 상승으로 지갑이 얇아진 탓이다. 한국은행은 지난해 8월 이후 10개월간 기준금리를 0.25%포인트씩 다섯 번 올렸다. 13일엔 0.5%포인트를 한 번에 올리는 ‘빅스텝’을 단행해 기준금리가 연 2.25%로 뛰었다. 게다가 지난달에는 소비자물가가 1년 전보다 6% 뛰었다.      ━   “한 번에 1~2원 적립 노리는 수요도 늘어”       금리 인상기 주가가 하락세를 이어가고 예·적금 금리가 오르자 한 방은 아니라도 차곡차곡 돈을 모으는 식으로 투자의 흐름도 바뀌고 있다. 예·적금 수요가 늘고 있다. 한은에 따르면 올해 1분기 가계의 저축성 예금은 42조3000억원으로 1년 전(15조원)보다 3배 가까이 늘었다.       시중은행의 예·적금 금리가 오른 영향이다. 한은이 빅스텝 인상에 나서자 하나은행은 14일부터 예·적금 30종의 기본금리를 최대 0.9%포인트 인상한다. 적립식 예금 금리는 0.25%~0.8%포인트, 거치식 예금 금리는 0.5%~0.9%포인트 올린다. 신한은행도 지난 8일 예·적금 금리를 최대 0.7%포인트 인상했다.      '짠테크 수요'를 겨냥한 금융상품도 있다. 카카오뱅크는 체크카드 사용자를 대상으로 통장에 1000원 이하 잔돈을 모아서 알아서 10만원까지 모아주는 상품을 내놨다. 케이뱅크의 자동 목돈 모으기 상품인 챌린지박스는 개인 목표 금액(500만원 이내), 목표 기간(30~100일)을 설정하면 매주 모아야 하는 돈을 자동으로 계산해 이체해준다.     기준금리 인상과 함께 시중은행의 예적금 금리도 오르고 있다. [연합뉴스]           할인 등으로 지출을 줄이는 수요도 늘고 있다. BGF리테일의 유료 멤버십 서비스인 ‘CU 구독 쿠폰 서비스’ 가입자는 올들어 지난달까지 51.4% 증가했다. 월 구독료를 내고 평소 자주 이용하는 품목을 정하면 한 달 내내 해당 품목을 할인받는 서비스다. 예컨대 월 구독료 2000원을 내고 ‘GET아메리카노’를 선택하면 한 달 동안 사용할 수 있는 30% 할인 쿠폰(1일 1회)이 발급된다.    출석이나 설문, 광고 시청, 걷기만으로 현금처럼 쓸 수 있는 포인트가 쌓이는 이른바 ‘디지털 폐지 줍기’에 대한 관심도 커졌다. 캐시슬라이드가 대표적이다. 스마트폰 잠금 화면에 뜨는 광고를 보면 포인트가 쌓인다.      네이버 마이플레이스는 영수증을 인증하면 10원씩 적립 받을 수 있는 앱이다. 캐시워크는 100걸음당 1캐시가 적립되는데 하루 최대 100캐시까지 쌓을 수 있다. 토스 만보기도 하루 최대 140원을 적립할 수 있다. 정연승 단국대 경영학부 교수는 “고금리에 고물가, 주식·암호화폐의 위험성이 미래를 대비하기 위한 '티끌 모아 태산' 전략으로 돌아서게 한 영향이 크다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>'영끌족' 위한 대환대출 플랫폼 도입 압박에 금융권 '시끌'</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005115423?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[이미지출처=연합뉴스]국회에서 이자 부담을 낮추기 위해 대환대출 플랫폼을 도입해야 한다는 목소리가 나오면서 금융권이 시끄럽다. 금융당국은 업권별 의견 수렴에 나섰고, 전통 금융권은 빅테크 종속을 우려하고 있다.10일 금융권에 따르면 금융당국은 최근 대환대출 플랫폼 도입 관련 의견을 듣고 있다. 이형주 금융위원회 금융산업국장은 "대환대출 플랫폼은 여러 다양한 의견이 있는 상황이다. 모든 여신금융기관이 다 포함이 돼 있는데 기관별로 의견이 다 다르다"며 "의견 수렴을 하고 있다"고 말했다.대환대출 플랫폼은 비대면으로 여러 금융사의 대출 상품의 금리과 한도를 비교하고 더 좋은 조건의 대출로 갈아탈 수 있게 하는 서비스다. 지난해 금융위가 추진했다가 빅테크 종속 등 은행권 반발에 부딪치면서 도입이 무산됐다.하지만 최근 금리 상승기에 여야가 대환대출 플랫폼 도입에 대해 목소리를 내면서 다시 뜨거운 감자가 됐다. 집권여당인 국민의힘은 금융위원장이 임명되면 관련 당정 간담회를 개최하겠다고 예고한 상태다.성일종 국민의힘 정책위의장은 지난 5일 원내대책회의에서 "지금과 같은 금리 상승기에 무엇보다도 필요한 사업"이라며 "고금리 상품에서 저금리 상품으로 소비자들이 더 쉽게 대출을 옮겨갈 수 있는 비대면 플랫폼 구축을 위해 금융권의 의견을 신속하게 수렴하고 신속하게 시스템 구축에 나서달라"고 강조했다.박홍근 더불어민주당 원내대표 역시 지난 6일 '원스톱 대출이동제 도입 간담회'에서 "그동안 저신용자의 금융 정책 등 서민의 부담을 덜 수 있는 대책을 논의했고, 낮은 금리의 대출로 갈아타는 대환대출도 서민들의 부담 줄이기 위해 고려할 선택지"라며 "당사자 간의 이해충돌로 현재는 추진이 중단됐지만 급격한 고금리로 국민들의 부담 가중되는 비상 상황인 만큼 원스톱 대출이동제를 시급히 도입해야 한다"고 말했다.다만 도입 전부터 전통 금융권과 인터넷전문은행 등 빅테크를 중심으로 한 신흥 세력 간의 갈등 조짐이 보이고 있는 상황이다.  최근 토스뱅크는 카드론을 신용대출로 갈아탈 수 있는 서비스를 시범 출시했다가 한 달 만에 잠정 중단했다. 토스뱅크는 삼성카드 카드론을 대상으로 해당 서비스를 시범적으로 운영했고 대상 카드사를 늘리려는 계획을 갖고 있었다. 이 때문에 토스뱅크의 행보를 두고 카드업계의 거센 반발이 결정에 영향을 끼쳤다는 해석이 나왔다.전통 금융권은 핀테크가 주도권을 가질 것에 대해 우려하고 있다. 상품 조달 기능만 제공하는 입장으로 전락할 것이라는 걱정이다. 또 상품 추천 알고리즘의 투명성에 대해서도 의구심을 품는다. 은행권 관계자는 "빅테크들이 자사 상품들에 유리하게 알고리즘을 조정할 지 알 수 없다"며 "빅테크에 대한 규제도 공평하게 수반되어야 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[단독] 카드사·PG업계, 수수료율 인상안 합의… 결제 중단 사태 피했다</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000825669?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>카드 수수료율 0.02~0.04% 인상 합의  당초 카드사 제시 인상안의 절반 수준  이달 최종 합의안 발표될 듯        전업 7개 카드사와 온라인쇼핑몰 결제를 대행하는 전자지급결제(PG)사들이 수수료율 인상안에 사실상 합의했다. 합의된 인상률은 당초 카드사들이 PG사들에 통보했던 수준의 절반 수준으로 알려졌다.모바일로 온라인 쇼핑을 즐기는 모습./어도비        6일 카드업계 관계자에 따르면 전업 7개 카드사(신한·삼성·KB국민·현대·롯데·우리·하나)와 PG사들은 수수료율을 0.02~0.04% 수준으로 올리는 데 합의했다. 각 카드사와 PG사들은 수수료율을 0.02~0.04% 수준에서 업체별로 다르게 인상할 방침이다.협상은 현재 마무리 단계로 이달 안에 합의안이 발표될 예정이다. 그간 업계에서는 협상이 결렬될 경우 PG업계가 카드사들과 계약 해지에 나서면서 결제 중단 사태가 발생할 수 있다는 우려가 제기됐었다.PG사는 카드사와 직접 온라인 중개 시스템 구축 및 계약을 체결할 수 없는 온라인 쇼핑몰에 시스템 제공과 가맹점 계약을 제공한다. PG협회는 나이스페이먼츠·다날·엔에이치엔한국사이버결제·케이에스넷·KG모빌리언스·KG이니시스·토스페이먼츠·한국정보통신 등 8개 업체로 구성돼 있다.카드사들은 올해 초 PG사 측에 가맹점 수수료율을 0.05~0.1%포인트 인상하겠다고 통보한 바 있다. 현재 PG사가 카드사와 맺고 있는 가맹점 수수료율은 2.2%다. 카드사들이 제시한 인상안에 따를 경우 PG사들의 카드 수수료율은 2.25~2.30%로 상승하게 된다.이에 PG사들은 “가맹점 수수료가 인상되면 결과적으로 온라인 쇼핑몰의 판매가격 상승으로 이어져 최종적으로 소비자에게 피해가 돌아갈 수밖에 없다”며 카드사들의 인상안을 수용할 수 없다고 맞섰다. PG사들은 지난 3월 서울 중구 신한카드 본사 앞에서 집회를 열기도 했다.PG협회가 17일 서울 을지로 신한카드 본사 앞에서 ‘카드 수수료 인상 반대 집회’를 하고 있다./PG협회 제공        PG협회 관계자는 “수수료율을 동결하겠다는 당초 목표에는 미치지 못했지만, 카드사들이 통보한 인상률의 절반 수준에 합의하는 데는 성공한 셈”이라며 “7개 카드사 중 1~2개 카드사와의 최종 조율만 남아있다”라고 전했다.앞서 카드사들은 완성차와 항공업계 등 초대형 가맹점들과도 협상에 나섰지만, 결국 수수료율을 동결하기로 합의한 바 있다. 이 때문에 업계에서는 카드사들이 PG사들에 대해서는 최초 인상안을 양보하지 않을 것이라는 전망도 나왔지만, 약 반년에 걸친 협상 끝에 결국 타결이 이뤄졌다.여신전문금융업법에 따르면 카드사들은 3년 주기로 수수료 적격비용을 재산정할 수 있다. 따라서 이번 합의도 향후 3년간 유지된다.한편 카드사들은 마트와 주유소 등과도 현재 수수료율 인상을 두고 갈등을 빚고 있다. PG사들과의 합의를 통해 다른 업계와의 수수료율 인상 협상도 한층 속도가 붙을 것이라는 관측이 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.07.10.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>이자 낮아졌다고?…'마통'은 최소 5%대</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004074519?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>금융채 금리 급상승세 반영신용 1등급 기준 5.3~6.8%인터넷은행은 최고 13.74%주담대 금리 인하와 대조적서울 시내에 주요 은행의 ATM기기가 나란히 설치돼 있다. 연합뉴스[서울경제] ‘직장인의 비상금’으로 통하는 신용한도대출(마이너스통장) 금리가 치솟고 있다. 신용점수 900점 이상의 고신용자도 은행권에서 4% 이하의 금리는 기대하기 어렵다.10일 금융권에 따르면 4대 시중은행(KB국민·신한·하나·우리)의 마이너스통장 금리 구간은 신용등급 1등급 기준 5.34~6.84%로 집계됐다. 지난달 17일 기준 금융감독원에 공시된 4대 은행의 마이너스통장 금리 구간은 4.48~4.83%였다. 신용대출, 마이너스통장 등 상품 금리의 기준이 되는 금융채 금리가 가파르게 상승하면서다. 8일 금융채 I 1년물(무보증?AAA) 민간신용평가사 평균 금리는 3.643%로 2거래일 연속 52주 최고치를 경신했다. 지난달 말보다 0.089%포인트 높아진 수치다. 금융채 6개월물 금리도 6월 30일 2.737%에서 8일 2.869%로 0.132%포인트나 상승했다. 마통 금리는 통상 금융채 금리에 0.5%포인트가 추가되고 은행별 가산금리가 붙는다. 정치권 및 금융 당국의 ‘이자 장사’ 비판에 은행들이 주택담보대출 가산금리를 발 빠르게 인하하는 모습과 대조적이다. 인터넷은행들의 마이너스통장 8일 기준 상단금리는 연 13.74%에 달한다. 케이뱅크가 최대 2억 원 한도의 마통 대출에 최저 연 4.40%부터 최고 연 8.81% 금리를 받는다. 토스뱅크의 마통 상품 금리는 연 4.77~13.74%로 한도는 최대 1억 5000만 원이다.다만 직장인과 자영업자들은 올 들어 마통 한도에 대한 부담은 덜한 상황이다. 앞서 은행들은 지난해 하반기 정부의 가계대출 총량 규제로 신용대출·마이너스통장 등 한도를 5000만 원 수준으로 일제히 낮췄다가 최근 1억~2억 원대로 되돌렸다.한편 금리 인상에 가계 신용대출 규모는 금리 인상기에 맞춰 꾸준히 줄고 있다. 금융감독원에 따르면 신용대출 등 기타대출 잔액은 지난해 12월부터 올해 4월까지 5개월 연속 감소했다. 올 5월에는 전월 대비 2000억 원가량 증가했으나 금감원은 “5월에 기타대출이 소폭 증가한 것은 가정의 달 관련 가계자금 수요 등으로 인해 신용대출이 증가하는 계절적 요인에 따른 영향”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Z세대 이끄는 금융 '자이낸스'를 잡아라</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000041282?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>카뱅·토스·핀다 등 Z세대 공략해 후발주자 핸디캡 극복전통 은행보다 핀테크 선호하는 Z세대, 금융 생태계마저 바꿔2018년 말 출시한 카카오뱅크의 모임 통장은 지난 4월말 기준으로 가입자 1000만 명을 넘어섰다. 시중은행들이 출시한 모임 통장들이 소리 소문 없이 사라진 것과 대조된다. 10대 청소년을 위한 서비스인 '미니'도 흥행에 성공했다. 이 서비스는 만 14~18세 청소년만 개설할 수 있는 선불전자지급수단이다. 지난해 11월 출시된 이후 한 달 만에 가입고객 50만 명을 넘어섰다. 금융 업계 후발주자이니만큼 젊은 세대를 집중 공략하면서 빠른 실적 성장과 '상장 대박'에도 성공한 것이다.실제로 카카오뱅크의 20대 이하 고객 비중은 33%에 이른다. 카카오뱅크와 함께 대표적인 금융 플랫폼으로 꼽히는 카카오페이(29.2%)와 토스(29.2%), 대출 비교 플랫폼인 핀다(29%)도 20대 점유율이 30%에 육박한다. 20대 이하 고객이 20%에 머물고 있는 기존 은행권과 대비되고 있다.최근 금융 플랫폼의 영향력이 세금 신고 및 환급 영역으로까지 확대됐다. 스타트업 자비스앤빌런즈가 2020년 5월 출시한 삼쩜삼은 종합소득세 신고와 함께 환급 신청을 비대면으로 쉽고 편리하게 도와주는 서비스다. 플랫폼 종사자, 프리랜서, 아르바이트생 등 그동안 종합소득세 신고 과정에서 세무 전문가의 도움을 받지 못하던 이들 사이에서 큰 인기를 얻고 있다. 이 서비스도 20대 이하 사용자 비중이 46%에 달하는 것으로 전해진다.ⓒ연합뉴스·시사저널 최준필청소년용 미니카드, 출시 한 달 만에 50만 명 확보Z세대들이 핀테크 기업을 찾는 핵심 이유로는 '직관성'이 꼽힌다. 20대 이하 고객들은 직관적으로 이해되고 재미있는 금융을 기대한다. 이들은 수많은 정보에 노출되면서 자란 디지털 세대이기에 짧은 시간에 핵심만 전달하는 '숏폼 콘텐츠'를 선호한다. 하지만 기존 금융사의 디지털 서비스는 이러한 젊은 세대의 기준을 만족시키지 못했다. 이는 핀테크 기업 입장에서 기회가 됐다. 카카오뱅크의 모임 통장이 흥행할 수 있었던 이유는 카카오톡으로 친구를 초대해 손쉽게 만들 수 있다는 장점 때문이라고 전문가들은 설명한다. 삼정KPMG 경제연구원은 최근 보고서를 통해 "기존 은행들은 고객의 높아진 기대를 맞추지 못했고 핀테크 기업은 이러한 고객의 페인 포인트(Pain Point)를 파고들었다"면서 "기술과 새로운 아이디어를 접목해 비용이 저렴하면서도 빠르고 편의성이 극대화된 새로운 차원의 혁신적인 금융 서비스를 제공해 기존 뱅킹 서비스에 불만을 품은 소비자들을 사로잡았다"고 분석했다.Z세대들이 개인화된 서비스를 중시하는 점도 핀테크 기업 '약진'의 요인으로 꼽힌다. 20대 이하 고객들은 집단의 정체성보다 개인의 정체성을 중요하게 생각한다. 이러한 성향 때문에 개인화된 광고를 '서비스'의 개념으로 인정하고 직접 개인정보를 제공하기까지 한다. 데이터 기술이 고도화되고 오픈 뱅킹으로 기존 금융사의 금융 데이터가 공개되면서 핀테크 기업들이 Z세대를 위한 맞춤 서비스를 제공한 것이 주효했다는 분석이다.   금융의 디지털화를 20대 젊은 층이 이끌면서 금융권에선 '자이낸스(Zinance)'에 대비하기 위한 준비가 한창이다. 자이낸스는 'Z세대'와 '금융(finance)'을 결합해 만든 신조어다. 모바일 플랫폼에 익숙한 Z세대의 차별화된 금융활동을 일컫는 용어다. Z세대는 자산과 소득은 적지만 대출과 투자에 과감한 것이 특징이다.더구나 Z세대의 향후 소득이 늘어나고, 부모 세대인 베이비부머의 상속도 본격화되면 소비력도 확대될 것으로 예상된다. 오픈인베스트에 따르면 전 세계적으로 Z세대의 오는 2030년 소득은 2020년 대비 약 5배 늘어날 것으로 봤다. 하나금융연구소는 보고서에서 "베이비부머 세대로부터 Z세대로의 부의 이전이 진행되면서 Z세대의 양극화는 계속 진행될 것"이라면서 "자산이 많은 젊은 세대의 투자가 늘어날 것이며, 미래에 대해 불안을 느끼는 Z세대도 공격적인 투자에 나설 것으로 보인다"고 전망했다.대형 시중은행 등 전통 금융사들은 발등에 불이 떨어졌다. 향후 충성도가 높은 고객이 될 수 있는 젊은 세대를 빼앗기면 미래를 보장할 수 없기 때문이다. 규제환경이 계속 금융 혁신을 촉진하는 쪽으로 바뀌는 점도 부담이다. 디지털화를 위해 규제가 완화될수록 핀테크 기업들의 사업영역도 그만큼 넓어진다. 김주현 금융위원장 내정자는 최근 기자간담회에서 "핀테크 산업의 발전을 지속 지원하고, 금융산업 전반에 걸쳐 디지털 혁신이 촉진될 수 있도록 관련 규제·법제 개편을 추진해 나가겠다"고 밝혔다.보수적인 은행도 관행 깨고 Z세대 모시기 '안간힘'시중은행은 우선 디지털화에 뒤처지지 않기 위해 순혈주의를 깨고 외부 전문가를 대거 영입하고 있다. KB국민은행은 올해 문수복 카이스트 공과대 전산학부 교수를 신임 사외이사로 영입했다. 문 교수를 포함해 최근 2년간 영입한 외부 전문가만 6명에 이른다. 신한은행도 모기업인 신한금융지주를 포함해 총 4명의 외부 출신 인물을 모셔왔다. 우리은행은 옥일진 최고디지털책임자(CDO) 부행장 등 2명의 외부 전문가를 선임했다. 하나은행 김소정 부행장도 외부에서 영입한 전문가다.이와 함께 시중은행은 Z세대들을 끌어들이기 위해 전용 플랫폼도 출시하고 있다. KB국민은행은 지난해 11월 Z세대를 위한 '리브넥스트'를 내놓았다. 카카오뱅크의 미니에 국민은행이 도전장을 내민 것이다. 신분증이나 계좌 없이도 '포인트'를 이용해 송금 등이 가능한 플랫폼이다. 신한은행은 자체 브랜드 앱 '헤이영'을 내놨다. 이 앱은 대학생 고객에 특화된 상품이나 서비스를 제공한다. 하나은행은 Z세대 체험형 금융 플랫폼 '아이부자 앱'을 내놓고 서비스를 확장하고 있다.조직개편과 라이브 방송 등을 통해 젊은 세대와 소통하려는 움직임도 보인다. 우리금융지주는 최근 조직 내 MZ세대 12명으로 구성된 '블루팀 2기'를 꾸렸다. 이 조직은 MZ세대 고객 관점의 서비스 제공에 힘쓸 예정이다. 하나은행은 한 달에 두 번, 정기적으로 하나은행 앱 내에서 금융상품을 소개하는 라이브방송을 진행한다. 유튜브 등 다른 플랫폼을 통하지 않고 자체 은행 앱 내에서 라방을 진행해 MZ세대 고객을 앱에 머물도록 하려는 전략이다. 한 금융권 관계자는 "시중은행의 최근 핵심 화두는 젊은 고객을 끌어들이는 것"이라며 "보수적인 은행이 외부 디지털 전문가들을 잇달아 영입하는 이유 중 하나도 디지털 플랫폼을 통해 젊은 고객을 늘리기 위한 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.07.03.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>재테크 빙하기시대…슬기로운 예적금생활은?</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004986195?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>KB국민銀 마이핏통장 패키지신한銀, 최고 年 4.6% 우대금리하나銀, 1g 단위로 金현물 투자NH농협, 금리 인상기 회전예금신한·롯데카드 다양한 할인혜택불황일수록 효자 보험상품 필요 '돈줄'이 말랐다. 투자 통장은 반 토막이 아니면 다행이고, 고공 행진하는 물가에 월급은 들어오는 족족 빠져나간다. 전문가들은 이 같은 금융 불안 장세가 적어도 내년 상반기, 길게는 내년 말까지 지속될 것으로 보고 있다. 하지만 '재테크 빙하기'라고 아무것도 안 하고 있을 수는 없는 법, 가정 경제에 한 푼이라도 도움이 될 상품을 정리했다. KB국민은행은 MZ세대의 슬기로운 금융생활을 위해 KB국민카드와 함께 'KB마이핏 패키지'를 제공한다. 'KB마이핏 통장' 'KB 마이핏 적금' 'KB국민 마이핏카드' 'KB국민 마이핏에디션 노리 체크카드(펭요미)' 등으로 내게 맞는 금융시스템을 설계할 수 있다. 신한은행 '신한 안녕, 반가워 적금'은 월 최대 50만원까지 입금 가능한 1년제 자유적립식 상품이다. 연 1.6% 기본금리에 최대 3.0%포인트 우대금리를 더 줘 최고 금리는 연 4.6% 수준이다. 급여클럽을 통해 월 소득 누적 금액 50만원 이상을 신한은행에 입금하면 우대금리 조건을 충족할 수 있다.   우리은행은 복잡한 우대금리 조건을 충족하지 않아도 만기까지 유지만 하면 최고 연 3.2% 고금리를 받을 수 있는 '2022년 우리 특판 정기예금'을 추천했다. 가입 기간은 6개월, 12개월, 18개월 중 선택 가능하며, 금리는 각각 최고 연 2.45%, 최고 연 3.0%, 최고 연 3.20%다. 하나은행이 판매하는 '비대면 금(金)현물 신탁'도 눈에 띈다. 모바일 뱅킹 '하나원큐'에서 비대면으로 한국조폐공사가 보증하는 고품질 금 현물을 1g 단위로 소액 투자할 수 있다. 수수료가 저렴하고 매매차익이 비과세되며, 매도 시 부가가치세 10%도 면제받을 수 있다. NH농협은행에는 금리 인상기에 최대 수혜를 노릴 수 있는 'NH왈츠회전예금Ⅱ'가 있다. 가입금액 300만원부터 1년 이상 3년까지 월 단위로 가입할 수 있으며, 만기에 관계없이 회전 기간 단위로 해지가 자유롭고 선택에 따라 복리효과도 볼 수 있다는 점에서 주목할 만하다.한 푼이 새로울 때에는 소위 '새는 돈'을 막는 것도 중요하다. 소중한 사람들과의 모임 비용이 부담되는 사람들을 위해 카카오뱅크 모임통장이 있다. 2018년 12월 출시한 이 상품은 전체 모임 인원이 1100만명을 넘는 베스트셀러다. 친목과 가족모임용, 생활비 통장으로 활용하는 이들이 절반 이상이고 여행 통장이나 데이트 통장, 회사 부비 통장으로도 사랑받고 있다. 토스뱅크 체크카드도 '에피소드3'로 다시 돌아왔다. 커피, 편의점, 택시, 패스트푸드, 대중교통 5대 영역에서 영화(CGV, 롯데시네마, 메가박스)와 디저트(던킨도너츠, 베스킨라빈스) 2개 영역을 추가했다. 영역별로 한 번씩, 매일 최대 7번(3500원)까지 캐시백 혜택을 누릴 수 있다.카드사들은 할인과 적립 혜택이 있는 카드를 추천했다. 신한카드 '플리'는 국내 전 가맹점에서 전월 실적에 상관없이 0.9% 할인 서비스를 무제한으로 받을 수 있는 상품이다. 업종 제한 및 전월 실적 조건, 할인 한도가 없이 무제한 제공되며, 신한플레이를 이용할 때 최대 0.9%(체크카드는 최대 0.3%)까지 할인받을 수 있다. 롯데카드 '로카(LOCA) 365'도 한 장으로 다양한 생활업종 할인을 제공한다. 아파트관리비, 공과금, 이동통신, 대중교통, 보험료, 학습지, 배달앱, 스트리밍 등 매달 정기 결제가 발생하는 업종에서 월 최대 3만6500원을 할인해준다. 우리카드 'NU 유니크(Uniq) 카드'도 전월 실적 조건, 할인 한도 없이 국내 가맹점 이용 금액의 0.5%가 무제한 할인되고 우리페이 결제 시 추가 0.3% 할인까지 받을 수 있다. 보험사 상품 중에서는 보험료가 합리적인 상품들을 눈여겨볼 만하다. 삼성생명이 판매 중인 '삼성 행복종신보험'은 보험 기간별 보장을 이원화해 보험료 부담을 낮췄고, 확정금리를 적용해줘 안정적으로 적립금을 준비할 수 있다. 미래에셋생명은 MZ세대 맞춤형 신상품 'e-Must Have 변액연금보험'을 추천했다. KB국민은행 앱 'KB스타뱅킹'에서 가입할 수 있는 모바일 전용 비대면·비과세 상품이다. 언제든 중도 인출할 수 있고, 납입 기간 변경도 가능해 중장기 자금을 활용하기에 적합하다. 불황일수록 잘 들어둔 보험 상품이 효자다. 한화손해보험은 경증 유병자가 '335 간편고지'만으로 편리하게 가입할 수 있는 '무배당 335 WELL100 간편건강보험'을 추천했다. 기존 유병자 보험보다 20~30% 저렴한 보험료로 3대 질환(암·뇌혈관·허혈성심장질환)을 집중 보장해준다. 메리츠화재는 '무배당 메리츠 듬뿍담은 진단보장보험'을 알짜 상품으로 추천했다. 수술을 하지 않아도 진단만으로도 보장받을 수 있고, 130개 질환·42대 진단비를 받을 수 있어 유용하다. SBI저축은행 사이다뱅크에서 가입할 수 있는 보통예금은 연 2.2% 금리가 적용된다. 복잡한 우대금리 조건 없이 누구나 예치금 1억원까지 혜택을 볼 수 있다. 파킹 통장으로 유용하게 활용할 수 있으며, 매달 말일 기준으로 결산된 이자가 다음달 1일에 일괄 지급된다. 웰컴저축은행의 'WELCOME 직장인사랑 보통예금(직장인사랑 보통예금)'도 꼭 직장인이 아니어도 최고 연 3%의 금리를 받을 수 있다. 멤버십 이용 동의 시 연 0.5%포인트, 휴대폰 비용 등 자동 납부 1건 이상 시 연 0.5%포인트, 100만원 이상 매월 급여 이체 실적이 있는 경우 연 0.5%포인트 혜택을 더 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.07.04.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>모두투어, ‘모처럼 두근두근’ 기획전</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004861724?sid=103</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>모처럼두근두근기획전 [파이낸셜뉴스] 모두투어는 최근 늘고 있는 해외여행 수요와 특히 여름휴가 시즌을 맞아 해외여행을 준비하고 있는 고객들을 대상으로 4일부터 8월 31일까지 `모처럼 두근두근` 특별 기획전을 진행한다고 4일 밝혔다.   이번 기획전은 주요 해외여행지의 입국 관련 방역 기준이 완화되고 항공운항이 속속 재개되는 가운데 코로나19 이후 모처럼 만에 맞이하는 여름휴가 시즌 여행 수요를 겨냥해 모두투어만의 차별화된 다양한 상품과 역대급 풍성한 혜택을 준비했다.   우선 파격적인 혜택의 럭키 드로우 이벤트를 준비했다. 경품으로 최근 급성장하고 있는 온라인 명품 플랫폼 `캐치패션`의 구찌, 보테가베네타, 펜디 명품 백과 하와이, 괌, 사이판, 세부, 코타키나발루 등을 대표하는 럭셔리 리조트 숙박권(최대 3박)과 리모와 오리지날 캐빈 S 캐리어가 제공된다.   아울러 라이브 커머스 플랫폼 그립(Grip)과 콜라보를 통해 `정태호, 대도서관, 김태진, 한혜연`등 셀럽과 함께 하는 여행과 최근 뜨거운 관심으로 1분 만에 완판이 된 `인플루언서와 함게 떠나는 여행`을 비롯하여 `KLPGA 현역 프로와 함께 떠나는 골프 여행`등 차별화된 `컨셉투어` 상품을 선보인다.   매주 새로운 지역의 핫딜 상품 중 일주일간 오늘 조건이 최고인 `슈퍼딜` 상품 예약 시 최대 35% 할인 혜택이 제공되며 모두투어 대리점으로 여행을 다녀온 적이 있는 고객들을 대상으로 `단골 고객 2% 할인` 혜택이 추가 제공된다.   결제 혜택도 다양하다. 신한카드 청구 할인 7%(최대 21만 원)을 비롯하여 KB 국민카드 청구 할인 5%(최대 15만 원), 토스 페이는 즉시 할인 5%(최대 5만 원)와 생애 첫 결제 고객 5천 원 캐시백 할인 등의 혜택이 제공된다.   모두투어 상품본부 조재광 본부장은 "코로나19 이후 2년 반 만에 실질적인 첫 여름휴가를 맞이하는 만큼, 그 어느 때보다 간절하게 여행을 기다리는 고객들을 위해 다양한 여행상품을 폭넓게 준비했다. 이번 기획전을 시작으로 모두투어만의 차별화된 다양한 패키지 상품을 지속적으로 선보일 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.07.05.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>"희비 엇갈린 가계대출" 5대 은행 9.4조↓vs 인뱅 3사 6조↑</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000829026?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>가계대출을 두고 인터넷전문은행과 시중은행의 희비가 엇갈리고 있다. 사진은 서울 시내의 하나은행 창구 모습./사진=뉴스1 가계대출을 두고 인터넷전문은행과 시중은행의 희비가 엇갈리고 있다. 인터넷은행 3사는 올들어 6월까지 가계대출이 6조원 가까이 증가한 반면 5대 은행은 9조원 이상 급감했다.금리 인상기에 주식과 암호화폐(코인) 등 자산시장이 부진한 흐름을 보이면서 빚투(빚내서 투자)에 나섰던 대출자자들이 대출 상환에 나서는 반면 생활비 등이 필요한 중·저신용자 대출 수요가 늘어난 결과로 풀이된다.4일 은행권에 따르면 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사의 가계대출 잔액은 39조3263억원으로 추산된다. 이는 지난해말(33조4829억원)과 비교하면 6개월동안 5조8434억원 늘어난 수치다.은행별로 살펴보면 카카오뱅크는 26조8163억원, 케이뱅크가 8조7300억원이다. 토스뱅크의 총 여신 규모는 4조2000억원으로 이중 90%가 가계대출로 추정되는만큼 회사의 가계대출 잔액은 3조7800억원으로 추산된다.이는 KB국민·신한·하나·우리·NH농협 등 5대 은행의 가계대출이 올들어 6개월 연속 감소세를 보이는 모습과 대조된다.지난달 말 기준 가계대출 잔액은 699조6521억원으로 지난해 8월 약 10개월 만에 700조원을 하회했다. 이들 은행의 가계대출은 올 1월부터 6개월 연속 감소세를 이어가면서 6개월동안 9조4008억원 줄었다.고신용자 대출을 주로 취급하는 시중은행의 경우 자산시장이 하락세를 보이면서 빚 상환액이 늘어난 반면 인터넷은행은 중·저신용자 비중을 확대하는만큼 이들의 대출 수요는 계속 커진 결과로 해석된다.실제로 인터넷은행 3사는 중·저신용자 대출 비중을 꾸준히 늘리고 있다. 지난 3월말 기준 케이뱅크의 중저신용자 대상 신용대출 비중은 20.2%로 전분기말(16.6%)보다 3.6%포인트 확대됐다. 카카오뱅크와 토스뱅크는 같은 기간 각각 19.9%, 31.4%로 2.9%포인트, 7.5%포인트씩 상승했다.은행권 관계자는 "금융당국이 지난해 인터넷은행에게 중금리 대출 확대를 요청함에 따라 이들이 중·저신용자 대출을 공격적으로 확대해 가계대출이 늘어난 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>[이은형의 슬기로운 조직생활] 재택근무? 대면근무?</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003207928?sid=110</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>이은형 국민대 교수·국민인재개발원장           역시 IT기업이 먼저 움직인다. 글로벌 메신저 라인의 해외사업을 맡고 있는 라인플러스는 이번 달부터 근무장소의 제약을 완전히 파괴한 ‘하이브리드2.0’ 근무제를 시작한다. 한국시각 기준 시차 4시간 이내의 해외지역에서도 근무할 수 있다. 카카오 역시 재택근무제를 전면 도입하면서 주 1회 오프라인 출근을 포함하는 ‘메타버스 근무제’를 실시한다. 네이버도 6개월에 한 번씩 ‘주3일 출근’과 ‘전면 재택근무’ 중에서 선택할 수 있도록 했다.      근무시간도 짧아지는 추세다. 카카오는 격주로 금요일에 쉬겠다는 ‘격주 놀금’제도를 발표했고, IT교육기업 휴넷은 아예 ‘주4일 근무제’를 표명했다. 토스뱅크는 일찌감치 자율재택근무에 격주 기준 주4일제를 시행 중이다. 몸집이 작은 스타트업과 IT기업을 중심으로 엔데믹 시대의 뉴노멀 근무체제를 시도하고 있다. 사실 IT기업이라고 뉴노멀 근무체제에 대한 정답을 안다고 단언할 수 없다. 어쩌면 당장 해야 하기 때문에 시작한 것이라 봐야 한다.     포스트코로나 시대의 일터 논란   IT기업이 만든 장소·시간 변화   업종·조직별 최적화 모델 달라   리더와 구성원이 함께 찾아가야      *재사용금지           팬데믹이 끝나면서 근무체제에 대한 고민이 본격화했다. 코로나19로 인한 전대미문의 상황에 적응하기 위해 긴급하게 대응했던 근무체제를 정상체제로 되돌려야 하는데, 무작정 팬데믹 이전으로 돌아가는 것이 답이 아니기 때문이다. 이전으로 돌아갈 수도 없고 팬데믹 당시의 근무형태를 유지할 수도 없다. 한마디로 새로운 기준, 즉 뉴노멀을 정립해야 하는데 정해진 답도 없고, 벤치마킹할 전례도 없다. 목적지를 향해 떠날 때가 되었는데 좌표를 어떻게 찍어야 할지 알 수 없는 상황이다.      혼란스럽기는 전 세계 조직이 마찬가지다. 트위터 에어비앤비 등 일부 글로벌 테크기업이 빠르게 재택근무를 뉴노멀로 결정하고 있지만 대부분의 기업에서 선택이 간단하지 않다. 대면근무를 혼합한 하이브리드를 도입하는 데도 전면 재택을 원하는 구성원들과의 갈등이 불거지기도 한다. 애플은 재택근무를 축소하고 ‘주 3회 사무실 근무’ 방침을 발표했는데 ‘애플카’ 등 주요 미래 사업을 맡아하던 이안 굿펠로우는 ‘전면 재택근무’를 시행하는 구글로 이직했다.      최근에는 일론 머스크가 테슬라 직원들에게 ‘직급이 높을수록 회사에 나와 존재감을 보여라’고 메일을 날린 뒤 직원들의 분노와 반발에 부딪혔다. 국가 차원의 실험도 있다. 영국에서는 지난 6월부터 직장인 3300명을 대상으로 6개월 동안 ‘주4일 근무제’를 실험한다. 월급 삭감 없이 주 4일만 근무하면서 생산성을 그대로 유지할 수 있는지 실험한 후 그 결과에 따라 국가정책을 펴겠다는 것이다.      조직 구성원들이 재택근무를 원하고 상황도 그렇게 변화하고 있지만 문제는 간단치 않다. 모든 조직에서 재택근무가 최선일 수 없기 때문이다. 업종에 따라, 조직 특성에 따라 적합한 근무형태는 천차만별이다. 전원이 회사로 출근해야 하는 완전 오프라인 근무체제부터 재택근무나 하이브리드근무를 자유롭게 시행할 수 있는 유연한 조직까지 스펙트럼은 넓다. 제조업이라서, 중소기업이라서 유연근무는 불가능하다고 지레 포기해서도 안 되고, 무작정 유연근무를 도입해서도 곤란하다. 결국 우리 조직에 맞는 최적화 대안을 찾아야 한다.      다행이라면 모든 조직이 코로나 시대를 거치면서 어떤 형태로든 근무형태의 유연화를 시도해본 경험이 있다는 점이다. 팬데믹에 대응하기 위해 긴급하게 임시조치로 했던 변화에 대해 분석하면서 새로운 길을 찾아야 한다. 업종, 직무, 조직특성 및 문화에 따라 최선을 다해 방법을 찾아야 한다.      리더는 대체로 재택근무에 대해 부정적인 견해를 가진다. 구성원의 근무 충실도를 눈으로 직접 확인할 수 없다는 불안한 마음이 깔려 있는 데다 대면근무를 통해 구성원들이 서로 자연스럽게 만나고 부딪치면서 창의적인 아이디어가 나오고 문제를 빠르게 풀어나갈 수 있다고 믿기 때문이다. 한편 구성원들은 유연근무제를 선호하며 대면근무에 비해 생산성이 떨어지지 않는다고 주장한다. 리더와 구성원은 최적의 근무체제를 함께 만들어가는 과정을 거치면서 장점을 강화하고 단점을 보완할 수 있다.      세계 어느 기업도 정답을 가지고 있다고 말할 수 없는 혼돈의 상황에서 각자에게 맞는 최적화 포인트를 찾아가는 대전환의 시대가 열렸다. 가야 할 길이라면 먼저 떠나자. 리더들은 지금 피플팀과 머리를 맞대고 조직의 뉴노멀을 찾아야 한다.      이은형 국민대 교수·국민인재개발원장</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]손실은 뒷전…암보험 출혈경쟁 나선 손보사</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005265806?sid=102</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>[이데일리 김현식 기자] 다음은 7월 13일자 이데일리 신문 주요 뉴스다.△1면-손실은 뒷전…암보험 출혈경쟁 나선 손보사-최태원 회장, 빌 게이츠 만난다…내주 美서 ‘탈탄소 동맹’ 가속-부메랑 된 임대차법…서울 전셋값 1.7억 뛰었다-현대차, 29년 만에 국내 공장 신설-[사설]택시대란 부른 혁신 모빌리티 규제…걷어치울 때 됐다-위태로운 환율 방어선, 한미 통화스와프 재추진해야△종합-OTT 순위 수직상승…100억 넘게 쓰고도 남는 장사-전에 본적 없던 태초의 별빛 46억광년 너머 우주를 보다△달러 초강세 시대-침체 우려에 안전자산 쏠림…원화가치 13년래 최저, 달러는 20년래 최고-달러의 독주…20년 만에 ‘1유로=1달러’ 러시아發 에너지 위기에 경기침체 공포△산업부·증기부 업무보고-규제·입지·인센티브…‘투자 활성화 3종세트’로 원전·민간 氣살린다-공급망 안정화 위해 ‘일대일 채널’ 풀가동-초격차 스타트업 1000곳 육성…납품단가 정상화△부작용만 키운 임대차법 2년-월세 내다 지친 세입자들…전세→내 집 ‘주거 사다리’마저 끊겼다-임대차3법 대수술 밑그림 나왔는데 巨野 걸림돌 넘을까-아파트 등록임대 재개, 전월세난 잡는다△종합-확진자 급증에 4차 접종 확대·격리연장 전망…거리두기 부활 없을 듯-“심각한 절차 위반”vs“위장탈당 합법”-與·野 헌재서 ‘검수완박’ 날 선 공방-고용부, 주 52시간제 실태조사…개편 논의 급물살타나-커지는 빅스텝 공포…신용대출 금리 9% 초읽기△정치-여야, 고성속 제헌절 전 ‘원구성’ 공감대…사개특위 등 이견은 여전-尹대통령의 ‘조문 정치’…한일관계 회복 발판 될까-안철수 첫 토론회에 與의원 43명 참석 …본격 세결집 ‘주목’-꼬인 실타래 하나씩 푸는 권성동-“공천권 포기 선언하자”…친문, ‘어대명’ 향해 견제구△경제-“대통령, 규제개혁 부처에 실질적 권한 부여해야”-풍량은 신일, 풍속은 르젠·삼성 ‘으뜸’-상대적으로 가격 안정세…금어기도 8~9월 끝나-한전, 기상청과 ‘빅데이터 공유’ 업무협약△금융-공석인 금융단체 기관장 자리, 줄줄이 채워질까-케이뱅크 아담대 금리 또 내렸다-상반기 가계대출 줄었지만…저축은행·여전사 대출은 늘어-10만원 넣으면 10만원 더…하나銀 ‘청년내일저축계좌’ 판매△글로벌-잡히지 않는 물가에…美 기준금리 1%p 인상설 ‘솔솔’-中·인도 이어 브라질도 러 경유 수입하나-‘반도체 자립’ 위해 佛도 생산기지 유치-아베, 도쿄 사찰서 가족장…美 재무장관 등 2500여명 조문-‘예금지급 중단’ 시위 확산에…中당국 “피해자 선지급”△산업-전동화 가속, 국내 고용 안정…정의선 ‘상생’ 결단, 글로벌 도약 발판 마련-구자열, 유럽서 민간외교 광폭행보-조타 선원 없는데…카메라·AI로 운항·접안까지 ‘감탄’-한화솔루션, 유럽사업 확대 독일서 500MW 태양광 개발△ICT-“향후 5년간 일자리 1만개 만들겠다”-웹툰에 ‘기술’ 들어가니…작가도 업계도 ‘윈-윈’-“구글·넷플 망사용료 부과, 통신사 배불리기 아니야”-“비대면 대환대출로 금리부담 뚝…핀다·토스 넘을 것”△소비자생활-인천공항 면세점 선정 지연…정작 업계는 시큰둥-무더위에 웃은 한강 편의점-30년간 5000종 균주 확보…균주 주권 지킨다-‘신선식품 아니면 무조건 환불’…SSG닷컴, 전국 확대△증권-거래대금 2년6개월 만에 최저…코스피 옥죄는 돈 가뭄-블핑 컴백 기대감 YG株 뜨거운 여름-힘 잃은 IPO시장 돌파구 된 스팩…성적표도 훌륭하네△증권-평균치까지 준 공매도…금지정책 효과 있을까-공매도 전면 재개 ‘안갯속’-매각설에 표절…카카오모빌리티·엔터 상장 빨간불-공제회에 부는 ESG 바람…건근공, 美전력회사에 400억원 출자△엔터테인먼트-천만감독작이냐, 칸 초청작이냐…여름 극장가 빅4 대전-WSG워너비 ‘그그그’ 음원차트 강타△Book-“난, 35년간 글 쓴 생계형 전업 작가”-남성중심 미술사, 여성 누드화가 많죠-한국전통식 비건 요리로 면역력 키워라△건강-생존율 낮은 폐암, 조기 발견땐 로봇수술로 완치…후유증도 최소화-오십견, 젊다고 방치하면…어깨 근육 돌 된다-방치땐 실명…녹내장, 정기검진으로 조기발견하세요△이데일리가 만났습니다-“하반기 인플레 정점 찍고 달러 가세 주춤…‘급격한 경기침체’ 없을 것”-“올해 외자운용 수익↓ 유동성에 충실할 때”△오피니언-[이코노믹view]인플레와 자산버블은 다르다-[데스크의 눈]잊힐 권리, 기억될 권리-[e갤러리]신재호 ‘와일드 라이프’-[기자수첩]현안 산적한데…44일째 원 구성도 못한 국회△피플-이재용·최태원, 아베 분향소 찾아 애도…“도의적 추모”-손흥민 “이벤트 경기라도 반드시 이길 것”-허영인 SPC그룹 회장, 프랑스 투자유치 행사 참석-나재철 금투협회장 “금투세 내년 시행 대비 준비 중”-포스코청암재단, 포항·광양 지역 장학생 212명 선발-일간스포츠 배중현 기자, 보도 부문 ‘야구기자상’△사회-무너진 교권…특약보험으로 ‘작은 위로’ 받는 선생님들-재산세 1위는 강남구 꼴찌 강북구의 17배-尹 ‘작은 정부’ 시동…매년 공무원의 1% 재배치한다-尹 정부 잇따른 인사참사…한동훈에 불똥튄 까닭은-“경찰 성매매 단속 중 여성 알몸 촬영은 인권침해”</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>의정부아트캠프 '예술극장 보물찾기' 22일개막</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004866333?sid=103</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>의정부아트캠프 2022 예술극장 보물찾기 포스터. 사진제공=의정부문화재단 【파이낸셜뉴스 의정부=강근주 기자】 의정부아트캠프와 무한상상 시민정원에서 신개념 가족공연예술축제 &lt;예술극장 보물찾기&gt; ‘썸머 할로윈-숲 속에 가면’이 오는 22일부터 24일까지 3일간 진행된다.   예술극장 보물찾기는 문예회관과 예술단체들이 협업해 할로윈을 테마로 설치미술과 인형 등 오브제를 활용해 아트캠프와 무한상상 시민정원이 색다른 분위기로 꾸며진다. 장소 제약을 넘어 공간 확장성과 콘텐츠 다양성에 초점을 맞춘 톡톡 튀는 공연-체험-전시 프로그램이 선보인다.   이번 예술극장 보물찾기는 의정부문화재단과 협력단체인 ‘예술무대 산’을 비롯해 ‘푸른 해’, ‘인형극연구소 인스’, ‘극단 조이아이’, ‘극단 찰리’, ‘달콤쌉싸름한 인형극단’, ‘한국인형극협동조합’ 등 국내를 대표하는 어린이극 창작단체가 참여해 아트캠프와 무한상상시민정원 곳곳에서 릴레이로 한 뼘 공연(15~20분으로 구성된 소규모 공연)을 선보인다.   관객은 숲에서 보물을 찾듯이 예술을 찾아다니며 공연을 관람한다. 공연 이외에도 유령들과 함께 할로윈 가면 만들기, 링 토스게임, 할로윈 볼링게임, 자이언트 젠가, 얼음 속 보물찾기 등을 통해 시민이 다양한 형태로 즐길 수 있다.   또한 특별 공연인 브러쉬씨어터의 매직드로잉 가족극 ‘두들팝’이 의정부아트캠프 블랙에서 관객을 맞이한다. 두들팝은 개구쟁이 두 주인공 ‘우기’와 ‘부기’가 그리는 낙서가 살아 움직이는 환상 매직드로잉 가족극으로 끊임없는 호기심과 상상력을 자극하며 관객에게 큰 재미를 선사하는 드로잉과 프로젝션 맵핑 기술이 접목된 융복합 미디어 공연이다.    가족극 두들팝 포스터. 사진제공=의정부문화재단 두들팝 공연은 2018 에딘버러 페스티벌 화제작, 아시안 아츠 어워드 베스트 코미디상 수상, 2019 대한민국 콘텐츠 대상 문화체육관광부 장관표창 등을 받으면서 작품성과 대중성을 인정받았다.   의정부문화재단은 특별 공연 매직드로잉 가족극 두들팝을 제외한 모든 프로그램은 무료이며, 공연 예매 및 문의는 의정부문화재단 누리집(uac.or.kr)에서 가능하다고 말했다.   한편 2022 예술극장, 보물찾기는 한국문화예술회관연합회에서 주최하고 의정부문화재단 주관, 문화체육관광부-한국문화예술위원회가 후원하며 사업비 일부를 문예진흥기금으로 지원받아 진행한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>하나은행 '차세대시스템' 추진은 언제쯤?…농협은행, '정보계' 착수 [기획/2022 금융IT-차세대③]</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002128429?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>* 본 기사는 &lt;디지털데일리&gt;가 7월초 발간한 [2022년 디지털금융 혁신과 도전]에 게재된 내용을 재편집한 것으로, 편집사정상 책의 내용과 일부 다를 수 있습니다.앞회에서 신한은행과 국민은행의 차세대시스템 전략을 비교해본 것처럼, 이제 국내 은행권 차세대스템 프로젝트의 방법론에는 정답이 없다. 현재 가동중인 코어뱅킹(Core Banking)시스템을 어떻게 혁신할 것인가에 초점이 맞춰지고 있지만 그것이 주전산시스템 환경의 전면 교체와 같은 물리적인 변화를 포함하는 것인지, 아니면 소프트웨어적인 방법론을 이용해 대응할 것인지는 선택의 문제로 남았다. 현재 국내 5대 은행들은 각자 나름대로의 스케줄에 따라 차세대시스템 전략에 대응하고 있다. 다만 과거와는 달리 동시다발적인 빅뱅식 차세대 추진으로 SI(시스템통합)실행 인력의 진공 상태가 재연될 가능성이 낮아졌다는 평가다. 하나은행은 지난 2009년5월, IBM 메인프레임에서 유닉스 기반으로 주전산시스템을 전환한 차세대시스템의 가동에 들어간 바 있다. 당시 하나은행은 21개월(2007.8~2009.5)에 걸쳐 ‘팍스 하나’(Pax Hana)로 명명된 빅뱅 방식의 차세대 프로젝트를 진행했다.올해로 운영 14년차를 맞이하고 있다. 따라서 하나은행의 차세대시스템 착수 여부도 이제는 매우 중요한 관심사가 됐다. 다만 하나은행은 이후 외환은행을 인수하면서 기존 개발된 차세대시스템을 포함한 IT인프라 체계에 상당한 증설을 한 번 진행한 바 있다. 하나은행은 ‘팍스 하나’ 가동 7년 후인, 지난 2016년 1200억원을 들여 당시 외환은행과의 합병을 통해 하나-외환 IT시스템 통합을 진행했다.이 과정에서 합병 은행의 몸집에 걸맞는 수준의 대규모 IT시스템 증설이 진행한 것이다. 사실상 현재의 하나은행 차세대시스템은 2016년 당시의 증설로 인해 큰 부담은 없는 상황이다. 하지만 당시는 외환은행 노조의 ‘외환+하나’ 조기 합병에 대한 반발 등이 거셌다. 하나금융그룹은 합병 은행을 신속하게 출범시켜야한다는 내부적인 이유때문에 업무 시스템 전반에 대한 애플리케이션 고도화를 차분하게 신경을 쓸 여유가 없었다. 따라서 하나은행도 애플리케이션 중심의 질적인 업그레이드가 필요한 시점이 됐다. 이같은 인식에서 출발한 것이 ‘ICT 리빌드’의 개념이다. 하나은행은 향후 차세대시스템 혁신을 포함한 IT혁신 사업을 위해 올해 상반기 ‘ICT 리빌드’ 사업을 본격적으로 검토하고 있다. 다만 아직까지 하나은행이 지향하는 ‘ICT 리빌드’의 방향성이 정확히 무엇인지는 제시되지 않았다. 기존 유닉스기반의 주전산시스템을 x86기반으로 전환하는 등의 시스템 혁신을 포함하고, 여기에 코어뱅킹 아키텍처에 대한 재구축 등의 얘기는 공식적으로 나오지 않은 단계지만 ‘ICT 리빌드’의 실체가 보다 윤곽이 드러나면 이 부분도 구체화될 것으로 예상된다.◆농협은행 "정보계차세대시스템 착수, 2023년 8월 가동 목표" 올해 3월, NH농협은행은 데이터기반의 고객 관리 구현을 위해 2023년 5월 오픈 목표로 ‘차세대 정보계시스템’ 프로젝트 착수했다. 농협은행이 밝힌 ‘차세대 정보계시스템’은 영업점, 고객행복센터, 비대면 채널 등을 통해 고객의 상담 내용, 거래 방식 및 실적 등의 정보를 수집하고 이를 분석하여 활용하기위함이다. 2023년 1월 1단계-데이터 허브, BI포탈(비즈메타, 데이터 거버넌스)이 우선 가동되고, 2023년 5월-2단계 마케팅 허브 시스템이 가동될 예정이다. 정보계 차세대시스템 사업을 통해 고객 맞춤형 마케팅 환경을 제공하게 될 것으로 기대하고 있다. 차세대 정보계사업의 주요 개발과제는 ▲데이터 적재 및 분석을 위한 ‘데이터 허브’ ▲고객마케팅 지원을 위한 ‘마케팅 허브’ ▲데이터 품질 및 대시보드 관리를 위한 ‘BI 포털’ 구축 등이다. 농협은행측은 2023년8월까지 ‘차세대 정보계시스템’과 더불어 농협은행의 모든 데이터를 통합하고 실시간 제공하는 체계가 완성되면 농협은행 고객은 언제 어디서나 나를 알아주는 서비스를 제공받게 된다. 농협은행은 이를 통해 데이터에 기반한 의사결정의 토대를 마련함으로써 ‘초혁신 디지털뱅크 도약’이라는 목표를 달성할 것으로 보고 있다. 농협은행은 2020년 11월 정보계 개편 추진단(TF)를 구성해 프로젝트 추진을 위한 조직 세팅을 마쳤다. 앞서 농협은행은 지난 2017년 1월말 계정계 시스템에 대한 IT분리 프로젝트를 진행하면서 시스템 고도화를 병행, 계정계시스템의 IT 증설을 마무리 한 바 있다. 하지만 이 당시 정보계시스템은 손을 대지 않았다. 농협중앙회는 2019년부터 2023년까지 N.E.X.T(가칭)로 명명된 농협그룹 전체를 대상으로 한 IT혁신 전략을 진행하고 있으며 그 일환으로 농협은행의 정보계시스템 차세대 사업이 포함시켰다. 이와함께 농협은행은 올해 농협금융그룹의 서비를 아우르기위한 ‘올원뱅크 차세대 플랫폼’도 동시에 추진한다. 하나의 앱으로 고객에게 전반적인 금융 니즈를 통합해 제공하는 종합금융 플랫폼 구축이 목표다. 농협은행은 올해 4월에 올원뱅크 차세대 플랫폼 구축에 착수해 2023년1월 구축을 완료할 계획이다. 프로젝트를 통해 ▲계열사 핵심서비스 원스톱 제공, ▲생활 금융서비스 확충, ▲PaaS클라우드 및 MSA 적용이 주요 개발 과제다한편 수협은행은 2022년 2월, 차세대시스템을 오픈했다. 앞서 수협은행은 지난 2011년 9월 ‘넥스트로’(Nextro)로 명명된 차세대시스템을 오픈해 가동해왔었다. 이후 지난 2016년말 수협중앙회에서 주식회사 형태로 분리된 수협은행은 중장기 비전 중 하나로 ‘비용효율적 IT발전 전략 수립·추진’ 방안을 마련한 바 있다. LGCNS가 주사업자를 맡은 10개월간 진행한 이번 수협은행의 차세대시스템 사업은 다만 애플리케이션 전체를 모두 개발하는 일반적인 은행 차세대시스템과는 달리 주전산시스템을 유닉스에서 x86 리눅스 기반으로 전환하는 이른바 ‘U2L’에 초점을 맞췄기 때문에 단기간에 끝낼 수 있었다. 구축 일정이 짧기 때문에 구축 비용도 당연히 적게 들어간다.  이는 15년전, 국내 금융권에서 한 때 주목을 받았던 ‘리호스팅’ 사례와 그 방법론에서 유사하다. 지난 2005년, 삼성생명은 별도의 애플리케이션 개발없이 주전산시스템 환경을 기존 메인프레임 환경을 유닉스로 개방형 환경으로 신속하게 전환한 사례가 있다. 수협은행은 리눅스 환경으로 전환함에따라 보다 유연한 오픈 아케텍처 기반의 운영 환경을 확보할 수 있게 됐다는 평가다. 다만 이같은 U2L과 같은 하드웨어 중심의 아키텍처 변화만으로는 차세대시스템의 효과를 궁극적으로 이끌어내는데는 한계가 있을 수 밖에 없기 때문에 결국은 업무 중심의 애플리케이션 개발도 후속으로 진행해야한다는 게 금융 IT전문가들의 지적이다. 신한금융그룹 계열의 제주은행은 약 25년 만에 차세대 전산시스템(JERA) 구축을 완료하고 지난해 10월, 연휴를 이용해 차세대시스템으로의 환경 전환에 성공했다. 제주은행은 기존 메인프레임 기반의 주전산시스템을 x86기반으로 전환해 클라우드 등 보아 유연한 IT대응이 가능해졌다. 이 사업은 LG CNS가 주사업자를 맡았다. 제주은행 계정계와 정보계 2개 프로젝트를 중심으로 총 8개 비즈니스 개선 과제 개발이 진행됐다.  한편 전북은행은 올해 3월, 주전산시스템 교체 사업을 위한 공고를 내고 사업자 선정에 나섰다. 유닉스 기반 주전산시스템을 리눅스로 전환하는 U2L(Unix to Linux) 사업이다. 사업 규모는 100억원 내외로 추산된다. 앞서 지난 2013년 전북은행은 LG CNS를 주사업자로 국내 금융권 최초로 자바(JAVA)를 개발언어로 채택, 모델주도형구조(MDA)로 차세대시스템 구축을 전개해 오픈한 바 있다. JB금융그룹내 은행 계열사인 광주은행도 지난 2016년 국내 최초로 타 은행 비즈니스 모델, 전북은행 MDD 모델을 그대로 이식하면서 광주은행에 맞는 IT환경을 단기간 내 시스템에 적용했다.이후 인터넷은행에도 이 시스템이 적용돼 주목받았다. 카카오뱅크가 LG CNS를 주사업자로 전북은행 시스템을 이식하는 형태의 시스템 구축을 진행했다. 또, 토스뱅크 역시 전북은행 시스템을 활용하는 뱅킹 시스템 구축을 진행한 바 있다. 양 은행 모두 1년 내외의 짧은 기간에 성공적으로 복잡한 은행 시스템을 완성할 수 있었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.07.14.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>시중은행 금리 인상에…저축은행 예금 4% 눈앞</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011304903?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>기사내용 요약저축은행 예금금리 최고 3.6%저축은행·인터넷은행, 수신금리 인상 검토기준금리 인상 앞두고 선제적 인상도[서울=뉴시스]이주혜 기자 = 한국은행의 '빅스텝(기준금리 0.5%포인트 인상)' 여파로 시중은행들이 수신금리를 올리자 저축은행과 인터넷은행도 예·적금 금리 인상에 나섰다. 선제적인 금리 인상에 저축은행 예금 금리는 4%를 눈앞에 두고 있다. 기준금리 추가 상승이 예상되면서 수신고 확보를 위한 금리 경쟁도 이어질 전망이다.14일 저축은행중앙회에 따르면 이날 기준 79개 저축은행의 정기예금(12개월 만기) 평균 금리는 3.16%로 한 달 사이 0.21%포인트가 올랐다. 1년 전보다는 1.28%포인트가 높다. 정기예금 최고 금리는 연 3.6%에 달한다.이날 기준 BNK저축은행 '삼삼한정기예금'의 금리는 연 3.6%로 4%에 다가서고 있다. 이어 더블저축은행과 오투저축은행이 연 3.56%, CK저축은행과 OK저축은행이 연 3.55%로 뒤를 이었다.시중은행들이 전날 예·적금 금리를 올리면서 저축은행도 수신금리 추가 인상을 검토할 것으로 보인다. 업계에서는 연 4% 예금도 곧 등장할 것으로 예상한다. 저축은행 관계자는 "기준금리 인상에 대한 시장의 예상이 반영되면서 최근 예금 금리가 크게 올랐다"며 "향후 기준금리가 3%까지 오를 것이라는 전망이 나오는 만큼 4%대 예금 상품도 나올 것"이라고 말했다.전날 한국은행은 기준금리를 기존 1.75%에서 2.25%로 0.5%포인트 인상했다. 이에 시중은행들은 즉각 수신금리 인상에 나섰다. 하나은행은 예·적금 금리를 최대 0.9%포인트 인상한다고 밝혔다. 우리은행과 NH농협은행도 예·적금 금리를 각각 최대 0.80%포인트, 최대 0.6%포인트 높인다.저축은행 관계자는 "시중은행이 수신금리를 인상하면서 유동성 변화와 다른 저축은행들의 금리 변동을 지켜보고 있다"며 "이에 따라 예·적금 금리 인상 여부를 결정할 예정"이라고 말했다.일부 저축은행은 기준금리 인상에 앞서 예·적금 금리를 올렸다. OK저축은행은 12일 정기예금 금리를 0.25%포인트 인상했다. OK정기예금(1년 이상) 금리는 3.10%에서 3.35%로 올랐다. OK저축은행 관계자는 "기준금리 인상을 대비해 선제적으로 일부 예·적금 상품의 금리 인상을 단행했다"고 설명했다. SBI저축은행도 1일부터 보통예금(파킹통장) 금리를 2.2%로 0.6%포인트, 복리정기예금(변동금리) 금리는 3.53%로 0.28%포인트 올린 바 있다. 인터넷은행도 수신금리 인상을 검토하고 있다. 케이뱅크는 이날 파킹통장인 '플러스박스'의 금리를 15일부터 연 1.3%에서 연 2.1%로 0.8%포인트 올리기로 결정했다. 케이뱅크 관계자는 "이달 초 선제적으로 적금 2종의 금리를 최대 0.6%포인트 인상한 데 이어 금리 인상기에 고객 선택권 다양화를 위해 플러스박스의 금리를 인상한다"고 설명했다.카카오뱅크 관계자는 "수신금리 인상을 검토하고 있다"고 말했다. 카카오뱅크는 통상적으로 기준금리 인상 후 2주에서 한 달 정도 검토를 거쳐 예·적금 금리를 인상해왔다. 수시입출금 통장 상품 외에 정기예금 상품이 없는 토스뱅크는 수신금리 인상을 검토하지 않는다. 토스뱅크 관계자는 "수시입출금 통장 금리가 2%대로 경쟁력 있어 현재로서는 인상 계획이 없다"고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.07.13.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>"캐시백이 왜 줄었지?"…토스뱅크카드 혜택 변경 살펴보니[송영찬의 핀테크 짠테크]</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004723798?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>출범 9개월 만에 가입자 360만 명을 끌어모은 토스뱅크의 유일한 체크카드 상품인 '토스뱅크카드'가 지난 1일부로 캐시백 혜택을 대폭 축소했습니다. 토스뱅크카드는 일복리 연 2% 금리의 파킹통장으로 각광받던 '토스뱅크 통장'의 인기에 더해 연회비가 없는데도 불구하고 캐시백 혜택이 쏠쏠해 많은 사람들에게 큰 인기를 끈 상품이었습니다. 그런데 우려했던 일이 벌어졌습니다. '혼밥족'이라면 캐시백 혜택 '3분의 1 토막' 홍민택 토스뱅크 대표가 지난달 28일 서울 중구 커뮤니티하우스 마실에서 열린 미디어데이 행사에서 발언하고 있다./ 연합뉴스토스뱅크카드의 기존 캐시백 이벤트는 지난 1월 5일부터 지난달 30일까지 '에피소드2'라는 이름으로 진행돼왔습니다. △편의점 △커피숍 △패스트푸드점 △택시에서 각각 3000원 이상 결제하면 하루에 300원씩, 대중교통에서 하루 100원씩 캐시백 됐습니다. 특히 기타 생활업종 할인 카드 상품들과 비교해 편의점과 커피숍 할인율이 좋았습니다. 많은 직장인들이 매일 한 번씩은 가는 업종인데다, 대부분 각각 3000원 이상 결제하는 일이 많은 곳이기 때문입니다. 출·퇴근 길을 대중교통으로 이용하고, 점심에 햄버거라도 한번 먹고, 회식 끝나고 택시라도 한 번 타면 하루 최대 캐시백 한도인 1300원을 채우기도 쉬웠습니다. 그런데 지난 1일부터 '에피소드 3'이란 이름으로 캐시백 혜택이 바뀌며 이같은 소비 패턴의 금융소비자가 받을 수 있는 캐시백 금액이 줄었습니다. 기존에 편의점, 커피숍, 패스트푸드점, 택시에서 각각 3000원 이상만 결제하면 300원을 할인해주던 혜택에서 1만원 미만 결제하면 캐시백 금액이 100원, 1만원 이상 결제하면 500원을 해주는 걸로 바뀌었기 때문입니다.물론 기존에도 네 가지 업종에서 주로 1만원 이상 결제하던 소비자라면, 캐시백 금액은 300원에서 500원으로 늘어납니다. 하지만 이 카드로 주로 커피 한잔, 편의점에서 도시락 하나 정도 사는 사람들이라면 캐시백 금액은 '3분의 1토막' 나버렸습니다. 특히 다른 생활업종 할인 카드들과 비교했을 때, 커피전문점에서 캐시백을 받기 위한 최소 결제액이 3000원밖에 되지 않아서 매일 커피 한 잔에 결제액의 7~10% 가량의 캐시백을 받을 수 있다는 점이 큰 장점이었는데요. 이제는 할인율이 뚝 떨어졌습니다.   예고됐던 혜택 변경사실 토스의 이번 혜택 변경은 예상됐던 일입니다. 토스뱅크는 상품 출시 때부터 에피소드1, 에피소드2와 같은 이름으로 혜택 종료 기간을 못박았습니다. 지난 1월까지 진행된 '에피소드1'에선 300원을 캐시백 받을 수 있는 최소 결제 금액이 300원밖에 되지 않았습니다, 편의점에서 300원만 결제한다면 300원을 되돌려주는 파격적인 혜택이었던 것이죠.편의점의 종류도 지금처럼 CU와 GS25만 되는 것이 아니라 세븐일레븐, 이마트24, 미니스톱에서도 가능했습니다. 대중교통에서의 캐시백 금액은 100원이 아니라 300원이었습니다. 에피소드1이 끝난 시점이 지난 1월 4일이었다는 점을 고려하면 반년 만에 300원 이상 캐시백 받을 수 있는 최소 결제 금액 기준이 30배 이상 올라간 것입니다. 이번 혜택 변경은 개악일까 개선일까이번 혜택 변경으로 혜택이 줄어들기만 한 건 아닙니다. 캐시백받을 수 있는 업종이 조금 늘었기 때문입니다. 이번 혜택 변경으로 CGV, 롯데시네마, 메가박스 등 영화관에서도 캐시백이 제공됩니다. 요즘 영화 표 가격이 크게 올라 대부분 1만원 이상 결제하니, 하루에 최소 500원씩은 캐시백해준다는 걸 의미합니다. 배스킨라빈스와 던킨도너츠 등 디저트 업종도 추가됐습니다.앞에서도 언급했다시피 토스뱅크가 지정한 할인업종에서 원래 큰 금액을 결제하던 금융소비자라면 이번 혜택 변경이 오히려 득이 될 수도 있습니다. 해당 업종들에서 평소에 모두 1만원 이상을 결제한다면 하루 최대 3500원을 할인받을 수 있습니다. 기존에 최대 받을 수 있는 금액이 1300원이었던 것을 생각하면 보여지는 숫자론 분명 '개선'입니다.반대로 해당 업종들에서 주로 3000원 미만 결제하던 사람들에게도 득일 수 있습니다. 기존엔 3000원 이상 결제해야 300원이 캐시백 됐지만 이제는 1만원 미만 결제하면 결제액과 상관없이 100원이 캐시백 되기 때문입니다. 편의점에서 물 하나 사는 경우라면 에피소드 2 땐 캐시백이 안 됐지만 이제는 100원을 되돌려 주는 것이죠.대신 혜택이 다소 복잡하게 바뀌면서 혜택을 최대로 받기 위해선 이 카드로 결제하기 전 오늘 이 업종에서 더 큰 금액을 쓸 일은 없을까를 고민해야 합니다.예를 들어 아침 출근길에 편의점에서 1600원짜리 음료수 하나를 사고 100원을 캐시백 받았다면, 저녁 퇴근길 편의점에서 1만1200원을 결제해도 캐시백은 들어오지 않습니다. 반대로 1600원짜리 음료수는 일반 카드로 결제하고, 저녁에 1만1200원을 결제할 때 토스뱅크카드를 이용한다면 500원을 돌려받을 수 있습니다. 하루에 편의점에서 결제한 금액은 1만2800원으로 같지만 캐시백은 5배 차이나는 것이죠.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.07.11.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>예적금·대환대출 플랫폼 추진…“소비자 편익 vs 빅테크 종속”</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002619888?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>혁신금융서비스 지정…기존 금융권 반발 관건서울 시중은행의 영업 창구 ⓒ 연합뉴스[데일리안 = 김효숙 기자] 금융당국이 예·적금 상품을 비교하고 중개하는 플랫폼을 추진하겠다고 밝힌 가운데 정치권을 중심으로 대환대출 비교 플랫폼 구축 논의도 시작됐다. 직접 상품을 비교하고 고를 수 있게 해 금융소비자의 선택권을 넓히겠다는 취지지만 기존 금융사들은 빅테크 등 플랫폼 종속이 심화되고 수수료 부담이 늘면서 소비자 혜택이 축소될 수 있다는 우려의 목소리를 내고 있다.11일 금융권에 따르면 금융위원회는 금리정보 공시제도 개선방안을 발표하면서 여러 금융사의 예금상품을 비교하고 가입할 수 있는 온라인 예금상품 중개업을 시범 운영하겠다고 밝혔다.카카오페이·토스·네이버파이낸셜 등 금융 플랫폼을 통해 소비자들이 다양한 예금과 적금 상품들을 비교하고 자신에게 유리한 상품에 가입할 수 있도록 관련 서비스를 제공하겠다는 이야기다. 은행간 금리 경쟁을 촉진하고 금융소비자 권익을 제고하겠다는 취지다.현재 금융 플랫폼은 전세대출 등 다양한 금융사의 대출 상품들을 비교하고 중개하는 서비스를 제공하고 있다.다만 예·적금 상품의 경우 법적 근거가 부족해 비교·중개 서비스 제공이 어려웠는데 법적 근거가 마련될 때까지 관련 규제를 혁신금융서비스로 면제해주겠다는 것이다.이형주 금융위 금융산업국장은 “현재 9개 플랫폼 업체가 현재 희망하고 있다”며 “온라인 비교 추천 서비스 특성상 리스크에 대비해 4가지 정도 조건을 부과하고 공정한 비교 추천이 이뤄지는지 알고리즘 요건을 점검하고 있다”고 설명했다.정부서울청사 금융위원회 현판.ⓒ금융위원회아울러 정치권에서도 금융당국에 금융플랫폼을 통해 대출을 갈아탈 수 있는 시스템을 구축해달라는 요청하면서 대환대출 플랫폼 논의가 점화되고 있다. 금리 상승기 취약 차주들의 이자부담을 경감을 위해서는 비대면으로 자신에게 유리한 금리 상품을 비교하고 선택해 손쉽게 대출을 갈아탈 수 있게 해야한다는 것이다.국민의힘과 더불어민주당이 각각 지난 5일과 6일 원내대책회의와 간담회를 열고 대환대출 플랫폼 구축을 요구한 만큼, 금융당국도 관련 검토에 속도를 낼 전망이다.하지만 기존 금융권은 예·적금과 대환대출 비교 플랫폼 논의를 두고 빅테크 등 플랫폼에 종속될 수 있다며 우려를 표하는 상황이다. 플랫폼이 모든 금융사의 예·적금과 대환대출을 중개할 경우 오프라인 지점과 자체 온라인 채널을 찾는 고객이 줄어 플랫폼 의존이 심해질 것이라는 의미다.실제 금융당국은 지난해 10월 중 대환대출 플랫폼 서비스를 내놓을 계획이었으나 빅테크 종속을 우려한 은행권의 반발로 사실상 무산됐다.중개 수수료 등 비용 부담이 소비자에게 전가되거나 오히려 주요 상품들은 플랫폼에서 빠져 플랫폼 이용자들의 실질적인 혜택이 축소될 것이라는 지적도 나온다.은행권 한 관계자는 “비대면이든 오프라인이든 기존 은행이나 저축은행 등 자사를 직접 찾는 고객이 중요하다”며 “지금도 대출비교 플랫폼에 주요 은행들이 빠져있는 것처럼, 예·적금 플랫폼 라인업에서도 주요 은행 상품들은 빠져 고객 이탈을 최소로 할 가능성이 크다”고 말했다.이어 “플랫폼도 시장 장악력이 높아질수록 수익성을 위해 자연스럽게 수수료를 높일 것”이라며 “금융소비자의 편익을 높이겠다는 취지는 이해하지만 결과적으로 소비자들도 수수료 부담을 함께 짊어질 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.07.06.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>농협은행, 씨티은행 대환 전용 ‘NH로 바꿈대출’ 출시</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000825775?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>NH농협은행은 한국씨티은행 신용대출 갈아타기(대환)전용 상품인 ‘NH로 바꿈대출’을 출시했다고 6일 밝혔다.모바일을 통해 대환할 수 있는 ‘NH로 바꿈대출’은 현 직장 재직 기간이 1년 이상이고 소득금액증명원상 최근 소득금액이 3000만원 이상인 법인기업체 재직자를 대상으로 한다. 재직과 소득 확인을 위한 스크래핑(고객 정보 긁어오기)이 가능해야 신청할 수 있다.대출 한도는 씨티은행 대환금액 이내, 1억5000만원까지다.최대 우대금리를 적용하면, 최저 금리는 연 4.19%(6월 29일 기준)다. 중도상환해약금(수수료)은 면제된다. 농협은행은 씨티은행 신용대출 대환고객을 위해 대여금고 임차보증금 면제 서비스도 지원한다.한편, 한국씨티은행이 소비자금융을 폐지하기로 결정하면서, 시중은행들은 기존에 씨티은행 신용대출을 이용 중인 고객을 대상으로 한 대환 상품을 잇따라 내놓고 있다. 앞서 씨티은행 신용대출 대환 사업의 주거래은행으로 KB국민은행과 토스뱅크이 선정된 바 있다.NH농협은행 본점 앞. 2022.6.29. /연합뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.07.08.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>3~5% 예·적금 행렬… 은행권, 금리 줄 세우기에 수신 경쟁 본격화</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000826311?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>시장금리 오름세 속 주요 시중은행들이 금리를 상향해 연 3~5%대 예금 및 적금 상품을 앞다퉈 내놓고 있다.최근 은행권을 향한 금융당국과 정치권 안팎의 압박과 비판 수위가 세진 데다, 은행별로 줄을 세우는 예금 금리 공시 제도 도입을 의식한 대응이라는 분석이 나온다.예·적금 금리를 올림으로써 고객 및 자금 유입을 늘려 하반기 대출 등에 필요한 자금을 조달하고, 자본건전성 지표를 끌어올리려는 셈법도 깔렸다.사진=뉴스1        8일 신한은행은 예적금 상품 25종에 대한 기본금리를 최고 0.7%포인트(p) 올렸다. 상품별 가입 기간에 따라 거치식 예금 3종은 0.5%p ~ 0.7%p, 적립식 예금 22종은 0.3%p ~ 0.7%p 인상된다. 대표적으로 ‘신한 쏠만해 적금’ 금리는 최고 연 5.3%, ‘신한 알쏠 적금’ 1년 만기는 최고 연 3.7%가 된다. ESG 상품 ‘아름다운 용기 정기예금’은 0.7%p 오른 연 3.0%, ‘아름다운 용기 적금’은 0.7%p 인상한 최고 연 3.7%로 각각 변경된다.Sh수협은행은 이달 4일부터 주요 예금 상품의 기본금리를 최대 0.3%p 올렸다. 최대 연 3.1% 금리를 받을 수 있는 ‘Sh플러스알파예금’과 최대 연 3.2% 금리를 받을 수 있는 ‘Sh플러스알파적금’ 상품도 출시했다. NH농협은행도 금리 연 3%대인 정기예금을 출시할 계획이다.특히 인터넷전문은행이 금리 차별화 경쟁을 주도하고 있다는 평가도 나온다.기업공개(IPO)를 앞둔 케이뱅크는 최근 공격적인 ‘손님 잡기’ 행보를 보이고 있다. 이달 들어 ‘주거래우대 자유적금’의 금리를 기간 별로 최대 연 0.60%p 인상했고, 8일 ‘코드K정기예금’의 가입기간 100일에 한정해 우대금리 연 1.2%를 제공해 최고 연 3% 금리를 제공하는 이벤트에도 나섰다.지난달에는 ‘코드K 자유적금’ 연 5%(3년) 금리 적용 이벤트를 두 차례 진행했는데 1차에서 이틀 만에 10만좌를 달성했고, 지난달 17일 앵콜 이벤트에서 10일 만에 10만좌가 추가로 완판됐다. 케이뱅크 ‘주거래우대 자유적금’ 1년 만기 최고 금리는 연 2.7%에서 연 3.2%로 올랐다. ‘코드K 자유적금’ 금리는 가입기간 1년은 연 2.90%다.카카오뱅크는 지난달 21일부터 예적금 기본 금리를 최대 0.40%p 올렸다. 만기 6개월짜리 ‘26주적금’ 금리는 연 3%, ‘3년 만기 자유적금’은 연 3.4%, ‘3년 만기 정기 예금’ 금리는 연 3%가 됐다.토스뱅크가 지난달 출시한 금리 연 3%의 ‘키워봐요 적금’은 출시 3일 만에 10만좌를 돌파했다. 토스뱅크가 지난해 10월 출범과 동시에 내놓은 파킹통장(수시입출금통장) ‘토스뱅크통장’은 인기몰이를 했다. 기존 시중은행 수시입출금식 예금통장의 금리가 연 0.1%에 불과했는데, 이 상품은 최대 1억원까지 연 2% 금리를 제공한다. 이후 다른 인터넷은행과 저축은행 등 업계 후발주자들도 앞다퉈 특별 상품을 출시했다.인터넷은행과 저축은행들이 수신 금리 인상에 나서고 과도한 예대마진(이자수익)을 자제하라는 금융 당국의 압박이 가해지면서, 시중은행들이 수신금리를 올리고 우대금리 문턱을 낮추기 시작했다는 평가가 나온다. 금리 인상기 속 ‘예대금리 차 공시’가 확대 시행돼 은행별 금리 인하 경쟁이 본격화할 것이라는 게 업계 전망이다.금융당국은 지난 6일 예금과 대출의 금리 차 공시를 확대하겠다는 대통령 공약을 구체화한 개선안을 발표했다. 소비자들이 전체 은행의 예대금리차를 한눈에 비교할 수 있게, 은행연합회 홈페이지에 공시한다. 소비자가 은행 자체 등급이 아닌, 자신의 신용점수에 맞는 대출 금리를 확인할 수 있게 된다. 공시 주기도 기존 석 달에서 한 달로 짧아진다.이와 함께 IT회사나 핀테크 업체들이 시중 예금 상품을 묶어서 소비자들에게 정보를 제공할 수 있도록 ‘온라인 예금상품 중개업’도 시범 운영된다. 금융위는 온라인 예금상품 중개업을 혁신금융서비스로 지정하는 방안을 검토키로 했다.한 핀테크업체 관계자는 “수신상품 금리 비교 서비스를 민간이 할 수 있게 되면, 은행과 수요자(고객)의 정보 비대칭성이 완화할 수 있고, 은행 간 금리 경쟁을 유도하는 효과가 나타날 것”이라면서 “예대 금리 차 공시와 함께 은행업종의 건강한 경쟁을 유도하는 규제 완화가 함께 이뤄져야 한다”고 말했다.다만 통상 예금 금리가 올라가면 한 달 정도 시차를 두고 대출 금리 역시 상승한다. 예금 등 조달 금리에 가산 금리를 더해 대출 이자가 산정되기 때문이다. 시중은행 관계자는 “예·적금 금리가 오르면 은행들의 자금조달비용도 늘어 다시 대출금리를 밀어올린다”면서 “대출을 보유한 차주 부담은 더 커질 수 있다”고 말했다.오는 13일 한국은행이 기준금리를 인상할 가능성이 점쳐진다. 우리나라 기준금리는 지난해 7월까지 0.5%를 유지했고 ▲작년 8월 0.75% ▲작년 11월 1% ▲올해 1월 1.25% ▲4월 1.5% ▲5월 1.75%까지 올랐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.07.01.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>빅테크, 금융지주사 같은 규제 가능할까…카카오 뿐</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011280132?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>기사내용 요약금리 인상 기조·경기 변동성 커진 상황금융당국 "리스크 관리 시급하다" 판단동일 기능·동일 리스크·동일 규제 원칙현 금융복합기업집단법 등으로는 한계"법률·의료·세무 등과의 형평성도 고려"[서울=뉴시스] 박은비 기자 = 금융당국이 빅테크(대형기술기업)에 대해 '동일 기능, 동일 리스크, 동일 규제' 원칙을 염두에 둔 가운데 은행을 보유한 카카오, 토스(비바리퍼블리카)도 금융지주에 준하는 규율 체계가 필요하다고 보고 있다. 다만 현행 법체계로는 한계가 있어 입법 논의가 필요하다는 시각이다.1일 금융권에 따르면 금융당국은 인터넷전문은행의 중·저신용대출 확대에 따른 건전성 문제가 불거지지 않을지 예의주시하고 있다.이준수 금융감독원 은행담당 부원장보는 전날 '디지털 금융에 대한 규제 원칙과 빅테크 금융규제 방안 구상 세미나'에서 "경기 사이클이 워낙 안 좋아지는 쪽으로 가다 보니까 디폴트 가능성이 커지고 그럼 건전성 문제가 생길 수 있어서 균형 있는 시각에서 볼 필요가 있다"며 "(인터넷은행의) 대안신용평가모형은 과연 검증됐는지가 문제"라고 주장했다.이 부원장보는 "중저신용대출뿐 아니라 은행 전반적으로 보면 경험부도율이 너무 낮게 나와서 충당금도 줄었다"며 "그게 최근 몇 년간 코로나19에 대응하고 풍부한 유동성 공급 과정에서 부도율이 과소 평가됐을 가능성이 있다. 전 세계적 금리 인상 기조를 생각할 때 데이터가 믿을만한지 모르겠다"고 지적했다.그러면서 "대안신용평가모형이 검증되려면 한 경기 사이클은 거치면서 사실 테스트가 돼야 한다"며 "그게 안 돼서 아직까지 인터넷은행 등 연체율 수준이 크게 튀어 보이지 않지만 앞으로 주목할 부분이 아니겠나 생각한다"고 강조했다.이같은 문제의식에서 출발해 당국은 현행 법체계에서 빅테크 리스크를 관리하려면 어떤 규율 체계에 대입할지 고심하고 있다. 먼저 빅테크가 은행업에 진출했을 때는 인터넷전문은행법에 따라 지분 소유 규제, 대주주 이상거래 차단 등 제한을 받는다.문제는 비은행업 진출이다. 금융지주사였으면 금융지주회사법 감독체계에 따라 연결기준으로 살필 수 있지만 빅테크는 그렇지 않다. 금융지주가 되려면 금융자회사 의무보유지분율(비상장사)이 50% 이상이라야 하는데 카카오, 토스에 적용되지 않는다.또 금융복합기업집단법이 있긴 하지만 영위하는 업종 2개 이상, 자산총액 합계가5조원 이상 등 요건을 충족해야 금융복합기업집단으로 지정된다. 여기에 해당하는 건 카카오 정도다. 나머지는 규모가 작아서 5조원에 못미친다.이 부원장보는 "호주의 경우 인터넷은행 4개 중 2개가 망했고, 하나는 기존은행에 흡수되고 하나만 개인사업자대출을 하는 은행"이라며 "홍콩, 싱가폴은 인허가할 때 시장에서 열심히 경쟁하다가 망할 수 있어 엑시트플랜(Exit plan)을 만들게 했다"고 설명했다.그는 또 "우리나라 인터넷은행들이 잘 적응하고 있고 카카오뱅크는 국제성공사례이긴 한데 (앞선 해외 사례와 같이) 그런 고려도 필요한 게 아닌가 생각해봤다"고 덧붙였다.김연준 금융위원회 은행과장도 같은 자리에서 "빅테크에 대해 규제 이슈 중 가장 중요하고 고민을 많이 할 수 밖에 없는 이슈"라고 밝혔다. 김 과장은 "전세계적으로 규제당국이 활발하게 고민하는 주제인 것 같고, 그런 측면에서 저희도 세계적인 논의 동향을 긴밀히 지켜보는 상황"이라며 "내부적인 검토도 지금 박차를 가하고 있다"고 했다. 국회에 상정된 유사 법안 논의도 주목하고 있다.빅테크가 금융산업에만 진출하는 게 아니기 때문에 금융만의 특성으로 이해해야 하는지 과제도 남는다. 정준혁 서울대 법학전문대학원 교수는 "빅테크가 거의 모든 분야에 진출하고 있고 특히나 인허가 제도들이 있는 산업들의 경우 여러 논란이 발생할 수 있다"며 "대표적으로 법률이나 의료, 세무, 부동산 중개와 같은 전문 서비스 영역과 어떻게 다른지 다른 법제도가 필요한지 검토가 필요하다"고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.07.09.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>토스뱅크, 카드업계 반발로 ‘카드론 갈아타기’ 중단…대환대출 플랫폼으로 확전 초읽기</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003285860?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표장기카드대출(카드론)을 저금리 은행 신용대출로 갈아타는 서비스를 제공했던 토스뱅크가 한 달여만에 해당 서비스를 잠정 중단했다. 표면적으로는 서비스 기능을 고도화하기 위해서라지만 카드업계의 거센 반발이 크게 작용한 것으로 보인다. 이번 사태는 카드론에 국한된 것이었지만 정치권에서 비대면 대환대출 플랫폼 사업을 추진하기로 하면서 기존 은행과 카드사 등 전통 금융과 토스뱅크 등 신흥 핀테크 간 갈등이 확전될 가능성도 배제하기 어렵게 됐다.8일 금융업계에 따르면 토스뱅크는 지난 5월 말부터 중·저신용자 대출을 확대하기 위해 카드론을 자사 신용대출로 갈아탈 수 있는 서비스를 시범 출시했으나 한 달여만에 잠정 중단했다. 토스뱅크 관계자는 “서비스 개선과 시스템 고도화를 위해 잠정 중단하게 됐다”고 밝혔으나 재개 시기 등에 대해선 말을 아꼈다.삼성카드 카드론에 대해서만 대환대출 시범 서비스를 제공해오던 토스뱅크는 이달부터 대상 카드사를 늘릴 계획이었다. 그러나 카드사들은 토스뱅크가 서비스 제공 과정에서 보안상 취약할 수 있는 ‘웹 스크래핑’ 방식을 사용한 것이 문제라고 지적하고 나섰다.한 업계 관계자는 “토스뱅크의 경우 마이데이터 사업자인 토스가 표준 API를 이용하는 것과는 달리 스크래핑 방식을 사용하고 있는데 이는 보안상 취약할 뿐 아니라 고객들로부터 포괄적인 정보를 수집하게 된다”면서 “추후 (정보 유출 등) 문제가 발생하면 원래 정보를 갖고 있던 카드사에까지 책임론이 번질 수 있다”고 했다.이복현 금융감독원장(왼쪽)이 5일 오전 서울 중구 여신금융협회에서 열린 여신전문금융사 최고경영자 간담회에서 발언하고 있다. 이날 이 금감원장은 카드사와 캐피탈사에 금융 소비자를 위해 금리인하요구권 제도를 활성화해 고객의 금리 부담을 줄여야 한다고 강조했다. 연합뉴스그러다 이보다는 고객 이탈로 인한 수익률 저하를 우려한 카드업계가 거세게 반발하면서 부담을 느낀 토스뱅크가 사업을 중단할 수밖에 없었다는 것이 업계 내 중론이다. 스크래핑 방식 자체는 법에 저촉되는 게 아니라서 기존 금융권에서도 사용해왔기 때문이다. 카드업계는 지난해 법정최고금리가 24%에서 20%로 인하된 데 이어 가맹점 수수료까지 인하되면서 수익 창출에 어려움을 겪고 있다. 사정이 이렇다보니 카드사 최고경영자(CEO)들은 지난 5일 이복현 금융감독원장과의 간담회 자리에서도 토스뱅크의 카드론 대환대출에 대한 우려를 직접적으로 전달한 것으로 알려졌다.토스뱅크가 결국 사업을 잠정 중단하며 이번 사태는 일단락됐지만 최근 정치권에서 비대면 대환대출 플랫폼 사업 이야기가 다시 나오면서 은행과 핀테크 간 갈등이 우려되는 상황이다. 지난 5일 성일종 국민의힘 정책위원장은 국회에서 열린 원내대책회의에서 “금융당국이 금융소비자, 즉 국민들의 편익을 위해 기존 대출기관 방문 없이 신규 대출기관에서 원스톱으로 대환대출을 실행하는 대환대출 플랫폼 사업을 신속하게 추진해줄 것을 요청한다”고 밝히기도 했다.비대면 대환대출 플랫폼이란 모바일 앱에 접속해 은행 등 여러 대출 상품을 비교한 뒤 낮은 금리의 대출 상품으로 갈아탈 수 있도록 하는 플랫폼을 의미한다. 금융결제원 망에 핀테크가 운영 중인 대출금리 비교 서비스를 연동하면 기존에 많은 서류를 갖고 창구를 방문해야 했던 불편이 크게 해소될 수 있다.코로나19 확산 이후 저금리의 영향으로 급증했던 가계대출이 지난해 12월부터 지난달까지 넉 달 연속 감소했다. 사진은 서울의 한 은행 창구의 모습. 연합뉴스금융위원회는 지난해 해당 플랫폼을 도입하려 했으나 결과적으로 은행권이 반발하면서 무산된 바 있다. 은행들은 대환대출 건당 수수료가 발생하게 되는데 이 때문에 이미 대출비교 서비스를 하고 있는 플랫폼 사에 대한 종속 현상이 심화될 것을 우려했다. 플랫폼 사가 자리를 잡게 되면 은행은 단순히 상품을 공급하는 제조업자로 전락할 수밖에 없는데 이렇게 되면 향후 플랫폼사와의 수수료율 협상력이 저하되고, 이는 곧 은행의 수익성이 악화로 이어진다는 것이다. 결과적으로는 소비자의 선택권이 침해되는 등의 부정적인 영향이 나타날 수 있다고도 했다.은행권과 빅테크의 갈등은 벌써 조짐이 드러나고 있는 상황이다. 지난 6일 더불어민주당이 금유위와 금융협회·핀테크산업협회를 불러 대환대출 플랫폼 구축 방안을 논의하는 자리를 마련했는데, 간담회에서 금융권은 빅테크 종속 우려로 재차 반대 의사를 표한 반면, 핀테크 업계는 대출 이자 경감 등 금융소비자가 큰 혜택을 볼 수 있다는 취지로 의견을 낸 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.07.12.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>“年 7% 적금” 새벽 긴 줄… ‘1개월 1계좌’만 허용에 발돌려[인사이드&amp;인사이트]</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003439358?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>금리상승기 ‘예테크’ 바람증시 급락에 예금 상품 인기계좌 개설 규제에 발목해외선 포트폴리오 서비스송혜미 경제부 기자《2년 전 주식 투자에 뛰어든 직장인 박모 씨(32)는 올해 5월 보유하고 있던 국내 주식을 모두 팔아치웠다. 올 들어 증시가 급락하며 수익률이 ―27%까지 곤두박질치자 ‘손절’을 택한 것이다. 박 씨는 주식을 팔아 손에 쥔 5000만 원을 연 2%의 이자를 주는 토스뱅크 파킹통장에 넣어두고 고금리 예·적금 상품이 나올 때마다 가입하고 있다. 파킹통장은 일반 통장보다 금리가 높으면서도 수시 입출금이 가능해 목돈을 잠시 묻어두려는 투자자들에게 인기가 높다. 박 씨는 “주식창을 들여다보는 대신 새로 나온 고금리 특판 상품을 찾는 재미가 쏠쏠하다”고 했다.글로벌 긴축 움직임에 은행권 수신금리가 잇달아 오르면서 예·적금 상품으로 재테크를 하는 이른바 ‘예테크(예금+재테크)족’이 크게 늘고 있다. 은행들이 경쟁적으로 내놓는 고금리 특판 예·적금 상품은 속속 완판 행렬을 이어가고 있고 주식시장에 몰렸던 뭉칫돈이 은행으로 옮겨가는 ‘역(逆) 머니무브’도 가속화하고 있다.하지만 ‘1개월 1계좌 규제’ 등 금융 규제가 예테크족의 확산을 가로막고 있다는 지적도 나온다. 예테크족의 자산관리를 돕는 혁신적인 금융 서비스가 나올 수 있도록 제도 정비가 필요하다는 목소리가 높아지고 있다.》    ○ 금리 인상기 뜨는 ‘예테크족’ 11일 은행연합회에 따르면 이날 현재 KB국민, 신한, 하나, 우리, NH농협 등 5대 시중은행의 1년 만기 예금 상품의 최고 금리는 평균 연 2.51%로 집계됐다. 특히 2013년 이후 자취를 감췄던 연 3%대 금리를 주는 예금 상품이 지난달부터 속속 등장하고 있다. 79개 저축은행의 12개월 만기 정기예금 평균 금리도 지난달 20일 연 3%대를 넘어선 데 이어 11일 3.14%까지 올랐다. 선착순으로 판매하는 특판 상품 금리도 연일 고공행진 중이다. 농협은행은 11일 비대면 전용 정기예금을 내놓고 최대 연 3.3%의 금리를 주는 특판 이벤트를 시작했다. 지난달 연 최고 5%짜리 적금을 출시해 완판 행렬을 이어간 케이뱅크는 100일간 조건 없이 연 3% 금리를 주는 특판 예금을 선보였다.   목돈을 잠깐만 맡겨놔도 이자를 주는 파킹통장 역시 연 3%대를 웃돌며 웬만한 예금보다 쏠쏠한 이자를 제공한다. OK저축은행(연 3.2%), 웰컴저축은행(연 3%) 등 저축은행들은 앞다퉈 파킹통장 최고 금리를 올리고 있다.  ‘제로 금리’에 가까웠던 예·적금 금리가 치솟고 있는 것은 미국 연방준비제도(Fed·연준)의 금리 인상 여파로 시장금리가 뛰고 있기 때문이다. 이에 더해 최근 정부와 정치권이 은행권의 ‘이자 장사’를 연일 겨냥한 것도 영향을 미쳤다. 은행권이 당정의 압박에 경쟁적으로 예금 금리를 올리고 저축은행 등 제2금융권도 자금 이탈을 막기 위해 덩달아 수신 금리를 높이는 연쇄 작용이 나타나고 있는 것이다. 여기에다 증시가 본격적인 조정 국면에 접어들면서 최근 2년간 ‘빚투’(빚내서 투자) 열풍을 타고 주식시장으로 향했던 투자금이 예·적금 상품으로 빠르게 돌아오고 있다. 지난달 말 5대 시중은행의 예·적금 잔액은 772조5603억 원으로 한 달 전보다 6조238억 원 늘었다. 지난해 12월 말과 비교하면 6개월 새 32조5236억 원 급증한 규모다. 재테크 지형이 공격적인 빚투에서 안전자산 선호로 바뀌면서 고금리 예·적금 특판 시간에 맞춰 영업점 앞에서 대기하는 이른바 ‘예·적금 오픈런’도 잇따르고 있다. 이모 씨(29)는 연 7% 금리를 주는 경기 안양시 동안새마을금고의 특판 적금에 가입하기 위해 7일 오전 7시부터 지점 앞에 줄을 섰다. 이 씨는 “하루 20명 선착순으로 가입할 수 있어 오픈 2시간 전부터 기다렸다. 6시부터 줄 선 사람도 있어 대기표 9번을 받았다”고 했다. ○ ‘1개월 1계좌’ 규제에 가로막힌 예테크 금리 인상기를 맞아 고금리 예·적금을 골라 투자 포트폴리오를 짜는 예테크가 부상하고 있지만 제도적인 장벽이 여전하다는 지적이 나온다. 장모 씨(30)는 지난달 최고 연 3.51% 금리를 주는 상상인저축은행의 특판 정기예금에 가입하려다 실패했다. 3주 전 연 5%짜리 특판 적금에 들기 위해 케이뱅크에서 계좌를 만든 탓에 신규 계좌 추가 개설이 막혔기 때문이다. 당국은 전체 금융사를 통틀어 20영업일(약 1개월) 이내에 1개 계좌만 새로 만들 수 있도록 규제하고 있다. 이른바 ‘1개월 1계좌 규제’로, 대포통장을 이용한 금융사기를 막으려는 취지로 2009년 도입됐다. 다만 영업점을 직접 방문해 금융거래 목적 확인서를 작성하면 1개월 내 2개 이상의 계좌를 만들 수 있도록 예외를 뒀다.  하지만 은행에 따라 확인서를 제출해도 계좌 개설이 안 되는 곳이 있는 데다 비대면 계좌에는 예외 규정이 적용되지 않는다. 영업점이 없는 인터넷전문은행 계좌가 필요한 고객이나 은행 방문이 어려운 직장인들은 1개월 내 여러 개 계좌를 개설하는 게 사실상 불가능한 셈이다. 이 같은 소비자 불편을 고려해 당국은 비대면으로 금융거래 목적을 확인할 수 있도록 하는 등 규제 완화를 검토했지만 결국 무산됐다. 또 그동안 대출, 보험 상품은 토스, 카카오페이 등 온라인 비교 플랫폼이 활성화됐지만 예금 상품은 관련 규정이 없어 비교 서비스가 등장하지 못했다. 이에 따라 금융당국은 예금 상품 중개업을 ‘혁신금융 서비스’(규제 샌드박스)로 지정해 시범 운영하기로 했다.  이렇게 되면 대출 비교 플랫폼처럼 여러 은행의 예·적금 상품을 한데 모아 비교할 수 있는 플랫폼이 등장할 수 있다. 현재 다수 플랫폼 업체가 예금 상품 중개업에 관심을 보이고 있어 이르면 3분기(7∼9월)에는 예금 비교 플랫폼이 나올 것으로 보인다. 성과에 따라 법 개정을 통해 정식으로 예금 비교 서비스가 제도화될 가능성도 있다.○ 해외에선 예금 포트폴리오 짜서 자동 가입 다만 예·적금 상품을 단순 비교해주는 플랫폼만으로는 예테크족의 자산관리를 돕기에 충분하지 않다는 시각도 있다. 해외에서는 예·적금 상품만으로도 최대한의 수익을 낼 수 있도록 포트폴리오를 짜주는 서비스까지 나오고 있기 때문이다. 미국의 로보어드바이저 회사 ‘베터먼트’가 제공하는 ‘캐시 리저브(Cash Reserve)’가 대표적이다. 제휴 은행의 예금 상품으로 자산관리를 해주는 서비스다. 고객을 대신해 제휴 은행에 고객 명의의 계좌를 만들고 실제 돈을 예치하는 것까지 가능하다. 예를 들어 고객이 캐시 리저브에 5000만 원을 넣으면 여러 은행의 다양한 고금리 예금 상품에 자동으로 가입되는 식이다. 미 로보어드바이저 업체인 웰스프런트도 비슷한 서비스를 하고 있다. 이성복 자본시장연구원 선임연구위원은 “국내는 여전히 예금을 선호하는 금융소비자들이 많은데 해외와 달리 자산관리 혜택을 받지 못하고 있다”며 “안전자산을 선호하는 금융소비자도 혁신적인 금융서비스로 수익을 극대화할 수 있도록 제도적인 뒷받침이 돼야 한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.07.07.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>타다 넥스트, 드라이버 만족도는?…설문조사 공개</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005261948?sid=105</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>드라이버 92% 이상 “동료 기사에게 추천하고 싶다”[이데일리 김현아 기자] 기사와 차량을 함께 빌려주는 렌터카 기반의 타다베이직. 택시 업계와 갈등으로 타다금지법이 종료시켰다. 하지만, 이후 출시된 타다 넥스트는 택시 드라이버들에게 만족을 주고 있는 것으로 나타났다. 타다 넥스트가 뭔데?타다 넥스트는 VCNC가 타다베이직 종료 이후 내놓은 승합차 기반 고급 모빌리티 서비스다. 택시 호출 중개 모델인 타다 넥스트는 7~9인승의 승합차를 기반으로 최소 5년 이상 무사고 경력의 고급택시 면허를 보유한 드라이버가 운행한다. VCNC 택시운송가맹사업 자회사 ‘편안한이동’에서 드라이버들을 채용한다. 운영회사인 VCNC의 최대주주는 토스를 운영하는 비바리퍼블리카다. 드라이버 92% 이상 “동료 기사에게 추천하고 싶다”7일 타다 넥스트 운영사인 VCNC에 따르면 타다 넥스트를 운행하는 드라이버 200여 명을 대상으로 설문 조사를 해보니, 92% 이상의 드라이버가 ‘동료 기사에게 타다 넥스트를 추천할 의향이 있다’고 답했다. 타다는 타다 넥스트 드라이버를 대상으로 매달 자체 설문 조사를 통해 운행 만족도를 비롯해 현장에서 겪는 어려움을 듣고 있다.‘타다 넥스트 드라이버로서 느끼는 만족감’을 묻는 항목에 대해서는 81% 이상의 드라이버가 ‘만족한다’고 답했다. 이어 ‘타다 넥스트 드라이버를 지인 등 동료 기사에게 추천한 의향이 있냐’는 질문에 대해서는 92% 이상의 드라이버가 ‘그렇다’고 답변했다. 만족하는 요인으로는 ‘파트너(드라이버)와 소통하려는 타다의 노력’(81%)과 ‘교육 기회 제공, 차량 점검 지원, 지원금 등 다양한 혜택’(63%)이 순서대로 가장 많은 답변을 받았다.만학의 꿈 가진 드라이버 도와요VCNC는 최근 만학의 꿈을 가진 드라이버가 입학금 부담 없이 수업료의 50%만 납부하고 개설된 학과 교육을 받을 수 있도록 한양사이버대학교와 산업체 위탁교육 협약 맺은 바 있다. 개인 드라이버 차량 유지보수 지원, 서울 주요 기사식당의 무료 식권 배포, 생일 케이크 기프티콘 발급 등 드라이버를 대상으로 각종 혜택을 강화하고 있다.이정행 VCNC 대표는 “타다는 드라이버의 운행 만족감이 이용자에게 더 좋은 이동경험으로 이어지는 선순환 고리를 만들기 위해 노력하고 있다”며 “현장의 목소리를 바탕으로 실질적으로 효용이 높은 혜택들을 지속해서 강화해 나갈 계획”이라고 밝혔다.한편, 7월 내 신규가입 시, 가입일로부터 4주 동안 횟수 제한 없이 사용할 수 있는 ‘타다 넥스트 50% 할인 쿠폰(건당 최대 6천 원)’을 지급하는 이벤트를 진행한다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
